--- a/benchmarks/summary_ali.xlsx
+++ b/benchmarks/summary_ali.xlsx
@@ -285,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,10 +306,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,10 +322,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -346,26 +338,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -386,10 +366,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -398,15 +374,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -414,39 +386,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,7 +472,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -539,15 +491,15 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="15.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="17" style="5" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1021" style="6" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="17" style="4" width="11.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1021" style="5" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="8" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -562,32 +514,30 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="8"/>
-      <c r="AMG1" s="11"/>
-      <c r="AMH1" s="11"/>
-      <c r="AMI1" s="11"/>
-      <c r="AMJ1" s="11"/>
+      <c r="M1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="AMG1" s="9"/>
+      <c r="AMH1" s="9"/>
+      <c r="AMI1" s="9"/>
+      <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -596,1116 +546,984 @@
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="11" t="n">
         <f aca="false">ROUND(2*D5*D8/(D5+D8),3)</f>
         <v>0.759</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="11" t="n">
         <f aca="false">ROUND(2*E5*E8/(E5+E8),3)</f>
         <v>0.748</v>
       </c>
-      <c r="F2" s="14" t="n">
+      <c r="F2" s="12" t="n">
         <f aca="false">ROUND(2*F5*F8/(F5+F8),3)</f>
         <v>0.683</v>
       </c>
-      <c r="G2" s="13" t="n">
+      <c r="G2" s="11" t="n">
         <f aca="false">ROUND(2*G5*G8/(G5+G8),3)</f>
         <v>0.682</v>
       </c>
-      <c r="H2" s="14" t="n">
+      <c r="H2" s="12" t="n">
         <f aca="false">ROUND(2*H5*H8/(H5+H8),3)</f>
         <v>0.686</v>
       </c>
-      <c r="I2" s="13" t="n">
+      <c r="I2" s="11" t="n">
         <f aca="false">ROUND(2*I5*I8/(I5+I8),3)</f>
         <v>0.801</v>
       </c>
-      <c r="J2" s="13" t="n">
+      <c r="J2" s="11" t="e">
         <f aca="false">ROUND(2*J5*J8/(J5+J8),3)</f>
-        <v>0.819</v>
-      </c>
-      <c r="K2" s="13" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2" s="11" t="e">
         <f aca="false">ROUND(2*K5*K8/(K5+K8),3)</f>
-        <v>0.798</v>
-      </c>
-      <c r="L2" s="15" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" s="12" t="e">
         <f aca="false">ROUND(2*L5*L8/(L5+L8),3)</f>
-        <v>0.82</v>
-      </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="19" t="n">
+      <c r="D3" s="15" t="n">
         <f aca="false">ROUND(2*D6*D9/(D6+D9),3)</f>
         <v>0.955</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="15" t="n">
         <f aca="false">ROUND(2*E6*E9/(E6+E9),3)</f>
         <v>0.936</v>
       </c>
-      <c r="F3" s="21" t="n">
+      <c r="F3" s="16" t="n">
         <f aca="false">ROUND(2*F6*F9/(F6+F9),3)</f>
         <v>0.817</v>
       </c>
-      <c r="G3" s="20" t="n">
+      <c r="G3" s="15" t="n">
         <f aca="false">ROUND(2*G6*G9/(G6+G9),3)</f>
         <v>0.678</v>
       </c>
-      <c r="H3" s="21" t="n">
+      <c r="H3" s="16" t="n">
         <f aca="false">ROUND(2*H6*H9/(H6+H9),3)</f>
         <v>0.649</v>
       </c>
-      <c r="I3" s="20" t="n">
+      <c r="I3" s="15" t="n">
         <f aca="false">ROUND(2*I6*I9/(I6+I9),3)</f>
         <v>0.86</v>
       </c>
-      <c r="J3" s="20" t="n">
+      <c r="J3" s="15" t="e">
         <f aca="false">ROUND(2*J6*J9/(J6+J9),3)</f>
-        <v>0.866</v>
-      </c>
-      <c r="K3" s="20" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="15" t="e">
         <f aca="false">ROUND(2*K6*K9/(K6+K9),3)</f>
-        <v>0.893</v>
-      </c>
-      <c r="L3" s="21" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="16" t="e">
         <f aca="false">ROUND(2*L6*L9/(L6+L9),3)</f>
-        <v>0.839</v>
-      </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="18" t="n">
         <f aca="false">ROUND(2*D7*D10/(D7+D10),3)</f>
         <v>0.642</v>
       </c>
-      <c r="E4" s="23" t="n">
+      <c r="E4" s="18" t="n">
         <f aca="false">ROUND(2*E7*E10/(E7+E10),3)</f>
         <v>0.635</v>
       </c>
-      <c r="F4" s="24" t="n">
+      <c r="F4" s="19" t="n">
         <f aca="false">ROUND(2*F7*F10/(F7+F10),3)</f>
         <v>0.596</v>
       </c>
-      <c r="G4" s="23" t="n">
+      <c r="G4" s="18" t="n">
         <f aca="false">ROUND(2*G7*G10/(G7+G10),3)</f>
         <v>0.692</v>
       </c>
-      <c r="H4" s="24" t="n">
+      <c r="H4" s="19" t="n">
         <f aca="false">ROUND(2*H7*H10/(H7+H10),3)</f>
         <v>0.734</v>
       </c>
-      <c r="I4" s="23" t="n">
+      <c r="I4" s="18" t="n">
         <f aca="false">ROUND(2*I7*I10/(I7+I10),3)</f>
         <v>0.753</v>
       </c>
-      <c r="J4" s="23" t="n">
+      <c r="J4" s="18" t="e">
         <f aca="false">ROUND(2*J7*J10/(J7+J10),3)</f>
-        <v>0.779</v>
-      </c>
-      <c r="K4" s="23" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="18" t="e">
         <f aca="false">ROUND(2*K7*K10/(K7+K10),3)</f>
-        <v>0.726</v>
-      </c>
-      <c r="L4" s="25" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="19" t="e">
         <f aca="false">ROUND(2*L7*L10/(L7+L10),3)</f>
-        <v>0.805</v>
-      </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="26" t="n">
+      <c r="D5" s="20" t="n">
         <v>0.785</v>
       </c>
-      <c r="E5" s="26" t="n">
+      <c r="E5" s="20" t="n">
         <v>0.775</v>
       </c>
-      <c r="F5" s="27" t="n">
+      <c r="F5" s="21" t="n">
         <v>0.697</v>
       </c>
-      <c r="G5" s="26" t="n">
+      <c r="G5" s="20" t="n">
         <v>0.711</v>
       </c>
-      <c r="H5" s="27" t="n">
+      <c r="H5" s="21" t="n">
         <v>0.709</v>
       </c>
-      <c r="I5" s="26" t="n">
+      <c r="I5" s="20" t="n">
         <v>0.782</v>
       </c>
-      <c r="J5" s="28" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="K5" s="26" t="n">
-        <v>0.782</v>
-      </c>
-      <c r="L5" s="27" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="30" t="n">
+      <c r="D6" s="13" t="n">
         <v>0.957</v>
       </c>
-      <c r="E6" s="29" t="n">
+      <c r="E6" s="13" t="n">
         <v>0.937</v>
       </c>
-      <c r="F6" s="31" t="n">
+      <c r="F6" s="24" t="n">
         <v>0.827</v>
       </c>
-      <c r="G6" s="29" t="n">
+      <c r="G6" s="13" t="n">
         <v>0.703</v>
       </c>
-      <c r="H6" s="31" t="n">
+      <c r="H6" s="24" t="n">
         <v>0.672</v>
       </c>
-      <c r="I6" s="29" t="n">
+      <c r="I6" s="13" t="n">
         <v>0.858</v>
       </c>
-      <c r="J6" s="29" t="n">
-        <v>0.861</v>
-      </c>
-      <c r="K6" s="29" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="L6" s="31" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="M6" s="29"/>
-      <c r="P6" s="29"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="13"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="32" t="n">
+      <c r="D7" s="27" t="n">
         <v>0.665</v>
       </c>
-      <c r="E7" s="32" t="n">
+      <c r="E7" s="27" t="n">
         <v>0.66</v>
       </c>
-      <c r="F7" s="33" t="n">
+      <c r="F7" s="28" t="n">
         <v>0.603</v>
       </c>
-      <c r="G7" s="32" t="n">
+      <c r="G7" s="27" t="n">
         <v>0.72</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="28" t="n">
         <v>0.751</v>
       </c>
-      <c r="I7" s="32" t="n">
+      <c r="I7" s="27" t="n">
         <v>0.718</v>
       </c>
-      <c r="J7" s="32" t="n">
-        <v>0.758</v>
-      </c>
-      <c r="K7" s="32" t="n">
-        <v>0.693</v>
-      </c>
-      <c r="L7" s="34" t="n">
-        <v>0.782</v>
-      </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="26" t="n">
+      <c r="D8" s="20" t="n">
         <v>0.735</v>
       </c>
-      <c r="E8" s="26" t="n">
+      <c r="E8" s="20" t="n">
         <v>0.723</v>
       </c>
-      <c r="F8" s="27" t="n">
+      <c r="F8" s="21" t="n">
         <v>0.67</v>
       </c>
-      <c r="G8" s="26" t="n">
+      <c r="G8" s="20" t="n">
         <v>0.655</v>
       </c>
-      <c r="H8" s="27" t="n">
+      <c r="H8" s="21" t="n">
         <v>0.664</v>
       </c>
-      <c r="I8" s="26" t="n">
+      <c r="I8" s="20" t="n">
         <v>0.82</v>
       </c>
-      <c r="J8" s="26" t="n">
-        <v>0.832</v>
-      </c>
-      <c r="K8" s="26" t="n">
-        <v>0.815</v>
-      </c>
-      <c r="L8" s="35" t="n">
-        <v>0.836</v>
-      </c>
-      <c r="M8" s="29"/>
-      <c r="P8" s="29"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="13"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="30" t="n">
+      <c r="D9" s="13" t="n">
         <v>0.954</v>
       </c>
-      <c r="E9" s="29" t="n">
+      <c r="E9" s="13" t="n">
         <v>0.936</v>
       </c>
-      <c r="F9" s="31" t="n">
+      <c r="F9" s="24" t="n">
         <v>0.807</v>
       </c>
-      <c r="G9" s="29" t="n">
+      <c r="G9" s="13" t="n">
         <v>0.654</v>
       </c>
-      <c r="H9" s="31" t="n">
+      <c r="H9" s="24" t="n">
         <v>0.627</v>
       </c>
-      <c r="I9" s="29" t="n">
+      <c r="I9" s="13" t="n">
         <v>0.862</v>
       </c>
-      <c r="J9" s="29" t="n">
-        <v>0.872</v>
-      </c>
-      <c r="K9" s="29" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="L9" s="31" t="n">
-        <v>0.849</v>
-      </c>
-      <c r="M9" s="29"/>
-      <c r="P9" s="29"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="13"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="32" t="n">
+      <c r="D10" s="27" t="n">
         <v>0.62</v>
       </c>
-      <c r="E10" s="32" t="n">
+      <c r="E10" s="27" t="n">
         <v>0.611</v>
       </c>
-      <c r="F10" s="33" t="n">
+      <c r="F10" s="28" t="n">
         <v>0.589</v>
       </c>
-      <c r="G10" s="32" t="n">
+      <c r="G10" s="27" t="n">
         <v>0.666</v>
       </c>
-      <c r="H10" s="33" t="n">
+      <c r="H10" s="28" t="n">
         <v>0.717</v>
       </c>
-      <c r="I10" s="32" t="n">
+      <c r="I10" s="27" t="n">
         <v>0.791</v>
       </c>
-      <c r="J10" s="32" t="n">
-        <v>0.801</v>
-      </c>
-      <c r="K10" s="32" t="n">
-        <v>0.763</v>
-      </c>
-      <c r="L10" s="34" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="M10" s="29"/>
-      <c r="P10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="13"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="36" t="n">
+      <c r="D11" s="3" t="n">
         <v>1093.4</v>
       </c>
-      <c r="E11" s="36" t="n">
+      <c r="E11" s="3" t="n">
         <v>7.9</v>
       </c>
-      <c r="F11" s="36" t="n">
+      <c r="F11" s="3" t="n">
         <v>495.5</v>
       </c>
-      <c r="G11" s="36" t="n">
+      <c r="G11" s="3" t="n">
         <v>115.1</v>
       </c>
-      <c r="H11" s="36" t="n">
+      <c r="H11" s="3" t="n">
         <v>114.8</v>
       </c>
-      <c r="I11" s="36" t="n">
+      <c r="I11" s="3" t="n">
         <v>53.4</v>
       </c>
-      <c r="J11" s="36" t="n">
-        <v>800.7</v>
-      </c>
-      <c r="K11" s="36" t="n">
-        <v>798.6</v>
-      </c>
-      <c r="L11" s="36" t="n">
-        <v>799</v>
-      </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="11" t="n">
         <f aca="false">ROUND(2*D15*D18/(D15+D18),3)</f>
         <v>0.776</v>
       </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="11" t="n">
         <f aca="false">ROUND(2*E15*E18/(E15+E18),3)</f>
         <v>0.762</v>
       </c>
-      <c r="F12" s="14" t="n">
+      <c r="F12" s="12" t="n">
         <f aca="false">ROUND(2*F15*F18/(F15+F18),3)</f>
         <v>0.708</v>
       </c>
-      <c r="G12" s="13" t="n">
+      <c r="G12" s="11" t="n">
         <f aca="false">ROUND(2*G15*G18/(G15+G18),3)</f>
         <v>0.721</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H12" s="12" t="n">
         <f aca="false">ROUND(2*H15*H18/(H15+H18),3)</f>
         <v>0.734</v>
       </c>
-      <c r="I12" s="13" t="n">
+      <c r="I12" s="11" t="n">
         <f aca="false">ROUND(2*I15*I18/(I15+I18),3)</f>
         <v>0.81</v>
       </c>
-      <c r="J12" s="13" t="n">
+      <c r="J12" s="11" t="e">
         <f aca="false">ROUND(2*J15*J18/(J15+J18),3)</f>
-        <v>0.83</v>
-      </c>
-      <c r="K12" s="13" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="11" t="e">
         <f aca="false">ROUND(2*K15*K18/(K15+K18),3)</f>
-        <v>0.808</v>
-      </c>
-      <c r="L12" s="15" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="12" t="e">
         <f aca="false">ROUND(2*L15*L18/(L15+L18),3)</f>
-        <v>0.832</v>
-      </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="C13" s="18" t="s">
+      <c r="A13" s="6"/>
+      <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="19" t="n">
+      <c r="D13" s="15" t="n">
         <f aca="false">ROUND(2*D16*D19/(D16+D19),3)</f>
         <v>0.962</v>
       </c>
-      <c r="E13" s="20" t="n">
+      <c r="E13" s="15" t="n">
         <f aca="false">ROUND(2*E16*E19/(E16+E19),3)</f>
         <v>0.945</v>
       </c>
-      <c r="F13" s="21" t="n">
+      <c r="F13" s="16" t="n">
         <f aca="false">ROUND(2*F16*F19/(F16+F19),3)</f>
         <v>0.873</v>
       </c>
-      <c r="G13" s="20" t="n">
+      <c r="G13" s="15" t="n">
         <f aca="false">ROUND(2*G16*G19/(G16+G19),3)</f>
         <v>0.72</v>
       </c>
-      <c r="H13" s="21" t="n">
+      <c r="H13" s="16" t="n">
         <f aca="false">ROUND(2*H16*H19/(H16+H19),3)</f>
         <v>0.703</v>
       </c>
-      <c r="I13" s="20" t="n">
+      <c r="I13" s="15" t="n">
         <f aca="false">ROUND(2*I16*I19/(I16+I19),3)</f>
         <v>0.867</v>
       </c>
-      <c r="J13" s="20" t="n">
+      <c r="J13" s="15" t="e">
         <f aca="false">ROUND(2*J16*J19/(J16+J19),3)</f>
-        <v>0.873</v>
-      </c>
-      <c r="K13" s="20" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="15" t="e">
         <f aca="false">ROUND(2*K16*K19/(K16+K19),3)</f>
-        <v>0.899</v>
-      </c>
-      <c r="L13" s="21" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="16" t="e">
         <f aca="false">ROUND(2*L16*L19/(L16+L19),3)</f>
-        <v>0.845</v>
-      </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="C14" s="22" t="s">
+      <c r="A14" s="6"/>
+      <c r="C14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="23" t="n">
+      <c r="D14" s="18" t="n">
         <f aca="false">ROUND(2*D17*D20/(D17+D20),3)</f>
         <v>0.663</v>
       </c>
-      <c r="E14" s="23" t="n">
+      <c r="E14" s="18" t="n">
         <f aca="false">ROUND(2*E17*E20/(E17+E20),3)</f>
         <v>0.651</v>
       </c>
-      <c r="F14" s="24" t="n">
+      <c r="F14" s="19" t="n">
         <f aca="false">ROUND(2*F17*F20/(F17+F20),3)</f>
         <v>0.6</v>
       </c>
-      <c r="G14" s="23" t="n">
+      <c r="G14" s="18" t="n">
         <f aca="false">ROUND(2*G17*G20/(G17+G20),3)</f>
         <v>0.729</v>
       </c>
-      <c r="H14" s="24" t="n">
+      <c r="H14" s="19" t="n">
         <f aca="false">ROUND(2*H17*H20/(H17+H20),3)</f>
         <v>0.774</v>
       </c>
-      <c r="I14" s="23" t="n">
+      <c r="I14" s="18" t="n">
         <f aca="false">ROUND(2*I17*I20/(I17+I20),3)</f>
         <v>0.764</v>
       </c>
-      <c r="J14" s="23" t="n">
+      <c r="J14" s="18" t="e">
         <f aca="false">ROUND(2*J17*J20/(J17+J20),3)</f>
-        <v>0.794</v>
-      </c>
-      <c r="K14" s="23" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="18" t="e">
         <f aca="false">ROUND(2*K17*K20/(K17+K20),3)</f>
-        <v>0.738</v>
-      </c>
-      <c r="L14" s="25" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="19" t="e">
         <f aca="false">ROUND(2*L17*L20/(L17+L20),3)</f>
-        <v>0.82</v>
-      </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="26" t="n">
+      <c r="D15" s="20" t="n">
         <v>0.798</v>
       </c>
-      <c r="E15" s="26" t="n">
+      <c r="E15" s="20" t="n">
         <v>0.786</v>
       </c>
-      <c r="F15" s="27" t="n">
+      <c r="F15" s="21" t="n">
         <v>0.722</v>
       </c>
-      <c r="G15" s="26" t="n">
+      <c r="G15" s="20" t="n">
         <v>0.744</v>
       </c>
-      <c r="H15" s="27" t="n">
+      <c r="H15" s="21" t="n">
         <v>0.755</v>
       </c>
-      <c r="I15" s="26" t="n">
+      <c r="I15" s="20" t="n">
         <v>0.788</v>
       </c>
-      <c r="J15" s="28" t="n">
-        <v>0.813</v>
-      </c>
-      <c r="K15" s="26" t="n">
-        <v>0.788</v>
-      </c>
-      <c r="L15" s="27" t="n">
-        <v>0.812</v>
-      </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="6"/>
+      <c r="C16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="30" t="n">
+      <c r="D16" s="13" t="n">
         <v>0.961</v>
       </c>
-      <c r="E16" s="29" t="n">
+      <c r="E16" s="13" t="n">
         <v>0.942</v>
       </c>
-      <c r="F16" s="31" t="n">
+      <c r="F16" s="24" t="n">
         <v>0.892</v>
       </c>
-      <c r="G16" s="29" t="n">
+      <c r="G16" s="13" t="n">
         <v>0.741</v>
       </c>
-      <c r="H16" s="31" t="n">
+      <c r="H16" s="24" t="n">
         <v>0.73</v>
       </c>
-      <c r="I16" s="29" t="n">
+      <c r="I16" s="13" t="n">
         <v>0.863</v>
       </c>
-      <c r="J16" s="29" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="K16" s="29" t="n">
-        <v>0.902</v>
-      </c>
-      <c r="L16" s="31" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="M16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="13"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
-      <c r="C17" s="22" t="s">
+      <c r="A17" s="6"/>
+      <c r="C17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="32" t="n">
+      <c r="D17" s="27" t="n">
         <v>0.682</v>
       </c>
-      <c r="E17" s="32" t="n">
+      <c r="E17" s="27" t="n">
         <v>0.674</v>
       </c>
-      <c r="F17" s="33" t="n">
+      <c r="F17" s="28" t="n">
         <v>0.607</v>
       </c>
-      <c r="G17" s="32" t="n">
+      <c r="G17" s="27" t="n">
         <v>0.748</v>
       </c>
-      <c r="H17" s="33" t="n">
+      <c r="H17" s="28" t="n">
         <v>0.782</v>
       </c>
-      <c r="I17" s="32" t="n">
+      <c r="I17" s="27" t="n">
         <v>0.724</v>
       </c>
-      <c r="J17" s="32" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="K17" s="32" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L17" s="34" t="n">
-        <v>0.792</v>
-      </c>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="26" t="n">
+      <c r="D18" s="20" t="n">
         <v>0.756</v>
       </c>
-      <c r="E18" s="26" t="n">
+      <c r="E18" s="20" t="n">
         <v>0.74</v>
       </c>
-      <c r="F18" s="27" t="n">
+      <c r="F18" s="21" t="n">
         <v>0.695</v>
       </c>
-      <c r="G18" s="26" t="n">
+      <c r="G18" s="20" t="n">
         <v>0.7</v>
       </c>
-      <c r="H18" s="27" t="n">
+      <c r="H18" s="21" t="n">
         <v>0.715</v>
       </c>
-      <c r="I18" s="26" t="n">
+      <c r="I18" s="20" t="n">
         <v>0.834</v>
       </c>
-      <c r="J18" s="26" t="n">
-        <v>0.848</v>
-      </c>
-      <c r="K18" s="26" t="n">
-        <v>0.828</v>
-      </c>
-      <c r="L18" s="35" t="n">
-        <v>0.852</v>
-      </c>
-      <c r="M18" s="29"/>
-      <c r="P18" s="29"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="13"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7"/>
-      <c r="C19" s="18" t="s">
+      <c r="A19" s="6"/>
+      <c r="C19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="30" t="n">
+      <c r="D19" s="13" t="n">
         <v>0.964</v>
       </c>
-      <c r="E19" s="29" t="n">
+      <c r="E19" s="13" t="n">
         <v>0.948</v>
       </c>
-      <c r="F19" s="31" t="n">
+      <c r="F19" s="24" t="n">
         <v>0.854</v>
       </c>
-      <c r="G19" s="29" t="n">
+      <c r="G19" s="13" t="n">
         <v>0.701</v>
       </c>
-      <c r="H19" s="31" t="n">
+      <c r="H19" s="24" t="n">
         <v>0.677</v>
       </c>
-      <c r="I19" s="29" t="n">
+      <c r="I19" s="13" t="n">
         <v>0.871</v>
       </c>
-      <c r="J19" s="29" t="n">
-        <v>0.881</v>
-      </c>
-      <c r="K19" s="29" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="L19" s="31" t="n">
-        <v>0.858</v>
-      </c>
-      <c r="M19" s="29"/>
-      <c r="P19" s="29"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="13"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7"/>
-      <c r="C20" s="22" t="s">
+      <c r="A20" s="6"/>
+      <c r="C20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="32" t="n">
+      <c r="D20" s="27" t="n">
         <v>0.645</v>
       </c>
-      <c r="E20" s="32" t="n">
+      <c r="E20" s="27" t="n">
         <v>0.63</v>
       </c>
-      <c r="F20" s="33" t="n">
+      <c r="F20" s="28" t="n">
         <v>0.594</v>
       </c>
-      <c r="G20" s="32" t="n">
+      <c r="G20" s="27" t="n">
         <v>0.71</v>
       </c>
-      <c r="H20" s="33" t="n">
+      <c r="H20" s="28" t="n">
         <v>0.766</v>
       </c>
-      <c r="I20" s="32" t="n">
+      <c r="I20" s="27" t="n">
         <v>0.809</v>
       </c>
-      <c r="J20" s="32" t="n">
-        <v>0.822</v>
-      </c>
-      <c r="K20" s="32" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L20" s="34" t="n">
-        <v>0.851</v>
-      </c>
-      <c r="M20" s="29"/>
-      <c r="P20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="13"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="13" t="n">
+      <c r="D21" s="11" t="n">
         <f aca="false">ROUND(2*D24*D27/(D24+D27),3)</f>
         <v>0.761</v>
       </c>
-      <c r="E21" s="13" t="n">
+      <c r="E21" s="11" t="n">
         <f aca="false">ROUND(2*E24*E27/(E24+E27),3)</f>
         <v>0.734</v>
       </c>
-      <c r="F21" s="14" t="n">
+      <c r="F21" s="12" t="n">
         <f aca="false">ROUND(2*F24*F27/(F24+F27),3)</f>
         <v>0.63</v>
       </c>
-      <c r="G21" s="13" t="n">
+      <c r="G21" s="11" t="n">
         <f aca="false">ROUND(2*G24*G27/(G24+G27),3)</f>
         <v>0.82</v>
       </c>
-      <c r="H21" s="14" t="n">
+      <c r="H21" s="12" t="n">
         <f aca="false">ROUND(2*H24*H27/(H24+H27),3)</f>
         <v>0.845</v>
       </c>
-      <c r="I21" s="13" t="n">
+      <c r="I21" s="11" t="n">
         <f aca="false">ROUND(2*I24*I27/(I24+I27),3)</f>
         <v>0.888</v>
       </c>
-      <c r="J21" s="13" t="n">
+      <c r="J21" s="11" t="e">
         <f aca="false">ROUND(2*J24*J27/(J24+J27),3)</f>
-        <v>0.878</v>
-      </c>
-      <c r="K21" s="13" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="11" t="e">
         <f aca="false">ROUND(2*K24*K27/(K24+K27),3)</f>
-        <v>0.876</v>
-      </c>
-      <c r="L21" s="15" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="12" t="e">
         <f aca="false">ROUND(2*L24*L27/(L24+L27),3)</f>
-        <v>0.889</v>
-      </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
-      <c r="C22" s="18" t="s">
+      <c r="A22" s="6"/>
+      <c r="C22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="19" t="n">
+      <c r="D22" s="15" t="n">
         <f aca="false">ROUND(2*D25*D28/(D25+D28),3)</f>
         <v>0.97</v>
       </c>
-      <c r="E22" s="20" t="n">
+      <c r="E22" s="15" t="n">
         <f aca="false">ROUND(2*E25*E28/(E25+E28),3)</f>
         <v>0.952</v>
       </c>
-      <c r="F22" s="21" t="n">
+      <c r="F22" s="16" t="n">
         <f aca="false">ROUND(2*F25*F28/(F25+F28),3)</f>
         <v>0.835</v>
       </c>
-      <c r="G22" s="20" t="n">
+      <c r="G22" s="15" t="n">
         <f aca="false">ROUND(2*G25*G28/(G25+G28),3)</f>
         <v>0.836</v>
       </c>
-      <c r="H22" s="21" t="n">
+      <c r="H22" s="16" t="n">
         <f aca="false">ROUND(2*H25*H28/(H25+H28),3)</f>
         <v>0.793</v>
       </c>
-      <c r="I22" s="20" t="n">
+      <c r="I22" s="15" t="n">
         <f aca="false">ROUND(2*I25*I28/(I25+I28),3)</f>
         <v>0.91</v>
       </c>
-      <c r="J22" s="20" t="n">
+      <c r="J22" s="15" t="e">
         <f aca="false">ROUND(2*J25*J28/(J25+J28),3)</f>
-        <v>0.908</v>
-      </c>
-      <c r="K22" s="20" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="15" t="e">
         <f aca="false">ROUND(2*K25*K28/(K25+K28),3)</f>
-        <v>0.926</v>
-      </c>
-      <c r="L22" s="21" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="16" t="e">
         <f aca="false">ROUND(2*L25*L28/(L25+L28),3)</f>
-        <v>0.893</v>
-      </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7"/>
-      <c r="C23" s="22" t="s">
+      <c r="A23" s="6"/>
+      <c r="C23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="23" t="n">
+      <c r="D23" s="18" t="n">
         <f aca="false">ROUND(2*D26*D29/(D26+D29),3)</f>
         <v>0.633</v>
       </c>
-      <c r="E23" s="23" t="n">
+      <c r="E23" s="18" t="n">
         <f aca="false">ROUND(2*E26*E29/(E26+E29),3)</f>
         <v>0.605</v>
       </c>
-      <c r="F23" s="24" t="n">
+      <c r="F23" s="19" t="n">
         <f aca="false">ROUND(2*F26*F29/(F26+F29),3)</f>
         <v>0.508</v>
       </c>
-      <c r="G23" s="23" t="n">
+      <c r="G23" s="18" t="n">
         <f aca="false">ROUND(2*G26*G29/(G26+G29),3)</f>
         <v>0.808</v>
       </c>
-      <c r="H23" s="25" t="n">
+      <c r="H23" s="19" t="n">
         <f aca="false">ROUND(2*H26*H29/(H26+H29),3)</f>
         <v>0.904</v>
       </c>
-      <c r="I23" s="23" t="n">
+      <c r="I23" s="18" t="n">
         <f aca="false">ROUND(2*I26*I29/(I26+I29),3)</f>
         <v>0.866</v>
       </c>
-      <c r="J23" s="23" t="n">
+      <c r="J23" s="18" t="e">
         <f aca="false">ROUND(2*J26*J29/(J26+J29),3)</f>
-        <v>0.852</v>
-      </c>
-      <c r="K23" s="23" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="18" t="e">
         <f aca="false">ROUND(2*K26*K29/(K26+K29),3)</f>
-        <v>0.833</v>
-      </c>
-      <c r="L23" s="24" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="19" t="e">
         <f aca="false">ROUND(2*L26*L29/(L26+L29),3)</f>
-        <v>0.886</v>
-      </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="26" t="n">
+      <c r="D24" s="20" t="n">
         <v>0.75</v>
       </c>
-      <c r="E24" s="26" t="n">
+      <c r="E24" s="20" t="n">
         <v>0.723</v>
       </c>
-      <c r="F24" s="27" t="n">
+      <c r="F24" s="21" t="n">
         <v>0.632</v>
       </c>
-      <c r="G24" s="26" t="n">
+      <c r="G24" s="20" t="n">
         <v>0.814</v>
       </c>
-      <c r="H24" s="27" t="n">
+      <c r="H24" s="21" t="n">
         <v>0.84</v>
       </c>
-      <c r="I24" s="28" t="n">
+      <c r="I24" s="20" t="n">
         <v>0.893</v>
       </c>
-      <c r="J24" s="26" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="K24" s="26" t="n">
-        <v>0.884</v>
-      </c>
-      <c r="L24" s="27" t="n">
-        <v>0.892</v>
-      </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7"/>
-      <c r="C25" s="18" t="s">
+      <c r="A25" s="6"/>
+      <c r="C25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="30" t="n">
+      <c r="D25" s="13" t="n">
         <v>0.977</v>
       </c>
-      <c r="E25" s="29" t="n">
+      <c r="E25" s="13" t="n">
         <v>0.962</v>
       </c>
-      <c r="F25" s="31" t="n">
+      <c r="F25" s="24" t="n">
         <v>0.853</v>
       </c>
-      <c r="G25" s="29" t="n">
+      <c r="G25" s="13" t="n">
         <v>0.84</v>
       </c>
-      <c r="H25" s="31" t="n">
+      <c r="H25" s="24" t="n">
         <v>0.794</v>
       </c>
-      <c r="I25" s="29" t="n">
+      <c r="I25" s="13" t="n">
         <v>0.92</v>
       </c>
-      <c r="J25" s="29" t="n">
-        <v>0.919</v>
-      </c>
-      <c r="K25" s="29" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="L25" s="31" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M25" s="29"/>
-      <c r="P25" s="29"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="13"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7"/>
-      <c r="C26" s="22" t="s">
+      <c r="A26" s="6"/>
+      <c r="C26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="32" t="n">
+      <c r="D26" s="27" t="n">
         <v>0.608</v>
       </c>
-      <c r="E26" s="32" t="n">
+      <c r="E26" s="27" t="n">
         <v>0.579</v>
       </c>
-      <c r="F26" s="33" t="n">
+      <c r="F26" s="28" t="n">
         <v>0.501</v>
       </c>
-      <c r="G26" s="32" t="n">
+      <c r="G26" s="27" t="n">
         <v>0.79</v>
       </c>
-      <c r="H26" s="33" t="n">
+      <c r="H26" s="28" t="n">
         <v>0.89</v>
       </c>
-      <c r="I26" s="32" t="n">
+      <c r="I26" s="27" t="n">
         <v>0.867</v>
       </c>
-      <c r="J26" s="32" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="K26" s="32" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="L26" s="34" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="26" t="n">
+      <c r="D27" s="20" t="n">
         <v>0.772</v>
       </c>
-      <c r="E27" s="26" t="n">
+      <c r="E27" s="20" t="n">
         <v>0.745</v>
       </c>
-      <c r="F27" s="27" t="n">
+      <c r="F27" s="21" t="n">
         <v>0.629</v>
       </c>
-      <c r="G27" s="26" t="n">
+      <c r="G27" s="20" t="n">
         <v>0.827</v>
       </c>
-      <c r="H27" s="27" t="n">
+      <c r="H27" s="21" t="n">
         <v>0.85</v>
       </c>
-      <c r="I27" s="26" t="n">
+      <c r="I27" s="20" t="n">
         <v>0.883</v>
       </c>
-      <c r="J27" s="26" t="n">
-        <v>0.874</v>
-      </c>
-      <c r="K27" s="26" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="L27" s="35" t="n">
-        <v>0.886</v>
-      </c>
-      <c r="M27" s="29"/>
-      <c r="P27" s="29"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="13"/>
+      <c r="P27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="C28" s="18" t="s">
+      <c r="A28" s="6"/>
+      <c r="C28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="30" t="n">
+      <c r="D28" s="13" t="n">
         <v>0.963</v>
       </c>
-      <c r="E28" s="29" t="n">
+      <c r="E28" s="13" t="n">
         <v>0.943</v>
       </c>
-      <c r="F28" s="31" t="n">
+      <c r="F28" s="24" t="n">
         <v>0.817</v>
       </c>
-      <c r="G28" s="29" t="n">
+      <c r="G28" s="13" t="n">
         <v>0.833</v>
       </c>
-      <c r="H28" s="31" t="n">
+      <c r="H28" s="24" t="n">
         <v>0.793</v>
       </c>
-      <c r="I28" s="29" t="n">
+      <c r="I28" s="13" t="n">
         <v>0.9</v>
       </c>
-      <c r="J28" s="29" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="K28" s="29" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="L28" s="31" t="n">
-        <v>0.886</v>
-      </c>
-      <c r="M28" s="29"/>
-      <c r="P28" s="29"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="13"/>
+      <c r="P28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="C29" s="22" t="s">
+      <c r="A29" s="6"/>
+      <c r="C29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="32" t="n">
+      <c r="D29" s="27" t="n">
         <v>0.661</v>
       </c>
-      <c r="E29" s="32" t="n">
+      <c r="E29" s="27" t="n">
         <v>0.633</v>
       </c>
-      <c r="F29" s="33" t="n">
+      <c r="F29" s="28" t="n">
         <v>0.515</v>
       </c>
-      <c r="G29" s="32" t="n">
+      <c r="G29" s="27" t="n">
         <v>0.826</v>
       </c>
-      <c r="H29" s="34" t="n">
+      <c r="H29" s="28" t="n">
         <v>0.919</v>
       </c>
-      <c r="I29" s="32" t="n">
+      <c r="I29" s="27" t="n">
         <v>0.866</v>
       </c>
-      <c r="J29" s="32" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="K29" s="32" t="n">
-        <v>0.834</v>
-      </c>
-      <c r="L29" s="33" t="n">
-        <v>0.887</v>
-      </c>
-      <c r="M29" s="29"/>
-      <c r="P29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="13"/>
+      <c r="P29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -1714,774 +1532,756 @@
       <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="13" t="e">
+      <c r="D30" s="11" t="e">
         <f aca="false">ROUND(2*D33*D36/(D33+D36),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="13" t="e">
+      <c r="E30" s="11" t="e">
         <f aca="false">ROUND(2*E33*E36/(E33+E36),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="14" t="e">
+      <c r="F30" s="12" t="e">
         <f aca="false">ROUND(2*F33*F36/(F33+F36),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="13" t="e">
+      <c r="G30" s="11" t="e">
         <f aca="false">ROUND(2*G33*G36/(G33+G36),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="14" t="e">
+      <c r="H30" s="12" t="e">
         <f aca="false">ROUND(2*H33*H36/(H33+H36),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="13" t="e">
+      <c r="I30" s="11" t="e">
         <f aca="false">ROUND(2*I33*I36/(I33+I36),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="13" t="e">
+      <c r="J30" s="11" t="e">
         <f aca="false">ROUND(2*J33*J36/(J33+J36),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="13" t="e">
+      <c r="K30" s="11" t="e">
         <f aca="false">ROUND(2*K33*K36/(K33+K36),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="14" t="e">
+      <c r="L30" s="12" t="e">
         <f aca="false">ROUND(2*L33*L36/(L33+L36),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="16"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="16"/>
+      <c r="M30" s="13"/>
+      <c r="P30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="20" t="e">
+      <c r="D31" s="15" t="e">
         <f aca="false">ROUND(2*D34*D37/(D34+D37),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="20" t="e">
+      <c r="E31" s="15" t="e">
         <f aca="false">ROUND(2*E34*E37/(E34+E37),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="21" t="e">
+      <c r="F31" s="16" t="e">
         <f aca="false">ROUND(2*F34*F37/(F34+F37),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="20" t="e">
+      <c r="G31" s="15" t="e">
         <f aca="false">ROUND(2*G34*G37/(G34+G37),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="21" t="e">
+      <c r="H31" s="16" t="e">
         <f aca="false">ROUND(2*H34*H37/(H34+H37),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="20" t="e">
+      <c r="I31" s="15" t="e">
         <f aca="false">ROUND(2*I34*I37/(I34+I37),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="20" t="e">
+      <c r="J31" s="15" t="e">
         <f aca="false">ROUND(2*J34*J37/(J34+J37),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="20" t="e">
+      <c r="K31" s="15" t="e">
         <f aca="false">ROUND(2*K34*K37/(K34+K37),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="21" t="e">
+      <c r="L31" s="16" t="e">
         <f aca="false">ROUND(2*L34*L37/(L34+L37),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="16"/>
+      <c r="M31" s="13"/>
+      <c r="P31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="23" t="e">
+      <c r="D32" s="18" t="e">
         <f aca="false">ROUND(2*D35*D38/(D35+D38),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="23" t="e">
+      <c r="E32" s="18" t="e">
         <f aca="false">ROUND(2*E35*E38/(E35+E38),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="24" t="e">
+      <c r="F32" s="19" t="e">
         <f aca="false">ROUND(2*F35*F38/(F35+F38),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="23" t="e">
+      <c r="G32" s="18" t="e">
         <f aca="false">ROUND(2*G35*G38/(G35+G38),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="24" t="e">
+      <c r="H32" s="19" t="e">
         <f aca="false">ROUND(2*H35*H38/(H35+H38),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="23" t="e">
+      <c r="I32" s="18" t="e">
         <f aca="false">ROUND(2*I35*I38/(I35+I38),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="23" t="e">
+      <c r="J32" s="18" t="e">
         <f aca="false">ROUND(2*J35*J38/(J35+J38),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="23" t="e">
+      <c r="K32" s="18" t="e">
         <f aca="false">ROUND(2*K35*K38/(K35+K38),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32" s="24" t="e">
+      <c r="L32" s="19" t="e">
         <f aca="false">ROUND(2*L35*L38/(L35+L38),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" s="16"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="16"/>
+      <c r="M32" s="13"/>
+      <c r="P32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="29"/>
-      <c r="P34" s="29"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="13"/>
+      <c r="P34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="29"/>
-      <c r="P36" s="29"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="13"/>
+      <c r="P36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="29"/>
-      <c r="P37" s="29"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="13"/>
+      <c r="P37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="29"/>
-      <c r="P38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="13"/>
+      <c r="P38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="13" t="e">
+      <c r="D40" s="11" t="e">
         <f aca="false">ROUND(2*D43*D46/(D43+D46),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="13" t="e">
+      <c r="E40" s="11" t="e">
         <f aca="false">ROUND(2*E43*E46/(E43+E46),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="14" t="e">
+      <c r="F40" s="12" t="e">
         <f aca="false">ROUND(2*F43*F46/(F43+F46),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="13" t="e">
+      <c r="G40" s="11" t="e">
         <f aca="false">ROUND(2*G43*G46/(G43+G46),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="14" t="e">
+      <c r="H40" s="12" t="e">
         <f aca="false">ROUND(2*H43*H46/(H43+H46),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="13" t="e">
+      <c r="I40" s="11" t="e">
         <f aca="false">ROUND(2*I43*I46/(I43+I46),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="13" t="e">
+      <c r="J40" s="11" t="e">
         <f aca="false">ROUND(2*J43*J46/(J43+J46),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="13" t="e">
+      <c r="K40" s="11" t="e">
         <f aca="false">ROUND(2*K43*K46/(K43+K46),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L40" s="14" t="e">
+      <c r="L40" s="12" t="e">
         <f aca="false">ROUND(2*L43*L46/(L43+L46),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="16"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="16"/>
+      <c r="M40" s="13"/>
+      <c r="P40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7"/>
-      <c r="C41" s="18" t="s">
+      <c r="A41" s="6"/>
+      <c r="C41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="20" t="e">
+      <c r="D41" s="15" t="e">
         <f aca="false">ROUND(2*D44*D47/(D44+D47),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="20" t="e">
+      <c r="E41" s="15" t="e">
         <f aca="false">ROUND(2*E44*E47/(E44+E47),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="21" t="e">
+      <c r="F41" s="16" t="e">
         <f aca="false">ROUND(2*F44*F47/(F44+F47),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="20" t="e">
+      <c r="G41" s="15" t="e">
         <f aca="false">ROUND(2*G44*G47/(G44+G47),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="21" t="e">
+      <c r="H41" s="16" t="e">
         <f aca="false">ROUND(2*H44*H47/(H44+H47),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="20" t="e">
+      <c r="I41" s="15" t="e">
         <f aca="false">ROUND(2*I44*I47/(I44+I47),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="20" t="e">
+      <c r="J41" s="15" t="e">
         <f aca="false">ROUND(2*J44*J47/(J44+J47),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="20" t="e">
+      <c r="K41" s="15" t="e">
         <f aca="false">ROUND(2*K44*K47/(K44+K47),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" s="21" t="e">
+      <c r="L41" s="16" t="e">
         <f aca="false">ROUND(2*L44*L47/(L44+L47),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="16"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="16"/>
+      <c r="M41" s="13"/>
+      <c r="P41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7"/>
-      <c r="C42" s="22" t="s">
+      <c r="A42" s="6"/>
+      <c r="C42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="23" t="e">
+      <c r="D42" s="18" t="e">
         <f aca="false">ROUND(2*D45*D48/(D45+D48),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="23" t="e">
+      <c r="E42" s="18" t="e">
         <f aca="false">ROUND(2*E45*E48/(E45+E48),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="24" t="e">
+      <c r="F42" s="19" t="e">
         <f aca="false">ROUND(2*F45*F48/(F45+F48),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="23" t="e">
+      <c r="G42" s="18" t="e">
         <f aca="false">ROUND(2*G45*G48/(G45+G48),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="24" t="e">
+      <c r="H42" s="19" t="e">
         <f aca="false">ROUND(2*H45*H48/(H45+H48),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="23" t="e">
+      <c r="I42" s="18" t="e">
         <f aca="false">ROUND(2*I45*I48/(I45+I48),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J42" s="23" t="e">
+      <c r="J42" s="18" t="e">
         <f aca="false">ROUND(2*J45*J48/(J45+J48),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K42" s="23" t="e">
+      <c r="K42" s="18" t="e">
         <f aca="false">ROUND(2*K45*K48/(K45+K48),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L42" s="24" t="e">
+      <c r="L42" s="19" t="e">
         <f aca="false">ROUND(2*L45*L48/(L45+L48),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="16"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="16"/>
+      <c r="M42" s="13"/>
+      <c r="P42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7"/>
-      <c r="C44" s="18" t="s">
+      <c r="A44" s="6"/>
+      <c r="C44" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="29"/>
-      <c r="P44" s="29"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="13"/>
+      <c r="P44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7"/>
-      <c r="C45" s="22" t="s">
+      <c r="A45" s="6"/>
+      <c r="C45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="29"/>
-      <c r="P46" s="29"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="13"/>
+      <c r="P46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7"/>
-      <c r="C47" s="18" t="s">
+      <c r="A47" s="6"/>
+      <c r="C47" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="29"/>
-      <c r="P47" s="29"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="13"/>
+      <c r="P47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7"/>
-      <c r="C48" s="22" t="s">
+      <c r="A48" s="6"/>
+      <c r="C48" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="29"/>
-      <c r="P48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="13"/>
+      <c r="P48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="13" t="e">
+      <c r="D49" s="11" t="e">
         <f aca="false">ROUND(2*D52*D55/(D52+D55),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="13" t="e">
+      <c r="E49" s="11" t="e">
         <f aca="false">ROUND(2*E52*E55/(E52+E55),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="14" t="e">
+      <c r="F49" s="12" t="e">
         <f aca="false">ROUND(2*F52*F55/(F52+F55),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G49" s="13" t="e">
+      <c r="G49" s="11" t="e">
         <f aca="false">ROUND(2*G52*G55/(G52+G55),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="14" t="e">
+      <c r="H49" s="12" t="e">
         <f aca="false">ROUND(2*H52*H55/(H52+H55),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I49" s="13" t="e">
+      <c r="I49" s="11" t="e">
         <f aca="false">ROUND(2*I52*I55/(I52+I55),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="13" t="e">
+      <c r="J49" s="11" t="e">
         <f aca="false">ROUND(2*J52*J55/(J52+J55),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="13" t="e">
+      <c r="K49" s="11" t="e">
         <f aca="false">ROUND(2*K52*K55/(K52+K55),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="14" t="e">
+      <c r="L49" s="12" t="e">
         <f aca="false">ROUND(2*L52*L55/(L52+L55),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M49" s="16"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="16"/>
+      <c r="M49" s="13"/>
+      <c r="P49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7"/>
-      <c r="C50" s="18" t="s">
+      <c r="A50" s="6"/>
+      <c r="C50" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="20" t="e">
+      <c r="D50" s="15" t="e">
         <f aca="false">ROUND(2*D53*D56/(D53+D56),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="20" t="e">
+      <c r="E50" s="15" t="e">
         <f aca="false">ROUND(2*E53*E56/(E53+E56),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="21" t="e">
+      <c r="F50" s="16" t="e">
         <f aca="false">ROUND(2*F53*F56/(F53+F56),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="20" t="e">
+      <c r="G50" s="15" t="e">
         <f aca="false">ROUND(2*G53*G56/(G53+G56),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="21" t="e">
+      <c r="H50" s="16" t="e">
         <f aca="false">ROUND(2*H53*H56/(H53+H56),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I50" s="20" t="e">
+      <c r="I50" s="15" t="e">
         <f aca="false">ROUND(2*I53*I56/(I53+I56),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="20" t="e">
+      <c r="J50" s="15" t="e">
         <f aca="false">ROUND(2*J53*J56/(J53+J56),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K50" s="20" t="e">
+      <c r="K50" s="15" t="e">
         <f aca="false">ROUND(2*K53*K56/(K53+K56),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="21" t="e">
+      <c r="L50" s="16" t="e">
         <f aca="false">ROUND(2*L53*L56/(L53+L56),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M50" s="16"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="16"/>
+      <c r="M50" s="13"/>
+      <c r="P50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7"/>
-      <c r="C51" s="22" t="s">
+      <c r="A51" s="6"/>
+      <c r="C51" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="23" t="e">
+      <c r="D51" s="18" t="e">
         <f aca="false">ROUND(2*D54*D57/(D54+D57),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="23" t="e">
+      <c r="E51" s="18" t="e">
         <f aca="false">ROUND(2*E54*E57/(E54+E57),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="24" t="e">
+      <c r="F51" s="19" t="e">
         <f aca="false">ROUND(2*F54*F57/(F54+F57),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="23" t="e">
+      <c r="G51" s="18" t="e">
         <f aca="false">ROUND(2*G54*G57/(G54+G57),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="24" t="e">
+      <c r="H51" s="19" t="e">
         <f aca="false">ROUND(2*H54*H57/(H54+H57),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I51" s="23" t="e">
+      <c r="I51" s="18" t="e">
         <f aca="false">ROUND(2*I54*I57/(I54+I57),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="23" t="e">
+      <c r="J51" s="18" t="e">
         <f aca="false">ROUND(2*J54*J57/(J54+J57),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K51" s="23" t="e">
+      <c r="K51" s="18" t="e">
         <f aca="false">ROUND(2*K54*K57/(K54+K57),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="24" t="e">
+      <c r="L51" s="19" t="e">
         <f aca="false">ROUND(2*L54*L57/(L54+L57),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M51" s="16"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="16"/>
+      <c r="M51" s="13"/>
+      <c r="P51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
+      <c r="A52" s="6"/>
       <c r="B52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7"/>
-      <c r="C53" s="18" t="s">
+      <c r="A53" s="6"/>
+      <c r="C53" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="29"/>
-      <c r="P53" s="29"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="13"/>
+      <c r="P53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7"/>
-      <c r="C54" s="22" t="s">
+      <c r="A54" s="6"/>
+      <c r="C54" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="29"/>
-      <c r="P55" s="29"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="13"/>
+      <c r="P55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7"/>
-      <c r="C56" s="18" t="s">
+      <c r="A56" s="6"/>
+      <c r="C56" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="29"/>
-      <c r="P56" s="29"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="13"/>
+      <c r="P56" s="13"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7"/>
-      <c r="C57" s="22" t="s">
+      <c r="A57" s="6"/>
+      <c r="C57" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="29"/>
-      <c r="P57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="13"/>
+      <c r="P57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
@@ -2490,774 +2290,756 @@
       <c r="B58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="13" t="e">
+      <c r="D58" s="11" t="e">
         <f aca="false">ROUND(2*D61*D64/(D61+D64),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E58" s="13" t="e">
+      <c r="E58" s="11" t="e">
         <f aca="false">ROUND(2*E61*E64/(E61+E64),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F58" s="14" t="e">
+      <c r="F58" s="12" t="e">
         <f aca="false">ROUND(2*F61*F64/(F61+F64),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G58" s="13" t="e">
+      <c r="G58" s="11" t="e">
         <f aca="false">ROUND(2*G61*G64/(G61+G64),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="14" t="e">
+      <c r="H58" s="12" t="e">
         <f aca="false">ROUND(2*H61*H64/(H61+H64),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I58" s="13" t="e">
+      <c r="I58" s="11" t="e">
         <f aca="false">ROUND(2*I61*I64/(I61+I64),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J58" s="13" t="e">
+      <c r="J58" s="11" t="e">
         <f aca="false">ROUND(2*J61*J64/(J61+J64),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K58" s="13" t="e">
+      <c r="K58" s="11" t="e">
         <f aca="false">ROUND(2*K61*K64/(K61+K64),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L58" s="14" t="e">
+      <c r="L58" s="12" t="e">
         <f aca="false">ROUND(2*L61*L64/(L61+L64),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M58" s="16"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="16"/>
+      <c r="M58" s="13"/>
+      <c r="P58" s="13"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="20" t="e">
+      <c r="D59" s="15" t="e">
         <f aca="false">ROUND(2*D62*D65/(D62+D65),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E59" s="20" t="e">
+      <c r="E59" s="15" t="e">
         <f aca="false">ROUND(2*E62*E65/(E62+E65),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F59" s="21" t="e">
+      <c r="F59" s="16" t="e">
         <f aca="false">ROUND(2*F62*F65/(F62+F65),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G59" s="20" t="e">
+      <c r="G59" s="15" t="e">
         <f aca="false">ROUND(2*G62*G65/(G62+G65),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="21" t="e">
+      <c r="H59" s="16" t="e">
         <f aca="false">ROUND(2*H62*H65/(H62+H65),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I59" s="20" t="e">
+      <c r="I59" s="15" t="e">
         <f aca="false">ROUND(2*I62*I65/(I62+I65),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J59" s="20" t="e">
+      <c r="J59" s="15" t="e">
         <f aca="false">ROUND(2*J62*J65/(J62+J65),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K59" s="20" t="e">
+      <c r="K59" s="15" t="e">
         <f aca="false">ROUND(2*K62*K65/(K62+K65),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L59" s="21" t="e">
+      <c r="L59" s="16" t="e">
         <f aca="false">ROUND(2*L62*L65/(L62+L65),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M59" s="16"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="16"/>
+      <c r="M59" s="13"/>
+      <c r="P59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="23" t="e">
+      <c r="D60" s="18" t="e">
         <f aca="false">ROUND(2*D63*D66/(D63+D66),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E60" s="23" t="e">
+      <c r="E60" s="18" t="e">
         <f aca="false">ROUND(2*E63*E66/(E63+E66),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F60" s="24" t="e">
+      <c r="F60" s="19" t="e">
         <f aca="false">ROUND(2*F63*F66/(F63+F66),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G60" s="23" t="e">
+      <c r="G60" s="18" t="e">
         <f aca="false">ROUND(2*G63*G66/(G63+G66),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="24" t="e">
+      <c r="H60" s="19" t="e">
         <f aca="false">ROUND(2*H63*H66/(H63+H66),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I60" s="23" t="e">
+      <c r="I60" s="18" t="e">
         <f aca="false">ROUND(2*I63*I66/(I63+I66),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J60" s="23" t="e">
+      <c r="J60" s="18" t="e">
         <f aca="false">ROUND(2*J63*J66/(J63+J66),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K60" s="23" t="e">
+      <c r="K60" s="18" t="e">
         <f aca="false">ROUND(2*K63*K66/(K63+K66),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L60" s="24" t="e">
+      <c r="L60" s="19" t="e">
         <f aca="false">ROUND(2*L63*L66/(L63+L66),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M60" s="16"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="16"/>
+      <c r="M60" s="13"/>
+      <c r="P60" s="13"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="29"/>
-      <c r="P62" s="29"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="13"/>
+      <c r="P62" s="13"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="29"/>
-      <c r="P64" s="29"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="13"/>
+      <c r="P64" s="13"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="29"/>
-      <c r="P65" s="29"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="13"/>
+      <c r="P65" s="13"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="29"/>
-      <c r="P66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="13"/>
+      <c r="P66" s="13"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="13" t="e">
+      <c r="D68" s="11" t="e">
         <f aca="false">ROUND(2*D71*D74/(D71+D74),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E68" s="13" t="e">
+      <c r="E68" s="11" t="e">
         <f aca="false">ROUND(2*E71*E74/(E71+E74),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F68" s="14" t="e">
+      <c r="F68" s="12" t="e">
         <f aca="false">ROUND(2*F71*F74/(F71+F74),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G68" s="13" t="e">
+      <c r="G68" s="11" t="e">
         <f aca="false">ROUND(2*G71*G74/(G71+G74),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H68" s="14" t="e">
+      <c r="H68" s="12" t="e">
         <f aca="false">ROUND(2*H71*H74/(H71+H74),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I68" s="13" t="e">
+      <c r="I68" s="11" t="e">
         <f aca="false">ROUND(2*I71*I74/(I71+I74),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J68" s="13" t="e">
+      <c r="J68" s="11" t="e">
         <f aca="false">ROUND(2*J71*J74/(J71+J74),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K68" s="13" t="e">
+      <c r="K68" s="11" t="e">
         <f aca="false">ROUND(2*K71*K74/(K71+K74),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L68" s="14" t="e">
+      <c r="L68" s="12" t="e">
         <f aca="false">ROUND(2*L71*L74/(L71+L74),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M68" s="16"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="16"/>
+      <c r="M68" s="13"/>
+      <c r="P68" s="13"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7"/>
-      <c r="C69" s="18" t="s">
+      <c r="A69" s="6"/>
+      <c r="C69" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="20" t="e">
+      <c r="D69" s="15" t="e">
         <f aca="false">ROUND(2*D72*D75/(D72+D75),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E69" s="20" t="e">
+      <c r="E69" s="15" t="e">
         <f aca="false">ROUND(2*E72*E75/(E72+E75),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F69" s="21" t="e">
+      <c r="F69" s="16" t="e">
         <f aca="false">ROUND(2*F72*F75/(F72+F75),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G69" s="20" t="e">
+      <c r="G69" s="15" t="e">
         <f aca="false">ROUND(2*G72*G75/(G72+G75),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="21" t="e">
+      <c r="H69" s="16" t="e">
         <f aca="false">ROUND(2*H72*H75/(H72+H75),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I69" s="20" t="e">
+      <c r="I69" s="15" t="e">
         <f aca="false">ROUND(2*I72*I75/(I72+I75),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J69" s="20" t="e">
+      <c r="J69" s="15" t="e">
         <f aca="false">ROUND(2*J72*J75/(J72+J75),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K69" s="20" t="e">
+      <c r="K69" s="15" t="e">
         <f aca="false">ROUND(2*K72*K75/(K72+K75),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L69" s="21" t="e">
+      <c r="L69" s="16" t="e">
         <f aca="false">ROUND(2*L72*L75/(L72+L75),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M69" s="16"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="16"/>
+      <c r="M69" s="13"/>
+      <c r="P69" s="13"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7"/>
-      <c r="C70" s="22" t="s">
+      <c r="A70" s="6"/>
+      <c r="C70" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="23" t="e">
+      <c r="D70" s="18" t="e">
         <f aca="false">ROUND(2*D73*D76/(D73+D76),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E70" s="23" t="e">
+      <c r="E70" s="18" t="e">
         <f aca="false">ROUND(2*E73*E76/(E73+E76),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F70" s="24" t="e">
+      <c r="F70" s="19" t="e">
         <f aca="false">ROUND(2*F73*F76/(F73+F76),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G70" s="23" t="e">
+      <c r="G70" s="18" t="e">
         <f aca="false">ROUND(2*G73*G76/(G73+G76),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="24" t="e">
+      <c r="H70" s="19" t="e">
         <f aca="false">ROUND(2*H73*H76/(H73+H76),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I70" s="23" t="e">
+      <c r="I70" s="18" t="e">
         <f aca="false">ROUND(2*I73*I76/(I73+I76),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J70" s="23" t="e">
+      <c r="J70" s="18" t="e">
         <f aca="false">ROUND(2*J73*J76/(J73+J76),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K70" s="23" t="e">
+      <c r="K70" s="18" t="e">
         <f aca="false">ROUND(2*K73*K76/(K73+K76),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L70" s="24" t="e">
+      <c r="L70" s="19" t="e">
         <f aca="false">ROUND(2*L73*L76/(L73+L76),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M70" s="16"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="16"/>
+      <c r="M70" s="13"/>
+      <c r="P70" s="13"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7"/>
+      <c r="A71" s="6"/>
       <c r="B71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7"/>
-      <c r="C72" s="18" t="s">
+      <c r="A72" s="6"/>
+      <c r="C72" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="29"/>
-      <c r="P72" s="29"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="13"/>
+      <c r="P72" s="13"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7"/>
-      <c r="C73" s="22" t="s">
+      <c r="A73" s="6"/>
+      <c r="C73" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7"/>
+      <c r="A74" s="6"/>
       <c r="B74" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="29"/>
-      <c r="P74" s="29"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="13"/>
+      <c r="P74" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7"/>
-      <c r="C75" s="18" t="s">
+      <c r="A75" s="6"/>
+      <c r="C75" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="29"/>
-      <c r="P75" s="29"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="13"/>
+      <c r="P75" s="13"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7"/>
-      <c r="C76" s="22" t="s">
+      <c r="A76" s="6"/>
+      <c r="C76" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="29"/>
-      <c r="P76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="13"/>
+      <c r="P76" s="13"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="13" t="e">
+      <c r="D77" s="11" t="e">
         <f aca="false">ROUND(2*D80*D83/(D80+D83),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E77" s="13" t="e">
+      <c r="E77" s="11" t="e">
         <f aca="false">ROUND(2*E80*E83/(E80+E83),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F77" s="14" t="e">
+      <c r="F77" s="12" t="e">
         <f aca="false">ROUND(2*F80*F83/(F80+F83),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G77" s="13" t="e">
+      <c r="G77" s="11" t="e">
         <f aca="false">ROUND(2*G80*G83/(G80+G83),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="14" t="e">
+      <c r="H77" s="12" t="e">
         <f aca="false">ROUND(2*H80*H83/(H80+H83),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I77" s="13" t="e">
+      <c r="I77" s="11" t="e">
         <f aca="false">ROUND(2*I80*I83/(I80+I83),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J77" s="13" t="e">
+      <c r="J77" s="11" t="e">
         <f aca="false">ROUND(2*J80*J83/(J80+J83),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K77" s="13" t="e">
+      <c r="K77" s="11" t="e">
         <f aca="false">ROUND(2*K80*K83/(K80+K83),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L77" s="14" t="e">
+      <c r="L77" s="12" t="e">
         <f aca="false">ROUND(2*L80*L83/(L80+L83),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M77" s="16"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="16"/>
+      <c r="M77" s="13"/>
+      <c r="P77" s="13"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7"/>
-      <c r="C78" s="18" t="s">
+      <c r="A78" s="6"/>
+      <c r="C78" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="20" t="e">
+      <c r="D78" s="15" t="e">
         <f aca="false">ROUND(2*D81*D84/(D81+D84),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E78" s="20" t="e">
+      <c r="E78" s="15" t="e">
         <f aca="false">ROUND(2*E81*E84/(E81+E84),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F78" s="21" t="e">
+      <c r="F78" s="16" t="e">
         <f aca="false">ROUND(2*F81*F84/(F81+F84),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G78" s="20" t="e">
+      <c r="G78" s="15" t="e">
         <f aca="false">ROUND(2*G81*G84/(G81+G84),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H78" s="21" t="e">
+      <c r="H78" s="16" t="e">
         <f aca="false">ROUND(2*H81*H84/(H81+H84),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I78" s="20" t="e">
+      <c r="I78" s="15" t="e">
         <f aca="false">ROUND(2*I81*I84/(I81+I84),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J78" s="20" t="e">
+      <c r="J78" s="15" t="e">
         <f aca="false">ROUND(2*J81*J84/(J81+J84),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K78" s="20" t="e">
+      <c r="K78" s="15" t="e">
         <f aca="false">ROUND(2*K81*K84/(K81+K84),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L78" s="21" t="e">
+      <c r="L78" s="16" t="e">
         <f aca="false">ROUND(2*L81*L84/(L81+L84),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M78" s="16"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="16"/>
+      <c r="M78" s="13"/>
+      <c r="P78" s="13"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7"/>
-      <c r="C79" s="22" t="s">
+      <c r="A79" s="6"/>
+      <c r="C79" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="23" t="e">
+      <c r="D79" s="18" t="e">
         <f aca="false">ROUND(2*D82*D85/(D82+D85),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E79" s="23" t="e">
+      <c r="E79" s="18" t="e">
         <f aca="false">ROUND(2*E82*E85/(E82+E85),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F79" s="24" t="e">
+      <c r="F79" s="19" t="e">
         <f aca="false">ROUND(2*F82*F85/(F82+F85),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G79" s="23" t="e">
+      <c r="G79" s="18" t="e">
         <f aca="false">ROUND(2*G82*G85/(G82+G85),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H79" s="24" t="e">
+      <c r="H79" s="19" t="e">
         <f aca="false">ROUND(2*H82*H85/(H82+H85),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I79" s="23" t="e">
+      <c r="I79" s="18" t="e">
         <f aca="false">ROUND(2*I82*I85/(I82+I85),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J79" s="23" t="e">
+      <c r="J79" s="18" t="e">
         <f aca="false">ROUND(2*J82*J85/(J82+J85),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K79" s="23" t="e">
+      <c r="K79" s="18" t="e">
         <f aca="false">ROUND(2*K82*K85/(K82+K85),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L79" s="24" t="e">
+      <c r="L79" s="19" t="e">
         <f aca="false">ROUND(2*L82*L85/(L82+L85),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M79" s="16"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="16"/>
+      <c r="M79" s="13"/>
+      <c r="P79" s="13"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7"/>
+      <c r="A80" s="6"/>
       <c r="B80" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7"/>
-      <c r="C81" s="18" t="s">
+      <c r="A81" s="6"/>
+      <c r="C81" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="29"/>
-      <c r="P81" s="29"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="13"/>
+      <c r="P81" s="13"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7"/>
-      <c r="C82" s="22" t="s">
+      <c r="A82" s="6"/>
+      <c r="C82" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7"/>
+      <c r="A83" s="6"/>
       <c r="B83" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="38"/>
-      <c r="M83" s="29"/>
-      <c r="P83" s="29"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="13"/>
+      <c r="P83" s="13"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7"/>
-      <c r="C84" s="18" t="s">
+      <c r="A84" s="6"/>
+      <c r="C84" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="29"/>
-      <c r="P84" s="29"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="13"/>
+      <c r="P84" s="13"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7"/>
-      <c r="C85" s="22" t="s">
+      <c r="A85" s="6"/>
+      <c r="C85" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="42"/>
-      <c r="M85" s="29"/>
-      <c r="P85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="13"/>
+      <c r="P85" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -3324,128 +3106,128 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="44" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="32" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="48"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3482,26 +3264,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="14.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="10" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="13.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="10" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="10" width="15.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="10" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="14.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="13.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="15.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="8" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
@@ -3516,102 +3298,102 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
@@ -3626,91 +3408,91 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="1"/>

--- a/benchmarks/summary_ali.xlsx
+++ b/benchmarks/summary_ali.xlsx
@@ -285,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,6 +338,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -346,6 +350,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,6 +374,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -374,15 +386,99 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -390,15 +486,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -406,11 +494,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -470,9 +578,9 @@
   <dimension ref="A1:AMJ85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
+      <selection pane="bottomLeft" activeCell="I81" activeCellId="0" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -573,106 +681,106 @@
         <f aca="false">ROUND(2*I5*I8/(I5+I8),3)</f>
         <v>0.801</v>
       </c>
-      <c r="J2" s="11" t="e">
+      <c r="J2" s="11" t="n">
         <f aca="false">ROUND(2*J5*J8/(J5+J8),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" s="11" t="e">
+        <v>0.82</v>
+      </c>
+      <c r="K2" s="11" t="n">
         <f aca="false">ROUND(2*K5*K8/(K5+K8),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="12" t="e">
+        <v>0.801</v>
+      </c>
+      <c r="L2" s="13" t="n">
         <f aca="false">ROUND(2*L5*L8/(L5+L8),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="P2" s="13"/>
+        <v>0.823</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="16" t="n">
         <f aca="false">ROUND(2*D6*D9/(D6+D9),3)</f>
         <v>0.955</v>
       </c>
-      <c r="E3" s="15" t="n">
+      <c r="E3" s="17" t="n">
         <f aca="false">ROUND(2*E6*E9/(E6+E9),3)</f>
         <v>0.936</v>
       </c>
-      <c r="F3" s="16" t="n">
+      <c r="F3" s="18" t="n">
         <f aca="false">ROUND(2*F6*F9/(F6+F9),3)</f>
         <v>0.817</v>
       </c>
-      <c r="G3" s="15" t="n">
+      <c r="G3" s="17" t="n">
         <f aca="false">ROUND(2*G6*G9/(G6+G9),3)</f>
         <v>0.678</v>
       </c>
-      <c r="H3" s="16" t="n">
+      <c r="H3" s="18" t="n">
         <f aca="false">ROUND(2*H6*H9/(H6+H9),3)</f>
         <v>0.649</v>
       </c>
-      <c r="I3" s="15" t="n">
+      <c r="I3" s="17" t="n">
         <f aca="false">ROUND(2*I6*I9/(I6+I9),3)</f>
         <v>0.86</v>
       </c>
-      <c r="J3" s="15" t="e">
+      <c r="J3" s="17" t="n">
         <f aca="false">ROUND(2*J6*J9/(J6+J9),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="15" t="e">
+        <v>0.839</v>
+      </c>
+      <c r="K3" s="17" t="n">
         <f aca="false">ROUND(2*K6*K9/(K6+K9),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="16" t="e">
+        <v>0.892</v>
+      </c>
+      <c r="L3" s="18" t="n">
         <f aca="false">ROUND(2*L6*L9/(L6+L9),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="P3" s="13"/>
+        <v>0.829</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="20" t="n">
         <f aca="false">ROUND(2*D7*D10/(D7+D10),3)</f>
         <v>0.642</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="20" t="n">
         <f aca="false">ROUND(2*E7*E10/(E7+E10),3)</f>
         <v>0.635</v>
       </c>
-      <c r="F4" s="19" t="n">
+      <c r="F4" s="21" t="n">
         <f aca="false">ROUND(2*F7*F10/(F7+F10),3)</f>
         <v>0.596</v>
       </c>
-      <c r="G4" s="18" t="n">
+      <c r="G4" s="20" t="n">
         <f aca="false">ROUND(2*G7*G10/(G7+G10),3)</f>
         <v>0.692</v>
       </c>
-      <c r="H4" s="19" t="n">
+      <c r="H4" s="21" t="n">
         <f aca="false">ROUND(2*H7*H10/(H7+H10),3)</f>
         <v>0.734</v>
       </c>
-      <c r="I4" s="18" t="n">
+      <c r="I4" s="20" t="n">
         <f aca="false">ROUND(2*I7*I10/(I7+I10),3)</f>
         <v>0.753</v>
       </c>
-      <c r="J4" s="18" t="e">
+      <c r="J4" s="20" t="n">
         <f aca="false">ROUND(2*J7*J10/(J7+J10),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="18" t="e">
+        <v>0.804</v>
+      </c>
+      <c r="K4" s="20" t="n">
         <f aca="false">ROUND(2*K7*K10/(K7+K10),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="19" t="e">
+        <v>0.732</v>
+      </c>
+      <c r="L4" s="22" t="n">
         <f aca="false">ROUND(2*L7*L10/(L7+L10),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="13"/>
-      <c r="P4" s="13"/>
+        <v>0.818</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="P4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
@@ -681,89 +789,107 @@
       <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20" t="n">
+      <c r="D5" s="23" t="n">
         <v>0.785</v>
       </c>
-      <c r="E5" s="20" t="n">
+      <c r="E5" s="23" t="n">
         <v>0.775</v>
       </c>
-      <c r="F5" s="21" t="n">
+      <c r="F5" s="24" t="n">
         <v>0.697</v>
       </c>
-      <c r="G5" s="20" t="n">
+      <c r="G5" s="23" t="n">
         <v>0.711</v>
       </c>
-      <c r="H5" s="21" t="n">
+      <c r="H5" s="24" t="n">
         <v>0.709</v>
       </c>
-      <c r="I5" s="20" t="n">
+      <c r="I5" s="23" t="n">
         <v>0.782</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="J5" s="25" t="n">
+        <v>0.807</v>
+      </c>
+      <c r="K5" s="23" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="L5" s="24" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="26" t="n">
         <v>0.957</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="14" t="n">
         <v>0.937</v>
       </c>
-      <c r="F6" s="24" t="n">
+      <c r="F6" s="27" t="n">
         <v>0.827</v>
       </c>
-      <c r="G6" s="13" t="n">
+      <c r="G6" s="14" t="n">
         <v>0.703</v>
       </c>
-      <c r="H6" s="24" t="n">
+      <c r="H6" s="27" t="n">
         <v>0.672</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="14" t="n">
         <v>0.858</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="J6" s="14" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="K6" s="14" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="L6" s="27" t="n">
+        <v>0.818</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="P6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="28" t="n">
         <v>0.665</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E7" s="28" t="n">
         <v>0.66</v>
       </c>
-      <c r="F7" s="28" t="n">
+      <c r="F7" s="29" t="n">
         <v>0.603</v>
       </c>
-      <c r="G7" s="27" t="n">
+      <c r="G7" s="28" t="n">
         <v>0.72</v>
       </c>
-      <c r="H7" s="28" t="n">
+      <c r="H7" s="29" t="n">
         <v>0.751</v>
       </c>
-      <c r="I7" s="27" t="n">
+      <c r="I7" s="28" t="n">
         <v>0.718</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="J7" s="28" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="K7" s="28" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="L7" s="30" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
@@ -772,85 +898,103 @@
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="23" t="n">
         <v>0.735</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="23" t="n">
         <v>0.723</v>
       </c>
-      <c r="F8" s="21" t="n">
+      <c r="F8" s="24" t="n">
         <v>0.67</v>
       </c>
-      <c r="G8" s="20" t="n">
+      <c r="G8" s="23" t="n">
         <v>0.655</v>
       </c>
-      <c r="H8" s="21" t="n">
+      <c r="H8" s="24" t="n">
         <v>0.664</v>
       </c>
-      <c r="I8" s="20" t="n">
+      <c r="I8" s="23" t="n">
         <v>0.82</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="J8" s="23" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="K8" s="23" t="n">
+        <v>0.818</v>
+      </c>
+      <c r="L8" s="31" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="26" t="n">
         <v>0.954</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="14" t="n">
         <v>0.936</v>
       </c>
-      <c r="F9" s="24" t="n">
+      <c r="F9" s="27" t="n">
         <v>0.807</v>
       </c>
-      <c r="G9" s="13" t="n">
+      <c r="G9" s="14" t="n">
         <v>0.654</v>
       </c>
-      <c r="H9" s="24" t="n">
+      <c r="H9" s="27" t="n">
         <v>0.627</v>
       </c>
-      <c r="I9" s="13" t="n">
+      <c r="I9" s="14" t="n">
         <v>0.862</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="J9" s="14" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="K9" s="14" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="L9" s="27" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="P9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="28" t="n">
         <v>0.62</v>
       </c>
-      <c r="E10" s="27" t="n">
+      <c r="E10" s="28" t="n">
         <v>0.611</v>
       </c>
-      <c r="F10" s="28" t="n">
+      <c r="F10" s="29" t="n">
         <v>0.589</v>
       </c>
-      <c r="G10" s="27" t="n">
+      <c r="G10" s="28" t="n">
         <v>0.666</v>
       </c>
-      <c r="H10" s="28" t="n">
+      <c r="H10" s="29" t="n">
         <v>0.717</v>
       </c>
-      <c r="I10" s="27" t="n">
+      <c r="I10" s="28" t="n">
         <v>0.791</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="J10" s="28" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="K10" s="28" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="L10" s="30" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
@@ -875,13 +1019,19 @@
       <c r="I11" s="3" t="n">
         <v>53.4</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
+      <c r="J11" s="3" t="n">
+        <v>1072</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1088.2</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>1096.6</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
@@ -917,108 +1067,108 @@
         <f aca="false">ROUND(2*I15*I18/(I15+I18),3)</f>
         <v>0.81</v>
       </c>
-      <c r="J12" s="11" t="e">
+      <c r="J12" s="11" t="n">
         <f aca="false">ROUND(2*J15*J18/(J15+J18),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="11" t="e">
+        <v>0.833</v>
+      </c>
+      <c r="K12" s="11" t="n">
         <f aca="false">ROUND(2*K15*K18/(K15+K18),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="12" t="e">
+        <v>0.812</v>
+      </c>
+      <c r="L12" s="13" t="n">
         <f aca="false">ROUND(2*L15*L18/(L15+L18),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="P12" s="13"/>
+        <v>0.835</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="15" t="n">
+      <c r="D13" s="16" t="n">
         <f aca="false">ROUND(2*D16*D19/(D16+D19),3)</f>
         <v>0.962</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="17" t="n">
         <f aca="false">ROUND(2*E16*E19/(E16+E19),3)</f>
         <v>0.945</v>
       </c>
-      <c r="F13" s="16" t="n">
+      <c r="F13" s="18" t="n">
         <f aca="false">ROUND(2*F16*F19/(F16+F19),3)</f>
         <v>0.873</v>
       </c>
-      <c r="G13" s="15" t="n">
+      <c r="G13" s="17" t="n">
         <f aca="false">ROUND(2*G16*G19/(G16+G19),3)</f>
         <v>0.72</v>
       </c>
-      <c r="H13" s="16" t="n">
+      <c r="H13" s="18" t="n">
         <f aca="false">ROUND(2*H16*H19/(H16+H19),3)</f>
         <v>0.703</v>
       </c>
-      <c r="I13" s="15" t="n">
+      <c r="I13" s="17" t="n">
         <f aca="false">ROUND(2*I16*I19/(I16+I19),3)</f>
         <v>0.867</v>
       </c>
-      <c r="J13" s="15" t="e">
+      <c r="J13" s="17" t="n">
         <f aca="false">ROUND(2*J16*J19/(J16+J19),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="15" t="e">
+        <v>0.847</v>
+      </c>
+      <c r="K13" s="17" t="n">
         <f aca="false">ROUND(2*K16*K19/(K16+K19),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="16" t="e">
+        <v>0.9</v>
+      </c>
+      <c r="L13" s="18" t="n">
         <f aca="false">ROUND(2*L16*L19/(L16+L19),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="13"/>
-      <c r="P13" s="13"/>
+        <v>0.836</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="20" t="n">
         <f aca="false">ROUND(2*D17*D20/(D17+D20),3)</f>
         <v>0.663</v>
       </c>
-      <c r="E14" s="18" t="n">
+      <c r="E14" s="20" t="n">
         <f aca="false">ROUND(2*E17*E20/(E17+E20),3)</f>
         <v>0.651</v>
       </c>
-      <c r="F14" s="19" t="n">
+      <c r="F14" s="21" t="n">
         <f aca="false">ROUND(2*F17*F20/(F17+F20),3)</f>
         <v>0.6</v>
       </c>
-      <c r="G14" s="18" t="n">
+      <c r="G14" s="20" t="n">
         <f aca="false">ROUND(2*G17*G20/(G17+G20),3)</f>
         <v>0.729</v>
       </c>
-      <c r="H14" s="19" t="n">
+      <c r="H14" s="21" t="n">
         <f aca="false">ROUND(2*H17*H20/(H17+H20),3)</f>
         <v>0.774</v>
       </c>
-      <c r="I14" s="18" t="n">
+      <c r="I14" s="20" t="n">
         <f aca="false">ROUND(2*I17*I20/(I17+I20),3)</f>
         <v>0.764</v>
       </c>
-      <c r="J14" s="18" t="e">
+      <c r="J14" s="20" t="n">
         <f aca="false">ROUND(2*J17*J20/(J17+J20),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="18" t="e">
+        <v>0.821</v>
+      </c>
+      <c r="K14" s="20" t="n">
         <f aca="false">ROUND(2*K17*K20/(K17+K20),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="19" t="e">
+        <v>0.744</v>
+      </c>
+      <c r="L14" s="22" t="n">
         <f aca="false">ROUND(2*L17*L20/(L17+L20),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="P14" s="13"/>
+        <v>0.835</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
@@ -1028,91 +1178,109 @@
       <c r="C15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="20" t="n">
+      <c r="D15" s="23" t="n">
         <v>0.798</v>
       </c>
-      <c r="E15" s="20" t="n">
+      <c r="E15" s="23" t="n">
         <v>0.786</v>
       </c>
-      <c r="F15" s="21" t="n">
+      <c r="F15" s="24" t="n">
         <v>0.722</v>
       </c>
-      <c r="G15" s="20" t="n">
+      <c r="G15" s="23" t="n">
         <v>0.744</v>
       </c>
-      <c r="H15" s="21" t="n">
+      <c r="H15" s="24" t="n">
         <v>0.755</v>
       </c>
-      <c r="I15" s="20" t="n">
+      <c r="I15" s="23" t="n">
         <v>0.788</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="J15" s="32" t="n">
+        <v>0.815</v>
+      </c>
+      <c r="K15" s="33" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="L15" s="34" t="n">
+        <v>0.814</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="26" t="n">
         <v>0.961</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="14" t="n">
         <v>0.942</v>
       </c>
-      <c r="F16" s="24" t="n">
+      <c r="F16" s="27" t="n">
         <v>0.892</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="14" t="n">
         <v>0.741</v>
       </c>
-      <c r="H16" s="24" t="n">
+      <c r="H16" s="27" t="n">
         <v>0.73</v>
       </c>
-      <c r="I16" s="13" t="n">
+      <c r="I16" s="14" t="n">
         <v>0.863</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="J16" s="35" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="K16" s="35" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="L16" s="36" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="27" t="n">
+      <c r="D17" s="28" t="n">
         <v>0.682</v>
       </c>
-      <c r="E17" s="27" t="n">
+      <c r="E17" s="28" t="n">
         <v>0.674</v>
       </c>
-      <c r="F17" s="28" t="n">
+      <c r="F17" s="29" t="n">
         <v>0.607</v>
       </c>
-      <c r="G17" s="27" t="n">
+      <c r="G17" s="28" t="n">
         <v>0.748</v>
       </c>
-      <c r="H17" s="28" t="n">
+      <c r="H17" s="29" t="n">
         <v>0.782</v>
       </c>
-      <c r="I17" s="27" t="n">
+      <c r="I17" s="28" t="n">
         <v>0.724</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="J17" s="37" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="K17" s="37" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="L17" s="38" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
@@ -1122,87 +1290,105 @@
       <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="20" t="n">
+      <c r="D18" s="23" t="n">
         <v>0.756</v>
       </c>
-      <c r="E18" s="20" t="n">
+      <c r="E18" s="23" t="n">
         <v>0.74</v>
       </c>
-      <c r="F18" s="21" t="n">
+      <c r="F18" s="24" t="n">
         <v>0.695</v>
       </c>
-      <c r="G18" s="20" t="n">
+      <c r="G18" s="23" t="n">
         <v>0.7</v>
       </c>
-      <c r="H18" s="21" t="n">
+      <c r="H18" s="24" t="n">
         <v>0.715</v>
       </c>
-      <c r="I18" s="20" t="n">
+      <c r="I18" s="23" t="n">
         <v>0.834</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="J18" s="33" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="K18" s="33" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="L18" s="39" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="P18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="13" t="n">
+      <c r="D19" s="26" t="n">
         <v>0.964</v>
       </c>
-      <c r="E19" s="13" t="n">
+      <c r="E19" s="14" t="n">
         <v>0.948</v>
       </c>
-      <c r="F19" s="24" t="n">
+      <c r="F19" s="27" t="n">
         <v>0.854</v>
       </c>
-      <c r="G19" s="13" t="n">
+      <c r="G19" s="14" t="n">
         <v>0.701</v>
       </c>
-      <c r="H19" s="24" t="n">
+      <c r="H19" s="27" t="n">
         <v>0.677</v>
       </c>
-      <c r="I19" s="13" t="n">
+      <c r="I19" s="14" t="n">
         <v>0.871</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="13"/>
-      <c r="P19" s="13"/>
+      <c r="J19" s="35" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="K19" s="35" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="L19" s="36" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="P19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="27" t="n">
+      <c r="D20" s="28" t="n">
         <v>0.645</v>
       </c>
-      <c r="E20" s="27" t="n">
+      <c r="E20" s="28" t="n">
         <v>0.63</v>
       </c>
-      <c r="F20" s="28" t="n">
+      <c r="F20" s="29" t="n">
         <v>0.594</v>
       </c>
-      <c r="G20" s="27" t="n">
+      <c r="G20" s="28" t="n">
         <v>0.71</v>
       </c>
-      <c r="H20" s="28" t="n">
+      <c r="H20" s="29" t="n">
         <v>0.766</v>
       </c>
-      <c r="I20" s="27" t="n">
+      <c r="I20" s="28" t="n">
         <v>0.809</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="13"/>
-      <c r="P20" s="13"/>
+      <c r="J20" s="37" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K20" s="37" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L20" s="38" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="M20" s="14"/>
+      <c r="P20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
@@ -1238,108 +1424,108 @@
         <f aca="false">ROUND(2*I24*I27/(I24+I27),3)</f>
         <v>0.888</v>
       </c>
-      <c r="J21" s="11" t="e">
+      <c r="J21" s="11" t="n">
         <f aca="false">ROUND(2*J24*J27/(J24+J27),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="11" t="e">
+        <v>0.89</v>
+      </c>
+      <c r="K21" s="11" t="n">
         <f aca="false">ROUND(2*K24*K27/(K24+K27),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="12" t="e">
+        <v>0.888</v>
+      </c>
+      <c r="L21" s="13" t="n">
         <f aca="false">ROUND(2*L24*L27/(L24+L27),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="13"/>
-      <c r="P21" s="13"/>
+        <v>0.891</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="P21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="15" t="n">
+      <c r="D22" s="16" t="n">
         <f aca="false">ROUND(2*D25*D28/(D25+D28),3)</f>
         <v>0.97</v>
       </c>
-      <c r="E22" s="15" t="n">
+      <c r="E22" s="17" t="n">
         <f aca="false">ROUND(2*E25*E28/(E25+E28),3)</f>
         <v>0.952</v>
       </c>
-      <c r="F22" s="16" t="n">
+      <c r="F22" s="18" t="n">
         <f aca="false">ROUND(2*F25*F28/(F25+F28),3)</f>
         <v>0.835</v>
       </c>
-      <c r="G22" s="15" t="n">
+      <c r="G22" s="17" t="n">
         <f aca="false">ROUND(2*G25*G28/(G25+G28),3)</f>
         <v>0.836</v>
       </c>
-      <c r="H22" s="16" t="n">
+      <c r="H22" s="18" t="n">
         <f aca="false">ROUND(2*H25*H28/(H25+H28),3)</f>
         <v>0.793</v>
       </c>
-      <c r="I22" s="15" t="n">
+      <c r="I22" s="17" t="n">
         <f aca="false">ROUND(2*I25*I28/(I25+I28),3)</f>
         <v>0.91</v>
       </c>
-      <c r="J22" s="15" t="e">
+      <c r="J22" s="17" t="n">
         <f aca="false">ROUND(2*J25*J28/(J25+J28),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="15" t="e">
+        <v>0.888</v>
+      </c>
+      <c r="K22" s="17" t="n">
         <f aca="false">ROUND(2*K25*K28/(K25+K28),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="16" t="e">
+        <v>0.922</v>
+      </c>
+      <c r="L22" s="18" t="n">
         <f aca="false">ROUND(2*L25*L28/(L25+L28),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="13"/>
-      <c r="P22" s="13"/>
+        <v>0.88</v>
+      </c>
+      <c r="M22" s="14"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="18" t="n">
+      <c r="D23" s="20" t="n">
         <f aca="false">ROUND(2*D26*D29/(D26+D29),3)</f>
         <v>0.633</v>
       </c>
-      <c r="E23" s="18" t="n">
+      <c r="E23" s="20" t="n">
         <f aca="false">ROUND(2*E26*E29/(E26+E29),3)</f>
         <v>0.605</v>
       </c>
-      <c r="F23" s="19" t="n">
+      <c r="F23" s="21" t="n">
         <f aca="false">ROUND(2*F26*F29/(F26+F29),3)</f>
         <v>0.508</v>
       </c>
-      <c r="G23" s="18" t="n">
+      <c r="G23" s="20" t="n">
         <f aca="false">ROUND(2*G26*G29/(G26+G29),3)</f>
         <v>0.808</v>
       </c>
-      <c r="H23" s="19" t="n">
+      <c r="H23" s="22" t="n">
         <f aca="false">ROUND(2*H26*H29/(H26+H29),3)</f>
         <v>0.904</v>
       </c>
-      <c r="I23" s="18" t="n">
+      <c r="I23" s="20" t="n">
         <f aca="false">ROUND(2*I26*I29/(I26+I29),3)</f>
         <v>0.866</v>
       </c>
-      <c r="J23" s="18" t="e">
+      <c r="J23" s="20" t="n">
         <f aca="false">ROUND(2*J26*J29/(J26+J29),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="18" t="e">
+        <v>0.892</v>
+      </c>
+      <c r="K23" s="20" t="n">
         <f aca="false">ROUND(2*K26*K29/(K26+K29),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="19" t="e">
+        <v>0.856</v>
+      </c>
+      <c r="L23" s="21" t="n">
         <f aca="false">ROUND(2*L26*L29/(L26+L29),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="P23" s="13"/>
+        <v>0.902</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
@@ -1349,91 +1535,109 @@
       <c r="C24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="20" t="n">
+      <c r="D24" s="23" t="n">
         <v>0.75</v>
       </c>
-      <c r="E24" s="20" t="n">
+      <c r="E24" s="23" t="n">
         <v>0.723</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="24" t="n">
         <v>0.632</v>
       </c>
-      <c r="G24" s="20" t="n">
+      <c r="G24" s="23" t="n">
         <v>0.814</v>
       </c>
-      <c r="H24" s="21" t="n">
+      <c r="H24" s="24" t="n">
         <v>0.84</v>
       </c>
-      <c r="I24" s="20" t="n">
+      <c r="I24" s="25" t="n">
         <v>0.893</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
+      <c r="J24" s="33" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K24" s="32" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="L24" s="34" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="13" t="n">
+      <c r="D25" s="26" t="n">
         <v>0.977</v>
       </c>
-      <c r="E25" s="13" t="n">
+      <c r="E25" s="14" t="n">
         <v>0.962</v>
       </c>
-      <c r="F25" s="24" t="n">
+      <c r="F25" s="27" t="n">
         <v>0.853</v>
       </c>
-      <c r="G25" s="13" t="n">
+      <c r="G25" s="14" t="n">
         <v>0.84</v>
       </c>
-      <c r="H25" s="24" t="n">
+      <c r="H25" s="27" t="n">
         <v>0.794</v>
       </c>
-      <c r="I25" s="13" t="n">
+      <c r="I25" s="14" t="n">
         <v>0.92</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="13"/>
-      <c r="P25" s="13"/>
+      <c r="J25" s="35" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K25" s="35" t="n">
+        <v>0.934</v>
+      </c>
+      <c r="L25" s="36" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="27" t="n">
+      <c r="D26" s="28" t="n">
         <v>0.608</v>
       </c>
-      <c r="E26" s="27" t="n">
+      <c r="E26" s="28" t="n">
         <v>0.579</v>
       </c>
-      <c r="F26" s="28" t="n">
+      <c r="F26" s="29" t="n">
         <v>0.501</v>
       </c>
-      <c r="G26" s="27" t="n">
+      <c r="G26" s="28" t="n">
         <v>0.79</v>
       </c>
-      <c r="H26" s="28" t="n">
+      <c r="H26" s="29" t="n">
         <v>0.89</v>
       </c>
-      <c r="I26" s="27" t="n">
+      <c r="I26" s="28" t="n">
         <v>0.867</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
+      <c r="J26" s="37" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K26" s="37" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="L26" s="38" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
@@ -1443,87 +1647,105 @@
       <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="20" t="n">
+      <c r="D27" s="23" t="n">
         <v>0.772</v>
       </c>
-      <c r="E27" s="20" t="n">
+      <c r="E27" s="23" t="n">
         <v>0.745</v>
       </c>
-      <c r="F27" s="21" t="n">
+      <c r="F27" s="24" t="n">
         <v>0.629</v>
       </c>
-      <c r="G27" s="20" t="n">
+      <c r="G27" s="23" t="n">
         <v>0.827</v>
       </c>
-      <c r="H27" s="21" t="n">
+      <c r="H27" s="24" t="n">
         <v>0.85</v>
       </c>
-      <c r="I27" s="20" t="n">
+      <c r="I27" s="23" t="n">
         <v>0.883</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="13"/>
-      <c r="P27" s="13"/>
+      <c r="J27" s="32" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K27" s="33" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="L27" s="39" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="P27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="13" t="n">
+      <c r="D28" s="26" t="n">
         <v>0.963</v>
       </c>
-      <c r="E28" s="13" t="n">
+      <c r="E28" s="14" t="n">
         <v>0.943</v>
       </c>
-      <c r="F28" s="24" t="n">
+      <c r="F28" s="27" t="n">
         <v>0.817</v>
       </c>
-      <c r="G28" s="13" t="n">
+      <c r="G28" s="14" t="n">
         <v>0.833</v>
       </c>
-      <c r="H28" s="24" t="n">
+      <c r="H28" s="27" t="n">
         <v>0.793</v>
       </c>
-      <c r="I28" s="13" t="n">
+      <c r="I28" s="14" t="n">
         <v>0.9</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="13"/>
-      <c r="P28" s="13"/>
+      <c r="J28" s="35" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="K28" s="35" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="L28" s="36" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="P28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="27" t="n">
+      <c r="D29" s="28" t="n">
         <v>0.661</v>
       </c>
-      <c r="E29" s="27" t="n">
+      <c r="E29" s="28" t="n">
         <v>0.633</v>
       </c>
-      <c r="F29" s="28" t="n">
+      <c r="F29" s="29" t="n">
         <v>0.515</v>
       </c>
-      <c r="G29" s="27" t="n">
+      <c r="G29" s="28" t="n">
         <v>0.826</v>
       </c>
-      <c r="H29" s="28" t="n">
+      <c r="H29" s="30" t="n">
         <v>0.919</v>
       </c>
-      <c r="I29" s="27" t="n">
+      <c r="I29" s="28" t="n">
         <v>0.866</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="13"/>
-      <c r="P29" s="13"/>
+      <c r="J29" s="37" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="K29" s="37" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="L29" s="40" t="n">
+        <v>0.903</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="P29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -1535,130 +1757,130 @@
       <c r="C30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="11" t="e">
+      <c r="D30" s="11" t="n">
         <f aca="false">ROUND(2*D33*D36/(D33+D36),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="11" t="e">
+        <v>0.797</v>
+      </c>
+      <c r="E30" s="41" t="n">
         <f aca="false">ROUND(2*E33*E36/(E33+E36),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="12" t="e">
+        <v>0.803</v>
+      </c>
+      <c r="F30" s="12" t="n">
         <f aca="false">ROUND(2*F33*F36/(F33+F36),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="11" t="e">
+        <v>0.756</v>
+      </c>
+      <c r="G30" s="11" t="n">
         <f aca="false">ROUND(2*G33*G36/(G33+G36),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="12" t="e">
+        <v>0.72</v>
+      </c>
+      <c r="H30" s="12" t="n">
         <f aca="false">ROUND(2*H33*H36/(H33+H36),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="11" t="e">
+        <v>0.723</v>
+      </c>
+      <c r="I30" s="11" t="n">
         <f aca="false">ROUND(2*I33*I36/(I33+I36),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="11" t="e">
+        <v>0.747</v>
+      </c>
+      <c r="J30" s="11" t="n">
         <f aca="false">ROUND(2*J33*J36/(J33+J36),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="11" t="e">
+        <v>0.773</v>
+      </c>
+      <c r="K30" s="11" t="n">
         <f aca="false">ROUND(2*K33*K36/(K33+K36),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="12" t="e">
+        <v>0.76</v>
+      </c>
+      <c r="L30" s="12" t="n">
         <f aca="false">ROUND(2*L33*L36/(L33+L36),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="13"/>
-      <c r="P30" s="13"/>
+        <v>0.757</v>
+      </c>
+      <c r="M30" s="14"/>
+      <c r="P30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="15" t="e">
+      <c r="D31" s="16" t="n">
         <f aca="false">ROUND(2*D34*D37/(D34+D37),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="15" t="e">
+        <v>0.936</v>
+      </c>
+      <c r="E31" s="17" t="n">
         <f aca="false">ROUND(2*E34*E37/(E34+E37),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="16" t="e">
+        <v>0.904</v>
+      </c>
+      <c r="F31" s="18" t="n">
         <f aca="false">ROUND(2*F34*F37/(F34+F37),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="15" t="e">
+        <v>0.837</v>
+      </c>
+      <c r="G31" s="17" t="n">
         <f aca="false">ROUND(2*G34*G37/(G34+G37),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="16" t="e">
+        <v>0.734</v>
+      </c>
+      <c r="H31" s="18" t="n">
         <f aca="false">ROUND(2*H34*H37/(H34+H37),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="15" t="e">
+        <v>0.721</v>
+      </c>
+      <c r="I31" s="17" t="n">
         <f aca="false">ROUND(2*I34*I37/(I34+I37),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="15" t="e">
+        <v>0.798</v>
+      </c>
+      <c r="J31" s="17" t="n">
         <f aca="false">ROUND(2*J34*J37/(J34+J37),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="15" t="e">
+        <v>0.77</v>
+      </c>
+      <c r="K31" s="17" t="n">
         <f aca="false">ROUND(2*K34*K37/(K34+K37),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="16" t="e">
+        <v>0.859</v>
+      </c>
+      <c r="L31" s="18" t="n">
         <f aca="false">ROUND(2*L34*L37/(L34+L37),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="13"/>
-      <c r="P31" s="13"/>
+        <v>0.741</v>
+      </c>
+      <c r="M31" s="14"/>
+      <c r="P31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="18" t="e">
+      <c r="D32" s="20" t="n">
         <f aca="false">ROUND(2*D35*D38/(D35+D38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="18" t="e">
+        <v>0.707</v>
+      </c>
+      <c r="E32" s="20" t="n">
         <f aca="false">ROUND(2*E35*E38/(E35+E38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="19" t="e">
+        <v>0.734</v>
+      </c>
+      <c r="F32" s="21" t="n">
         <f aca="false">ROUND(2*F35*F38/(F35+F38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="18" t="e">
+        <v>0.699</v>
+      </c>
+      <c r="G32" s="20" t="n">
         <f aca="false">ROUND(2*G35*G38/(G35+G38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="19" t="e">
+        <v>0.723</v>
+      </c>
+      <c r="H32" s="21" t="n">
         <f aca="false">ROUND(2*H35*H38/(H35+H38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="18" t="e">
+        <v>0.738</v>
+      </c>
+      <c r="I32" s="20" t="n">
         <f aca="false">ROUND(2*I35*I38/(I35+I38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="18" t="e">
+        <v>0.71</v>
+      </c>
+      <c r="J32" s="42" t="n">
         <f aca="false">ROUND(2*J35*J38/(J35+J38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="18" t="e">
+        <v>0.786</v>
+      </c>
+      <c r="K32" s="20" t="n">
         <f aca="false">ROUND(2*K35*K38/(K35+K38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="19" t="e">
+        <v>0.693</v>
+      </c>
+      <c r="L32" s="21" t="n">
         <f aca="false">ROUND(2*L35*L38/(L35+L38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="13"/>
-      <c r="P32" s="13"/>
+        <v>0.783</v>
+      </c>
+      <c r="M32" s="14"/>
+      <c r="P32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
@@ -1667,53 +1889,107 @@
       <c r="C33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
+      <c r="D33" s="33" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="E33" s="32" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F33" s="34" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G33" s="33" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="H33" s="34" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="I33" s="33" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="J33" s="33" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="K33" s="33" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="L33" s="34" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="13"/>
-      <c r="P34" s="13"/>
+      <c r="D34" s="43" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="E34" s="35" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F34" s="36" t="n">
+        <v>0.814</v>
+      </c>
+      <c r="G34" s="35" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="H34" s="36" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="I34" s="35" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="J34" s="35" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="K34" s="35" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="L34" s="36" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="M34" s="14"/>
+      <c r="P34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
+      <c r="D35" s="37" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="E35" s="37" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F35" s="40" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="G35" s="37" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="H35" s="40" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I35" s="37" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="J35" s="44" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="K35" s="37" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="L35" s="40" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
@@ -1722,68 +1998,140 @@
       <c r="C36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="13"/>
-      <c r="P36" s="13"/>
+      <c r="D36" s="33" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="E36" s="32" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="F36" s="34" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="G36" s="33" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="H36" s="34" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I36" s="33" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="J36" s="33" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K36" s="33" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="L36" s="34" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="M36" s="14"/>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="13"/>
-      <c r="P37" s="13"/>
+      <c r="D37" s="43" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E37" s="35" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="F37" s="36" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="G37" s="35" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="H37" s="36" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="I37" s="35" t="n">
+        <v>0.808</v>
+      </c>
+      <c r="J37" s="35" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="K37" s="35" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="L37" s="36" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="M37" s="14"/>
+      <c r="P37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="13"/>
-      <c r="P38" s="13"/>
+      <c r="D38" s="37" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="E38" s="37" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="F38" s="40" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G38" s="37" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="H38" s="40" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="I38" s="37" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J38" s="44" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="K38" s="37" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="L38" s="40" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="M38" s="14"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
+      <c r="D39" s="45" t="n">
+        <v>29858.8</v>
+      </c>
+      <c r="E39" s="45" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="F39" s="45" t="n">
+        <v>2921.4</v>
+      </c>
+      <c r="G39" s="45" t="n">
+        <v>8681.1</v>
+      </c>
+      <c r="H39" s="45" t="n">
+        <v>8055.1</v>
+      </c>
+      <c r="I39" s="45" t="n">
+        <v>766.6</v>
+      </c>
+      <c r="J39" s="45" t="n">
+        <v>26678.7</v>
+      </c>
+      <c r="K39" s="45" t="n">
+        <v>26782</v>
+      </c>
+      <c r="L39" s="45" t="n">
+        <v>26576.9</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
@@ -1795,132 +2143,132 @@
       <c r="C40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="11" t="e">
+      <c r="D40" s="41" t="n">
         <f aca="false">ROUND(2*D43*D46/(D43+D46),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="11" t="e">
+        <v>0.817</v>
+      </c>
+      <c r="E40" s="11" t="n">
         <f aca="false">ROUND(2*E43*E46/(E43+E46),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="12" t="e">
+        <v>0.813</v>
+      </c>
+      <c r="F40" s="12" t="n">
         <f aca="false">ROUND(2*F43*F46/(F43+F46),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="11" t="e">
+        <v>0.763</v>
+      </c>
+      <c r="G40" s="11" t="n">
         <f aca="false">ROUND(2*G43*G46/(G43+G46),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="12" t="e">
+        <v>0.759</v>
+      </c>
+      <c r="H40" s="12" t="n">
         <f aca="false">ROUND(2*H43*H46/(H43+H46),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="11" t="e">
+        <v>0.763</v>
+      </c>
+      <c r="I40" s="11" t="n">
         <f aca="false">ROUND(2*I43*I46/(I43+I46),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="11" t="e">
+        <v>0.763</v>
+      </c>
+      <c r="J40" s="11" t="n">
         <f aca="false">ROUND(2*J43*J46/(J43+J46),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="11" t="e">
+        <v>0.794</v>
+      </c>
+      <c r="K40" s="11" t="n">
         <f aca="false">ROUND(2*K43*K46/(K43+K46),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="12" t="e">
+        <v>0.772</v>
+      </c>
+      <c r="L40" s="12" t="n">
         <f aca="false">ROUND(2*L43*L46/(L43+L46),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="13"/>
-      <c r="P40" s="13"/>
+        <v>0.783</v>
+      </c>
+      <c r="M40" s="14"/>
+      <c r="P40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="15" t="e">
+      <c r="D41" s="16" t="n">
         <f aca="false">ROUND(2*D44*D47/(D44+D47),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E41" s="15" t="e">
+        <v>0.959</v>
+      </c>
+      <c r="E41" s="17" t="n">
         <f aca="false">ROUND(2*E44*E47/(E44+E47),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41" s="16" t="e">
+        <v>0.939</v>
+      </c>
+      <c r="F41" s="18" t="n">
         <f aca="false">ROUND(2*F44*F47/(F44+F47),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="15" t="e">
+        <v>0.867</v>
+      </c>
+      <c r="G41" s="17" t="n">
         <f aca="false">ROUND(2*G44*G47/(G44+G47),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="16" t="e">
+        <v>0.77</v>
+      </c>
+      <c r="H41" s="18" t="n">
         <f aca="false">ROUND(2*H44*H47/(H44+H47),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="15" t="e">
+        <v>0.757</v>
+      </c>
+      <c r="I41" s="17" t="n">
         <f aca="false">ROUND(2*I44*I47/(I44+I47),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="15" t="e">
+        <v>0.823</v>
+      </c>
+      <c r="J41" s="17" t="n">
         <f aca="false">ROUND(2*J44*J47/(J44+J47),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="15" t="e">
+        <v>0.801</v>
+      </c>
+      <c r="K41" s="17" t="n">
         <f aca="false">ROUND(2*K44*K47/(K44+K47),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="16" t="e">
+        <v>0.873</v>
+      </c>
+      <c r="L41" s="18" t="n">
         <f aca="false">ROUND(2*L44*L47/(L44+L47),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="13"/>
-      <c r="P41" s="13"/>
+        <v>0.778</v>
+      </c>
+      <c r="M41" s="14"/>
+      <c r="P41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="18" t="e">
+      <c r="D42" s="20" t="n">
         <f aca="false">ROUND(2*D45*D48/(D45+D48),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E42" s="18" t="e">
+        <v>0.722</v>
+      </c>
+      <c r="E42" s="20" t="n">
         <f aca="false">ROUND(2*E45*E48/(E45+E48),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42" s="19" t="e">
+        <v>0.727</v>
+      </c>
+      <c r="F42" s="21" t="n">
         <f aca="false">ROUND(2*F45*F48/(F45+F48),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="18" t="e">
+        <v>0.691</v>
+      </c>
+      <c r="G42" s="20" t="n">
         <f aca="false">ROUND(2*G45*G48/(G45+G48),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" s="19" t="e">
+        <v>0.763</v>
+      </c>
+      <c r="H42" s="21" t="n">
         <f aca="false">ROUND(2*H45*H48/(H45+H48),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="18" t="e">
+        <v>0.784</v>
+      </c>
+      <c r="I42" s="20" t="n">
         <f aca="false">ROUND(2*I45*I48/(I45+I48),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J42" s="18" t="e">
+        <v>0.72</v>
+      </c>
+      <c r="J42" s="20" t="n">
         <f aca="false">ROUND(2*J45*J48/(J45+J48),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="18" t="e">
+        <v>0.799</v>
+      </c>
+      <c r="K42" s="20" t="n">
         <f aca="false">ROUND(2*K45*K48/(K45+K48),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="19" t="e">
+        <v>0.702</v>
+      </c>
+      <c r="L42" s="22" t="n">
         <f aca="false">ROUND(2*L45*L48/(L45+L48),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="13"/>
-      <c r="P42" s="13"/>
+        <v>0.8</v>
+      </c>
+      <c r="M42" s="14"/>
+      <c r="P42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
@@ -1930,55 +2278,109 @@
       <c r="C43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
+      <c r="D43" s="33" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E43" s="32" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="F43" s="34" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="G43" s="33" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="H43" s="34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I43" s="33" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="J43" s="33" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="K43" s="33" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="L43" s="34" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="13"/>
-      <c r="P44" s="13"/>
+      <c r="D44" s="43" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="E44" s="35" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="F44" s="36" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="G44" s="35" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="H44" s="36" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="I44" s="35" t="n">
+        <v>0.813</v>
+      </c>
+      <c r="J44" s="35" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="K44" s="35" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="L44" s="36" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="M44" s="14"/>
+      <c r="P44" s="14"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
+      <c r="D45" s="37" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="E45" s="37" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="F45" s="40" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G45" s="37" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="H45" s="38" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I45" s="37" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="J45" s="37" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="K45" s="37" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="L45" s="40" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
@@ -1988,51 +2390,105 @@
       <c r="C46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="13"/>
-      <c r="P46" s="13"/>
+      <c r="D46" s="32" t="n">
+        <v>0.814</v>
+      </c>
+      <c r="E46" s="33" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="F46" s="34" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="G46" s="33" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="H46" s="34" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="I46" s="33" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="J46" s="33" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="K46" s="33" t="n">
+        <v>0.807</v>
+      </c>
+      <c r="L46" s="34" t="n">
+        <v>0.807</v>
+      </c>
+      <c r="M46" s="14"/>
+      <c r="P46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="13"/>
-      <c r="P47" s="13"/>
+      <c r="D47" s="43" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="E47" s="35" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="F47" s="36" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="G47" s="35" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="H47" s="36" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="I47" s="35" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="J47" s="35" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="K47" s="35" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="L47" s="36" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="M47" s="14"/>
+      <c r="P47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="13"/>
-      <c r="P48" s="13"/>
+      <c r="D48" s="37" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="E48" s="37" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="F48" s="40" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="G48" s="37" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H48" s="40" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="I48" s="37" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="J48" s="37" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="K48" s="37" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L48" s="38" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="M48" s="14"/>
+      <c r="P48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
@@ -2044,132 +2500,132 @@
       <c r="C49" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="11" t="e">
+      <c r="D49" s="11" t="n">
         <f aca="false">ROUND(2*D52*D55/(D52+D55),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="11" t="e">
+        <v>0.785</v>
+      </c>
+      <c r="E49" s="11" t="n">
         <f aca="false">ROUND(2*E52*E55/(E52+E55),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="12" t="e">
+        <v>0.755</v>
+      </c>
+      <c r="F49" s="12" t="n">
         <f aca="false">ROUND(2*F52*F55/(F52+F55),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G49" s="11" t="e">
+        <v>0.676</v>
+      </c>
+      <c r="G49" s="11" t="n">
         <f aca="false">ROUND(2*G52*G55/(G52+G55),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H49" s="12" t="e">
+        <v>0.837</v>
+      </c>
+      <c r="H49" s="12" t="n">
         <f aca="false">ROUND(2*H52*H55/(H52+H55),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="11" t="e">
+        <v>0.857</v>
+      </c>
+      <c r="I49" s="11" t="n">
         <f aca="false">ROUND(2*I52*I55/(I52+I55),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="11" t="e">
+        <v>0.89</v>
+      </c>
+      <c r="J49" s="11" t="n">
         <f aca="false">ROUND(2*J52*J55/(J52+J55),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K49" s="11" t="e">
+        <v>0.882</v>
+      </c>
+      <c r="K49" s="41" t="n">
         <f aca="false">ROUND(2*K52*K55/(K52+K55),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L49" s="12" t="e">
+        <v>0.892</v>
+      </c>
+      <c r="L49" s="12" t="n">
         <f aca="false">ROUND(2*L52*L55/(L52+L55),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M49" s="13"/>
-      <c r="P49" s="13"/>
+        <v>0.884</v>
+      </c>
+      <c r="M49" s="14"/>
+      <c r="P49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="15" t="e">
+      <c r="D50" s="16" t="n">
         <f aca="false">ROUND(2*D53*D56/(D53+D56),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E50" s="15" t="e">
+        <v>0.975</v>
+      </c>
+      <c r="E50" s="17" t="n">
         <f aca="false">ROUND(2*E53*E56/(E53+E56),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="16" t="e">
+        <v>0.944</v>
+      </c>
+      <c r="F50" s="18" t="n">
         <f aca="false">ROUND(2*F53*F56/(F53+F56),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G50" s="15" t="e">
+        <v>0.876</v>
+      </c>
+      <c r="G50" s="17" t="n">
         <f aca="false">ROUND(2*G53*G56/(G53+G56),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H50" s="16" t="e">
+        <v>0.846</v>
+      </c>
+      <c r="H50" s="18" t="n">
         <f aca="false">ROUND(2*H53*H56/(H53+H56),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="15" t="e">
+        <v>0.819</v>
+      </c>
+      <c r="I50" s="17" t="n">
         <f aca="false">ROUND(2*I53*I56/(I53+I56),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J50" s="15" t="e">
+        <v>0.912</v>
+      </c>
+      <c r="J50" s="17" t="n">
         <f aca="false">ROUND(2*J53*J56/(J53+J56),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K50" s="15" t="e">
+        <v>0.88</v>
+      </c>
+      <c r="K50" s="17" t="n">
         <f aca="false">ROUND(2*K53*K56/(K53+K56),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L50" s="16" t="e">
+        <v>0.931</v>
+      </c>
+      <c r="L50" s="18" t="n">
         <f aca="false">ROUND(2*L53*L56/(L53+L56),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M50" s="13"/>
-      <c r="P50" s="13"/>
+        <v>0.872</v>
+      </c>
+      <c r="M50" s="14"/>
+      <c r="P50" s="14"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="18" t="e">
+      <c r="D51" s="20" t="n">
         <f aca="false">ROUND(2*D54*D57/(D54+D57),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E51" s="18" t="e">
+        <v>0.661</v>
+      </c>
+      <c r="E51" s="20" t="n">
         <f aca="false">ROUND(2*E54*E57/(E54+E57),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="19" t="e">
+        <v>0.635</v>
+      </c>
+      <c r="F51" s="21" t="n">
         <f aca="false">ROUND(2*F54*F57/(F54+F57),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="18" t="e">
+        <v>0.555</v>
+      </c>
+      <c r="G51" s="20" t="n">
         <f aca="false">ROUND(2*G54*G57/(G54+G57),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H51" s="19" t="e">
+        <v>0.836</v>
+      </c>
+      <c r="H51" s="22" t="n">
         <f aca="false">ROUND(2*H54*H57/(H54+H57),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="18" t="e">
+        <v>0.905</v>
+      </c>
+      <c r="I51" s="20" t="n">
         <f aca="false">ROUND(2*I54*I57/(I54+I57),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J51" s="18" t="e">
+        <v>0.872</v>
+      </c>
+      <c r="J51" s="20" t="n">
         <f aca="false">ROUND(2*J54*J57/(J54+J57),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K51" s="18" t="e">
+        <v>0.887</v>
+      </c>
+      <c r="K51" s="20" t="n">
         <f aca="false">ROUND(2*K54*K57/(K54+K57),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L51" s="19" t="e">
+        <v>0.857</v>
+      </c>
+      <c r="L51" s="21" t="n">
         <f aca="false">ROUND(2*L54*L57/(L54+L57),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M51" s="13"/>
-      <c r="P51" s="13"/>
+        <v>0.899</v>
+      </c>
+      <c r="M51" s="14"/>
+      <c r="P51" s="14"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
@@ -2179,55 +2635,109 @@
       <c r="C52" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
+      <c r="D52" s="33" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E52" s="33" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F52" s="34" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="G52" s="33" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="H52" s="34" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="I52" s="32" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="J52" s="33" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="K52" s="32" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="L52" s="34" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="13"/>
-      <c r="P53" s="13"/>
+      <c r="D53" s="43" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="E53" s="35" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="F53" s="36" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="G53" s="35" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H53" s="36" t="n">
+        <v>0.808</v>
+      </c>
+      <c r="I53" s="35" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="J53" s="35" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="K53" s="35" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="L53" s="36" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="M53" s="14"/>
+      <c r="P53" s="14"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
+      <c r="D54" s="37" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="E54" s="37" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F54" s="40" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="G54" s="37" t="n">
+        <v>0.818</v>
+      </c>
+      <c r="H54" s="40" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="I54" s="37" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="J54" s="37" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="K54" s="37" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="L54" s="38" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
@@ -2237,51 +2747,105 @@
       <c r="C55" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="13"/>
-      <c r="P55" s="13"/>
+      <c r="D55" s="33" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="E55" s="33" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="F55" s="34" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="G55" s="33" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="H55" s="34" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="I55" s="33" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="J55" s="33" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="K55" s="32" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="L55" s="34" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="M55" s="14"/>
+      <c r="P55" s="14"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="13"/>
-      <c r="P56" s="13"/>
+      <c r="D56" s="43" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="E56" s="35" t="n">
+        <v>0.932</v>
+      </c>
+      <c r="F56" s="36" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="G56" s="35" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="H56" s="36" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I56" s="35" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="J56" s="35" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="K56" s="35" t="n">
+        <v>0.934</v>
+      </c>
+      <c r="L56" s="36" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="M56" s="14"/>
+      <c r="P56" s="14"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="13"/>
-      <c r="P57" s="13"/>
+      <c r="D57" s="37" t="n">
+        <v>0.691</v>
+      </c>
+      <c r="E57" s="37" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="F57" s="40" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="G57" s="37" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="H57" s="38" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="I57" s="37" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="J57" s="37" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="K57" s="37" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="L57" s="40" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="M57" s="14"/>
+      <c r="P57" s="14"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
@@ -2293,29 +2857,29 @@
       <c r="C58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="11" t="e">
+      <c r="D58" s="11" t="n">
         <f aca="false">ROUND(2*D61*D64/(D61+D64),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E58" s="11" t="e">
+        <v>0.707</v>
+      </c>
+      <c r="E58" s="11" t="n">
         <f aca="false">ROUND(2*E61*E64/(E61+E64),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.736</v>
       </c>
       <c r="F58" s="12" t="e">
         <f aca="false">ROUND(2*F61*F64/(F61+F64),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G58" s="11" t="e">
+      <c r="G58" s="11" t="n">
         <f aca="false">ROUND(2*G61*G64/(G61+G64),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H58" s="12" t="e">
+        <v>0.632</v>
+      </c>
+      <c r="H58" s="12" t="n">
         <f aca="false">ROUND(2*H61*H64/(H61+H64),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I58" s="11" t="e">
+        <v>0.633</v>
+      </c>
+      <c r="I58" s="11" t="n">
         <f aca="false">ROUND(2*I61*I64/(I61+I64),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.584</v>
       </c>
       <c r="J58" s="11" t="e">
         <f aca="false">ROUND(2*J61*J64/(J61+J64),3)</f>
@@ -2329,94 +2893,94 @@
         <f aca="false">ROUND(2*L61*L64/(L61+L64),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M58" s="13"/>
-      <c r="P58" s="13"/>
+      <c r="M58" s="14"/>
+      <c r="P58" s="14"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="15" t="e">
+      <c r="D59" s="17" t="n">
         <f aca="false">ROUND(2*D62*D65/(D62+D65),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E59" s="15" t="e">
+        <v>0.799</v>
+      </c>
+      <c r="E59" s="17" t="n">
         <f aca="false">ROUND(2*E62*E65/(E62+E65),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F59" s="16" t="e">
+        <v>0.75</v>
+      </c>
+      <c r="F59" s="18" t="e">
         <f aca="false">ROUND(2*F62*F65/(F62+F65),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G59" s="15" t="e">
+      <c r="G59" s="17" t="n">
         <f aca="false">ROUND(2*G62*G65/(G62+G65),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H59" s="16" t="e">
+        <v>0.624</v>
+      </c>
+      <c r="H59" s="18" t="n">
         <f aca="false">ROUND(2*H62*H65/(H62+H65),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I59" s="15" t="e">
+        <v>0.623</v>
+      </c>
+      <c r="I59" s="17" t="n">
         <f aca="false">ROUND(2*I62*I65/(I62+I65),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="15" t="e">
+        <v>0.589</v>
+      </c>
+      <c r="J59" s="17" t="e">
         <f aca="false">ROUND(2*J62*J65/(J62+J65),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K59" s="15" t="e">
+      <c r="K59" s="17" t="e">
         <f aca="false">ROUND(2*K62*K65/(K62+K65),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L59" s="16" t="e">
+      <c r="L59" s="18" t="e">
         <f aca="false">ROUND(2*L62*L65/(L62+L65),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M59" s="13"/>
-      <c r="P59" s="13"/>
+      <c r="M59" s="14"/>
+      <c r="P59" s="14"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="18" t="e">
+      <c r="D60" s="20" t="n">
         <f aca="false">ROUND(2*D63*D66/(D63+D66),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E60" s="18" t="e">
+        <v>0.69</v>
+      </c>
+      <c r="E60" s="20" t="n">
         <f aca="false">ROUND(2*E63*E66/(E63+E66),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F60" s="19" t="e">
+        <v>0.78</v>
+      </c>
+      <c r="F60" s="21" t="e">
         <f aca="false">ROUND(2*F63*F66/(F63+F66),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G60" s="18" t="e">
+      <c r="G60" s="20" t="n">
         <f aca="false">ROUND(2*G63*G66/(G63+G66),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H60" s="19" t="e">
+        <v>0.699</v>
+      </c>
+      <c r="H60" s="21" t="n">
         <f aca="false">ROUND(2*H63*H66/(H63+H66),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" s="18" t="e">
+        <v>0.701</v>
+      </c>
+      <c r="I60" s="20" t="n">
         <f aca="false">ROUND(2*I63*I66/(I63+I66),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J60" s="18" t="e">
+        <v>0.636</v>
+      </c>
+      <c r="J60" s="20" t="e">
         <f aca="false">ROUND(2*J63*J66/(J63+J66),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K60" s="18" t="e">
+      <c r="K60" s="20" t="e">
         <f aca="false">ROUND(2*K63*K66/(K63+K66),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L60" s="19" t="e">
+      <c r="L60" s="21" t="e">
         <f aca="false">ROUND(2*L63*L66/(L63+L66),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M60" s="13"/>
-      <c r="P60" s="13"/>
+      <c r="M60" s="14"/>
+      <c r="P60" s="14"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="2" t="s">
@@ -2425,53 +2989,83 @@
       <c r="C61" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
+      <c r="D61" s="33" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="E61" s="33" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="F61" s="46"/>
+      <c r="G61" s="33" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H61" s="34" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="I61" s="33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="13"/>
-      <c r="P62" s="13"/>
+      <c r="D62" s="35" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E62" s="35" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="F62" s="48"/>
+      <c r="G62" s="35" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="H62" s="36" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="I62" s="35" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="14"/>
+      <c r="P62" s="14"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
+      <c r="D63" s="37" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="E63" s="37" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="F63" s="50"/>
+      <c r="G63" s="37" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="H63" s="40" t="n">
+        <v>0.682</v>
+      </c>
+      <c r="I63" s="37" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
@@ -2480,68 +3074,108 @@
       <c r="C64" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="13"/>
-      <c r="P64" s="13"/>
+      <c r="D64" s="33" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="E64" s="33" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="F64" s="46"/>
+      <c r="G64" s="33" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H64" s="34" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="I64" s="33" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="14"/>
+      <c r="P64" s="14"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="13"/>
-      <c r="P65" s="13"/>
+      <c r="D65" s="35" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E65" s="35" t="n">
+        <v>0.746</v>
+      </c>
+      <c r="F65" s="48"/>
+      <c r="G65" s="35" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="H65" s="36" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="I65" s="35" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="14"/>
+      <c r="P65" s="14"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="13"/>
-      <c r="P66" s="13"/>
+      <c r="D66" s="37" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="E66" s="37" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="F66" s="50"/>
+      <c r="G66" s="37" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H66" s="40" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="I66" s="37" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="14"/>
+      <c r="P66" s="14"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
+      <c r="D67" s="45" t="n">
+        <v>31542.4</v>
+      </c>
+      <c r="E67" s="45" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="F67" s="52"/>
+      <c r="G67" s="45" t="n">
+        <v>12000.2</v>
+      </c>
+      <c r="H67" s="45" t="n">
+        <v>11787.3</v>
+      </c>
+      <c r="I67" s="45" t="n">
+        <v>1482.4</v>
+      </c>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
@@ -2553,29 +3187,29 @@
       <c r="C68" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="11" t="e">
+      <c r="D68" s="11" t="n">
         <f aca="false">ROUND(2*D71*D74/(D71+D74),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E68" s="11" t="e">
+        <v>0.8</v>
+      </c>
+      <c r="E68" s="11" t="n">
         <f aca="false">ROUND(2*E71*E74/(E71+E74),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.79</v>
       </c>
       <c r="F68" s="12" t="e">
         <f aca="false">ROUND(2*F71*F74/(F71+F74),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G68" s="11" t="e">
+      <c r="G68" s="11" t="n">
         <f aca="false">ROUND(2*G71*G74/(G71+G74),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H68" s="12" t="e">
+        <v>0.744</v>
+      </c>
+      <c r="H68" s="12" t="n">
         <f aca="false">ROUND(2*H71*H74/(H71+H74),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I68" s="11" t="e">
+        <v>0.75</v>
+      </c>
+      <c r="I68" s="11" t="n">
         <f aca="false">ROUND(2*I71*I74/(I71+I74),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.769</v>
       </c>
       <c r="J68" s="11" t="e">
         <f aca="false">ROUND(2*J71*J74/(J71+J74),3)</f>
@@ -2589,96 +3223,96 @@
         <f aca="false">ROUND(2*L71*L74/(L71+L74),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M68" s="13"/>
-      <c r="P68" s="13"/>
+      <c r="M68" s="14"/>
+      <c r="P68" s="14"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="15" t="e">
+      <c r="D69" s="17" t="n">
         <f aca="false">ROUND(2*D72*D75/(D72+D75),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E69" s="15" t="e">
+        <v>0.916</v>
+      </c>
+      <c r="E69" s="17" t="n">
         <f aca="false">ROUND(2*E72*E75/(E72+E75),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F69" s="16" t="e">
+        <v>0.899</v>
+      </c>
+      <c r="F69" s="18" t="e">
         <f aca="false">ROUND(2*F72*F75/(F72+F75),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G69" s="15" t="e">
+      <c r="G69" s="17" t="n">
         <f aca="false">ROUND(2*G72*G75/(G72+G75),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H69" s="16" t="e">
+        <v>0.737</v>
+      </c>
+      <c r="H69" s="18" t="n">
         <f aca="false">ROUND(2*H72*H75/(H72+H75),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I69" s="15" t="e">
+        <v>0.733</v>
+      </c>
+      <c r="I69" s="17" t="n">
         <f aca="false">ROUND(2*I72*I75/(I72+I75),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J69" s="15" t="e">
+        <v>0.77</v>
+      </c>
+      <c r="J69" s="17" t="e">
         <f aca="false">ROUND(2*J72*J75/(J72+J75),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K69" s="15" t="e">
+      <c r="K69" s="17" t="e">
         <f aca="false">ROUND(2*K72*K75/(K72+K75),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L69" s="16" t="e">
+      <c r="L69" s="18" t="e">
         <f aca="false">ROUND(2*L72*L75/(L72+L75),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M69" s="13"/>
-      <c r="P69" s="13"/>
+      <c r="M69" s="14"/>
+      <c r="P69" s="14"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="18" t="e">
+      <c r="D70" s="20" t="n">
         <f aca="false">ROUND(2*D73*D76/(D73+D76),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E70" s="18" t="e">
+        <v>0.737</v>
+      </c>
+      <c r="E70" s="20" t="n">
         <f aca="false">ROUND(2*E73*E76/(E73+E76),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F70" s="19" t="e">
+        <v>0.731</v>
+      </c>
+      <c r="F70" s="21" t="e">
         <f aca="false">ROUND(2*F73*F76/(F73+F76),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G70" s="18" t="e">
+      <c r="G70" s="20" t="n">
         <f aca="false">ROUND(2*G73*G76/(G73+G76),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H70" s="19" t="e">
+        <v>0.781</v>
+      </c>
+      <c r="H70" s="21" t="n">
         <f aca="false">ROUND(2*H73*H76/(H73+H76),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I70" s="18" t="e">
+        <v>0.797</v>
+      </c>
+      <c r="I70" s="20" t="n">
         <f aca="false">ROUND(2*I73*I76/(I73+I76),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J70" s="18" t="e">
+        <v>0.789</v>
+      </c>
+      <c r="J70" s="20" t="e">
         <f aca="false">ROUND(2*J73*J76/(J73+J76),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K70" s="18" t="e">
+      <c r="K70" s="20" t="e">
         <f aca="false">ROUND(2*K73*K76/(K73+K76),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L70" s="19" t="e">
+      <c r="L70" s="21" t="e">
         <f aca="false">ROUND(2*L73*L76/(L73+L76),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M70" s="13"/>
-      <c r="P70" s="13"/>
+      <c r="M70" s="14"/>
+      <c r="P70" s="14"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
@@ -2688,55 +3322,85 @@
       <c r="C71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
+      <c r="D71" s="33" t="n">
+        <v>0.811</v>
+      </c>
+      <c r="E71" s="33" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="F71" s="46"/>
+      <c r="G71" s="33" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="H71" s="34" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="I71" s="33" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="13"/>
-      <c r="P72" s="13"/>
+      <c r="D72" s="35" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="E72" s="35" t="n">
+        <v>0.903</v>
+      </c>
+      <c r="F72" s="48"/>
+      <c r="G72" s="35" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="H72" s="36" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="I72" s="35" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="14"/>
+      <c r="P72" s="14"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
+      <c r="D73" s="37" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="E73" s="37" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="F73" s="50"/>
+      <c r="G73" s="37" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="H73" s="40" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="I73" s="37" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
@@ -2746,51 +3410,81 @@
       <c r="C74" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="13"/>
-      <c r="P74" s="13"/>
+      <c r="D74" s="33" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="E74" s="33" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="F74" s="46"/>
+      <c r="G74" s="33" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="H74" s="34" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="I74" s="33" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="14"/>
+      <c r="P74" s="14"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="13"/>
-      <c r="P75" s="13"/>
+      <c r="D75" s="35" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="E75" s="35" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F75" s="48"/>
+      <c r="G75" s="35" t="n">
+        <v>0.746</v>
+      </c>
+      <c r="H75" s="36" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="I75" s="35" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="14"/>
+      <c r="P75" s="14"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="13"/>
-      <c r="P76" s="13"/>
+      <c r="D76" s="37" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="E76" s="37" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="F76" s="50"/>
+      <c r="G76" s="37" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="H76" s="40" t="n">
+        <v>0.813</v>
+      </c>
+      <c r="I76" s="37" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="14"/>
+      <c r="P76" s="14"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
@@ -2802,29 +3496,29 @@
       <c r="C77" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="11" t="e">
+      <c r="D77" s="53" t="n">
         <f aca="false">ROUND(2*D80*D83/(D80+D83),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E77" s="11" t="e">
+        <v>0.799</v>
+      </c>
+      <c r="E77" s="11" t="n">
         <f aca="false">ROUND(2*E80*E83/(E80+E83),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.802</v>
       </c>
       <c r="F77" s="12" t="e">
         <f aca="false">ROUND(2*F80*F83/(F80+F83),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G77" s="11" t="e">
+      <c r="G77" s="11" t="n">
         <f aca="false">ROUND(2*G80*G83/(G80+G83),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H77" s="12" t="e">
+        <v>0.803</v>
+      </c>
+      <c r="H77" s="54" t="n">
         <f aca="false">ROUND(2*H80*H83/(H80+H83),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I77" s="11" t="e">
+        <v>0.827</v>
+      </c>
+      <c r="I77" s="11" t="n">
         <f aca="false">ROUND(2*I80*I83/(I80+I83),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.848</v>
       </c>
       <c r="J77" s="11" t="e">
         <f aca="false">ROUND(2*J80*J83/(J80+J83),3)</f>
@@ -2838,96 +3532,96 @@
         <f aca="false">ROUND(2*L80*L83/(L80+L83),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M77" s="13"/>
-      <c r="P77" s="13"/>
+      <c r="M77" s="14"/>
+      <c r="P77" s="14"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="15" t="e">
+      <c r="D78" s="55" t="n">
         <f aca="false">ROUND(2*D81*D84/(D81+D84),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E78" s="15" t="e">
+        <v>0.932</v>
+      </c>
+      <c r="E78" s="17" t="n">
         <f aca="false">ROUND(2*E81*E84/(E81+E84),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F78" s="16" t="e">
+        <v>0.95</v>
+      </c>
+      <c r="F78" s="18" t="e">
         <f aca="false">ROUND(2*F81*F84/(F81+F84),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G78" s="15" t="e">
+      <c r="G78" s="17" t="n">
         <f aca="false">ROUND(2*G81*G84/(G81+G84),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H78" s="16" t="e">
+        <v>0.807</v>
+      </c>
+      <c r="H78" s="56" t="n">
         <f aca="false">ROUND(2*H81*H84/(H81+H84),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I78" s="15" t="e">
+        <v>0.799</v>
+      </c>
+      <c r="I78" s="17" t="n">
         <f aca="false">ROUND(2*I81*I84/(I81+I84),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J78" s="15" t="e">
+        <v>0.847</v>
+      </c>
+      <c r="J78" s="17" t="e">
         <f aca="false">ROUND(2*J81*J84/(J81+J84),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K78" s="15" t="e">
+      <c r="K78" s="17" t="e">
         <f aca="false">ROUND(2*K81*K84/(K81+K84),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L78" s="16" t="e">
+      <c r="L78" s="18" t="e">
         <f aca="false">ROUND(2*L81*L84/(L81+L84),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M78" s="13"/>
-      <c r="P78" s="13"/>
+      <c r="M78" s="14"/>
+      <c r="P78" s="14"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="18" t="e">
+      <c r="D79" s="57" t="n">
         <f aca="false">ROUND(2*D82*D85/(D82+D85),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E79" s="18" t="e">
+        <v>0.713</v>
+      </c>
+      <c r="E79" s="20" t="n">
         <f aca="false">ROUND(2*E82*E85/(E82+E85),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F79" s="19" t="e">
+        <v>0.709</v>
+      </c>
+      <c r="F79" s="21" t="e">
         <f aca="false">ROUND(2*F82*F85/(F82+F85),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G79" s="18" t="e">
+      <c r="G79" s="20" t="n">
         <f aca="false">ROUND(2*G82*G85/(G82+G85),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H79" s="19" t="e">
+        <v>0.823</v>
+      </c>
+      <c r="H79" s="58" t="n">
         <f aca="false">ROUND(2*H82*H85/(H82+H85),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I79" s="18" t="e">
+        <v>0.88</v>
+      </c>
+      <c r="I79" s="20" t="n">
         <f aca="false">ROUND(2*I82*I85/(I82+I85),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J79" s="18" t="e">
+        <v>0.854</v>
+      </c>
+      <c r="J79" s="20" t="e">
         <f aca="false">ROUND(2*J82*J85/(J82+J85),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K79" s="18" t="e">
+      <c r="K79" s="20" t="e">
         <f aca="false">ROUND(2*K82*K85/(K82+K85),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L79" s="19" t="e">
+      <c r="L79" s="21" t="e">
         <f aca="false">ROUND(2*L82*L85/(L82+L85),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M79" s="13"/>
-      <c r="P79" s="13"/>
+      <c r="M79" s="14"/>
+      <c r="P79" s="14"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
@@ -2937,55 +3631,85 @@
       <c r="C80" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
+      <c r="D80" s="33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E80" s="33" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="F80" s="46"/>
+      <c r="G80" s="33" t="n">
+        <v>0.812</v>
+      </c>
+      <c r="H80" s="34" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="I80" s="33" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="13"/>
-      <c r="P81" s="13"/>
+      <c r="D81" s="35" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="E81" s="35" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="F81" s="48"/>
+      <c r="G81" s="35" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="H81" s="36" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="I81" s="35" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J81" s="49"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="48"/>
+      <c r="M81" s="14"/>
+      <c r="P81" s="14"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
+      <c r="D82" s="37" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="E82" s="37" t="n">
+        <v>0.688</v>
+      </c>
+      <c r="F82" s="50"/>
+      <c r="G82" s="37" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="H82" s="40" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="I82" s="37" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
@@ -2995,51 +3719,81 @@
       <c r="C83" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="23"/>
-      <c r="M83" s="13"/>
-      <c r="P83" s="13"/>
+      <c r="D83" s="33" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="E83" s="33" t="n">
+        <v>0.807</v>
+      </c>
+      <c r="F83" s="46"/>
+      <c r="G83" s="33" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="H83" s="34" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I83" s="33" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="14"/>
+      <c r="P83" s="14"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="13"/>
-      <c r="P84" s="13"/>
+      <c r="D84" s="35" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="E84" s="35" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="F84" s="48"/>
+      <c r="G84" s="35" t="n">
+        <v>0.811</v>
+      </c>
+      <c r="H84" s="36" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="I84" s="35" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="14"/>
+      <c r="P84" s="14"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="13"/>
-      <c r="P85" s="13"/>
+      <c r="D85" s="37" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="E85" s="37" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="F85" s="50"/>
+      <c r="G85" s="37" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H85" s="40" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="I85" s="37" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="14"/>
+      <c r="P85" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -3106,128 +3860,128 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="32" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="59" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="36"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3275,15 +4029,15 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
@@ -3298,102 +4052,102 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
@@ -3408,91 +4162,91 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="1"/>

--- a/benchmarks/summary_ali.xlsx
+++ b/benchmarks/summary_ali.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="35">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -118,6 +118,29 @@
   <si>
     <t xml:space="preserve">Rfam14.9, 
 Depth &gt;= 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubAli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubAli, 
+Depth &gt;= 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harmonized F-score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total F-score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean F-score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubAli, 
+Depth ≥ 30</t>
   </si>
 </sst>
 </file>
@@ -285,7 +308,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -414,7 +437,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -438,66 +497,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -522,28 +529,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -551,6 +578,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -575,12 +606,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ85"/>
+  <dimension ref="A1:AMJ113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I81" activeCellId="0" sqref="I81"/>
+      <selection pane="bottomLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1196,13 +1227,13 @@
       <c r="I15" s="23" t="n">
         <v>0.788</v>
       </c>
-      <c r="J15" s="32" t="n">
+      <c r="J15" s="25" t="n">
         <v>0.815</v>
       </c>
-      <c r="K15" s="33" t="n">
+      <c r="K15" s="23" t="n">
         <v>0.792</v>
       </c>
-      <c r="L15" s="34" t="n">
+      <c r="L15" s="24" t="n">
         <v>0.814</v>
       </c>
       <c r="M15" s="14"/>
@@ -1233,13 +1264,13 @@
       <c r="I16" s="14" t="n">
         <v>0.863</v>
       </c>
-      <c r="J16" s="35" t="n">
+      <c r="J16" s="14" t="n">
         <v>0.838</v>
       </c>
-      <c r="K16" s="35" t="n">
+      <c r="K16" s="14" t="n">
         <v>0.905</v>
       </c>
-      <c r="L16" s="36" t="n">
+      <c r="L16" s="27" t="n">
         <v>0.822</v>
       </c>
       <c r="M16" s="14"/>
@@ -1268,13 +1299,13 @@
       <c r="I17" s="28" t="n">
         <v>0.724</v>
       </c>
-      <c r="J17" s="37" t="n">
+      <c r="J17" s="28" t="n">
         <v>0.794</v>
       </c>
-      <c r="K17" s="37" t="n">
+      <c r="K17" s="28" t="n">
         <v>0.703</v>
       </c>
-      <c r="L17" s="38" t="n">
+      <c r="L17" s="30" t="n">
         <v>0.806</v>
       </c>
       <c r="M17" s="14"/>
@@ -1308,13 +1339,13 @@
       <c r="I18" s="23" t="n">
         <v>0.834</v>
       </c>
-      <c r="J18" s="33" t="n">
+      <c r="J18" s="23" t="n">
         <v>0.851</v>
       </c>
-      <c r="K18" s="33" t="n">
+      <c r="K18" s="23" t="n">
         <v>0.833</v>
       </c>
-      <c r="L18" s="39" t="n">
+      <c r="L18" s="31" t="n">
         <v>0.858</v>
       </c>
       <c r="M18" s="14"/>
@@ -1343,13 +1374,13 @@
       <c r="I19" s="14" t="n">
         <v>0.871</v>
       </c>
-      <c r="J19" s="35" t="n">
+      <c r="J19" s="14" t="n">
         <v>0.856</v>
       </c>
-      <c r="K19" s="35" t="n">
+      <c r="K19" s="14" t="n">
         <v>0.896</v>
       </c>
-      <c r="L19" s="36" t="n">
+      <c r="L19" s="27" t="n">
         <v>0.851</v>
       </c>
       <c r="M19" s="14"/>
@@ -1378,13 +1409,13 @@
       <c r="I20" s="28" t="n">
         <v>0.809</v>
       </c>
-      <c r="J20" s="37" t="n">
+      <c r="J20" s="28" t="n">
         <v>0.85</v>
       </c>
-      <c r="K20" s="37" t="n">
+      <c r="K20" s="28" t="n">
         <v>0.79</v>
       </c>
-      <c r="L20" s="38" t="n">
+      <c r="L20" s="30" t="n">
         <v>0.867</v>
       </c>
       <c r="M20" s="14"/>
@@ -1553,13 +1584,13 @@
       <c r="I24" s="25" t="n">
         <v>0.893</v>
       </c>
-      <c r="J24" s="33" t="n">
+      <c r="J24" s="23" t="n">
         <v>0.89</v>
       </c>
-      <c r="K24" s="32" t="n">
+      <c r="K24" s="25" t="n">
         <v>0.893</v>
       </c>
-      <c r="L24" s="34" t="n">
+      <c r="L24" s="24" t="n">
         <v>0.892</v>
       </c>
       <c r="M24" s="14"/>
@@ -1590,13 +1621,13 @@
       <c r="I25" s="14" t="n">
         <v>0.92</v>
       </c>
-      <c r="J25" s="35" t="n">
+      <c r="J25" s="14" t="n">
         <v>0.89</v>
       </c>
-      <c r="K25" s="35" t="n">
+      <c r="K25" s="14" t="n">
         <v>0.934</v>
       </c>
-      <c r="L25" s="36" t="n">
+      <c r="L25" s="27" t="n">
         <v>0.882</v>
       </c>
       <c r="M25" s="14"/>
@@ -1625,13 +1656,13 @@
       <c r="I26" s="28" t="n">
         <v>0.867</v>
       </c>
-      <c r="J26" s="37" t="n">
+      <c r="J26" s="28" t="n">
         <v>0.89</v>
       </c>
-      <c r="K26" s="37" t="n">
+      <c r="K26" s="28" t="n">
         <v>0.856</v>
       </c>
-      <c r="L26" s="38" t="n">
+      <c r="L26" s="30" t="n">
         <v>0.902</v>
       </c>
       <c r="M26" s="14"/>
@@ -1665,13 +1696,13 @@
       <c r="I27" s="23" t="n">
         <v>0.883</v>
       </c>
-      <c r="J27" s="32" t="n">
+      <c r="J27" s="25" t="n">
         <v>0.89</v>
       </c>
-      <c r="K27" s="33" t="n">
+      <c r="K27" s="23" t="n">
         <v>0.883</v>
       </c>
-      <c r="L27" s="39" t="n">
+      <c r="L27" s="31" t="n">
         <v>0.89</v>
       </c>
       <c r="M27" s="14"/>
@@ -1700,13 +1731,13 @@
       <c r="I28" s="14" t="n">
         <v>0.9</v>
       </c>
-      <c r="J28" s="35" t="n">
+      <c r="J28" s="14" t="n">
         <v>0.886</v>
       </c>
-      <c r="K28" s="35" t="n">
+      <c r="K28" s="14" t="n">
         <v>0.911</v>
       </c>
-      <c r="L28" s="36" t="n">
+      <c r="L28" s="27" t="n">
         <v>0.878</v>
       </c>
       <c r="M28" s="14"/>
@@ -1735,13 +1766,13 @@
       <c r="I29" s="28" t="n">
         <v>0.866</v>
       </c>
-      <c r="J29" s="37" t="n">
+      <c r="J29" s="28" t="n">
         <v>0.894</v>
       </c>
-      <c r="K29" s="37" t="n">
+      <c r="K29" s="28" t="n">
         <v>0.857</v>
       </c>
-      <c r="L29" s="40" t="n">
+      <c r="L29" s="29" t="n">
         <v>0.903</v>
       </c>
       <c r="M29" s="14"/>
@@ -1761,7 +1792,7 @@
         <f aca="false">ROUND(2*D33*D36/(D33+D36),3)</f>
         <v>0.797</v>
       </c>
-      <c r="E30" s="41" t="n">
+      <c r="E30" s="32" t="n">
         <f aca="false">ROUND(2*E33*E36/(E33+E36),3)</f>
         <v>0.803</v>
       </c>
@@ -1867,7 +1898,7 @@
         <f aca="false">ROUND(2*I35*I38/(I35+I38),3)</f>
         <v>0.71</v>
       </c>
-      <c r="J32" s="42" t="n">
+      <c r="J32" s="33" t="n">
         <f aca="false">ROUND(2*J35*J38/(J35+J38),3)</f>
         <v>0.786</v>
       </c>
@@ -1889,31 +1920,31 @@
       <c r="C33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="33" t="n">
+      <c r="D33" s="23" t="n">
         <v>0.799</v>
       </c>
-      <c r="E33" s="32" t="n">
+      <c r="E33" s="25" t="n">
         <v>0.805</v>
       </c>
-      <c r="F33" s="34" t="n">
+      <c r="F33" s="24" t="n">
         <v>0.73</v>
       </c>
-      <c r="G33" s="33" t="n">
+      <c r="G33" s="23" t="n">
         <v>0.718</v>
       </c>
-      <c r="H33" s="34" t="n">
+      <c r="H33" s="24" t="n">
         <v>0.716</v>
       </c>
-      <c r="I33" s="33" t="n">
+      <c r="I33" s="23" t="n">
         <v>0.714</v>
       </c>
-      <c r="J33" s="33" t="n">
+      <c r="J33" s="23" t="n">
         <v>0.757</v>
       </c>
-      <c r="K33" s="33" t="n">
+      <c r="K33" s="23" t="n">
         <v>0.731</v>
       </c>
-      <c r="L33" s="34" t="n">
+      <c r="L33" s="24" t="n">
         <v>0.737</v>
       </c>
       <c r="M33" s="14"/>
@@ -1925,31 +1956,31 @@
       <c r="C34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="43" t="n">
+      <c r="D34" s="26" t="n">
         <v>0.933</v>
       </c>
-      <c r="E34" s="35" t="n">
+      <c r="E34" s="14" t="n">
         <v>0.89</v>
       </c>
-      <c r="F34" s="36" t="n">
+      <c r="F34" s="27" t="n">
         <v>0.814</v>
       </c>
-      <c r="G34" s="35" t="n">
+      <c r="G34" s="14" t="n">
         <v>0.717</v>
       </c>
-      <c r="H34" s="36" t="n">
+      <c r="H34" s="27" t="n">
         <v>0.701</v>
       </c>
-      <c r="I34" s="35" t="n">
+      <c r="I34" s="14" t="n">
         <v>0.788</v>
       </c>
-      <c r="J34" s="35" t="n">
+      <c r="J34" s="14" t="n">
         <v>0.762</v>
       </c>
-      <c r="K34" s="35" t="n">
+      <c r="K34" s="14" t="n">
         <v>0.864</v>
       </c>
-      <c r="L34" s="36" t="n">
+      <c r="L34" s="27" t="n">
         <v>0.727</v>
       </c>
       <c r="M34" s="14"/>
@@ -1959,31 +1990,31 @@
       <c r="C35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="37" t="n">
+      <c r="D35" s="28" t="n">
         <v>0.698</v>
       </c>
-      <c r="E35" s="37" t="n">
+      <c r="E35" s="28" t="n">
         <v>0.735</v>
       </c>
-      <c r="F35" s="40" t="n">
+      <c r="F35" s="29" t="n">
         <v>0.662</v>
       </c>
-      <c r="G35" s="37" t="n">
+      <c r="G35" s="28" t="n">
         <v>0.719</v>
       </c>
-      <c r="H35" s="40" t="n">
+      <c r="H35" s="29" t="n">
         <v>0.73</v>
       </c>
-      <c r="I35" s="37" t="n">
+      <c r="I35" s="28" t="n">
         <v>0.652</v>
       </c>
-      <c r="J35" s="44" t="n">
+      <c r="J35" s="34" t="n">
         <v>0.752</v>
       </c>
-      <c r="K35" s="37" t="n">
+      <c r="K35" s="28" t="n">
         <v>0.634</v>
       </c>
-      <c r="L35" s="40" t="n">
+      <c r="L35" s="29" t="n">
         <v>0.748</v>
       </c>
       <c r="M35" s="14"/>
@@ -1998,31 +2029,31 @@
       <c r="C36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="33" t="n">
+      <c r="D36" s="23" t="n">
         <v>0.795</v>
       </c>
-      <c r="E36" s="32" t="n">
+      <c r="E36" s="25" t="n">
         <v>0.801</v>
       </c>
-      <c r="F36" s="34" t="n">
+      <c r="F36" s="24" t="n">
         <v>0.784</v>
       </c>
-      <c r="G36" s="33" t="n">
+      <c r="G36" s="23" t="n">
         <v>0.723</v>
       </c>
-      <c r="H36" s="34" t="n">
+      <c r="H36" s="24" t="n">
         <v>0.73</v>
       </c>
-      <c r="I36" s="33" t="n">
+      <c r="I36" s="23" t="n">
         <v>0.783</v>
       </c>
-      <c r="J36" s="33" t="n">
+      <c r="J36" s="23" t="n">
         <v>0.79</v>
       </c>
-      <c r="K36" s="33" t="n">
+      <c r="K36" s="23" t="n">
         <v>0.792</v>
       </c>
-      <c r="L36" s="34" t="n">
+      <c r="L36" s="24" t="n">
         <v>0.778</v>
       </c>
       <c r="M36" s="14"/>
@@ -2032,31 +2063,31 @@
       <c r="C37" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="43" t="n">
+      <c r="D37" s="26" t="n">
         <v>0.94</v>
       </c>
-      <c r="E37" s="35" t="n">
+      <c r="E37" s="14" t="n">
         <v>0.919</v>
       </c>
-      <c r="F37" s="36" t="n">
+      <c r="F37" s="27" t="n">
         <v>0.862</v>
       </c>
-      <c r="G37" s="35" t="n">
+      <c r="G37" s="14" t="n">
         <v>0.752</v>
       </c>
-      <c r="H37" s="36" t="n">
+      <c r="H37" s="27" t="n">
         <v>0.743</v>
       </c>
-      <c r="I37" s="35" t="n">
+      <c r="I37" s="14" t="n">
         <v>0.808</v>
       </c>
-      <c r="J37" s="35" t="n">
+      <c r="J37" s="14" t="n">
         <v>0.779</v>
       </c>
-      <c r="K37" s="35" t="n">
+      <c r="K37" s="14" t="n">
         <v>0.854</v>
       </c>
-      <c r="L37" s="36" t="n">
+      <c r="L37" s="27" t="n">
         <v>0.756</v>
       </c>
       <c r="M37" s="14"/>
@@ -2066,31 +2097,31 @@
       <c r="C38" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="37" t="n">
+      <c r="D38" s="28" t="n">
         <v>0.717</v>
       </c>
-      <c r="E38" s="37" t="n">
+      <c r="E38" s="28" t="n">
         <v>0.733</v>
       </c>
-      <c r="F38" s="40" t="n">
+      <c r="F38" s="29" t="n">
         <v>0.74</v>
       </c>
-      <c r="G38" s="37" t="n">
+      <c r="G38" s="28" t="n">
         <v>0.728</v>
       </c>
-      <c r="H38" s="40" t="n">
+      <c r="H38" s="29" t="n">
         <v>0.747</v>
       </c>
-      <c r="I38" s="37" t="n">
+      <c r="I38" s="28" t="n">
         <v>0.78</v>
       </c>
-      <c r="J38" s="44" t="n">
+      <c r="J38" s="34" t="n">
         <v>0.824</v>
       </c>
-      <c r="K38" s="37" t="n">
+      <c r="K38" s="28" t="n">
         <v>0.763</v>
       </c>
-      <c r="L38" s="40" t="n">
+      <c r="L38" s="29" t="n">
         <v>0.822</v>
       </c>
       <c r="M38" s="14"/>
@@ -2101,31 +2132,31 @@
         <v>19</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="45" t="n">
+      <c r="D39" s="3" t="n">
         <v>29858.8</v>
       </c>
-      <c r="E39" s="45" t="n">
+      <c r="E39" s="3" t="n">
         <v>134.1</v>
       </c>
-      <c r="F39" s="45" t="n">
+      <c r="F39" s="3" t="n">
         <v>2921.4</v>
       </c>
-      <c r="G39" s="45" t="n">
+      <c r="G39" s="3" t="n">
         <v>8681.1</v>
       </c>
-      <c r="H39" s="45" t="n">
+      <c r="H39" s="3" t="n">
         <v>8055.1</v>
       </c>
-      <c r="I39" s="45" t="n">
+      <c r="I39" s="3" t="n">
         <v>766.6</v>
       </c>
-      <c r="J39" s="45" t="n">
+      <c r="J39" s="3" t="n">
         <v>26678.7</v>
       </c>
-      <c r="K39" s="45" t="n">
+      <c r="K39" s="3" t="n">
         <v>26782</v>
       </c>
-      <c r="L39" s="45" t="n">
+      <c r="L39" s="3" t="n">
         <v>26576.9</v>
       </c>
       <c r="M39" s="14"/>
@@ -2143,7 +2174,7 @@
       <c r="C40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="41" t="n">
+      <c r="D40" s="32" t="n">
         <f aca="false">ROUND(2*D43*D46/(D43+D46),3)</f>
         <v>0.817</v>
       </c>
@@ -2278,31 +2309,31 @@
       <c r="C43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="33" t="n">
+      <c r="D43" s="23" t="n">
         <v>0.82</v>
       </c>
-      <c r="E43" s="32" t="n">
+      <c r="E43" s="25" t="n">
         <v>0.821</v>
       </c>
-      <c r="F43" s="34" t="n">
+      <c r="F43" s="24" t="n">
         <v>0.743</v>
       </c>
-      <c r="G43" s="33" t="n">
+      <c r="G43" s="23" t="n">
         <v>0.752</v>
       </c>
-      <c r="H43" s="34" t="n">
+      <c r="H43" s="24" t="n">
         <v>0.75</v>
       </c>
-      <c r="I43" s="33" t="n">
+      <c r="I43" s="23" t="n">
         <v>0.726</v>
       </c>
-      <c r="J43" s="33" t="n">
+      <c r="J43" s="23" t="n">
         <v>0.779</v>
       </c>
-      <c r="K43" s="33" t="n">
+      <c r="K43" s="23" t="n">
         <v>0.739</v>
       </c>
-      <c r="L43" s="34" t="n">
+      <c r="L43" s="24" t="n">
         <v>0.761</v>
       </c>
       <c r="M43" s="14"/>
@@ -2315,31 +2346,31 @@
       <c r="C44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="43" t="n">
+      <c r="D44" s="26" t="n">
         <v>0.955</v>
       </c>
-      <c r="E44" s="35" t="n">
+      <c r="E44" s="14" t="n">
         <v>0.927</v>
       </c>
-      <c r="F44" s="36" t="n">
+      <c r="F44" s="27" t="n">
         <v>0.848</v>
       </c>
-      <c r="G44" s="35" t="n">
+      <c r="G44" s="14" t="n">
         <v>0.752</v>
       </c>
-      <c r="H44" s="36" t="n">
+      <c r="H44" s="27" t="n">
         <v>0.737</v>
       </c>
-      <c r="I44" s="35" t="n">
+      <c r="I44" s="14" t="n">
         <v>0.813</v>
       </c>
-      <c r="J44" s="35" t="n">
+      <c r="J44" s="14" t="n">
         <v>0.796</v>
       </c>
-      <c r="K44" s="35" t="n">
+      <c r="K44" s="14" t="n">
         <v>0.879</v>
       </c>
-      <c r="L44" s="36" t="n">
+      <c r="L44" s="27" t="n">
         <v>0.764</v>
       </c>
       <c r="M44" s="14"/>
@@ -2350,31 +2381,31 @@
       <c r="C45" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="37" t="n">
+      <c r="D45" s="28" t="n">
         <v>0.718</v>
       </c>
-      <c r="E45" s="37" t="n">
+      <c r="E45" s="28" t="n">
         <v>0.737</v>
       </c>
-      <c r="F45" s="40" t="n">
+      <c r="F45" s="29" t="n">
         <v>0.66</v>
       </c>
-      <c r="G45" s="37" t="n">
+      <c r="G45" s="28" t="n">
         <v>0.751</v>
       </c>
-      <c r="H45" s="38" t="n">
+      <c r="H45" s="30" t="n">
         <v>0.765</v>
       </c>
-      <c r="I45" s="37" t="n">
+      <c r="I45" s="28" t="n">
         <v>0.656</v>
       </c>
-      <c r="J45" s="37" t="n">
+      <c r="J45" s="28" t="n">
         <v>0.763</v>
       </c>
-      <c r="K45" s="37" t="n">
+      <c r="K45" s="28" t="n">
         <v>0.638</v>
       </c>
-      <c r="L45" s="40" t="n">
+      <c r="L45" s="29" t="n">
         <v>0.759</v>
       </c>
       <c r="M45" s="14"/>
@@ -2390,31 +2421,31 @@
       <c r="C46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="32" t="n">
+      <c r="D46" s="25" t="n">
         <v>0.814</v>
       </c>
-      <c r="E46" s="33" t="n">
+      <c r="E46" s="23" t="n">
         <v>0.806</v>
       </c>
-      <c r="F46" s="34" t="n">
+      <c r="F46" s="24" t="n">
         <v>0.784</v>
       </c>
-      <c r="G46" s="33" t="n">
+      <c r="G46" s="23" t="n">
         <v>0.766</v>
       </c>
-      <c r="H46" s="34" t="n">
+      <c r="H46" s="24" t="n">
         <v>0.776</v>
       </c>
-      <c r="I46" s="33" t="n">
+      <c r="I46" s="23" t="n">
         <v>0.803</v>
       </c>
-      <c r="J46" s="33" t="n">
+      <c r="J46" s="23" t="n">
         <v>0.81</v>
       </c>
-      <c r="K46" s="33" t="n">
+      <c r="K46" s="23" t="n">
         <v>0.807</v>
       </c>
-      <c r="L46" s="34" t="n">
+      <c r="L46" s="24" t="n">
         <v>0.807</v>
       </c>
       <c r="M46" s="14"/>
@@ -2425,31 +2456,31 @@
       <c r="C47" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="43" t="n">
+      <c r="D47" s="26" t="n">
         <v>0.964</v>
       </c>
-      <c r="E47" s="35" t="n">
+      <c r="E47" s="14" t="n">
         <v>0.952</v>
       </c>
-      <c r="F47" s="36" t="n">
+      <c r="F47" s="27" t="n">
         <v>0.886</v>
       </c>
-      <c r="G47" s="35" t="n">
+      <c r="G47" s="14" t="n">
         <v>0.789</v>
       </c>
-      <c r="H47" s="36" t="n">
+      <c r="H47" s="27" t="n">
         <v>0.778</v>
       </c>
-      <c r="I47" s="35" t="n">
+      <c r="I47" s="14" t="n">
         <v>0.834</v>
       </c>
-      <c r="J47" s="35" t="n">
+      <c r="J47" s="14" t="n">
         <v>0.806</v>
       </c>
-      <c r="K47" s="35" t="n">
+      <c r="K47" s="14" t="n">
         <v>0.868</v>
       </c>
-      <c r="L47" s="36" t="n">
+      <c r="L47" s="27" t="n">
         <v>0.792</v>
       </c>
       <c r="M47" s="14"/>
@@ -2460,31 +2491,31 @@
       <c r="C48" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="37" t="n">
+      <c r="D48" s="28" t="n">
         <v>0.726</v>
       </c>
-      <c r="E48" s="37" t="n">
+      <c r="E48" s="28" t="n">
         <v>0.718</v>
       </c>
-      <c r="F48" s="40" t="n">
+      <c r="F48" s="29" t="n">
         <v>0.724</v>
       </c>
-      <c r="G48" s="37" t="n">
+      <c r="G48" s="28" t="n">
         <v>0.775</v>
       </c>
-      <c r="H48" s="40" t="n">
+      <c r="H48" s="29" t="n">
         <v>0.803</v>
       </c>
-      <c r="I48" s="37" t="n">
+      <c r="I48" s="28" t="n">
         <v>0.798</v>
       </c>
-      <c r="J48" s="37" t="n">
+      <c r="J48" s="28" t="n">
         <v>0.838</v>
       </c>
-      <c r="K48" s="37" t="n">
+      <c r="K48" s="28" t="n">
         <v>0.78</v>
       </c>
-      <c r="L48" s="38" t="n">
+      <c r="L48" s="30" t="n">
         <v>0.846</v>
       </c>
       <c r="M48" s="14"/>
@@ -2528,7 +2559,7 @@
         <f aca="false">ROUND(2*J52*J55/(J52+J55),3)</f>
         <v>0.882</v>
       </c>
-      <c r="K49" s="41" t="n">
+      <c r="K49" s="32" t="n">
         <f aca="false">ROUND(2*K52*K55/(K52+K55),3)</f>
         <v>0.892</v>
       </c>
@@ -2635,31 +2666,31 @@
       <c r="C52" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="33" t="n">
+      <c r="D52" s="23" t="n">
         <v>0.77</v>
       </c>
-      <c r="E52" s="33" t="n">
+      <c r="E52" s="23" t="n">
         <v>0.745</v>
       </c>
-      <c r="F52" s="34" t="n">
+      <c r="F52" s="24" t="n">
         <v>0.663</v>
       </c>
-      <c r="G52" s="33" t="n">
+      <c r="G52" s="23" t="n">
         <v>0.829</v>
       </c>
-      <c r="H52" s="34" t="n">
+      <c r="H52" s="24" t="n">
         <v>0.848</v>
       </c>
-      <c r="I52" s="32" t="n">
+      <c r="I52" s="25" t="n">
         <v>0.888</v>
       </c>
-      <c r="J52" s="33" t="n">
+      <c r="J52" s="23" t="n">
         <v>0.878</v>
       </c>
-      <c r="K52" s="32" t="n">
+      <c r="K52" s="25" t="n">
         <v>0.888</v>
       </c>
-      <c r="L52" s="34" t="n">
+      <c r="L52" s="24" t="n">
         <v>0.882</v>
       </c>
       <c r="M52" s="14"/>
@@ -2672,31 +2703,31 @@
       <c r="C53" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="43" t="n">
+      <c r="D53" s="26" t="n">
         <v>0.978</v>
       </c>
-      <c r="E53" s="35" t="n">
+      <c r="E53" s="14" t="n">
         <v>0.956</v>
       </c>
-      <c r="F53" s="36" t="n">
+      <c r="F53" s="27" t="n">
         <v>0.861</v>
       </c>
-      <c r="G53" s="35" t="n">
+      <c r="G53" s="14" t="n">
         <v>0.84</v>
       </c>
-      <c r="H53" s="36" t="n">
+      <c r="H53" s="27" t="n">
         <v>0.808</v>
       </c>
-      <c r="I53" s="35" t="n">
+      <c r="I53" s="14" t="n">
         <v>0.911</v>
       </c>
-      <c r="J53" s="35" t="n">
+      <c r="J53" s="14" t="n">
         <v>0.876</v>
       </c>
-      <c r="K53" s="35" t="n">
+      <c r="K53" s="14" t="n">
         <v>0.929</v>
       </c>
-      <c r="L53" s="36" t="n">
+      <c r="L53" s="27" t="n">
         <v>0.869</v>
       </c>
       <c r="M53" s="14"/>
@@ -2707,31 +2738,31 @@
       <c r="C54" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="37" t="n">
+      <c r="D54" s="28" t="n">
         <v>0.634</v>
       </c>
-      <c r="E54" s="37" t="n">
+      <c r="E54" s="28" t="n">
         <v>0.61</v>
       </c>
-      <c r="F54" s="40" t="n">
+      <c r="F54" s="29" t="n">
         <v>0.539</v>
       </c>
-      <c r="G54" s="37" t="n">
+      <c r="G54" s="28" t="n">
         <v>0.818</v>
       </c>
-      <c r="H54" s="40" t="n">
+      <c r="H54" s="29" t="n">
         <v>0.893</v>
       </c>
-      <c r="I54" s="37" t="n">
+      <c r="I54" s="28" t="n">
         <v>0.867</v>
       </c>
-      <c r="J54" s="37" t="n">
+      <c r="J54" s="28" t="n">
         <v>0.881</v>
       </c>
-      <c r="K54" s="37" t="n">
+      <c r="K54" s="28" t="n">
         <v>0.851</v>
       </c>
-      <c r="L54" s="38" t="n">
+      <c r="L54" s="30" t="n">
         <v>0.895</v>
       </c>
       <c r="M54" s="14"/>
@@ -2747,31 +2778,31 @@
       <c r="C55" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="33" t="n">
+      <c r="D55" s="23" t="n">
         <v>0.801</v>
       </c>
-      <c r="E55" s="33" t="n">
+      <c r="E55" s="23" t="n">
         <v>0.766</v>
       </c>
-      <c r="F55" s="34" t="n">
+      <c r="F55" s="24" t="n">
         <v>0.689</v>
       </c>
-      <c r="G55" s="33" t="n">
+      <c r="G55" s="23" t="n">
         <v>0.846</v>
       </c>
-      <c r="H55" s="34" t="n">
+      <c r="H55" s="24" t="n">
         <v>0.867</v>
       </c>
-      <c r="I55" s="33" t="n">
+      <c r="I55" s="23" t="n">
         <v>0.893</v>
       </c>
-      <c r="J55" s="33" t="n">
+      <c r="J55" s="23" t="n">
         <v>0.887</v>
       </c>
-      <c r="K55" s="32" t="n">
+      <c r="K55" s="25" t="n">
         <v>0.896</v>
       </c>
-      <c r="L55" s="34" t="n">
+      <c r="L55" s="24" t="n">
         <v>0.887</v>
       </c>
       <c r="M55" s="14"/>
@@ -2782,31 +2813,31 @@
       <c r="C56" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="43" t="n">
+      <c r="D56" s="26" t="n">
         <v>0.973</v>
       </c>
-      <c r="E56" s="35" t="n">
+      <c r="E56" s="14" t="n">
         <v>0.932</v>
       </c>
-      <c r="F56" s="36" t="n">
+      <c r="F56" s="27" t="n">
         <v>0.891</v>
       </c>
-      <c r="G56" s="35" t="n">
+      <c r="G56" s="14" t="n">
         <v>0.853</v>
       </c>
-      <c r="H56" s="36" t="n">
+      <c r="H56" s="27" t="n">
         <v>0.83</v>
       </c>
-      <c r="I56" s="35" t="n">
+      <c r="I56" s="14" t="n">
         <v>0.914</v>
       </c>
-      <c r="J56" s="35" t="n">
+      <c r="J56" s="14" t="n">
         <v>0.885</v>
       </c>
-      <c r="K56" s="35" t="n">
+      <c r="K56" s="14" t="n">
         <v>0.934</v>
       </c>
-      <c r="L56" s="36" t="n">
+      <c r="L56" s="27" t="n">
         <v>0.876</v>
       </c>
       <c r="M56" s="14"/>
@@ -2817,31 +2848,31 @@
       <c r="C57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="37" t="n">
+      <c r="D57" s="28" t="n">
         <v>0.691</v>
       </c>
-      <c r="E57" s="37" t="n">
+      <c r="E57" s="28" t="n">
         <v>0.662</v>
       </c>
-      <c r="F57" s="40" t="n">
+      <c r="F57" s="29" t="n">
         <v>0.572</v>
       </c>
-      <c r="G57" s="37" t="n">
+      <c r="G57" s="28" t="n">
         <v>0.854</v>
       </c>
-      <c r="H57" s="38" t="n">
+      <c r="H57" s="30" t="n">
         <v>0.917</v>
       </c>
-      <c r="I57" s="37" t="n">
+      <c r="I57" s="28" t="n">
         <v>0.878</v>
       </c>
-      <c r="J57" s="37" t="n">
+      <c r="J57" s="28" t="n">
         <v>0.893</v>
       </c>
-      <c r="K57" s="37" t="n">
+      <c r="K57" s="28" t="n">
         <v>0.864</v>
       </c>
-      <c r="L57" s="40" t="n">
+      <c r="L57" s="29" t="n">
         <v>0.904</v>
       </c>
       <c r="M57" s="14"/>
@@ -2989,25 +3020,25 @@
       <c r="C61" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="33" t="n">
+      <c r="D61" s="23" t="n">
         <v>0.738</v>
       </c>
-      <c r="E61" s="33" t="n">
+      <c r="E61" s="23" t="n">
         <v>0.761</v>
       </c>
-      <c r="F61" s="46"/>
-      <c r="G61" s="33" t="n">
+      <c r="F61" s="35"/>
+      <c r="G61" s="23" t="n">
         <v>0.65</v>
       </c>
-      <c r="H61" s="34" t="n">
+      <c r="H61" s="24" t="n">
         <v>0.651</v>
       </c>
-      <c r="I61" s="33" t="n">
+      <c r="I61" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="46"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="35"/>
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
@@ -3017,25 +3048,25 @@
       <c r="C62" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="35" t="n">
+      <c r="D62" s="14" t="n">
         <v>0.83</v>
       </c>
-      <c r="E62" s="35" t="n">
+      <c r="E62" s="14" t="n">
         <v>0.754</v>
       </c>
-      <c r="F62" s="48"/>
-      <c r="G62" s="35" t="n">
+      <c r="F62" s="37"/>
+      <c r="G62" s="14" t="n">
         <v>0.624</v>
       </c>
-      <c r="H62" s="36" t="n">
+      <c r="H62" s="27" t="n">
         <v>0.623</v>
       </c>
-      <c r="I62" s="35" t="n">
+      <c r="I62" s="14" t="n">
         <v>0.601</v>
       </c>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="48"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="37"/>
       <c r="M62" s="14"/>
       <c r="P62" s="14"/>
     </row>
@@ -3043,25 +3074,25 @@
       <c r="C63" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="37" t="n">
+      <c r="D63" s="28" t="n">
         <v>0.665</v>
       </c>
-      <c r="E63" s="37" t="n">
+      <c r="E63" s="28" t="n">
         <v>0.767</v>
       </c>
-      <c r="F63" s="50"/>
-      <c r="G63" s="37" t="n">
+      <c r="F63" s="39"/>
+      <c r="G63" s="28" t="n">
         <v>0.679</v>
       </c>
-      <c r="H63" s="40" t="n">
+      <c r="H63" s="29" t="n">
         <v>0.682</v>
       </c>
-      <c r="I63" s="37" t="n">
+      <c r="I63" s="28" t="n">
         <v>0.599</v>
       </c>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="50"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="39"/>
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
       <c r="O63" s="14"/>
@@ -3074,25 +3105,25 @@
       <c r="C64" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="33" t="n">
+      <c r="D64" s="23" t="n">
         <v>0.679</v>
       </c>
-      <c r="E64" s="33" t="n">
+      <c r="E64" s="23" t="n">
         <v>0.713</v>
       </c>
-      <c r="F64" s="46"/>
-      <c r="G64" s="33" t="n">
+      <c r="F64" s="35"/>
+      <c r="G64" s="23" t="n">
         <v>0.615</v>
       </c>
-      <c r="H64" s="34" t="n">
+      <c r="H64" s="24" t="n">
         <v>0.616</v>
       </c>
-      <c r="I64" s="33" t="n">
+      <c r="I64" s="23" t="n">
         <v>0.569</v>
       </c>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="46"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="35"/>
       <c r="M64" s="14"/>
       <c r="P64" s="14"/>
     </row>
@@ -3100,25 +3131,25 @@
       <c r="C65" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="35" t="n">
+      <c r="D65" s="14" t="n">
         <v>0.77</v>
       </c>
-      <c r="E65" s="35" t="n">
+      <c r="E65" s="14" t="n">
         <v>0.746</v>
       </c>
-      <c r="F65" s="48"/>
-      <c r="G65" s="35" t="n">
+      <c r="F65" s="37"/>
+      <c r="G65" s="14" t="n">
         <v>0.624</v>
       </c>
-      <c r="H65" s="36" t="n">
+      <c r="H65" s="27" t="n">
         <v>0.624</v>
       </c>
-      <c r="I65" s="35" t="n">
+      <c r="I65" s="14" t="n">
         <v>0.577</v>
       </c>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="48"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="37"/>
       <c r="M65" s="14"/>
       <c r="P65" s="14"/>
     </row>
@@ -3126,25 +3157,25 @@
       <c r="C66" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="37" t="n">
+      <c r="D66" s="28" t="n">
         <v>0.716</v>
       </c>
-      <c r="E66" s="37" t="n">
+      <c r="E66" s="28" t="n">
         <v>0.793</v>
       </c>
-      <c r="F66" s="50"/>
-      <c r="G66" s="37" t="n">
+      <c r="F66" s="39"/>
+      <c r="G66" s="28" t="n">
         <v>0.72</v>
       </c>
-      <c r="H66" s="40" t="n">
+      <c r="H66" s="29" t="n">
         <v>0.722</v>
       </c>
-      <c r="I66" s="37" t="n">
+      <c r="I66" s="28" t="n">
         <v>0.677</v>
       </c>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="50"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="39"/>
       <c r="M66" s="14"/>
       <c r="P66" s="14"/>
     </row>
@@ -3153,25 +3184,25 @@
         <v>19</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="45" t="n">
+      <c r="D67" s="3" t="n">
         <v>31542.4</v>
       </c>
-      <c r="E67" s="45" t="n">
+      <c r="E67" s="3" t="n">
         <v>212.5</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="45" t="n">
+      <c r="F67" s="41"/>
+      <c r="G67" s="3" t="n">
         <v>12000.2</v>
       </c>
-      <c r="H67" s="45" t="n">
+      <c r="H67" s="3" t="n">
         <v>11787.3</v>
       </c>
-      <c r="I67" s="45" t="n">
+      <c r="I67" s="3" t="n">
         <v>1482.4</v>
       </c>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
       <c r="M67" s="14"/>
       <c r="N67" s="14"/>
       <c r="O67" s="14"/>
@@ -3322,25 +3353,25 @@
       <c r="C71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="33" t="n">
+      <c r="D71" s="23" t="n">
         <v>0.811</v>
       </c>
-      <c r="E71" s="33" t="n">
+      <c r="E71" s="23" t="n">
         <v>0.802</v>
       </c>
-      <c r="F71" s="46"/>
-      <c r="G71" s="33" t="n">
+      <c r="F71" s="35"/>
+      <c r="G71" s="23" t="n">
         <v>0.747</v>
       </c>
-      <c r="H71" s="34" t="n">
+      <c r="H71" s="24" t="n">
         <v>0.751</v>
       </c>
-      <c r="I71" s="33" t="n">
+      <c r="I71" s="23" t="n">
         <v>0.762</v>
       </c>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="46"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="35"/>
       <c r="M71" s="14"/>
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
@@ -3351,25 +3382,25 @@
       <c r="C72" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="35" t="n">
+      <c r="D72" s="14" t="n">
         <v>0.928</v>
       </c>
-      <c r="E72" s="35" t="n">
+      <c r="E72" s="14" t="n">
         <v>0.903</v>
       </c>
-      <c r="F72" s="48"/>
-      <c r="G72" s="35" t="n">
+      <c r="F72" s="37"/>
+      <c r="G72" s="14" t="n">
         <v>0.728</v>
       </c>
-      <c r="H72" s="36" t="n">
+      <c r="H72" s="27" t="n">
         <v>0.722</v>
       </c>
-      <c r="I72" s="35" t="n">
+      <c r="I72" s="14" t="n">
         <v>0.778</v>
       </c>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="48"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="37"/>
       <c r="M72" s="14"/>
       <c r="P72" s="14"/>
     </row>
@@ -3378,25 +3409,25 @@
       <c r="C73" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="37" t="n">
+      <c r="D73" s="28" t="n">
         <v>0.721</v>
       </c>
-      <c r="E73" s="37" t="n">
+      <c r="E73" s="28" t="n">
         <v>0.721</v>
       </c>
-      <c r="F73" s="50"/>
-      <c r="G73" s="37" t="n">
+      <c r="F73" s="39"/>
+      <c r="G73" s="28" t="n">
         <v>0.767</v>
       </c>
-      <c r="H73" s="40" t="n">
+      <c r="H73" s="29" t="n">
         <v>0.782</v>
       </c>
-      <c r="I73" s="37" t="n">
+      <c r="I73" s="28" t="n">
         <v>0.747</v>
       </c>
-      <c r="J73" s="51"/>
-      <c r="K73" s="51"/>
-      <c r="L73" s="50"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="39"/>
       <c r="M73" s="14"/>
       <c r="N73" s="14"/>
       <c r="O73" s="14"/>
@@ -3410,25 +3441,25 @@
       <c r="C74" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="33" t="n">
+      <c r="D74" s="23" t="n">
         <v>0.789</v>
       </c>
-      <c r="E74" s="33" t="n">
+      <c r="E74" s="23" t="n">
         <v>0.778</v>
       </c>
-      <c r="F74" s="46"/>
-      <c r="G74" s="33" t="n">
+      <c r="F74" s="35"/>
+      <c r="G74" s="23" t="n">
         <v>0.741</v>
       </c>
-      <c r="H74" s="34" t="n">
+      <c r="H74" s="24" t="n">
         <v>0.749</v>
       </c>
-      <c r="I74" s="33" t="n">
+      <c r="I74" s="23" t="n">
         <v>0.777</v>
       </c>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="46"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="35"/>
       <c r="M74" s="14"/>
       <c r="P74" s="14"/>
     </row>
@@ -3437,25 +3468,25 @@
       <c r="C75" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="35" t="n">
+      <c r="D75" s="14" t="n">
         <v>0.905</v>
       </c>
-      <c r="E75" s="35" t="n">
+      <c r="E75" s="14" t="n">
         <v>0.895</v>
       </c>
-      <c r="F75" s="48"/>
-      <c r="G75" s="35" t="n">
+      <c r="F75" s="37"/>
+      <c r="G75" s="14" t="n">
         <v>0.746</v>
       </c>
-      <c r="H75" s="36" t="n">
+      <c r="H75" s="27" t="n">
         <v>0.744</v>
       </c>
-      <c r="I75" s="35" t="n">
+      <c r="I75" s="14" t="n">
         <v>0.763</v>
       </c>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="48"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="37"/>
       <c r="M75" s="14"/>
       <c r="P75" s="14"/>
     </row>
@@ -3464,25 +3495,25 @@
       <c r="C76" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="37" t="n">
+      <c r="D76" s="28" t="n">
         <v>0.754</v>
       </c>
-      <c r="E76" s="37" t="n">
+      <c r="E76" s="28" t="n">
         <v>0.742</v>
       </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="37" t="n">
+      <c r="F76" s="39"/>
+      <c r="G76" s="28" t="n">
         <v>0.796</v>
       </c>
-      <c r="H76" s="40" t="n">
+      <c r="H76" s="29" t="n">
         <v>0.813</v>
       </c>
-      <c r="I76" s="37" t="n">
+      <c r="I76" s="28" t="n">
         <v>0.836</v>
       </c>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="50"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="39"/>
       <c r="M76" s="14"/>
       <c r="P76" s="14"/>
     </row>
@@ -3496,7 +3527,7 @@
       <c r="C77" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="53" t="n">
+      <c r="D77" s="11" t="n">
         <f aca="false">ROUND(2*D80*D83/(D80+D83),3)</f>
         <v>0.799</v>
       </c>
@@ -3512,7 +3543,7 @@
         <f aca="false">ROUND(2*G80*G83/(G80+G83),3)</f>
         <v>0.803</v>
       </c>
-      <c r="H77" s="54" t="n">
+      <c r="H77" s="12" t="n">
         <f aca="false">ROUND(2*H80*H83/(H80+H83),3)</f>
         <v>0.827</v>
       </c>
@@ -3540,7 +3571,7 @@
       <c r="C78" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="55" t="n">
+      <c r="D78" s="17" t="n">
         <f aca="false">ROUND(2*D81*D84/(D81+D84),3)</f>
         <v>0.932</v>
       </c>
@@ -3556,7 +3587,7 @@
         <f aca="false">ROUND(2*G81*G84/(G81+G84),3)</f>
         <v>0.807</v>
       </c>
-      <c r="H78" s="56" t="n">
+      <c r="H78" s="18" t="n">
         <f aca="false">ROUND(2*H81*H84/(H81+H84),3)</f>
         <v>0.799</v>
       </c>
@@ -3584,7 +3615,7 @@
       <c r="C79" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="57" t="n">
+      <c r="D79" s="20" t="n">
         <f aca="false">ROUND(2*D82*D85/(D82+D85),3)</f>
         <v>0.713</v>
       </c>
@@ -3600,7 +3631,7 @@
         <f aca="false">ROUND(2*G82*G85/(G82+G85),3)</f>
         <v>0.823</v>
       </c>
-      <c r="H79" s="58" t="n">
+      <c r="H79" s="21" t="n">
         <f aca="false">ROUND(2*H82*H85/(H82+H85),3)</f>
         <v>0.88</v>
       </c>
@@ -3631,25 +3662,25 @@
       <c r="C80" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="33" t="n">
+      <c r="D80" s="23" t="n">
         <v>0.8</v>
       </c>
-      <c r="E80" s="33" t="n">
+      <c r="E80" s="23" t="n">
         <v>0.797</v>
       </c>
-      <c r="F80" s="46"/>
-      <c r="G80" s="33" t="n">
+      <c r="F80" s="35"/>
+      <c r="G80" s="23" t="n">
         <v>0.812</v>
       </c>
-      <c r="H80" s="34" t="n">
+      <c r="H80" s="24" t="n">
         <v>0.834</v>
       </c>
-      <c r="I80" s="33" t="n">
+      <c r="I80" s="23" t="n">
         <v>0.858</v>
       </c>
-      <c r="J80" s="47"/>
-      <c r="K80" s="47"/>
-      <c r="L80" s="46"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="35"/>
       <c r="M80" s="14"/>
       <c r="N80" s="14"/>
       <c r="O80" s="14"/>
@@ -3660,25 +3691,25 @@
       <c r="C81" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="35" t="n">
+      <c r="D81" s="14" t="n">
         <v>0.943</v>
       </c>
-      <c r="E81" s="35" t="n">
+      <c r="E81" s="14" t="n">
         <v>0.947</v>
       </c>
-      <c r="F81" s="48"/>
-      <c r="G81" s="35" t="n">
+      <c r="F81" s="37"/>
+      <c r="G81" s="14" t="n">
         <v>0.803</v>
       </c>
-      <c r="H81" s="36" t="n">
+      <c r="H81" s="27" t="n">
         <v>0.792</v>
       </c>
-      <c r="I81" s="35" t="n">
+      <c r="I81" s="14" t="n">
         <v>0.86</v>
       </c>
-      <c r="J81" s="49"/>
-      <c r="K81" s="49"/>
-      <c r="L81" s="48"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="37"/>
       <c r="M81" s="14"/>
       <c r="P81" s="14"/>
     </row>
@@ -3687,25 +3718,25 @@
       <c r="C82" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="37" t="n">
+      <c r="D82" s="28" t="n">
         <v>0.695</v>
       </c>
-      <c r="E82" s="37" t="n">
+      <c r="E82" s="28" t="n">
         <v>0.688</v>
       </c>
-      <c r="F82" s="50"/>
-      <c r="G82" s="37" t="n">
+      <c r="F82" s="39"/>
+      <c r="G82" s="28" t="n">
         <v>0.822</v>
       </c>
-      <c r="H82" s="40" t="n">
+      <c r="H82" s="29" t="n">
         <v>0.881</v>
       </c>
-      <c r="I82" s="37" t="n">
+      <c r="I82" s="28" t="n">
         <v>0.855</v>
       </c>
-      <c r="J82" s="51"/>
-      <c r="K82" s="51"/>
-      <c r="L82" s="50"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="39"/>
       <c r="M82" s="14"/>
       <c r="N82" s="14"/>
       <c r="O82" s="14"/>
@@ -3719,25 +3750,25 @@
       <c r="C83" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="33" t="n">
+      <c r="D83" s="23" t="n">
         <v>0.799</v>
       </c>
-      <c r="E83" s="33" t="n">
+      <c r="E83" s="23" t="n">
         <v>0.807</v>
       </c>
-      <c r="F83" s="46"/>
-      <c r="G83" s="33" t="n">
+      <c r="F83" s="35"/>
+      <c r="G83" s="23" t="n">
         <v>0.794</v>
       </c>
-      <c r="H83" s="34" t="n">
+      <c r="H83" s="24" t="n">
         <v>0.82</v>
       </c>
-      <c r="I83" s="33" t="n">
+      <c r="I83" s="23" t="n">
         <v>0.839</v>
       </c>
-      <c r="J83" s="47"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="46"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="35"/>
       <c r="M83" s="14"/>
       <c r="P83" s="14"/>
     </row>
@@ -3746,25 +3777,25 @@
       <c r="C84" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="35" t="n">
+      <c r="D84" s="14" t="n">
         <v>0.922</v>
       </c>
-      <c r="E84" s="35" t="n">
+      <c r="E84" s="14" t="n">
         <v>0.954</v>
       </c>
-      <c r="F84" s="48"/>
-      <c r="G84" s="35" t="n">
+      <c r="F84" s="37"/>
+      <c r="G84" s="14" t="n">
         <v>0.811</v>
       </c>
-      <c r="H84" s="36" t="n">
+      <c r="H84" s="27" t="n">
         <v>0.806</v>
       </c>
-      <c r="I84" s="35" t="n">
+      <c r="I84" s="14" t="n">
         <v>0.835</v>
       </c>
-      <c r="J84" s="49"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="48"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="37"/>
       <c r="M84" s="14"/>
       <c r="P84" s="14"/>
     </row>
@@ -3773,30 +3804,825 @@
       <c r="C85" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="37" t="n">
+      <c r="D85" s="28" t="n">
         <v>0.733</v>
       </c>
-      <c r="E85" s="37" t="n">
+      <c r="E85" s="28" t="n">
         <v>0.732</v>
       </c>
-      <c r="F85" s="50"/>
-      <c r="G85" s="37" t="n">
+      <c r="F85" s="39"/>
+      <c r="G85" s="28" t="n">
         <v>0.825</v>
       </c>
-      <c r="H85" s="40" t="n">
+      <c r="H85" s="29" t="n">
         <v>0.879</v>
       </c>
-      <c r="I85" s="37" t="n">
+      <c r="I85" s="28" t="n">
         <v>0.854</v>
       </c>
-      <c r="J85" s="51"/>
-      <c r="K85" s="51"/>
-      <c r="L85" s="50"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="39"/>
       <c r="M85" s="14"/>
       <c r="P85" s="14"/>
     </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="11" t="n">
+        <f aca="false">ROUND(2*D89*D92/(D89+D92),3)</f>
+        <v>0.756</v>
+      </c>
+      <c r="E86" s="11" t="n">
+        <f aca="false">ROUND(2*E89*E92/(E89+E92),3)</f>
+        <v>0.738</v>
+      </c>
+      <c r="F86" s="12" t="e">
+        <f aca="false">ROUND(2*F89*F92/(F89+F92),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G86" s="11" t="n">
+        <f aca="false">ROUND(2*G89*G92/(G89+G92),3)</f>
+        <v>0.597</v>
+      </c>
+      <c r="H86" s="12" t="n">
+        <f aca="false">ROUND(2*H89*H92/(H89+H92),3)</f>
+        <v>0.606</v>
+      </c>
+      <c r="I86" s="11" t="n">
+        <f aca="false">ROUND(2*I89*I92/(I89+I92),3)</f>
+        <v>0.752</v>
+      </c>
+      <c r="J86" s="11" t="n">
+        <f aca="false">ROUND(2*J89*J92/(J89+J92),3)</f>
+        <v>0.773</v>
+      </c>
+      <c r="K86" s="11" t="n">
+        <f aca="false">ROUND(2*K89*K92/(K89+K92),3)</f>
+        <v>0.756</v>
+      </c>
+      <c r="L86" s="12" t="n">
+        <f aca="false">ROUND(2*L89*L92/(L89+L92),3)</f>
+        <v>0.771</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="17" t="n">
+        <f aca="false">ROUND(2*D90*D93/(D90+D93),3)</f>
+        <v>0.917</v>
+      </c>
+      <c r="E87" s="17" t="n">
+        <f aca="false">ROUND(2*E90*E93/(E90+E93),3)</f>
+        <v>0.871</v>
+      </c>
+      <c r="F87" s="18" t="e">
+        <f aca="false">ROUND(2*F90*F93/(F90+F93),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G87" s="17" t="n">
+        <f aca="false">ROUND(2*G90*G93/(G90+G93),3)</f>
+        <v>0.62</v>
+      </c>
+      <c r="H87" s="18" t="n">
+        <f aca="false">ROUND(2*H90*H93/(H90+H93),3)</f>
+        <v>0.607</v>
+      </c>
+      <c r="I87" s="17" t="n">
+        <f aca="false">ROUND(2*I90*I93/(I90+I93),3)</f>
+        <v>0.825</v>
+      </c>
+      <c r="J87" s="17" t="n">
+        <f aca="false">ROUND(2*J90*J93/(J90+J93),3)</f>
+        <v>0.781</v>
+      </c>
+      <c r="K87" s="17" t="n">
+        <f aca="false">ROUND(2*K90*K93/(K90+K93),3)</f>
+        <v>0.88</v>
+      </c>
+      <c r="L87" s="18" t="n">
+        <f aca="false">ROUND(2*L90*L93/(L90+L93),3)</f>
+        <v>0.767</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="20" t="n">
+        <f aca="false">ROUND(2*D91*D94/(D91+D94),3)</f>
+        <v>0.655</v>
+      </c>
+      <c r="E88" s="20" t="n">
+        <f aca="false">ROUND(2*E91*E94/(E91+E94),3)</f>
+        <v>0.654</v>
+      </c>
+      <c r="F88" s="21" t="e">
+        <f aca="false">ROUND(2*F91*F94/(F91+F94),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G88" s="20" t="n">
+        <f aca="false">ROUND(2*G91*G94/(G91+G94),3)</f>
+        <v>0.582</v>
+      </c>
+      <c r="H88" s="21" t="n">
+        <f aca="false">ROUND(2*H91*H94/(H91+H94),3)</f>
+        <v>0.611</v>
+      </c>
+      <c r="I88" s="20" t="n">
+        <f aca="false">ROUND(2*I91*I94/(I91+I94),3)</f>
+        <v>0.696</v>
+      </c>
+      <c r="J88" s="20" t="n">
+        <f aca="false">ROUND(2*J91*J94/(J91+J94),3)</f>
+        <v>0.768</v>
+      </c>
+      <c r="K88" s="20" t="n">
+        <f aca="false">ROUND(2*K91*K94/(K91+K94),3)</f>
+        <v>0.671</v>
+      </c>
+      <c r="L88" s="21" t="n">
+        <f aca="false">ROUND(2*L91*L94/(L91+L94),3)</f>
+        <v>0.778</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="42" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="E89" s="42" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F89" s="35"/>
+      <c r="G89" s="42" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H89" s="43" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="I89" s="42" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="J89" s="42" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="K89" s="42" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="L89" s="43" t="n">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="44" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="E90" s="44" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="F90" s="37"/>
+      <c r="G90" s="44" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="H90" s="45" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I90" s="44" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="J90" s="44" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="K90" s="44" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="L90" s="45" t="n">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="46" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="E91" s="46" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="F91" s="39"/>
+      <c r="G91" s="46" t="n">
+        <v>0.562</v>
+      </c>
+      <c r="H91" s="47" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="I91" s="46" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="J91" s="46" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="K91" s="46" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="L91" s="47" t="n">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="42" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="E92" s="42" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="F92" s="35"/>
+      <c r="G92" s="42" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H92" s="43" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="I92" s="42" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="J92" s="42" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="K92" s="42" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="L92" s="43" t="n">
+        <v>0.794</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="44" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="E93" s="44" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="F93" s="37"/>
+      <c r="G93" s="44" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="H93" s="45" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="I93" s="44" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="J93" s="44" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="K93" s="44" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="L93" s="45" t="n">
+        <v>0.786</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="46" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="E94" s="46" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="F94" s="39"/>
+      <c r="G94" s="46" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="H94" s="47" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="I94" s="46" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="J94" s="46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K94" s="46" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="L94" s="47" t="n">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="48" t="n">
+        <v>23315.1</v>
+      </c>
+      <c r="E95" s="48" t="n">
+        <v>259.1</v>
+      </c>
+      <c r="F95" s="41"/>
+      <c r="G95" s="48" t="n">
+        <v>8483.4</v>
+      </c>
+      <c r="H95" s="48" t="n">
+        <v>8692.7</v>
+      </c>
+      <c r="I95" s="48" t="n">
+        <v>1606</v>
+      </c>
+      <c r="J95" s="48" t="n">
+        <v>24222.8</v>
+      </c>
+      <c r="K95" s="48" t="n">
+        <v>24154.4</v>
+      </c>
+      <c r="L95" s="48" t="n">
+        <v>24204.2</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="49" t="n">
+        <f aca="false">ROUND(2*D99*D102/(D99+D102),3)</f>
+        <v>0.772</v>
+      </c>
+      <c r="E96" s="49" t="n">
+        <f aca="false">ROUND(2*E99*E102/(E99+E102),3)</f>
+        <v>0.753</v>
+      </c>
+      <c r="F96" s="12" t="e">
+        <f aca="false">ROUND(2*F99*F102/(F99+F102),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G96" s="49" t="n">
+        <f aca="false">ROUND(2*G99*G102/(G99+G102),3)</f>
+        <v>0.76</v>
+      </c>
+      <c r="H96" s="50" t="n">
+        <f aca="false">ROUND(2*H99*H102/(H99+H102),3)</f>
+        <v>0.771</v>
+      </c>
+      <c r="I96" s="49" t="n">
+        <f aca="false">ROUND(2*I99*I102/(I99+I102),3)</f>
+        <v>0.826</v>
+      </c>
+      <c r="J96" s="49" t="n">
+        <f aca="false">ROUND(2*J99*J102/(J99+J102),3)</f>
+        <v>0.846</v>
+      </c>
+      <c r="K96" s="49" t="n">
+        <f aca="false">ROUND(2*K99*K102/(K99+K102),3)</f>
+        <v>0.828</v>
+      </c>
+      <c r="L96" s="50" t="n">
+        <f aca="false">ROUND(2*L99*L102/(L99+L102),3)</f>
+        <v>0.845</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6"/>
+      <c r="C97" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="51" t="n">
+        <f aca="false">ROUND(2*D100*D103/(D100+D103),3)</f>
+        <v>0.954</v>
+      </c>
+      <c r="E97" s="51" t="n">
+        <f aca="false">ROUND(2*E100*E103/(E100+E103),3)</f>
+        <v>0.928</v>
+      </c>
+      <c r="F97" s="18" t="e">
+        <f aca="false">ROUND(2*F100*F103/(F100+F103),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G97" s="51" t="n">
+        <f aca="false">ROUND(2*G100*G103/(G100+G103),3)</f>
+        <v>0.783</v>
+      </c>
+      <c r="H97" s="52" t="n">
+        <f aca="false">ROUND(2*H100*H103/(H100+H103),3)</f>
+        <v>0.753</v>
+      </c>
+      <c r="I97" s="51" t="n">
+        <f aca="false">ROUND(2*I100*I103/(I100+I103),3)</f>
+        <v>0.88</v>
+      </c>
+      <c r="J97" s="51" t="n">
+        <f aca="false">ROUND(2*J100*J103/(J100+J103),3)</f>
+        <v>0.859</v>
+      </c>
+      <c r="K97" s="51" t="n">
+        <f aca="false">ROUND(2*K100*K103/(K100+K103),3)</f>
+        <v>0.911</v>
+      </c>
+      <c r="L97" s="52" t="n">
+        <f aca="false">ROUND(2*L100*L103/(L100+L103),3)</f>
+        <v>0.845</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6"/>
+      <c r="C98" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="53" t="n">
+        <f aca="false">ROUND(2*D101*D104/(D101+D104),3)</f>
+        <v>0.66</v>
+      </c>
+      <c r="E98" s="53" t="n">
+        <f aca="false">ROUND(2*E101*E104/(E101+E104),3)</f>
+        <v>0.647</v>
+      </c>
+      <c r="F98" s="21" t="e">
+        <f aca="false">ROUND(2*F101*F104/(F101+F104),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G98" s="53" t="n">
+        <f aca="false">ROUND(2*G101*G104/(G101+G104),3)</f>
+        <v>0.742</v>
+      </c>
+      <c r="H98" s="54" t="n">
+        <f aca="false">ROUND(2*H101*H104/(H101+H104),3)</f>
+        <v>0.791</v>
+      </c>
+      <c r="I98" s="53" t="n">
+        <f aca="false">ROUND(2*I101*I104/(I101+I104),3)</f>
+        <v>0.781</v>
+      </c>
+      <c r="J98" s="53" t="n">
+        <f aca="false">ROUND(2*J101*J104/(J101+J104),3)</f>
+        <v>0.834</v>
+      </c>
+      <c r="K98" s="53" t="n">
+        <f aca="false">ROUND(2*K101*K104/(K101+K104),3)</f>
+        <v>0.763</v>
+      </c>
+      <c r="L98" s="54" t="n">
+        <f aca="false">ROUND(2*L101*L104/(L101+L104),3)</f>
+        <v>0.846</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6"/>
+      <c r="B99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="42" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="E99" s="42" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="F99" s="35"/>
+      <c r="G99" s="42" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H99" s="43" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="I99" s="42" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="J99" s="42" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="K99" s="42" t="n">
+        <v>0.811</v>
+      </c>
+      <c r="L99" s="43" t="n">
+        <v>0.827</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6"/>
+      <c r="C100" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="44" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="E100" s="44" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="F100" s="37"/>
+      <c r="G100" s="44" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="H100" s="45" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="I100" s="44" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="J100" s="44" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="K100" s="44" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="L100" s="45" t="n">
+        <v>0.833</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6"/>
+      <c r="C101" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="46" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="E101" s="46" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F101" s="39"/>
+      <c r="G101" s="46" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H101" s="47" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I101" s="46" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="J101" s="46" t="n">
+        <v>0.811</v>
+      </c>
+      <c r="K101" s="46" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="L101" s="47" t="n">
+        <v>0.822</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6"/>
+      <c r="B102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="42" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="E102" s="42" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="F102" s="35"/>
+      <c r="G102" s="42" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H102" s="43" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="I102" s="42" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="J102" s="42" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="K102" s="42" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="L102" s="43" t="n">
+        <v>0.863</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6"/>
+      <c r="C103" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="44" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="E103" s="44" t="n">
+        <v>0.932</v>
+      </c>
+      <c r="F103" s="37"/>
+      <c r="G103" s="44" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="H103" s="45" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="I103" s="44" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="J103" s="44" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="K103" s="44" t="n">
+        <v>0.903</v>
+      </c>
+      <c r="L103" s="45" t="n">
+        <v>0.858</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6"/>
+      <c r="C104" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="46" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E104" s="46" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="F104" s="39"/>
+      <c r="G104" s="46" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="H104" s="47" t="n">
+        <v>0.814</v>
+      </c>
+      <c r="I104" s="46" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J104" s="46" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="K104" s="46" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="L104" s="47" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="55"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="50"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="55"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="52"/>
+      <c r="I106" s="51"/>
+      <c r="J106" s="51"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="52"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="55"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="53"/>
+      <c r="J107" s="53"/>
+      <c r="K107" s="53"/>
+      <c r="L107" s="54"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="55"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="43"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="55"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="44"/>
+      <c r="J109" s="44"/>
+      <c r="K109" s="44"/>
+      <c r="L109" s="45"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="55"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="46"/>
+      <c r="L110" s="47"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="55"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="43"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="43"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="55"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="44"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="45"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="55"/>
+      <c r="B113" s="56"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="47"/>
+      <c r="I113" s="46"/>
+      <c r="J113" s="46"/>
+      <c r="K113" s="46"/>
+      <c r="L113" s="47"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="52">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
@@ -3836,6 +4662,19 @@
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="B80:B82"/>
     <mergeCell ref="B83:B85"/>
+    <mergeCell ref="A86:A95"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="A105:A113"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B111:B113"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3852,152 +4691,1586 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:AMJ38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="59" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="4.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="15.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="17" style="4" width="11.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1021" style="5" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+    <row r="1" s="8" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="AMG1" s="9"/>
+      <c r="AMH1" s="9"/>
+      <c r="AMI1" s="9"/>
+      <c r="AMJ1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="60" t="n">
+        <f aca="false">ROUND(2*D3*D4/(D3+D4),3)</f>
+        <v>0.759</v>
+      </c>
+      <c r="E2" s="60" t="n">
+        <f aca="false">ROUND(2*E3*E4/(E3+E4),3)</f>
+        <v>0.748</v>
+      </c>
+      <c r="F2" s="60" t="n">
+        <f aca="false">ROUND(2*F3*F4/(F3+F4),3)</f>
+        <v>0.683</v>
+      </c>
+      <c r="G2" s="60" t="n">
+        <f aca="false">ROUND(2*G3*G4/(G3+G4),3)</f>
+        <v>0.682</v>
+      </c>
+      <c r="H2" s="60" t="n">
+        <f aca="false">ROUND(2*H3*H4/(H3+H4),3)</f>
+        <v>0.686</v>
+      </c>
+      <c r="I2" s="60" t="n">
+        <f aca="false">ROUND(2*I3*I4/(I3+I4),3)</f>
+        <v>0.801</v>
+      </c>
+      <c r="J2" s="60" t="n">
+        <f aca="false">ROUND(2*J3*J4/(J3+J4),3)</f>
+        <v>0.82</v>
+      </c>
+      <c r="K2" s="60" t="n">
+        <f aca="false">ROUND(2*K3*K4/(K3+K4),3)</f>
+        <v>0.801</v>
+      </c>
+      <c r="L2" s="61" t="n">
+        <f aca="false">ROUND(2*L3*L4/(L3+L4),3)</f>
+        <v>0.823</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="J3" s="62" t="n">
+        <v>0.807</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0.818</v>
+      </c>
+      <c r="L4" s="62" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>1093.4</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>495.5</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>115.1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>1072</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>1088.2</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>1096.6</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="63"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="60" t="n">
+        <f aca="false">ROUND(2*D7*D8/(D7+D8),3)</f>
+        <v>0.776</v>
+      </c>
+      <c r="E6" s="60" t="n">
+        <f aca="false">ROUND(2*E7*E8/(E7+E8),3)</f>
+        <v>0.762</v>
+      </c>
+      <c r="F6" s="60" t="n">
+        <f aca="false">ROUND(2*F7*F8/(F7+F8),3)</f>
+        <v>0.708</v>
+      </c>
+      <c r="G6" s="60" t="n">
+        <f aca="false">ROUND(2*G7*G8/(G7+G8),3)</f>
+        <v>0.721</v>
+      </c>
+      <c r="H6" s="60" t="n">
+        <f aca="false">ROUND(2*H7*H8/(H7+H8),3)</f>
+        <v>0.734</v>
+      </c>
+      <c r="I6" s="60" t="n">
+        <f aca="false">ROUND(2*I7*I8/(I7+I8),3)</f>
+        <v>0.81</v>
+      </c>
+      <c r="J6" s="60" t="n">
+        <f aca="false">ROUND(2*J7*J8/(J7+J8),3)</f>
+        <v>0.833</v>
+      </c>
+      <c r="K6" s="60" t="n">
+        <f aca="false">ROUND(2*K7*K8/(K7+K8),3)</f>
+        <v>0.812</v>
+      </c>
+      <c r="L6" s="61" t="n">
+        <f aca="false">ROUND(2*L7*L8/(L7+L8),3)</f>
+        <v>0.835</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="J7" s="62" t="n">
+        <v>0.815</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0.814</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="L8" s="62" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="60" t="n">
+        <f aca="false">ROUND(2*D10*D11/(D10+D11),3)</f>
+        <v>0.761</v>
+      </c>
+      <c r="E9" s="60" t="n">
+        <f aca="false">ROUND(2*E10*E11/(E10+E11),3)</f>
+        <v>0.734</v>
+      </c>
+      <c r="F9" s="60" t="n">
+        <f aca="false">ROUND(2*F10*F11/(F10+F11),3)</f>
+        <v>0.63</v>
+      </c>
+      <c r="G9" s="60" t="n">
+        <f aca="false">ROUND(2*G10*G11/(G10+G11),3)</f>
+        <v>0.82</v>
+      </c>
+      <c r="H9" s="60" t="n">
+        <f aca="false">ROUND(2*H10*H11/(H10+H11),3)</f>
+        <v>0.845</v>
+      </c>
+      <c r="I9" s="60" t="n">
+        <f aca="false">ROUND(2*I10*I11/(I10+I11),3)</f>
+        <v>0.888</v>
+      </c>
+      <c r="J9" s="60" t="n">
+        <f aca="false">ROUND(2*J10*J11/(J10+J11),3)</f>
+        <v>0.89</v>
+      </c>
+      <c r="K9" s="60" t="n">
+        <f aca="false">ROUND(2*K10*K11/(K10+K11),3)</f>
+        <v>0.888</v>
+      </c>
+      <c r="L9" s="61" t="n">
+        <f aca="false">ROUND(2*L10*L11/(L10+L11),3)</f>
+        <v>0.891</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0.814</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I10" s="62" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K10" s="62" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="J11" s="62" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="L11" s="62" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="60" t="n">
+        <f aca="false">ROUND(2*D13*D14/(D13+D14),3)</f>
+        <v>0.797</v>
+      </c>
+      <c r="E12" s="61" t="n">
+        <f aca="false">ROUND(2*E13*E14/(E13+E14),3)</f>
+        <v>0.803</v>
+      </c>
+      <c r="F12" s="60" t="n">
+        <f aca="false">ROUND(2*F13*F14/(F13+F14),3)</f>
+        <v>0.756</v>
+      </c>
+      <c r="G12" s="60" t="n">
+        <f aca="false">ROUND(2*G13*G14/(G13+G14),3)</f>
+        <v>0.72</v>
+      </c>
+      <c r="H12" s="60" t="n">
+        <f aca="false">ROUND(2*H13*H14/(H13+H14),3)</f>
+        <v>0.723</v>
+      </c>
+      <c r="I12" s="60" t="n">
+        <f aca="false">ROUND(2*I13*I14/(I13+I14),3)</f>
+        <v>0.747</v>
+      </c>
+      <c r="J12" s="60" t="n">
+        <f aca="false">ROUND(2*J13*J14/(J13+J14),3)</f>
+        <v>0.773</v>
+      </c>
+      <c r="K12" s="60" t="n">
+        <f aca="false">ROUND(2*K13*K14/(K13+K14),3)</f>
+        <v>0.76</v>
+      </c>
+      <c r="L12" s="60" t="n">
+        <f aca="false">ROUND(2*L13*L14/(L13+L14),3)</f>
+        <v>0.757</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="E13" s="62" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="E14" s="62" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3" t="n">
+        <v>29858.8</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>2921.4</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>8681.1</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>8055.1</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>766.6</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>26678.7</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>26782</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>26576.9</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="61" t="n">
+        <f aca="false">ROUND(2*D17*D18/(D17+D18),3)</f>
+        <v>0.817</v>
+      </c>
+      <c r="E16" s="60" t="n">
+        <f aca="false">ROUND(2*E17*E18/(E17+E18),3)</f>
+        <v>0.813</v>
+      </c>
+      <c r="F16" s="60" t="n">
+        <f aca="false">ROUND(2*F17*F18/(F17+F18),3)</f>
+        <v>0.763</v>
+      </c>
+      <c r="G16" s="60" t="n">
+        <f aca="false">ROUND(2*G17*G18/(G17+G18),3)</f>
+        <v>0.759</v>
+      </c>
+      <c r="H16" s="60" t="n">
+        <f aca="false">ROUND(2*H17*H18/(H17+H18),3)</f>
+        <v>0.763</v>
+      </c>
+      <c r="I16" s="60" t="n">
+        <f aca="false">ROUND(2*I17*I18/(I17+I18),3)</f>
+        <v>0.763</v>
+      </c>
+      <c r="J16" s="60" t="n">
+        <f aca="false">ROUND(2*J17*J18/(J17+J18),3)</f>
+        <v>0.794</v>
+      </c>
+      <c r="K16" s="60" t="n">
+        <f aca="false">ROUND(2*K17*K18/(K17+K18),3)</f>
+        <v>0.772</v>
+      </c>
+      <c r="L16" s="60" t="n">
+        <f aca="false">ROUND(2*L17*L18/(L17+L18),3)</f>
+        <v>0.783</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E17" s="62" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="62" t="n">
+        <v>0.814</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>0.807</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>0.807</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="60" t="n">
+        <f aca="false">ROUND(2*D20*D21/(D20+D21),3)</f>
+        <v>0.785</v>
+      </c>
+      <c r="E19" s="60" t="n">
+        <f aca="false">ROUND(2*E20*E21/(E20+E21),3)</f>
+        <v>0.755</v>
+      </c>
+      <c r="F19" s="60" t="n">
+        <f aca="false">ROUND(2*F20*F21/(F20+F21),3)</f>
+        <v>0.676</v>
+      </c>
+      <c r="G19" s="60" t="n">
+        <f aca="false">ROUND(2*G20*G21/(G20+G21),3)</f>
+        <v>0.837</v>
+      </c>
+      <c r="H19" s="60" t="n">
+        <f aca="false">ROUND(2*H20*H21/(H20+H21),3)</f>
+        <v>0.857</v>
+      </c>
+      <c r="I19" s="60" t="n">
+        <f aca="false">ROUND(2*I20*I21/(I20+I21),3)</f>
+        <v>0.89</v>
+      </c>
+      <c r="J19" s="60" t="n">
+        <f aca="false">ROUND(2*J20*J21/(J20+J21),3)</f>
+        <v>0.882</v>
+      </c>
+      <c r="K19" s="61" t="n">
+        <f aca="false">ROUND(2*K20*K21/(K20+K21),3)</f>
+        <v>0.892</v>
+      </c>
+      <c r="L19" s="60" t="n">
+        <f aca="false">ROUND(2*L20*L21/(L20+L21),3)</f>
+        <v>0.884</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6"/>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="I20" s="62" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="K20" s="62" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="K21" s="62" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="60" t="n">
+        <f aca="false">ROUND(2*D23*D24/(D23+D24),3)</f>
+        <v>0.707</v>
+      </c>
+      <c r="E22" s="60" t="n">
+        <f aca="false">ROUND(2*E23*E24/(E23+E24),3)</f>
+        <v>0.736</v>
+      </c>
+      <c r="F22" s="60" t="e">
+        <f aca="false">ROUND(2*F23*F24/(F23+F24),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="60" t="n">
+        <f aca="false">ROUND(2*G23*G24/(G23+G24),3)</f>
+        <v>0.632</v>
+      </c>
+      <c r="H22" s="60" t="n">
+        <f aca="false">ROUND(2*H23*H24/(H23+H24),3)</f>
+        <v>0.633</v>
+      </c>
+      <c r="I22" s="60" t="n">
+        <f aca="false">ROUND(2*I23*I24/(I23+I24),3)</f>
+        <v>0.584</v>
+      </c>
+      <c r="J22" s="60" t="e">
+        <f aca="false">ROUND(2*J23*J24/(J23+J24),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="60" t="e">
+        <f aca="false">ROUND(2*K23*K24/(K23+K24),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="60" t="e">
+        <f aca="false">ROUND(2*L23*L24/(L23+L24),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="14"/>
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="3" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="14"/>
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3" t="n">
+        <v>31542.4</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="F25" s="41"/>
+      <c r="G25" s="3" t="n">
+        <v>12000.2</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>11787.3</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>1482.4</v>
+      </c>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="60" t="n">
+        <f aca="false">ROUND(2*D27*D28/(D27+D28),3)</f>
+        <v>0.8</v>
+      </c>
+      <c r="E26" s="60" t="n">
+        <f aca="false">ROUND(2*E27*E28/(E27+E28),3)</f>
+        <v>0.79</v>
+      </c>
+      <c r="F26" s="60" t="e">
+        <f aca="false">ROUND(2*F27*F28/(F27+F28),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="60" t="n">
+        <f aca="false">ROUND(2*G27*G28/(G27+G28),3)</f>
+        <v>0.744</v>
+      </c>
+      <c r="H26" s="60" t="n">
+        <f aca="false">ROUND(2*H27*H28/(H27+H28),3)</f>
+        <v>0.75</v>
+      </c>
+      <c r="I26" s="60" t="n">
+        <f aca="false">ROUND(2*I27*I28/(I27+I28),3)</f>
+        <v>0.769</v>
+      </c>
+      <c r="J26" s="60" t="e">
+        <f aca="false">ROUND(2*J27*J28/(J27+J28),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="60" t="e">
+        <f aca="false">ROUND(2*K27*K28/(K27+K28),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="60" t="e">
+        <f aca="false">ROUND(2*L27*L28/(L27+L28),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>0.811</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="F27" s="41"/>
+      <c r="G27" s="3" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6"/>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" s="3" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="14"/>
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="60" t="n">
+        <f aca="false">ROUND(2*D30*D31/(D30+D31),3)</f>
+        <v>0.799</v>
+      </c>
+      <c r="E29" s="60" t="n">
+        <f aca="false">ROUND(2*E30*E31/(E30+E31),3)</f>
+        <v>0.802</v>
+      </c>
+      <c r="F29" s="60" t="e">
+        <f aca="false">ROUND(2*F30*F31/(F30+F31),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="60" t="n">
+        <f aca="false">ROUND(2*G30*G31/(G30+G31),3)</f>
+        <v>0.803</v>
+      </c>
+      <c r="H29" s="60" t="n">
+        <f aca="false">ROUND(2*H30*H31/(H30+H31),3)</f>
+        <v>0.827</v>
+      </c>
+      <c r="I29" s="60" t="n">
+        <f aca="false">ROUND(2*I30*I31/(I30+I31),3)</f>
+        <v>0.848</v>
+      </c>
+      <c r="J29" s="60" t="e">
+        <f aca="false">ROUND(2*J30*J31/(J30+J31),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="60" t="e">
+        <f aca="false">ROUND(2*K30*K31/(K30+K31),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="60" t="e">
+        <f aca="false">ROUND(2*L30*L31/(L30+L31),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="P29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6"/>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="3" t="n">
+        <v>0.812</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6"/>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0.807</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="3" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="14"/>
+      <c r="P31" s="14"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="60" t="n">
+        <f aca="false">ROUND(2*D33*D34/(D33+D34),3)</f>
+        <v>0.756</v>
+      </c>
+      <c r="E32" s="60" t="n">
+        <f aca="false">ROUND(2*E33*E34/(E33+E34),3)</f>
+        <v>0.738</v>
+      </c>
+      <c r="F32" s="60" t="e">
+        <f aca="false">ROUND(2*F33*F34/(F33+F34),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="60" t="n">
+        <f aca="false">ROUND(2*G33*G34/(G33+G34),3)</f>
+        <v>0.597</v>
+      </c>
+      <c r="H32" s="60" t="n">
+        <f aca="false">ROUND(2*H33*H34/(H33+H34),3)</f>
+        <v>0.606</v>
+      </c>
+      <c r="I32" s="60" t="n">
+        <f aca="false">ROUND(2*I33*I34/(I33+I34),3)</f>
+        <v>0.752</v>
+      </c>
+      <c r="J32" s="61" t="n">
+        <f aca="false">ROUND(2*J33*J34/(J33+J34),3)</f>
+        <v>0.773</v>
+      </c>
+      <c r="K32" s="60" t="n">
+        <f aca="false">ROUND(2*K33*K34/(K33+K34),3)</f>
+        <v>0.756</v>
+      </c>
+      <c r="L32" s="60" t="n">
+        <f aca="false">ROUND(2*L33*L34/(L33+L34),3)</f>
+        <v>0.771</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="63" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="E33" s="48" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="48" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H33" s="48" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="I33" s="48" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="J33" s="48" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="K33" s="48" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="L33" s="48" t="n">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="48" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="E34" s="48" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="F34" s="41"/>
+      <c r="G34" s="48" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H34" s="48" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="I34" s="48" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="J34" s="63" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="K34" s="48" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="L34" s="48" t="n">
+        <v>0.794</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="48" t="n">
+        <v>23315.1</v>
+      </c>
+      <c r="E35" s="48" t="n">
+        <v>259.1</v>
+      </c>
+      <c r="F35" s="41"/>
+      <c r="G35" s="48" t="n">
+        <v>8483.4</v>
+      </c>
+      <c r="H35" s="48" t="n">
+        <v>8692.7</v>
+      </c>
+      <c r="I35" s="48" t="n">
+        <v>1606</v>
+      </c>
+      <c r="J35" s="48" t="n">
+        <v>24222.8</v>
+      </c>
+      <c r="K35" s="48" t="n">
+        <v>24154.4</v>
+      </c>
+      <c r="L35" s="48" t="n">
+        <v>24204.2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="64" t="n">
+        <f aca="false">ROUND(2*D37*D38/(D37+D38),3)</f>
+        <v>0.772</v>
+      </c>
+      <c r="E36" s="64" t="n">
+        <f aca="false">ROUND(2*E37*E38/(E37+E38),3)</f>
+        <v>0.753</v>
+      </c>
+      <c r="F36" s="60" t="e">
+        <f aca="false">ROUND(2*F37*F38/(F37+F38),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="64" t="n">
+        <f aca="false">ROUND(2*G37*G38/(G37+G38),3)</f>
+        <v>0.76</v>
+      </c>
+      <c r="H36" s="64" t="n">
+        <f aca="false">ROUND(2*H37*H38/(H37+H38),3)</f>
+        <v>0.771</v>
+      </c>
+      <c r="I36" s="64" t="n">
+        <f aca="false">ROUND(2*I37*I38/(I37+I38),3)</f>
+        <v>0.826</v>
+      </c>
+      <c r="J36" s="65" t="n">
+        <f aca="false">ROUND(2*J37*J38/(J37+J38),3)</f>
+        <v>0.846</v>
+      </c>
+      <c r="K36" s="64" t="n">
+        <f aca="false">ROUND(2*K37*K38/(K37+K38),3)</f>
+        <v>0.828</v>
+      </c>
+      <c r="L36" s="64" t="n">
+        <f aca="false">ROUND(2*L37*L38/(L37+L38),3)</f>
+        <v>0.845</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6"/>
+      <c r="B37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="48" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="E37" s="48" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="F37" s="41"/>
+      <c r="G37" s="48" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="48" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="I37" s="48" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="J37" s="63" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="K37" s="48" t="n">
+        <v>0.811</v>
+      </c>
+      <c r="L37" s="48" t="n">
+        <v>0.827</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6"/>
+      <c r="B38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="48" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="E38" s="48" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="F38" s="41"/>
+      <c r="G38" s="48" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H38" s="48" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="I38" s="48" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="J38" s="48" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="K38" s="48" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="L38" s="63" t="n">
+        <v>0.863</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:A5"/>
+  <mergeCells count="49">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4010,252 +6283,632 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I27"/>
+  <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="14.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="8" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="14.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="12.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="12.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="8" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="67" t="n">
+        <v>0.140883334941848</v>
+      </c>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69" t="n">
+        <v>4.10464023048836E-013</v>
+      </c>
+      <c r="F4" s="69" t="n">
+        <v>3.82840031984828E-011</v>
+      </c>
+      <c r="G4" s="69" t="n">
+        <v>0.000116155181976361</v>
+      </c>
+      <c r="H4" s="69" t="n">
+        <v>2.75180644630387E-008</v>
+      </c>
+      <c r="I4" s="69" t="n">
+        <v>0.00043576083968398</v>
+      </c>
+      <c r="J4" s="69" t="n">
+        <v>1.26947294003639E-008</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="67" t="n">
+        <v>0.140883334941848</v>
+      </c>
+      <c r="C5" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69" t="n">
+        <v>1.63369948177327E-009</v>
+      </c>
+      <c r="F5" s="69" t="n">
+        <v>6.76949369355295E-008</v>
+      </c>
+      <c r="G5" s="69" t="n">
+        <v>2.43591213114909E-007</v>
+      </c>
+      <c r="H5" s="69" t="n">
+        <v>9.79314734712005E-012</v>
+      </c>
+      <c r="I5" s="69" t="n">
+        <v>1.53289221641234E-006</v>
+      </c>
+      <c r="J5" s="69" t="n">
+        <v>3.47126985805201E-012</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="69" t="n">
+        <v>4.10464023048836E-013</v>
+      </c>
+      <c r="C7" s="69" t="n">
+        <v>1.63369948177327E-009</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="67" t="n">
+        <v>0.588506939548753</v>
+      </c>
+      <c r="G7" s="69" t="n">
+        <v>2.26378363953451E-023</v>
+      </c>
+      <c r="H7" s="69" t="n">
+        <v>4.09611823014543E-029</v>
+      </c>
+      <c r="I7" s="69" t="n">
+        <v>5.47853934350764E-022</v>
+      </c>
+      <c r="J7" s="69" t="n">
+        <v>8.89483793272763E-030</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="69" t="n">
+        <v>3.82840031984828E-011</v>
+      </c>
+      <c r="C8" s="69" t="n">
+        <v>6.76949369355295E-008</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67" t="n">
+        <v>0.588506939548753</v>
+      </c>
+      <c r="F8" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="69" t="n">
+        <v>9.71917223860091E-021</v>
+      </c>
+      <c r="H8" s="69" t="n">
+        <v>3.6532744778373E-026</v>
+      </c>
+      <c r="I8" s="69" t="n">
+        <v>1.78336983658511E-019</v>
+      </c>
+      <c r="J8" s="69" t="n">
+        <v>9.21472094611681E-027</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="69" t="n">
+        <v>0.000116155181976361</v>
+      </c>
+      <c r="C9" s="69" t="n">
+        <v>2.43591213114909E-007</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69" t="n">
+        <v>2.26378363953451E-023</v>
+      </c>
+      <c r="F9" s="69" t="n">
+        <v>9.71917223860091E-021</v>
+      </c>
+      <c r="G9" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="67" t="n">
+        <v>0.100206159477224</v>
+      </c>
+      <c r="I9" s="67" t="n">
+        <v>0.821353794498341</v>
+      </c>
+      <c r="J9" s="67" t="n">
+        <v>0.0894586406120109</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="69" t="n">
+        <v>2.75180644630387E-008</v>
+      </c>
+      <c r="C10" s="69" t="n">
+        <v>9.79314734712005E-012</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69" t="n">
+        <v>4.09611823014543E-029</v>
+      </c>
+      <c r="F10" s="69" t="n">
+        <v>3.6532744778373E-026</v>
+      </c>
+      <c r="G10" s="67" t="n">
+        <v>0.100206159477224</v>
+      </c>
+      <c r="H10" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="67" t="n">
+        <v>0.0679439103762584</v>
+      </c>
+      <c r="J10" s="67" t="n">
+        <v>0.982129642107398</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="69" t="n">
+        <v>0.00043576083968398</v>
+      </c>
+      <c r="C11" s="69" t="n">
+        <v>1.53289221641234E-006</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69" t="n">
+        <v>5.47853934350764E-022</v>
+      </c>
+      <c r="F11" s="69" t="n">
+        <v>1.78336983658511E-019</v>
+      </c>
+      <c r="G11" s="67" t="n">
+        <v>0.821353794498341</v>
+      </c>
+      <c r="H11" s="67" t="n">
+        <v>0.0679439103762584</v>
+      </c>
+      <c r="I11" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="67" t="n">
+        <v>0.0600253666298101</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="69" t="n">
+        <v>1.26947294003639E-008</v>
+      </c>
+      <c r="C12" s="69" t="n">
+        <v>3.47126985805201E-012</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="69" t="n">
+        <v>8.89483793272763E-030</v>
+      </c>
+      <c r="F12" s="69" t="n">
+        <v>9.21472094611681E-027</v>
+      </c>
+      <c r="G12" s="67" t="n">
+        <v>0.0894586406120109</v>
+      </c>
+      <c r="H12" s="67" t="n">
+        <v>0.982129642107398</v>
+      </c>
+      <c r="I12" s="67" t="n">
+        <v>0.0600253666298101</v>
+      </c>
+      <c r="J12" s="67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="67" t="n">
+        <v>0.187265177331859</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67" t="n">
+        <v>0.903731970893427</v>
+      </c>
+      <c r="F15" s="67" t="n">
+        <v>0.240224474968486</v>
+      </c>
+      <c r="G15" s="69" t="n">
+        <v>2.1453786881388E-008</v>
+      </c>
+      <c r="H15" s="69" t="n">
+        <v>4.62330340471579E-014</v>
+      </c>
+      <c r="I15" s="69" t="n">
+        <v>2.22014377027665E-007</v>
+      </c>
+      <c r="J15" s="69" t="n">
+        <v>2.4844163677206E-015</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="67" t="n">
+        <v>0.187265177331859</v>
+      </c>
+      <c r="C16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="67" t="n">
+        <v>0.190856750737348</v>
+      </c>
+      <c r="F16" s="67" t="n">
+        <v>0.0175036181434721</v>
+      </c>
+      <c r="G16" s="69" t="n">
+        <v>4.48606000893366E-012</v>
+      </c>
+      <c r="H16" s="69" t="n">
+        <v>7.71457569359533E-019</v>
+      </c>
+      <c r="I16" s="69" t="n">
+        <v>9.06258228586517E-011</v>
+      </c>
+      <c r="J16" s="69" t="n">
+        <v>2.42475099046876E-020</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="67" t="n">
+        <v>0.903731970893427</v>
+      </c>
+      <c r="C18" s="67" t="n">
+        <v>0.190856750737348</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="67" t="n">
+        <v>0.337143202866774</v>
+      </c>
+      <c r="G18" s="69" t="n">
+        <v>1.32966550502215E-006</v>
+      </c>
+      <c r="H18" s="69" t="n">
+        <v>8.43929504878042E-011</v>
+      </c>
+      <c r="I18" s="69" t="n">
+        <v>7.19734500402699E-006</v>
+      </c>
+      <c r="J18" s="69" t="n">
+        <v>1.06907944768517E-011</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="67" t="n">
+        <v>0.240224474968486</v>
+      </c>
+      <c r="C19" s="67" t="n">
+        <v>0.0175036181434721</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="67" t="n">
+        <v>0.337143202866774</v>
+      </c>
+      <c r="F19" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="69" t="n">
+        <v>0.000118763983786277</v>
+      </c>
+      <c r="H19" s="69" t="n">
+        <v>3.12625277237414E-008</v>
+      </c>
+      <c r="I19" s="69" t="n">
+        <v>0.000452623685124206</v>
+      </c>
+      <c r="J19" s="69" t="n">
+        <v>5.17874422449256E-009</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="69" t="n">
+        <v>2.1453786881388E-008</v>
+      </c>
+      <c r="C20" s="69" t="n">
+        <v>4.48606000893366E-012</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69" t="n">
+        <v>1.32966550502215E-006</v>
+      </c>
+      <c r="F20" s="69" t="n">
+        <v>0.000118763983786277</v>
+      </c>
+      <c r="G20" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="67" t="n">
+        <v>0.0499206971908734</v>
+      </c>
+      <c r="I20" s="67" t="n">
+        <v>0.745006957713606</v>
+      </c>
+      <c r="J20" s="67" t="n">
+        <v>0.0207764902929139</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="69" t="n">
+        <v>4.62330340471579E-014</v>
+      </c>
+      <c r="C21" s="69" t="n">
+        <v>7.71457569359533E-019</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69" t="n">
+        <v>8.43929504878042E-011</v>
+      </c>
+      <c r="F21" s="69" t="n">
+        <v>3.12625277237414E-008</v>
+      </c>
+      <c r="G21" s="67" t="n">
+        <v>0.0499206971908734</v>
+      </c>
+      <c r="H21" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="67" t="n">
+        <v>0.0252529071789694</v>
+      </c>
+      <c r="J21" s="67" t="n">
+        <v>0.734660930148498</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="69" t="n">
+        <v>2.22014377027665E-007</v>
+      </c>
+      <c r="C22" s="69" t="n">
+        <v>9.06258228586517E-011</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69" t="n">
+        <v>7.19734500402699E-006</v>
+      </c>
+      <c r="F22" s="69" t="n">
+        <v>0.000452623685124206</v>
+      </c>
+      <c r="G22" s="67" t="n">
+        <v>0.745006957713606</v>
+      </c>
+      <c r="H22" s="67" t="n">
+        <v>0.0252529071789694</v>
+      </c>
+      <c r="I22" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="69" t="n">
+        <v>0.00988635177168938</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="69" t="n">
+        <v>2.4844163677206E-015</v>
+      </c>
+      <c r="C23" s="69" t="n">
+        <v>2.42475099046876E-020</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="69" t="n">
+        <v>1.06907944768517E-011</v>
+      </c>
+      <c r="F23" s="69" t="n">
+        <v>5.17874422449256E-009</v>
+      </c>
+      <c r="G23" s="67" t="n">
+        <v>0.0207764902929139</v>
+      </c>
+      <c r="H23" s="67" t="n">
+        <v>0.734660930148498</v>
+      </c>
+      <c r="I23" s="69" t="n">
+        <v>0.00988635177168938</v>
+      </c>
+      <c r="J23" s="67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A13:I13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/benchmarks/summary_ali.xlsx
+++ b/benchmarks/summary_ali.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -308,7 +308,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,35 +453,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,11 +473,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -525,27 +513,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -562,14 +546,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -609,9 +585,9 @@
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
+      <selection pane="bottomLeft" activeCell="J83" activeCellId="0" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2892,7 +2868,7 @@
         <f aca="false">ROUND(2*D61*D64/(D61+D64),3)</f>
         <v>0.707</v>
       </c>
-      <c r="E58" s="11" t="n">
+      <c r="E58" s="32" t="n">
         <f aca="false">ROUND(2*E61*E64/(E61+E64),3)</f>
         <v>0.736</v>
       </c>
@@ -2912,17 +2888,17 @@
         <f aca="false">ROUND(2*I61*I64/(I61+I64),3)</f>
         <v>0.584</v>
       </c>
-      <c r="J58" s="11" t="e">
+      <c r="J58" s="11" t="n">
         <f aca="false">ROUND(2*J61*J64/(J61+J64),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K58" s="11" t="e">
+        <v>0.602</v>
+      </c>
+      <c r="K58" s="11" t="n">
         <f aca="false">ROUND(2*K61*K64/(K61+K64),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L58" s="12" t="e">
+        <v>0.607</v>
+      </c>
+      <c r="L58" s="12" t="n">
         <f aca="false">ROUND(2*L61*L64/(L61+L64),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.579</v>
       </c>
       <c r="M58" s="14"/>
       <c r="P58" s="14"/>
@@ -2931,7 +2907,7 @@
       <c r="C59" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="17" t="n">
+      <c r="D59" s="16" t="n">
         <f aca="false">ROUND(2*D62*D65/(D62+D65),3)</f>
         <v>0.799</v>
       </c>
@@ -2955,17 +2931,17 @@
         <f aca="false">ROUND(2*I62*I65/(I62+I65),3)</f>
         <v>0.589</v>
       </c>
-      <c r="J59" s="17" t="e">
+      <c r="J59" s="17" t="n">
         <f aca="false">ROUND(2*J62*J65/(J62+J65),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K59" s="17" t="e">
+        <v>0.564</v>
+      </c>
+      <c r="K59" s="17" t="n">
         <f aca="false">ROUND(2*K62*K65/(K62+K65),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L59" s="18" t="e">
+        <v>0.678</v>
+      </c>
+      <c r="L59" s="18" t="n">
         <f aca="false">ROUND(2*L62*L65/(L62+L65),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.536</v>
       </c>
       <c r="M59" s="14"/>
       <c r="P59" s="14"/>
@@ -2978,7 +2954,7 @@
         <f aca="false">ROUND(2*D63*D66/(D63+D66),3)</f>
         <v>0.69</v>
       </c>
-      <c r="E60" s="20" t="n">
+      <c r="E60" s="33" t="n">
         <f aca="false">ROUND(2*E63*E66/(E63+E66),3)</f>
         <v>0.78</v>
       </c>
@@ -2998,17 +2974,17 @@
         <f aca="false">ROUND(2*I63*I66/(I63+I66),3)</f>
         <v>0.636</v>
       </c>
-      <c r="J60" s="20" t="e">
+      <c r="J60" s="20" t="n">
         <f aca="false">ROUND(2*J63*J66/(J63+J66),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K60" s="20" t="e">
+        <v>0.704</v>
+      </c>
+      <c r="K60" s="20" t="n">
         <f aca="false">ROUND(2*K63*K66/(K63+K66),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L60" s="21" t="e">
+        <v>0.61</v>
+      </c>
+      <c r="L60" s="21" t="n">
         <f aca="false">ROUND(2*L63*L66/(L63+L66),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.69</v>
       </c>
       <c r="M60" s="14"/>
       <c r="P60" s="14"/>
@@ -3023,7 +2999,7 @@
       <c r="D61" s="23" t="n">
         <v>0.738</v>
       </c>
-      <c r="E61" s="23" t="n">
+      <c r="E61" s="25" t="n">
         <v>0.761</v>
       </c>
       <c r="F61" s="35"/>
@@ -3036,9 +3012,15 @@
       <c r="I61" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="35"/>
+      <c r="J61" s="36" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="K61" s="36" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="L61" s="37" t="n">
+        <v>0.589</v>
+      </c>
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
@@ -3048,13 +3030,13 @@
       <c r="C62" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="14" t="n">
+      <c r="D62" s="26" t="n">
         <v>0.83</v>
       </c>
       <c r="E62" s="14" t="n">
         <v>0.754</v>
       </c>
-      <c r="F62" s="37"/>
+      <c r="F62" s="38"/>
       <c r="G62" s="14" t="n">
         <v>0.624</v>
       </c>
@@ -3064,9 +3046,15 @@
       <c r="I62" s="14" t="n">
         <v>0.601</v>
       </c>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="37"/>
+      <c r="J62" s="39" t="n">
+        <v>0.563</v>
+      </c>
+      <c r="K62" s="39" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="L62" s="40" t="n">
+        <v>0.533</v>
+      </c>
       <c r="M62" s="14"/>
       <c r="P62" s="14"/>
     </row>
@@ -3077,10 +3065,10 @@
       <c r="D63" s="28" t="n">
         <v>0.665</v>
       </c>
-      <c r="E63" s="28" t="n">
+      <c r="E63" s="34" t="n">
         <v>0.767</v>
       </c>
-      <c r="F63" s="39"/>
+      <c r="F63" s="41"/>
       <c r="G63" s="28" t="n">
         <v>0.679</v>
       </c>
@@ -3090,9 +3078,15 @@
       <c r="I63" s="28" t="n">
         <v>0.599</v>
       </c>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="39"/>
+      <c r="J63" s="42" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="K63" s="42" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="L63" s="43" t="n">
+        <v>0.659</v>
+      </c>
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
       <c r="O63" s="14"/>
@@ -3108,7 +3102,7 @@
       <c r="D64" s="23" t="n">
         <v>0.679</v>
       </c>
-      <c r="E64" s="23" t="n">
+      <c r="E64" s="25" t="n">
         <v>0.713</v>
       </c>
       <c r="F64" s="35"/>
@@ -3121,9 +3115,15 @@
       <c r="I64" s="23" t="n">
         <v>0.569</v>
       </c>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="35"/>
+      <c r="J64" s="36" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K64" s="36" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="L64" s="37" t="n">
+        <v>0.57</v>
+      </c>
       <c r="M64" s="14"/>
       <c r="P64" s="14"/>
     </row>
@@ -3131,13 +3131,13 @@
       <c r="C65" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="14" t="n">
+      <c r="D65" s="26" t="n">
         <v>0.77</v>
       </c>
       <c r="E65" s="14" t="n">
         <v>0.746</v>
       </c>
-      <c r="F65" s="37"/>
+      <c r="F65" s="38"/>
       <c r="G65" s="14" t="n">
         <v>0.624</v>
       </c>
@@ -3147,9 +3147,15 @@
       <c r="I65" s="14" t="n">
         <v>0.577</v>
       </c>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="37"/>
+      <c r="J65" s="39" t="n">
+        <v>0.566</v>
+      </c>
+      <c r="K65" s="39" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="L65" s="40" t="n">
+        <v>0.539</v>
+      </c>
       <c r="M65" s="14"/>
       <c r="P65" s="14"/>
     </row>
@@ -3160,10 +3166,10 @@
       <c r="D66" s="28" t="n">
         <v>0.716</v>
       </c>
-      <c r="E66" s="28" t="n">
+      <c r="E66" s="34" t="n">
         <v>0.793</v>
       </c>
-      <c r="F66" s="39"/>
+      <c r="F66" s="41"/>
       <c r="G66" s="28" t="n">
         <v>0.72</v>
       </c>
@@ -3173,9 +3179,15 @@
       <c r="I66" s="28" t="n">
         <v>0.677</v>
       </c>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="39"/>
+      <c r="J66" s="42" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="K66" s="42" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="L66" s="43" t="n">
+        <v>0.724</v>
+      </c>
       <c r="M66" s="14"/>
       <c r="P66" s="14"/>
     </row>
@@ -3190,7 +3202,7 @@
       <c r="E67" s="3" t="n">
         <v>212.5</v>
       </c>
-      <c r="F67" s="41"/>
+      <c r="F67" s="44"/>
       <c r="G67" s="3" t="n">
         <v>12000.2</v>
       </c>
@@ -3200,9 +3212,15 @@
       <c r="I67" s="3" t="n">
         <v>1482.4</v>
       </c>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
+      <c r="J67" s="45" t="n">
+        <v>28858.6</v>
+      </c>
+      <c r="K67" s="45" t="n">
+        <v>28777.5</v>
+      </c>
+      <c r="L67" s="45" t="n">
+        <v>28604.9</v>
+      </c>
       <c r="M67" s="14"/>
       <c r="N67" s="14"/>
       <c r="O67" s="14"/>
@@ -3218,7 +3236,7 @@
       <c r="C68" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="11" t="n">
+      <c r="D68" s="32" t="n">
         <f aca="false">ROUND(2*D71*D74/(D71+D74),3)</f>
         <v>0.8</v>
       </c>
@@ -3242,17 +3260,17 @@
         <f aca="false">ROUND(2*I71*I74/(I71+I74),3)</f>
         <v>0.769</v>
       </c>
-      <c r="J68" s="11" t="e">
+      <c r="J68" s="46" t="n">
         <f aca="false">ROUND(2*J71*J74/(J71+J74),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K68" s="11" t="e">
+        <v>0.779</v>
+      </c>
+      <c r="K68" s="46" t="n">
         <f aca="false">ROUND(2*K71*K74/(K71+K74),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L68" s="12" t="e">
+        <v>0.784</v>
+      </c>
+      <c r="L68" s="47" t="n">
         <f aca="false">ROUND(2*L71*L74/(L71+L74),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.769</v>
       </c>
       <c r="M68" s="14"/>
       <c r="P68" s="14"/>
@@ -3262,7 +3280,7 @@
       <c r="C69" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="17" t="n">
+      <c r="D69" s="16" t="n">
         <f aca="false">ROUND(2*D72*D75/(D72+D75),3)</f>
         <v>0.916</v>
       </c>
@@ -3286,17 +3304,17 @@
         <f aca="false">ROUND(2*I72*I75/(I72+I75),3)</f>
         <v>0.77</v>
       </c>
-      <c r="J69" s="17" t="e">
+      <c r="J69" s="48" t="n">
         <f aca="false">ROUND(2*J72*J75/(J72+J75),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K69" s="17" t="e">
+        <v>0.741</v>
+      </c>
+      <c r="K69" s="48" t="n">
         <f aca="false">ROUND(2*K72*K75/(K72+K75),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L69" s="18" t="e">
+        <v>0.82</v>
+      </c>
+      <c r="L69" s="49" t="n">
         <f aca="false">ROUND(2*L72*L75/(L72+L75),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.722</v>
       </c>
       <c r="M69" s="14"/>
       <c r="P69" s="14"/>
@@ -3330,17 +3348,17 @@
         <f aca="false">ROUND(2*I73*I76/(I73+I76),3)</f>
         <v>0.789</v>
       </c>
-      <c r="J70" s="20" t="e">
+      <c r="J70" s="50" t="n">
         <f aca="false">ROUND(2*J73*J76/(J73+J76),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K70" s="20" t="e">
+        <v>0.845</v>
+      </c>
+      <c r="K70" s="50" t="n">
         <f aca="false">ROUND(2*K73*K76/(K73+K76),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L70" s="21" t="e">
+        <v>0.772</v>
+      </c>
+      <c r="L70" s="51" t="n">
         <f aca="false">ROUND(2*L73*L76/(L73+L76),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.847</v>
       </c>
       <c r="M70" s="14"/>
       <c r="P70" s="14"/>
@@ -3353,7 +3371,7 @@
       <c r="C71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="23" t="n">
+      <c r="D71" s="25" t="n">
         <v>0.811</v>
       </c>
       <c r="E71" s="23" t="n">
@@ -3369,9 +3387,15 @@
       <c r="I71" s="23" t="n">
         <v>0.762</v>
       </c>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="35"/>
+      <c r="J71" s="36" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="K71" s="36" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="L71" s="37" t="n">
+        <v>0.769</v>
+      </c>
       <c r="M71" s="14"/>
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
@@ -3382,13 +3406,13 @@
       <c r="C72" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="14" t="n">
+      <c r="D72" s="26" t="n">
         <v>0.928</v>
       </c>
       <c r="E72" s="14" t="n">
         <v>0.903</v>
       </c>
-      <c r="F72" s="37"/>
+      <c r="F72" s="38"/>
       <c r="G72" s="14" t="n">
         <v>0.728</v>
       </c>
@@ -3398,9 +3422,15 @@
       <c r="I72" s="14" t="n">
         <v>0.778</v>
       </c>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="37"/>
+      <c r="J72" s="39" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="K72" s="39" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="L72" s="40" t="n">
+        <v>0.725</v>
+      </c>
       <c r="M72" s="14"/>
       <c r="P72" s="14"/>
     </row>
@@ -3415,7 +3445,7 @@
       <c r="E73" s="28" t="n">
         <v>0.721</v>
       </c>
-      <c r="F73" s="39"/>
+      <c r="F73" s="41"/>
       <c r="G73" s="28" t="n">
         <v>0.767</v>
       </c>
@@ -3425,9 +3455,15 @@
       <c r="I73" s="28" t="n">
         <v>0.747</v>
       </c>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="39"/>
+      <c r="J73" s="52" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="K73" s="42" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L73" s="53" t="n">
+        <v>0.819</v>
+      </c>
       <c r="M73" s="14"/>
       <c r="N73" s="14"/>
       <c r="O73" s="14"/>
@@ -3457,9 +3493,15 @@
       <c r="I74" s="23" t="n">
         <v>0.777</v>
       </c>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="35"/>
+      <c r="J74" s="36" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="K74" s="54" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="L74" s="37" t="n">
+        <v>0.77</v>
+      </c>
       <c r="M74" s="14"/>
       <c r="P74" s="14"/>
     </row>
@@ -3468,13 +3510,13 @@
       <c r="C75" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="14" t="n">
+      <c r="D75" s="26" t="n">
         <v>0.905</v>
       </c>
       <c r="E75" s="14" t="n">
         <v>0.895</v>
       </c>
-      <c r="F75" s="37"/>
+      <c r="F75" s="38"/>
       <c r="G75" s="14" t="n">
         <v>0.746</v>
       </c>
@@ -3484,9 +3526,15 @@
       <c r="I75" s="14" t="n">
         <v>0.763</v>
       </c>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="37"/>
+      <c r="J75" s="39" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="K75" s="39" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="L75" s="40" t="n">
+        <v>0.719</v>
+      </c>
       <c r="M75" s="14"/>
       <c r="P75" s="14"/>
     </row>
@@ -3501,7 +3549,7 @@
       <c r="E76" s="28" t="n">
         <v>0.742</v>
       </c>
-      <c r="F76" s="39"/>
+      <c r="F76" s="41"/>
       <c r="G76" s="28" t="n">
         <v>0.796</v>
       </c>
@@ -3511,9 +3559,15 @@
       <c r="I76" s="28" t="n">
         <v>0.836</v>
       </c>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="39"/>
+      <c r="J76" s="42" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="K76" s="42" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="L76" s="53" t="n">
+        <v>0.877</v>
+      </c>
       <c r="M76" s="14"/>
       <c r="P76" s="14"/>
     </row>
@@ -3551,17 +3605,17 @@
         <f aca="false">ROUND(2*I80*I83/(I80+I83),3)</f>
         <v>0.848</v>
       </c>
-      <c r="J77" s="11" t="e">
+      <c r="J77" s="46" t="n">
         <f aca="false">ROUND(2*J80*J83/(J80+J83),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K77" s="11" t="e">
+        <v>0.846</v>
+      </c>
+      <c r="K77" s="55" t="n">
         <f aca="false">ROUND(2*K80*K83/(K80+K83),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L77" s="12" t="e">
+        <v>0.862</v>
+      </c>
+      <c r="L77" s="47" t="n">
         <f aca="false">ROUND(2*L80*L83/(L80+L83),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.84</v>
       </c>
       <c r="M77" s="14"/>
       <c r="P77" s="14"/>
@@ -3575,7 +3629,7 @@
         <f aca="false">ROUND(2*D81*D84/(D81+D84),3)</f>
         <v>0.932</v>
       </c>
-      <c r="E78" s="17" t="n">
+      <c r="E78" s="16" t="n">
         <f aca="false">ROUND(2*E81*E84/(E81+E84),3)</f>
         <v>0.95</v>
       </c>
@@ -3595,17 +3649,17 @@
         <f aca="false">ROUND(2*I81*I84/(I81+I84),3)</f>
         <v>0.847</v>
       </c>
-      <c r="J78" s="17" t="e">
+      <c r="J78" s="48" t="n">
         <f aca="false">ROUND(2*J81*J84/(J81+J84),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K78" s="17" t="e">
+        <v>0.826</v>
+      </c>
+      <c r="K78" s="48" t="n">
         <f aca="false">ROUND(2*K81*K84/(K81+K84),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L78" s="18" t="e">
+        <v>0.889</v>
+      </c>
+      <c r="L78" s="49" t="n">
         <f aca="false">ROUND(2*L81*L84/(L81+L84),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.809</v>
       </c>
       <c r="M78" s="14"/>
       <c r="P78" s="14"/>
@@ -3639,17 +3693,17 @@
         <f aca="false">ROUND(2*I82*I85/(I82+I85),3)</f>
         <v>0.854</v>
       </c>
-      <c r="J79" s="20" t="e">
+      <c r="J79" s="50" t="n">
         <f aca="false">ROUND(2*J82*J85/(J82+J85),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K79" s="20" t="e">
+        <v>0.874</v>
+      </c>
+      <c r="K79" s="50" t="n">
         <f aca="false">ROUND(2*K82*K85/(K82+K85),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L79" s="21" t="e">
+        <v>0.841</v>
+      </c>
+      <c r="L79" s="51" t="n">
         <f aca="false">ROUND(2*L82*L85/(L82+L85),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.881</v>
       </c>
       <c r="M79" s="14"/>
       <c r="P79" s="14"/>
@@ -3678,9 +3732,15 @@
       <c r="I80" s="23" t="n">
         <v>0.858</v>
       </c>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="35"/>
+      <c r="J80" s="36" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="K80" s="54" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="L80" s="37" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M80" s="14"/>
       <c r="N80" s="14"/>
       <c r="O80" s="14"/>
@@ -3691,13 +3751,13 @@
       <c r="C81" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="14" t="n">
+      <c r="D81" s="26" t="n">
         <v>0.943</v>
       </c>
       <c r="E81" s="14" t="n">
         <v>0.947</v>
       </c>
-      <c r="F81" s="37"/>
+      <c r="F81" s="38"/>
       <c r="G81" s="14" t="n">
         <v>0.803</v>
       </c>
@@ -3707,9 +3767,15 @@
       <c r="I81" s="14" t="n">
         <v>0.86</v>
       </c>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="37"/>
+      <c r="J81" s="39" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="K81" s="39" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L81" s="40" t="n">
+        <v>0.818</v>
+      </c>
       <c r="M81" s="14"/>
       <c r="P81" s="14"/>
     </row>
@@ -3724,7 +3790,7 @@
       <c r="E82" s="28" t="n">
         <v>0.688</v>
       </c>
-      <c r="F82" s="39"/>
+      <c r="F82" s="41"/>
       <c r="G82" s="28" t="n">
         <v>0.822</v>
       </c>
@@ -3734,9 +3800,15 @@
       <c r="I82" s="28" t="n">
         <v>0.855</v>
       </c>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="39"/>
+      <c r="J82" s="42" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="K82" s="42" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="L82" s="53" t="n">
+        <v>0.884</v>
+      </c>
       <c r="M82" s="14"/>
       <c r="N82" s="14"/>
       <c r="O82" s="14"/>
@@ -3766,9 +3838,15 @@
       <c r="I83" s="23" t="n">
         <v>0.839</v>
       </c>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="35"/>
+      <c r="J83" s="36" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="K83" s="54" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="L83" s="37" t="n">
+        <v>0.831</v>
+      </c>
       <c r="M83" s="14"/>
       <c r="P83" s="14"/>
     </row>
@@ -3780,10 +3858,10 @@
       <c r="D84" s="14" t="n">
         <v>0.922</v>
       </c>
-      <c r="E84" s="14" t="n">
+      <c r="E84" s="26" t="n">
         <v>0.954</v>
       </c>
-      <c r="F84" s="37"/>
+      <c r="F84" s="38"/>
       <c r="G84" s="14" t="n">
         <v>0.811</v>
       </c>
@@ -3793,9 +3871,15 @@
       <c r="I84" s="14" t="n">
         <v>0.835</v>
       </c>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="37"/>
+      <c r="J84" s="39" t="n">
+        <v>0.816</v>
+      </c>
+      <c r="K84" s="39" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="L84" s="40" t="n">
+        <v>0.801</v>
+      </c>
       <c r="M84" s="14"/>
       <c r="P84" s="14"/>
     </row>
@@ -3810,19 +3894,25 @@
       <c r="E85" s="28" t="n">
         <v>0.732</v>
       </c>
-      <c r="F85" s="39"/>
+      <c r="F85" s="41"/>
       <c r="G85" s="28" t="n">
         <v>0.825</v>
       </c>
-      <c r="H85" s="29" t="n">
+      <c r="H85" s="30" t="n">
         <v>0.879</v>
       </c>
       <c r="I85" s="28" t="n">
         <v>0.854</v>
       </c>
-      <c r="J85" s="40"/>
-      <c r="K85" s="40"/>
-      <c r="L85" s="39"/>
+      <c r="J85" s="42" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K85" s="42" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="L85" s="43" t="n">
+        <v>0.878</v>
+      </c>
       <c r="M85" s="14"/>
       <c r="P85" s="14"/>
     </row>
@@ -3860,7 +3950,7 @@
         <f aca="false">ROUND(2*I89*I92/(I89+I92),3)</f>
         <v>0.752</v>
       </c>
-      <c r="J86" s="11" t="n">
+      <c r="J86" s="32" t="n">
         <f aca="false">ROUND(2*J89*J92/(J89+J92),3)</f>
         <v>0.773</v>
       </c>
@@ -3877,7 +3967,7 @@
       <c r="C87" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="17" t="n">
+      <c r="D87" s="16" t="n">
         <f aca="false">ROUND(2*D90*D93/(D90+D93),3)</f>
         <v>0.917</v>
       </c>
@@ -3950,7 +4040,7 @@
         <f aca="false">ROUND(2*K91*K94/(K91+K94),3)</f>
         <v>0.671</v>
       </c>
-      <c r="L88" s="21" t="n">
+      <c r="L88" s="22" t="n">
         <f aca="false">ROUND(2*L91*L94/(L91+L94),3)</f>
         <v>0.778</v>
       </c>
@@ -3962,29 +4052,29 @@
       <c r="C89" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="42" t="n">
+      <c r="D89" s="25" t="n">
         <v>0.772</v>
       </c>
-      <c r="E89" s="42" t="n">
+      <c r="E89" s="23" t="n">
         <v>0.75</v>
       </c>
       <c r="F89" s="35"/>
-      <c r="G89" s="42" t="n">
+      <c r="G89" s="23" t="n">
         <v>0.58</v>
       </c>
-      <c r="H89" s="43" t="n">
+      <c r="H89" s="24" t="n">
         <v>0.589</v>
       </c>
-      <c r="I89" s="42" t="n">
+      <c r="I89" s="23" t="n">
         <v>0.727</v>
       </c>
-      <c r="J89" s="42" t="n">
+      <c r="J89" s="23" t="n">
         <v>0.753</v>
       </c>
-      <c r="K89" s="42" t="n">
+      <c r="K89" s="23" t="n">
         <v>0.735</v>
       </c>
-      <c r="L89" s="43" t="n">
+      <c r="L89" s="24" t="n">
         <v>0.749</v>
       </c>
     </row>
@@ -3992,29 +4082,29 @@
       <c r="C90" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="44" t="n">
+      <c r="D90" s="26" t="n">
         <v>0.922</v>
       </c>
-      <c r="E90" s="44" t="n">
+      <c r="E90" s="14" t="n">
         <v>0.861</v>
       </c>
-      <c r="F90" s="37"/>
-      <c r="G90" s="44" t="n">
+      <c r="F90" s="38"/>
+      <c r="G90" s="14" t="n">
         <v>0.599</v>
       </c>
-      <c r="H90" s="45" t="n">
+      <c r="H90" s="27" t="n">
         <v>0.59</v>
       </c>
-      <c r="I90" s="44" t="n">
+      <c r="I90" s="14" t="n">
         <v>0.822</v>
       </c>
-      <c r="J90" s="44" t="n">
+      <c r="J90" s="14" t="n">
         <v>0.767</v>
       </c>
-      <c r="K90" s="44" t="n">
+      <c r="K90" s="14" t="n">
         <v>0.891</v>
       </c>
-      <c r="L90" s="45" t="n">
+      <c r="L90" s="27" t="n">
         <v>0.748</v>
       </c>
     </row>
@@ -4022,29 +4112,29 @@
       <c r="C91" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="46" t="n">
+      <c r="D91" s="28" t="n">
         <v>0.664</v>
       </c>
-      <c r="E91" s="46" t="n">
+      <c r="E91" s="28" t="n">
         <v>0.664</v>
       </c>
-      <c r="F91" s="39"/>
-      <c r="G91" s="46" t="n">
+      <c r="F91" s="41"/>
+      <c r="G91" s="28" t="n">
         <v>0.562</v>
       </c>
-      <c r="H91" s="47" t="n">
+      <c r="H91" s="29" t="n">
         <v>0.587</v>
       </c>
-      <c r="I91" s="46" t="n">
+      <c r="I91" s="28" t="n">
         <v>0.651</v>
       </c>
-      <c r="J91" s="46" t="n">
+      <c r="J91" s="28" t="n">
         <v>0.739</v>
       </c>
-      <c r="K91" s="46" t="n">
+      <c r="K91" s="28" t="n">
         <v>0.625</v>
       </c>
-      <c r="L91" s="47" t="n">
+      <c r="L91" s="30" t="n">
         <v>0.749</v>
       </c>
     </row>
@@ -4055,29 +4145,29 @@
       <c r="C92" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="42" t="n">
+      <c r="D92" s="23" t="n">
         <v>0.741</v>
       </c>
-      <c r="E92" s="42" t="n">
+      <c r="E92" s="23" t="n">
         <v>0.726</v>
       </c>
       <c r="F92" s="35"/>
-      <c r="G92" s="42" t="n">
+      <c r="G92" s="23" t="n">
         <v>0.615</v>
       </c>
-      <c r="H92" s="43" t="n">
+      <c r="H92" s="24" t="n">
         <v>0.623</v>
       </c>
-      <c r="I92" s="42" t="n">
+      <c r="I92" s="23" t="n">
         <v>0.779</v>
       </c>
-      <c r="J92" s="42" t="n">
+      <c r="J92" s="25" t="n">
         <v>0.795</v>
       </c>
-      <c r="K92" s="42" t="n">
+      <c r="K92" s="23" t="n">
         <v>0.778</v>
       </c>
-      <c r="L92" s="43" t="n">
+      <c r="L92" s="24" t="n">
         <v>0.794</v>
       </c>
     </row>
@@ -4085,29 +4175,29 @@
       <c r="C93" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="44" t="n">
+      <c r="D93" s="26" t="n">
         <v>0.912</v>
       </c>
-      <c r="E93" s="44" t="n">
+      <c r="E93" s="14" t="n">
         <v>0.882</v>
       </c>
-      <c r="F93" s="37"/>
-      <c r="G93" s="44" t="n">
+      <c r="F93" s="38"/>
+      <c r="G93" s="14" t="n">
         <v>0.642</v>
       </c>
-      <c r="H93" s="45" t="n">
+      <c r="H93" s="27" t="n">
         <v>0.624</v>
       </c>
-      <c r="I93" s="44" t="n">
+      <c r="I93" s="14" t="n">
         <v>0.828</v>
       </c>
-      <c r="J93" s="44" t="n">
+      <c r="J93" s="14" t="n">
         <v>0.796</v>
       </c>
-      <c r="K93" s="44" t="n">
+      <c r="K93" s="14" t="n">
         <v>0.869</v>
       </c>
-      <c r="L93" s="45" t="n">
+      <c r="L93" s="27" t="n">
         <v>0.786</v>
       </c>
     </row>
@@ -4115,29 +4205,29 @@
       <c r="C94" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="46" t="n">
+      <c r="D94" s="28" t="n">
         <v>0.647</v>
       </c>
-      <c r="E94" s="46" t="n">
+      <c r="E94" s="28" t="n">
         <v>0.644</v>
       </c>
-      <c r="F94" s="39"/>
-      <c r="G94" s="46" t="n">
+      <c r="F94" s="41"/>
+      <c r="G94" s="28" t="n">
         <v>0.604</v>
       </c>
-      <c r="H94" s="47" t="n">
+      <c r="H94" s="29" t="n">
         <v>0.636</v>
       </c>
-      <c r="I94" s="46" t="n">
+      <c r="I94" s="28" t="n">
         <v>0.747</v>
       </c>
-      <c r="J94" s="46" t="n">
+      <c r="J94" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="K94" s="46" t="n">
+      <c r="K94" s="28" t="n">
         <v>0.725</v>
       </c>
-      <c r="L94" s="47" t="n">
+      <c r="L94" s="30" t="n">
         <v>0.81</v>
       </c>
     </row>
@@ -4146,29 +4236,29 @@
         <v>19</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="48" t="n">
+      <c r="D95" s="3" t="n">
         <v>23315.1</v>
       </c>
-      <c r="E95" s="48" t="n">
+      <c r="E95" s="3" t="n">
         <v>259.1</v>
       </c>
-      <c r="F95" s="41"/>
-      <c r="G95" s="48" t="n">
+      <c r="F95" s="44"/>
+      <c r="G95" s="3" t="n">
         <v>8483.4</v>
       </c>
-      <c r="H95" s="48" t="n">
+      <c r="H95" s="3" t="n">
         <v>8692.7</v>
       </c>
-      <c r="I95" s="48" t="n">
+      <c r="I95" s="3" t="n">
         <v>1606</v>
       </c>
-      <c r="J95" s="48" t="n">
+      <c r="J95" s="3" t="n">
         <v>24222.8</v>
       </c>
-      <c r="K95" s="48" t="n">
+      <c r="K95" s="3" t="n">
         <v>24154.4</v>
       </c>
-      <c r="L95" s="48" t="n">
+      <c r="L95" s="3" t="n">
         <v>24204.2</v>
       </c>
     </row>
@@ -4182,11 +4272,11 @@
       <c r="C96" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="49" t="n">
+      <c r="D96" s="11" t="n">
         <f aca="false">ROUND(2*D99*D102/(D99+D102),3)</f>
         <v>0.772</v>
       </c>
-      <c r="E96" s="49" t="n">
+      <c r="E96" s="11" t="n">
         <f aca="false">ROUND(2*E99*E102/(E99+E102),3)</f>
         <v>0.753</v>
       </c>
@@ -4194,27 +4284,27 @@
         <f aca="false">ROUND(2*F99*F102/(F99+F102),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G96" s="49" t="n">
+      <c r="G96" s="11" t="n">
         <f aca="false">ROUND(2*G99*G102/(G99+G102),3)</f>
         <v>0.76</v>
       </c>
-      <c r="H96" s="50" t="n">
+      <c r="H96" s="12" t="n">
         <f aca="false">ROUND(2*H99*H102/(H99+H102),3)</f>
         <v>0.771</v>
       </c>
-      <c r="I96" s="49" t="n">
+      <c r="I96" s="11" t="n">
         <f aca="false">ROUND(2*I99*I102/(I99+I102),3)</f>
         <v>0.826</v>
       </c>
-      <c r="J96" s="49" t="n">
+      <c r="J96" s="32" t="n">
         <f aca="false">ROUND(2*J99*J102/(J99+J102),3)</f>
         <v>0.846</v>
       </c>
-      <c r="K96" s="49" t="n">
+      <c r="K96" s="11" t="n">
         <f aca="false">ROUND(2*K99*K102/(K99+K102),3)</f>
         <v>0.828</v>
       </c>
-      <c r="L96" s="50" t="n">
+      <c r="L96" s="12" t="n">
         <f aca="false">ROUND(2*L99*L102/(L99+L102),3)</f>
         <v>0.845</v>
       </c>
@@ -4224,11 +4314,11 @@
       <c r="C97" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D97" s="51" t="n">
+      <c r="D97" s="16" t="n">
         <f aca="false">ROUND(2*D100*D103/(D100+D103),3)</f>
         <v>0.954</v>
       </c>
-      <c r="E97" s="51" t="n">
+      <c r="E97" s="17" t="n">
         <f aca="false">ROUND(2*E100*E103/(E100+E103),3)</f>
         <v>0.928</v>
       </c>
@@ -4236,27 +4326,27 @@
         <f aca="false">ROUND(2*F100*F103/(F100+F103),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G97" s="51" t="n">
+      <c r="G97" s="17" t="n">
         <f aca="false">ROUND(2*G100*G103/(G100+G103),3)</f>
         <v>0.783</v>
       </c>
-      <c r="H97" s="52" t="n">
+      <c r="H97" s="18" t="n">
         <f aca="false">ROUND(2*H100*H103/(H100+H103),3)</f>
         <v>0.753</v>
       </c>
-      <c r="I97" s="51" t="n">
+      <c r="I97" s="17" t="n">
         <f aca="false">ROUND(2*I100*I103/(I100+I103),3)</f>
         <v>0.88</v>
       </c>
-      <c r="J97" s="51" t="n">
+      <c r="J97" s="17" t="n">
         <f aca="false">ROUND(2*J100*J103/(J100+J103),3)</f>
         <v>0.859</v>
       </c>
-      <c r="K97" s="51" t="n">
+      <c r="K97" s="17" t="n">
         <f aca="false">ROUND(2*K100*K103/(K100+K103),3)</f>
         <v>0.911</v>
       </c>
-      <c r="L97" s="52" t="n">
+      <c r="L97" s="18" t="n">
         <f aca="false">ROUND(2*L100*L103/(L100+L103),3)</f>
         <v>0.845</v>
       </c>
@@ -4266,11 +4356,11 @@
       <c r="C98" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D98" s="53" t="n">
+      <c r="D98" s="20" t="n">
         <f aca="false">ROUND(2*D101*D104/(D101+D104),3)</f>
         <v>0.66</v>
       </c>
-      <c r="E98" s="53" t="n">
+      <c r="E98" s="20" t="n">
         <f aca="false">ROUND(2*E101*E104/(E101+E104),3)</f>
         <v>0.647</v>
       </c>
@@ -4278,27 +4368,27 @@
         <f aca="false">ROUND(2*F101*F104/(F101+F104),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G98" s="53" t="n">
+      <c r="G98" s="20" t="n">
         <f aca="false">ROUND(2*G101*G104/(G101+G104),3)</f>
         <v>0.742</v>
       </c>
-      <c r="H98" s="54" t="n">
+      <c r="H98" s="21" t="n">
         <f aca="false">ROUND(2*H101*H104/(H101+H104),3)</f>
         <v>0.791</v>
       </c>
-      <c r="I98" s="53" t="n">
+      <c r="I98" s="20" t="n">
         <f aca="false">ROUND(2*I101*I104/(I101+I104),3)</f>
         <v>0.781</v>
       </c>
-      <c r="J98" s="53" t="n">
+      <c r="J98" s="20" t="n">
         <f aca="false">ROUND(2*J101*J104/(J101+J104),3)</f>
         <v>0.834</v>
       </c>
-      <c r="K98" s="53" t="n">
+      <c r="K98" s="20" t="n">
         <f aca="false">ROUND(2*K101*K104/(K101+K104),3)</f>
         <v>0.763</v>
       </c>
-      <c r="L98" s="54" t="n">
+      <c r="L98" s="22" t="n">
         <f aca="false">ROUND(2*L101*L104/(L101+L104),3)</f>
         <v>0.846</v>
       </c>
@@ -4311,29 +4401,29 @@
       <c r="C99" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D99" s="42" t="n">
+      <c r="D99" s="23" t="n">
         <v>0.783</v>
       </c>
-      <c r="E99" s="42" t="n">
+      <c r="E99" s="23" t="n">
         <v>0.763</v>
       </c>
       <c r="F99" s="35"/>
-      <c r="G99" s="42" t="n">
+      <c r="G99" s="23" t="n">
         <v>0.75</v>
       </c>
-      <c r="H99" s="43" t="n">
+      <c r="H99" s="24" t="n">
         <v>0.759</v>
       </c>
-      <c r="I99" s="42" t="n">
+      <c r="I99" s="23" t="n">
         <v>0.806</v>
       </c>
-      <c r="J99" s="42" t="n">
+      <c r="J99" s="25" t="n">
         <v>0.831</v>
       </c>
-      <c r="K99" s="42" t="n">
+      <c r="K99" s="23" t="n">
         <v>0.811</v>
       </c>
-      <c r="L99" s="43" t="n">
+      <c r="L99" s="24" t="n">
         <v>0.827</v>
       </c>
     </row>
@@ -4342,29 +4432,29 @@
       <c r="C100" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="44" t="n">
+      <c r="D100" s="26" t="n">
         <v>0.959</v>
       </c>
-      <c r="E100" s="44" t="n">
+      <c r="E100" s="14" t="n">
         <v>0.924</v>
       </c>
-      <c r="F100" s="37"/>
-      <c r="G100" s="44" t="n">
+      <c r="F100" s="38"/>
+      <c r="G100" s="14" t="n">
         <v>0.777</v>
       </c>
-      <c r="H100" s="45" t="n">
+      <c r="H100" s="27" t="n">
         <v>0.748</v>
       </c>
-      <c r="I100" s="44" t="n">
+      <c r="I100" s="14" t="n">
         <v>0.878</v>
       </c>
-      <c r="J100" s="44" t="n">
+      <c r="J100" s="14" t="n">
         <v>0.851</v>
       </c>
-      <c r="K100" s="44" t="n">
+      <c r="K100" s="14" t="n">
         <v>0.919</v>
       </c>
-      <c r="L100" s="45" t="n">
+      <c r="L100" s="27" t="n">
         <v>0.833</v>
       </c>
     </row>
@@ -4373,29 +4463,29 @@
       <c r="C101" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="46" t="n">
+      <c r="D101" s="28" t="n">
         <v>0.661</v>
       </c>
-      <c r="E101" s="46" t="n">
+      <c r="E101" s="28" t="n">
         <v>0.65</v>
       </c>
-      <c r="F101" s="39"/>
-      <c r="G101" s="46" t="n">
+      <c r="F101" s="41"/>
+      <c r="G101" s="28" t="n">
         <v>0.725</v>
       </c>
-      <c r="H101" s="47" t="n">
+      <c r="H101" s="29" t="n">
         <v>0.77</v>
       </c>
-      <c r="I101" s="46" t="n">
+      <c r="I101" s="28" t="n">
         <v>0.745</v>
       </c>
-      <c r="J101" s="46" t="n">
+      <c r="J101" s="28" t="n">
         <v>0.811</v>
       </c>
-      <c r="K101" s="46" t="n">
+      <c r="K101" s="28" t="n">
         <v>0.726</v>
       </c>
-      <c r="L101" s="47" t="n">
+      <c r="L101" s="30" t="n">
         <v>0.822</v>
       </c>
     </row>
@@ -4407,29 +4497,29 @@
       <c r="C102" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D102" s="42" t="n">
+      <c r="D102" s="23" t="n">
         <v>0.762</v>
       </c>
-      <c r="E102" s="42" t="n">
+      <c r="E102" s="23" t="n">
         <v>0.743</v>
       </c>
       <c r="F102" s="35"/>
-      <c r="G102" s="42" t="n">
+      <c r="G102" s="23" t="n">
         <v>0.77</v>
       </c>
-      <c r="H102" s="43" t="n">
+      <c r="H102" s="24" t="n">
         <v>0.783</v>
       </c>
-      <c r="I102" s="42" t="n">
+      <c r="I102" s="23" t="n">
         <v>0.847</v>
       </c>
-      <c r="J102" s="42" t="n">
+      <c r="J102" s="23" t="n">
         <v>0.862</v>
       </c>
-      <c r="K102" s="42" t="n">
+      <c r="K102" s="23" t="n">
         <v>0.846</v>
       </c>
-      <c r="L102" s="43" t="n">
+      <c r="L102" s="31" t="n">
         <v>0.863</v>
       </c>
     </row>
@@ -4438,29 +4528,29 @@
       <c r="C103" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="44" t="n">
+      <c r="D103" s="26" t="n">
         <v>0.949</v>
       </c>
-      <c r="E103" s="44" t="n">
+      <c r="E103" s="14" t="n">
         <v>0.932</v>
       </c>
-      <c r="F103" s="37"/>
-      <c r="G103" s="44" t="n">
+      <c r="F103" s="38"/>
+      <c r="G103" s="14" t="n">
         <v>0.789</v>
       </c>
-      <c r="H103" s="45" t="n">
+      <c r="H103" s="27" t="n">
         <v>0.759</v>
       </c>
-      <c r="I103" s="44" t="n">
+      <c r="I103" s="14" t="n">
         <v>0.883</v>
       </c>
-      <c r="J103" s="44" t="n">
+      <c r="J103" s="14" t="n">
         <v>0.867</v>
       </c>
-      <c r="K103" s="44" t="n">
+      <c r="K103" s="14" t="n">
         <v>0.903</v>
       </c>
-      <c r="L103" s="45" t="n">
+      <c r="L103" s="27" t="n">
         <v>0.858</v>
       </c>
     </row>
@@ -4469,157 +4559,148 @@
       <c r="C104" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="46" t="n">
+      <c r="D104" s="28" t="n">
         <v>0.66</v>
       </c>
-      <c r="E104" s="46" t="n">
+      <c r="E104" s="28" t="n">
         <v>0.644</v>
       </c>
-      <c r="F104" s="39"/>
-      <c r="G104" s="46" t="n">
+      <c r="F104" s="41"/>
+      <c r="G104" s="28" t="n">
         <v>0.759</v>
       </c>
-      <c r="H104" s="47" t="n">
+      <c r="H104" s="29" t="n">
         <v>0.814</v>
       </c>
-      <c r="I104" s="46" t="n">
+      <c r="I104" s="28" t="n">
         <v>0.82</v>
       </c>
-      <c r="J104" s="46" t="n">
+      <c r="J104" s="28" t="n">
         <v>0.859</v>
       </c>
-      <c r="K104" s="46" t="n">
+      <c r="K104" s="28" t="n">
         <v>0.805</v>
       </c>
-      <c r="L104" s="47" t="n">
+      <c r="L104" s="30" t="n">
         <v>0.871</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="55"/>
-      <c r="B105" s="56"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="50"/>
-      <c r="G105" s="49"/>
-      <c r="H105" s="50"/>
-      <c r="I105" s="49"/>
-      <c r="J105" s="49"/>
-      <c r="K105" s="49"/>
-      <c r="L105" s="50"/>
+      <c r="A105" s="6"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="55"/>
-      <c r="B106" s="56"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="52"/>
-      <c r="I106" s="51"/>
-      <c r="J106" s="51"/>
-      <c r="K106" s="51"/>
-      <c r="L106" s="52"/>
+      <c r="A106" s="6"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="18"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="55"/>
-      <c r="B107" s="56"/>
-      <c r="C107" s="59"/>
-      <c r="D107" s="53"/>
-      <c r="E107" s="53"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="53"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="53"/>
-      <c r="J107" s="53"/>
-      <c r="K107" s="53"/>
-      <c r="L107" s="54"/>
+      <c r="A107" s="6"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="21"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="55"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="42"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="42"/>
-      <c r="K108" s="42"/>
-      <c r="L108" s="43"/>
+      <c r="A108" s="6"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="24"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="55"/>
-      <c r="B109" s="56"/>
-      <c r="C109" s="58"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="44"/>
-      <c r="J109" s="44"/>
-      <c r="K109" s="44"/>
-      <c r="L109" s="45"/>
+      <c r="A109" s="6"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="27"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="55"/>
-      <c r="B110" s="56"/>
-      <c r="C110" s="59"/>
-      <c r="D110" s="46"/>
-      <c r="E110" s="46"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="47"/>
-      <c r="I110" s="46"/>
-      <c r="J110" s="46"/>
-      <c r="K110" s="46"/>
-      <c r="L110" s="47"/>
+      <c r="A110" s="6"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="29"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="55"/>
-      <c r="B111" s="56"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="42"/>
-      <c r="F111" s="43"/>
-      <c r="G111" s="42"/>
-      <c r="H111" s="43"/>
-      <c r="I111" s="42"/>
-      <c r="J111" s="42"/>
-      <c r="K111" s="42"/>
-      <c r="L111" s="43"/>
+      <c r="A111" s="6"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="24"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="55"/>
-      <c r="B112" s="56"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="44"/>
-      <c r="E112" s="44"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="44"/>
-      <c r="J112" s="44"/>
-      <c r="K112" s="44"/>
-      <c r="L112" s="45"/>
+      <c r="A112" s="6"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="27"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="55"/>
-      <c r="B113" s="56"/>
-      <c r="C113" s="59"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="47"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="46"/>
-      <c r="K113" s="46"/>
-      <c r="L113" s="47"/>
+      <c r="A113" s="6"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -4693,10 +4774,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
+      <selection pane="bottomLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4705,7 +4786,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="4.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="8.47"/>
@@ -4775,39 +4856,39 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="60" t="n">
+      <c r="D2" s="56" t="n">
         <f aca="false">ROUND(2*D3*D4/(D3+D4),3)</f>
         <v>0.759</v>
       </c>
-      <c r="E2" s="60" t="n">
+      <c r="E2" s="56" t="n">
         <f aca="false">ROUND(2*E3*E4/(E3+E4),3)</f>
         <v>0.748</v>
       </c>
-      <c r="F2" s="60" t="n">
+      <c r="F2" s="56" t="n">
         <f aca="false">ROUND(2*F3*F4/(F3+F4),3)</f>
         <v>0.683</v>
       </c>
-      <c r="G2" s="60" t="n">
+      <c r="G2" s="56" t="n">
         <f aca="false">ROUND(2*G3*G4/(G3+G4),3)</f>
         <v>0.682</v>
       </c>
-      <c r="H2" s="60" t="n">
+      <c r="H2" s="56" t="n">
         <f aca="false">ROUND(2*H3*H4/(H3+H4),3)</f>
         <v>0.686</v>
       </c>
-      <c r="I2" s="60" t="n">
+      <c r="I2" s="56" t="n">
         <f aca="false">ROUND(2*I3*I4/(I3+I4),3)</f>
         <v>0.801</v>
       </c>
-      <c r="J2" s="60" t="n">
+      <c r="J2" s="56" t="n">
         <f aca="false">ROUND(2*J3*J4/(J3+J4),3)</f>
         <v>0.82</v>
       </c>
-      <c r="K2" s="60" t="n">
+      <c r="K2" s="56" t="n">
         <f aca="false">ROUND(2*K3*K4/(K3+K4),3)</f>
         <v>0.801</v>
       </c>
-      <c r="L2" s="61" t="n">
+      <c r="L2" s="57" t="n">
         <f aca="false">ROUND(2*L3*L4/(L3+L4),3)</f>
         <v>0.823</v>
       </c>
@@ -4839,7 +4920,7 @@
       <c r="I3" s="3" t="n">
         <v>0.782</v>
       </c>
-      <c r="J3" s="62" t="n">
+      <c r="J3" s="58" t="n">
         <v>0.807</v>
       </c>
       <c r="K3" s="3" t="n">
@@ -4884,7 +4965,7 @@
       <c r="K4" s="3" t="n">
         <v>0.818</v>
       </c>
-      <c r="L4" s="62" t="n">
+      <c r="L4" s="58" t="n">
         <v>0.84</v>
       </c>
       <c r="M4" s="14"/>
@@ -4937,39 +5018,39 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="60" t="n">
+      <c r="D6" s="56" t="n">
         <f aca="false">ROUND(2*D7*D8/(D7+D8),3)</f>
         <v>0.776</v>
       </c>
-      <c r="E6" s="60" t="n">
+      <c r="E6" s="56" t="n">
         <f aca="false">ROUND(2*E7*E8/(E7+E8),3)</f>
         <v>0.762</v>
       </c>
-      <c r="F6" s="60" t="n">
+      <c r="F6" s="56" t="n">
         <f aca="false">ROUND(2*F7*F8/(F7+F8),3)</f>
         <v>0.708</v>
       </c>
-      <c r="G6" s="60" t="n">
+      <c r="G6" s="56" t="n">
         <f aca="false">ROUND(2*G7*G8/(G7+G8),3)</f>
         <v>0.721</v>
       </c>
-      <c r="H6" s="60" t="n">
+      <c r="H6" s="56" t="n">
         <f aca="false">ROUND(2*H7*H8/(H7+H8),3)</f>
         <v>0.734</v>
       </c>
-      <c r="I6" s="60" t="n">
+      <c r="I6" s="56" t="n">
         <f aca="false">ROUND(2*I7*I8/(I7+I8),3)</f>
         <v>0.81</v>
       </c>
-      <c r="J6" s="60" t="n">
+      <c r="J6" s="56" t="n">
         <f aca="false">ROUND(2*J7*J8/(J7+J8),3)</f>
         <v>0.833</v>
       </c>
-      <c r="K6" s="60" t="n">
+      <c r="K6" s="56" t="n">
         <f aca="false">ROUND(2*K7*K8/(K7+K8),3)</f>
         <v>0.812</v>
       </c>
-      <c r="L6" s="61" t="n">
+      <c r="L6" s="57" t="n">
         <f aca="false">ROUND(2*L7*L8/(L7+L8),3)</f>
         <v>0.835</v>
       </c>
@@ -5002,7 +5083,7 @@
       <c r="I7" s="3" t="n">
         <v>0.788</v>
       </c>
-      <c r="J7" s="62" t="n">
+      <c r="J7" s="58" t="n">
         <v>0.815</v>
       </c>
       <c r="K7" s="3" t="n">
@@ -5048,7 +5129,7 @@
       <c r="K8" s="3" t="n">
         <v>0.833</v>
       </c>
-      <c r="L8" s="62" t="n">
+      <c r="L8" s="58" t="n">
         <v>0.858</v>
       </c>
       <c r="M8" s="14"/>
@@ -5064,39 +5145,39 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="60" t="n">
+      <c r="D9" s="56" t="n">
         <f aca="false">ROUND(2*D10*D11/(D10+D11),3)</f>
         <v>0.761</v>
       </c>
-      <c r="E9" s="60" t="n">
+      <c r="E9" s="56" t="n">
         <f aca="false">ROUND(2*E10*E11/(E10+E11),3)</f>
         <v>0.734</v>
       </c>
-      <c r="F9" s="60" t="n">
+      <c r="F9" s="56" t="n">
         <f aca="false">ROUND(2*F10*F11/(F10+F11),3)</f>
         <v>0.63</v>
       </c>
-      <c r="G9" s="60" t="n">
+      <c r="G9" s="56" t="n">
         <f aca="false">ROUND(2*G10*G11/(G10+G11),3)</f>
         <v>0.82</v>
       </c>
-      <c r="H9" s="60" t="n">
+      <c r="H9" s="56" t="n">
         <f aca="false">ROUND(2*H10*H11/(H10+H11),3)</f>
         <v>0.845</v>
       </c>
-      <c r="I9" s="60" t="n">
+      <c r="I9" s="56" t="n">
         <f aca="false">ROUND(2*I10*I11/(I10+I11),3)</f>
         <v>0.888</v>
       </c>
-      <c r="J9" s="60" t="n">
+      <c r="J9" s="56" t="n">
         <f aca="false">ROUND(2*J10*J11/(J10+J11),3)</f>
         <v>0.89</v>
       </c>
-      <c r="K9" s="60" t="n">
+      <c r="K9" s="56" t="n">
         <f aca="false">ROUND(2*K10*K11/(K10+K11),3)</f>
         <v>0.888</v>
       </c>
-      <c r="L9" s="61" t="n">
+      <c r="L9" s="57" t="n">
         <f aca="false">ROUND(2*L10*L11/(L10+L11),3)</f>
         <v>0.891</v>
       </c>
@@ -5126,13 +5207,13 @@
       <c r="H10" s="3" t="n">
         <v>0.84</v>
       </c>
-      <c r="I10" s="62" t="n">
+      <c r="I10" s="58" t="n">
         <v>0.893</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>0.89</v>
       </c>
-      <c r="K10" s="62" t="n">
+      <c r="K10" s="58" t="n">
         <v>0.893</v>
       </c>
       <c r="L10" s="3" t="n">
@@ -5169,13 +5250,13 @@
       <c r="I11" s="3" t="n">
         <v>0.883</v>
       </c>
-      <c r="J11" s="62" t="n">
+      <c r="J11" s="58" t="n">
         <v>0.89</v>
       </c>
       <c r="K11" s="3" t="n">
         <v>0.883</v>
       </c>
-      <c r="L11" s="62" t="n">
+      <c r="L11" s="58" t="n">
         <v>0.89</v>
       </c>
       <c r="M11" s="14"/>
@@ -5191,39 +5272,39 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="60" t="n">
+      <c r="D12" s="56" t="n">
         <f aca="false">ROUND(2*D13*D14/(D13+D14),3)</f>
         <v>0.797</v>
       </c>
-      <c r="E12" s="61" t="n">
+      <c r="E12" s="57" t="n">
         <f aca="false">ROUND(2*E13*E14/(E13+E14),3)</f>
         <v>0.803</v>
       </c>
-      <c r="F12" s="60" t="n">
+      <c r="F12" s="56" t="n">
         <f aca="false">ROUND(2*F13*F14/(F13+F14),3)</f>
         <v>0.756</v>
       </c>
-      <c r="G12" s="60" t="n">
+      <c r="G12" s="56" t="n">
         <f aca="false">ROUND(2*G13*G14/(G13+G14),3)</f>
         <v>0.72</v>
       </c>
-      <c r="H12" s="60" t="n">
+      <c r="H12" s="56" t="n">
         <f aca="false">ROUND(2*H13*H14/(H13+H14),3)</f>
         <v>0.723</v>
       </c>
-      <c r="I12" s="60" t="n">
+      <c r="I12" s="56" t="n">
         <f aca="false">ROUND(2*I13*I14/(I13+I14),3)</f>
         <v>0.747</v>
       </c>
-      <c r="J12" s="60" t="n">
+      <c r="J12" s="56" t="n">
         <f aca="false">ROUND(2*J13*J14/(J13+J14),3)</f>
         <v>0.773</v>
       </c>
-      <c r="K12" s="60" t="n">
+      <c r="K12" s="56" t="n">
         <f aca="false">ROUND(2*K13*K14/(K13+K14),3)</f>
         <v>0.76</v>
       </c>
-      <c r="L12" s="60" t="n">
+      <c r="L12" s="56" t="n">
         <f aca="false">ROUND(2*L13*L14/(L13+L14),3)</f>
         <v>0.757</v>
       </c>
@@ -5240,7 +5321,7 @@
       <c r="D13" s="3" t="n">
         <v>0.799</v>
       </c>
-      <c r="E13" s="62" t="n">
+      <c r="E13" s="58" t="n">
         <v>0.805</v>
       </c>
       <c r="F13" s="3" t="n">
@@ -5279,7 +5360,7 @@
       <c r="D14" s="3" t="n">
         <v>0.795</v>
       </c>
-      <c r="E14" s="62" t="n">
+      <c r="E14" s="58" t="n">
         <v>0.801</v>
       </c>
       <c r="F14" s="3" t="n">
@@ -5353,39 +5434,39 @@
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="61" t="n">
+      <c r="D16" s="57" t="n">
         <f aca="false">ROUND(2*D17*D18/(D17+D18),3)</f>
         <v>0.817</v>
       </c>
-      <c r="E16" s="60" t="n">
+      <c r="E16" s="56" t="n">
         <f aca="false">ROUND(2*E17*E18/(E17+E18),3)</f>
         <v>0.813</v>
       </c>
-      <c r="F16" s="60" t="n">
+      <c r="F16" s="56" t="n">
         <f aca="false">ROUND(2*F17*F18/(F17+F18),3)</f>
         <v>0.763</v>
       </c>
-      <c r="G16" s="60" t="n">
+      <c r="G16" s="56" t="n">
         <f aca="false">ROUND(2*G17*G18/(G17+G18),3)</f>
         <v>0.759</v>
       </c>
-      <c r="H16" s="60" t="n">
+      <c r="H16" s="56" t="n">
         <f aca="false">ROUND(2*H17*H18/(H17+H18),3)</f>
         <v>0.763</v>
       </c>
-      <c r="I16" s="60" t="n">
+      <c r="I16" s="56" t="n">
         <f aca="false">ROUND(2*I17*I18/(I17+I18),3)</f>
         <v>0.763</v>
       </c>
-      <c r="J16" s="60" t="n">
+      <c r="J16" s="56" t="n">
         <f aca="false">ROUND(2*J17*J18/(J17+J18),3)</f>
         <v>0.794</v>
       </c>
-      <c r="K16" s="60" t="n">
+      <c r="K16" s="56" t="n">
         <f aca="false">ROUND(2*K17*K18/(K17+K18),3)</f>
         <v>0.772</v>
       </c>
-      <c r="L16" s="60" t="n">
+      <c r="L16" s="56" t="n">
         <f aca="false">ROUND(2*L17*L18/(L17+L18),3)</f>
         <v>0.783</v>
       </c>
@@ -5403,7 +5484,7 @@
       <c r="D17" s="3" t="n">
         <v>0.82</v>
       </c>
-      <c r="E17" s="62" t="n">
+      <c r="E17" s="58" t="n">
         <v>0.821</v>
       </c>
       <c r="F17" s="3" t="n">
@@ -5440,7 +5521,7 @@
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="62" t="n">
+      <c r="D18" s="58" t="n">
         <v>0.814</v>
       </c>
       <c r="E18" s="3" t="n">
@@ -5480,39 +5561,39 @@
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="60" t="n">
+      <c r="D19" s="56" t="n">
         <f aca="false">ROUND(2*D20*D21/(D20+D21),3)</f>
         <v>0.785</v>
       </c>
-      <c r="E19" s="60" t="n">
+      <c r="E19" s="56" t="n">
         <f aca="false">ROUND(2*E20*E21/(E20+E21),3)</f>
         <v>0.755</v>
       </c>
-      <c r="F19" s="60" t="n">
+      <c r="F19" s="56" t="n">
         <f aca="false">ROUND(2*F20*F21/(F20+F21),3)</f>
         <v>0.676</v>
       </c>
-      <c r="G19" s="60" t="n">
+      <c r="G19" s="56" t="n">
         <f aca="false">ROUND(2*G20*G21/(G20+G21),3)</f>
         <v>0.837</v>
       </c>
-      <c r="H19" s="60" t="n">
+      <c r="H19" s="56" t="n">
         <f aca="false">ROUND(2*H20*H21/(H20+H21),3)</f>
         <v>0.857</v>
       </c>
-      <c r="I19" s="60" t="n">
+      <c r="I19" s="56" t="n">
         <f aca="false">ROUND(2*I20*I21/(I20+I21),3)</f>
         <v>0.89</v>
       </c>
-      <c r="J19" s="60" t="n">
+      <c r="J19" s="56" t="n">
         <f aca="false">ROUND(2*J20*J21/(J20+J21),3)</f>
         <v>0.882</v>
       </c>
-      <c r="K19" s="61" t="n">
+      <c r="K19" s="57" t="n">
         <f aca="false">ROUND(2*K20*K21/(K20+K21),3)</f>
         <v>0.892</v>
       </c>
-      <c r="L19" s="60" t="n">
+      <c r="L19" s="56" t="n">
         <f aca="false">ROUND(2*L20*L21/(L20+L21),3)</f>
         <v>0.884</v>
       </c>
@@ -5542,13 +5623,13 @@
       <c r="H20" s="3" t="n">
         <v>0.848</v>
       </c>
-      <c r="I20" s="62" t="n">
+      <c r="I20" s="58" t="n">
         <v>0.888</v>
       </c>
       <c r="J20" s="3" t="n">
         <v>0.878</v>
       </c>
-      <c r="K20" s="62" t="n">
+      <c r="K20" s="58" t="n">
         <v>0.888</v>
       </c>
       <c r="L20" s="3" t="n">
@@ -5588,7 +5669,7 @@
       <c r="J21" s="3" t="n">
         <v>0.887</v>
       </c>
-      <c r="K21" s="62" t="n">
+      <c r="K21" s="58" t="n">
         <v>0.896</v>
       </c>
       <c r="L21" s="3" t="n">
@@ -5607,41 +5688,41 @@
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="60" t="n">
+      <c r="D22" s="56" t="n">
         <f aca="false">ROUND(2*D23*D24/(D23+D24),3)</f>
         <v>0.707</v>
       </c>
-      <c r="E22" s="60" t="n">
+      <c r="E22" s="57" t="n">
         <f aca="false">ROUND(2*E23*E24/(E23+E24),3)</f>
         <v>0.736</v>
       </c>
-      <c r="F22" s="60" t="e">
+      <c r="F22" s="56" t="e">
         <f aca="false">ROUND(2*F23*F24/(F23+F24),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="60" t="n">
+      <c r="G22" s="56" t="n">
         <f aca="false">ROUND(2*G23*G24/(G23+G24),3)</f>
         <v>0.632</v>
       </c>
-      <c r="H22" s="60" t="n">
+      <c r="H22" s="56" t="n">
         <f aca="false">ROUND(2*H23*H24/(H23+H24),3)</f>
         <v>0.633</v>
       </c>
-      <c r="I22" s="60" t="n">
+      <c r="I22" s="56" t="n">
         <f aca="false">ROUND(2*I23*I24/(I23+I24),3)</f>
         <v>0.584</v>
       </c>
-      <c r="J22" s="60" t="e">
+      <c r="J22" s="56" t="n">
         <f aca="false">ROUND(2*J23*J24/(J23+J24),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="60" t="e">
+        <v>0.602</v>
+      </c>
+      <c r="K22" s="56" t="n">
         <f aca="false">ROUND(2*K23*K24/(K23+K24),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="60" t="e">
+        <v>0.607</v>
+      </c>
+      <c r="L22" s="56" t="n">
         <f aca="false">ROUND(2*L23*L24/(L23+L24),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.579</v>
       </c>
       <c r="M22" s="14"/>
       <c r="P22" s="14"/>
@@ -5656,10 +5737,10 @@
       <c r="D23" s="3" t="n">
         <v>0.738</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="58" t="n">
         <v>0.761</v>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="3" t="n">
         <v>0.65</v>
       </c>
@@ -5669,9 +5750,15 @@
       <c r="I23" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
+      <c r="J23" s="45" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="K23" s="45" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="L23" s="45" t="n">
+        <v>0.589</v>
+      </c>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
@@ -5687,10 +5774,10 @@
       <c r="D24" s="3" t="n">
         <v>0.679</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="58" t="n">
         <v>0.713</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="3" t="n">
         <v>0.615</v>
       </c>
@@ -5700,9 +5787,15 @@
       <c r="I24" s="3" t="n">
         <v>0.569</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
+      <c r="J24" s="45" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K24" s="45" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="L24" s="45" t="n">
+        <v>0.57</v>
+      </c>
       <c r="M24" s="14"/>
       <c r="P24" s="14"/>
     </row>
@@ -5717,7 +5810,7 @@
       <c r="E25" s="3" t="n">
         <v>212.5</v>
       </c>
-      <c r="F25" s="41"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="3" t="n">
         <v>12000.2</v>
       </c>
@@ -5727,9 +5820,15 @@
       <c r="I25" s="3" t="n">
         <v>1482.4</v>
       </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
+      <c r="J25" s="45" t="n">
+        <v>28858.6</v>
+      </c>
+      <c r="K25" s="45" t="n">
+        <v>28777.5</v>
+      </c>
+      <c r="L25" s="45" t="n">
+        <v>28604.9</v>
+      </c>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -5745,41 +5844,41 @@
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="60" t="n">
+      <c r="D26" s="57" t="n">
         <f aca="false">ROUND(2*D27*D28/(D27+D28),3)</f>
         <v>0.8</v>
       </c>
-      <c r="E26" s="60" t="n">
+      <c r="E26" s="56" t="n">
         <f aca="false">ROUND(2*E27*E28/(E27+E28),3)</f>
         <v>0.79</v>
       </c>
-      <c r="F26" s="60" t="e">
+      <c r="F26" s="56" t="e">
         <f aca="false">ROUND(2*F27*F28/(F27+F28),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="60" t="n">
+      <c r="G26" s="56" t="n">
         <f aca="false">ROUND(2*G27*G28/(G27+G28),3)</f>
         <v>0.744</v>
       </c>
-      <c r="H26" s="60" t="n">
+      <c r="H26" s="56" t="n">
         <f aca="false">ROUND(2*H27*H28/(H27+H28),3)</f>
         <v>0.75</v>
       </c>
-      <c r="I26" s="60" t="n">
+      <c r="I26" s="56" t="n">
         <f aca="false">ROUND(2*I27*I28/(I27+I28),3)</f>
         <v>0.769</v>
       </c>
-      <c r="J26" s="60" t="e">
+      <c r="J26" s="56" t="n">
         <f aca="false">ROUND(2*J27*J28/(J27+J28),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="60" t="e">
+        <v>0.779</v>
+      </c>
+      <c r="K26" s="56" t="n">
         <f aca="false">ROUND(2*K27*K28/(K27+K28),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="60" t="e">
+        <v>0.784</v>
+      </c>
+      <c r="L26" s="56" t="n">
         <f aca="false">ROUND(2*L27*L28/(L27+L28),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.769</v>
       </c>
       <c r="M26" s="14"/>
       <c r="P26" s="14"/>
@@ -5792,13 +5891,13 @@
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="58" t="n">
         <v>0.811</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>0.802</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="3" t="n">
         <v>0.747</v>
       </c>
@@ -5808,9 +5907,15 @@
       <c r="I27" s="3" t="n">
         <v>0.762</v>
       </c>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
+      <c r="J27" s="45" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="K27" s="45" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="L27" s="45" t="n">
+        <v>0.769</v>
+      </c>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
@@ -5830,7 +5935,7 @@
       <c r="E28" s="3" t="n">
         <v>0.778</v>
       </c>
-      <c r="F28" s="41"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="3" t="n">
         <v>0.741</v>
       </c>
@@ -5840,9 +5945,15 @@
       <c r="I28" s="3" t="n">
         <v>0.777</v>
       </c>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
+      <c r="J28" s="45" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="K28" s="59" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="L28" s="45" t="n">
+        <v>0.77</v>
+      </c>
       <c r="M28" s="14"/>
       <c r="P28" s="14"/>
     </row>
@@ -5856,41 +5967,41 @@
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="60" t="n">
+      <c r="D29" s="56" t="n">
         <f aca="false">ROUND(2*D30*D31/(D30+D31),3)</f>
         <v>0.799</v>
       </c>
-      <c r="E29" s="60" t="n">
+      <c r="E29" s="56" t="n">
         <f aca="false">ROUND(2*E30*E31/(E30+E31),3)</f>
         <v>0.802</v>
       </c>
-      <c r="F29" s="60" t="e">
+      <c r="F29" s="56" t="e">
         <f aca="false">ROUND(2*F30*F31/(F30+F31),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="60" t="n">
+      <c r="G29" s="56" t="n">
         <f aca="false">ROUND(2*G30*G31/(G30+G31),3)</f>
         <v>0.803</v>
       </c>
-      <c r="H29" s="60" t="n">
+      <c r="H29" s="56" t="n">
         <f aca="false">ROUND(2*H30*H31/(H30+H31),3)</f>
         <v>0.827</v>
       </c>
-      <c r="I29" s="60" t="n">
+      <c r="I29" s="56" t="n">
         <f aca="false">ROUND(2*I30*I31/(I30+I31),3)</f>
         <v>0.848</v>
       </c>
-      <c r="J29" s="60" t="e">
+      <c r="J29" s="56" t="n">
         <f aca="false">ROUND(2*J30*J31/(J30+J31),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="60" t="e">
+        <v>0.846</v>
+      </c>
+      <c r="K29" s="57" t="n">
         <f aca="false">ROUND(2*K30*K31/(K30+K31),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="60" t="e">
+        <v>0.862</v>
+      </c>
+      <c r="L29" s="56" t="n">
         <f aca="false">ROUND(2*L30*L31/(L30+L31),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.84</v>
       </c>
       <c r="M29" s="14"/>
       <c r="P29" s="14"/>
@@ -5909,7 +6020,7 @@
       <c r="E30" s="3" t="n">
         <v>0.797</v>
       </c>
-      <c r="F30" s="41"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="3" t="n">
         <v>0.812</v>
       </c>
@@ -5919,9 +6030,15 @@
       <c r="I30" s="3" t="n">
         <v>0.858</v>
       </c>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
+      <c r="J30" s="45" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="K30" s="59" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="L30" s="45" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
@@ -5941,7 +6058,7 @@
       <c r="E31" s="3" t="n">
         <v>0.807</v>
       </c>
-      <c r="F31" s="41"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="3" t="n">
         <v>0.794</v>
       </c>
@@ -5951,9 +6068,15 @@
       <c r="I31" s="3" t="n">
         <v>0.839</v>
       </c>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
+      <c r="J31" s="45" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="K31" s="59" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="L31" s="45" t="n">
+        <v>0.831</v>
+      </c>
       <c r="M31" s="14"/>
       <c r="P31" s="14"/>
     </row>
@@ -5967,39 +6090,39 @@
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="60" t="n">
+      <c r="D32" s="56" t="n">
         <f aca="false">ROUND(2*D33*D34/(D33+D34),3)</f>
         <v>0.756</v>
       </c>
-      <c r="E32" s="60" t="n">
+      <c r="E32" s="56" t="n">
         <f aca="false">ROUND(2*E33*E34/(E33+E34),3)</f>
         <v>0.738</v>
       </c>
-      <c r="F32" s="60" t="e">
+      <c r="F32" s="56" t="e">
         <f aca="false">ROUND(2*F33*F34/(F33+F34),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="60" t="n">
+      <c r="G32" s="56" t="n">
         <f aca="false">ROUND(2*G33*G34/(G33+G34),3)</f>
         <v>0.597</v>
       </c>
-      <c r="H32" s="60" t="n">
+      <c r="H32" s="56" t="n">
         <f aca="false">ROUND(2*H33*H34/(H33+H34),3)</f>
         <v>0.606</v>
       </c>
-      <c r="I32" s="60" t="n">
+      <c r="I32" s="56" t="n">
         <f aca="false">ROUND(2*I33*I34/(I33+I34),3)</f>
         <v>0.752</v>
       </c>
-      <c r="J32" s="61" t="n">
+      <c r="J32" s="57" t="n">
         <f aca="false">ROUND(2*J33*J34/(J33+J34),3)</f>
         <v>0.773</v>
       </c>
-      <c r="K32" s="60" t="n">
+      <c r="K32" s="56" t="n">
         <f aca="false">ROUND(2*K33*K34/(K33+K34),3)</f>
         <v>0.756</v>
       </c>
-      <c r="L32" s="60" t="n">
+      <c r="L32" s="56" t="n">
         <f aca="false">ROUND(2*L33*L34/(L33+L34),3)</f>
         <v>0.771</v>
       </c>
@@ -6011,29 +6134,29 @@
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="63" t="n">
+      <c r="D33" s="58" t="n">
         <v>0.772</v>
       </c>
-      <c r="E33" s="48" t="n">
+      <c r="E33" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="48" t="n">
+      <c r="F33" s="44"/>
+      <c r="G33" s="3" t="n">
         <v>0.58</v>
       </c>
-      <c r="H33" s="48" t="n">
+      <c r="H33" s="3" t="n">
         <v>0.589</v>
       </c>
-      <c r="I33" s="48" t="n">
+      <c r="I33" s="3" t="n">
         <v>0.727</v>
       </c>
-      <c r="J33" s="48" t="n">
+      <c r="J33" s="3" t="n">
         <v>0.753</v>
       </c>
-      <c r="K33" s="48" t="n">
+      <c r="K33" s="3" t="n">
         <v>0.735</v>
       </c>
-      <c r="L33" s="48" t="n">
+      <c r="L33" s="3" t="n">
         <v>0.749</v>
       </c>
     </row>
@@ -6044,29 +6167,29 @@
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="48" t="n">
+      <c r="D34" s="3" t="n">
         <v>0.741</v>
       </c>
-      <c r="E34" s="48" t="n">
+      <c r="E34" s="3" t="n">
         <v>0.726</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="48" t="n">
+      <c r="F34" s="44"/>
+      <c r="G34" s="3" t="n">
         <v>0.615</v>
       </c>
-      <c r="H34" s="48" t="n">
+      <c r="H34" s="3" t="n">
         <v>0.623</v>
       </c>
-      <c r="I34" s="48" t="n">
+      <c r="I34" s="3" t="n">
         <v>0.779</v>
       </c>
-      <c r="J34" s="63" t="n">
+      <c r="J34" s="58" t="n">
         <v>0.795</v>
       </c>
-      <c r="K34" s="48" t="n">
+      <c r="K34" s="3" t="n">
         <v>0.778</v>
       </c>
-      <c r="L34" s="48" t="n">
+      <c r="L34" s="3" t="n">
         <v>0.794</v>
       </c>
     </row>
@@ -6075,29 +6198,29 @@
         <v>19</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="48" t="n">
+      <c r="D35" s="3" t="n">
         <v>23315.1</v>
       </c>
-      <c r="E35" s="48" t="n">
+      <c r="E35" s="3" t="n">
         <v>259.1</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="48" t="n">
+      <c r="F35" s="44"/>
+      <c r="G35" s="3" t="n">
         <v>8483.4</v>
       </c>
-      <c r="H35" s="48" t="n">
+      <c r="H35" s="3" t="n">
         <v>8692.7</v>
       </c>
-      <c r="I35" s="48" t="n">
+      <c r="I35" s="3" t="n">
         <v>1606</v>
       </c>
-      <c r="J35" s="48" t="n">
+      <c r="J35" s="3" t="n">
         <v>24222.8</v>
       </c>
-      <c r="K35" s="48" t="n">
+      <c r="K35" s="3" t="n">
         <v>24154.4</v>
       </c>
-      <c r="L35" s="48" t="n">
+      <c r="L35" s="3" t="n">
         <v>24204.2</v>
       </c>
     </row>
@@ -6111,39 +6234,39 @@
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="64" t="n">
+      <c r="D36" s="56" t="n">
         <f aca="false">ROUND(2*D37*D38/(D37+D38),3)</f>
         <v>0.772</v>
       </c>
-      <c r="E36" s="64" t="n">
+      <c r="E36" s="56" t="n">
         <f aca="false">ROUND(2*E37*E38/(E37+E38),3)</f>
         <v>0.753</v>
       </c>
-      <c r="F36" s="60" t="e">
+      <c r="F36" s="56" t="e">
         <f aca="false">ROUND(2*F37*F38/(F37+F38),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="64" t="n">
+      <c r="G36" s="56" t="n">
         <f aca="false">ROUND(2*G37*G38/(G37+G38),3)</f>
         <v>0.76</v>
       </c>
-      <c r="H36" s="64" t="n">
+      <c r="H36" s="56" t="n">
         <f aca="false">ROUND(2*H37*H38/(H37+H38),3)</f>
         <v>0.771</v>
       </c>
-      <c r="I36" s="64" t="n">
+      <c r="I36" s="56" t="n">
         <f aca="false">ROUND(2*I37*I38/(I37+I38),3)</f>
         <v>0.826</v>
       </c>
-      <c r="J36" s="65" t="n">
+      <c r="J36" s="57" t="n">
         <f aca="false">ROUND(2*J37*J38/(J37+J38),3)</f>
         <v>0.846</v>
       </c>
-      <c r="K36" s="64" t="n">
+      <c r="K36" s="56" t="n">
         <f aca="false">ROUND(2*K37*K38/(K37+K38),3)</f>
         <v>0.828</v>
       </c>
-      <c r="L36" s="64" t="n">
+      <c r="L36" s="56" t="n">
         <f aca="false">ROUND(2*L37*L38/(L37+L38),3)</f>
         <v>0.845</v>
       </c>
@@ -6156,29 +6279,29 @@
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="48" t="n">
+      <c r="D37" s="3" t="n">
         <v>0.783</v>
       </c>
-      <c r="E37" s="48" t="n">
+      <c r="E37" s="3" t="n">
         <v>0.763</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="48" t="n">
+      <c r="F37" s="44"/>
+      <c r="G37" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="H37" s="48" t="n">
+      <c r="H37" s="3" t="n">
         <v>0.759</v>
       </c>
-      <c r="I37" s="48" t="n">
+      <c r="I37" s="3" t="n">
         <v>0.806</v>
       </c>
-      <c r="J37" s="63" t="n">
+      <c r="J37" s="58" t="n">
         <v>0.831</v>
       </c>
-      <c r="K37" s="48" t="n">
+      <c r="K37" s="3" t="n">
         <v>0.811</v>
       </c>
-      <c r="L37" s="48" t="n">
+      <c r="L37" s="3" t="n">
         <v>0.827</v>
       </c>
     </row>
@@ -6190,29 +6313,29 @@
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="48" t="n">
+      <c r="D38" s="3" t="n">
         <v>0.762</v>
       </c>
-      <c r="E38" s="48" t="n">
+      <c r="E38" s="3" t="n">
         <v>0.743</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="48" t="n">
+      <c r="F38" s="44"/>
+      <c r="G38" s="3" t="n">
         <v>0.77</v>
       </c>
-      <c r="H38" s="48" t="n">
+      <c r="H38" s="3" t="n">
         <v>0.783</v>
       </c>
-      <c r="I38" s="48" t="n">
+      <c r="I38" s="3" t="n">
         <v>0.847</v>
       </c>
-      <c r="J38" s="48" t="n">
+      <c r="J38" s="3" t="n">
         <v>0.862</v>
       </c>
-      <c r="K38" s="48" t="n">
+      <c r="K38" s="3" t="n">
         <v>0.846</v>
       </c>
-      <c r="L38" s="63" t="n">
+      <c r="L38" s="58" t="n">
         <v>0.863</v>
       </c>
     </row>
@@ -6270,7 +6393,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6285,8 +6408,8 @@
   </sheetPr>
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6294,7 +6417,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="14.16"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="12.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="11.53"/>
@@ -6304,15 +6427,15 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -6350,255 +6473,255 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="67" t="n">
+      <c r="B4" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="67" t="n">
-        <v>0.140883334941848</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69" t="n">
-        <v>4.10464023048836E-013</v>
-      </c>
-      <c r="F4" s="69" t="n">
-        <v>3.82840031984828E-011</v>
-      </c>
-      <c r="G4" s="69" t="n">
-        <v>0.000116155181976361</v>
-      </c>
-      <c r="H4" s="69" t="n">
-        <v>2.75180644630387E-008</v>
-      </c>
-      <c r="I4" s="69" t="n">
-        <v>0.00043576083968398</v>
-      </c>
-      <c r="J4" s="69" t="n">
-        <v>1.26947294003639E-008</v>
+      <c r="C4" s="61" t="n">
+        <v>0.0504374219701802</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63" t="n">
+        <v>2.15693119619744E-032</v>
+      </c>
+      <c r="F4" s="63" t="n">
+        <v>1.14346370107601E-028</v>
+      </c>
+      <c r="G4" s="63" t="n">
+        <v>3.73199742961688E-006</v>
+      </c>
+      <c r="H4" s="63" t="n">
+        <v>7.6195945023728E-012</v>
+      </c>
+      <c r="I4" s="63" t="n">
+        <v>8.74126611158293E-006</v>
+      </c>
+      <c r="J4" s="63" t="n">
+        <v>7.34597418180524E-012</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="67" t="n">
-        <v>0.140883334941848</v>
-      </c>
-      <c r="C5" s="67" t="n">
+      <c r="B5" s="61" t="n">
+        <v>0.0504374219701802</v>
+      </c>
+      <c r="C5" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69" t="n">
-        <v>1.63369948177327E-009</v>
-      </c>
-      <c r="F5" s="69" t="n">
-        <v>6.76949369355295E-008</v>
-      </c>
-      <c r="G5" s="69" t="n">
-        <v>2.43591213114909E-007</v>
-      </c>
-      <c r="H5" s="69" t="n">
-        <v>9.79314734712005E-012</v>
-      </c>
-      <c r="I5" s="69" t="n">
-        <v>1.53289221641234E-006</v>
-      </c>
-      <c r="J5" s="69" t="n">
-        <v>3.47126985805201E-012</v>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63" t="n">
+        <v>2.06540484386954E-025</v>
+      </c>
+      <c r="F5" s="63" t="n">
+        <v>3.86093209646504E-022</v>
+      </c>
+      <c r="G5" s="63" t="n">
+        <v>1.53288419089158E-010</v>
+      </c>
+      <c r="H5" s="63" t="n">
+        <v>6.20175996564841E-018</v>
+      </c>
+      <c r="I5" s="63" t="n">
+        <v>5.90018652347681E-010</v>
+      </c>
+      <c r="J5" s="63" t="n">
+        <v>5.08542553727978E-018</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="67" t="n">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="69" t="n">
-        <v>4.10464023048836E-013</v>
-      </c>
-      <c r="C7" s="69" t="n">
-        <v>1.63369948177327E-009</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="67" t="n">
+      <c r="B7" s="63" t="n">
+        <v>2.15693119619744E-032</v>
+      </c>
+      <c r="C7" s="63" t="n">
+        <v>2.06540484386954E-025</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="67" t="n">
-        <v>0.588506939548753</v>
-      </c>
-      <c r="G7" s="69" t="n">
-        <v>2.26378363953451E-023</v>
-      </c>
-      <c r="H7" s="69" t="n">
-        <v>4.09611823014543E-029</v>
-      </c>
-      <c r="I7" s="69" t="n">
-        <v>5.47853934350764E-022</v>
-      </c>
-      <c r="J7" s="69" t="n">
-        <v>8.89483793272763E-030</v>
+      <c r="F7" s="61" t="n">
+        <v>0.533362718697031</v>
+      </c>
+      <c r="G7" s="63" t="n">
+        <v>4.88010674418018E-049</v>
+      </c>
+      <c r="H7" s="63" t="n">
+        <v>3.84237189509186E-060</v>
+      </c>
+      <c r="I7" s="63" t="n">
+        <v>1.13321619289739E-047</v>
+      </c>
+      <c r="J7" s="63" t="n">
+        <v>1.9265289826061E-060</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="69" t="n">
-        <v>3.82840031984828E-011</v>
-      </c>
-      <c r="C8" s="69" t="n">
-        <v>6.76949369355295E-008</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="67" t="n">
-        <v>0.588506939548753</v>
-      </c>
-      <c r="F8" s="67" t="n">
+      <c r="B8" s="63" t="n">
+        <v>1.14346370107601E-028</v>
+      </c>
+      <c r="C8" s="63" t="n">
+        <v>3.86093209646504E-022</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="61" t="n">
+        <v>0.533362718697031</v>
+      </c>
+      <c r="F8" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="69" t="n">
-        <v>9.71917223860091E-021</v>
-      </c>
-      <c r="H8" s="69" t="n">
-        <v>3.6532744778373E-026</v>
-      </c>
-      <c r="I8" s="69" t="n">
-        <v>1.78336983658511E-019</v>
-      </c>
-      <c r="J8" s="69" t="n">
-        <v>9.21472094611681E-027</v>
+      <c r="G8" s="63" t="n">
+        <v>1.24002979588012E-044</v>
+      </c>
+      <c r="H8" s="63" t="n">
+        <v>3.17240337783778E-055</v>
+      </c>
+      <c r="I8" s="63" t="n">
+        <v>2.25965683942311E-043</v>
+      </c>
+      <c r="J8" s="63" t="n">
+        <v>1.74180322258743E-055</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="69" t="n">
-        <v>0.000116155181976361</v>
-      </c>
-      <c r="C9" s="69" t="n">
-        <v>2.43591213114909E-007</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69" t="n">
-        <v>2.26378363953451E-023</v>
-      </c>
-      <c r="F9" s="69" t="n">
-        <v>9.71917223860091E-021</v>
-      </c>
-      <c r="G9" s="67" t="n">
+      <c r="B9" s="63" t="n">
+        <v>3.73199742961688E-006</v>
+      </c>
+      <c r="C9" s="63" t="n">
+        <v>1.53288419089158E-010</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63" t="n">
+        <v>4.88010674418018E-049</v>
+      </c>
+      <c r="F9" s="63" t="n">
+        <v>1.24002979588012E-044</v>
+      </c>
+      <c r="G9" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="67" t="n">
-        <v>0.100206159477224</v>
-      </c>
-      <c r="I9" s="67" t="n">
-        <v>0.821353794498341</v>
-      </c>
-      <c r="J9" s="67" t="n">
-        <v>0.0894586406120109</v>
+      <c r="H9" s="61" t="n">
+        <v>0.0469885584080821</v>
+      </c>
+      <c r="I9" s="61" t="n">
+        <v>0.930949590132206</v>
+      </c>
+      <c r="J9" s="61" t="n">
+        <v>0.0522339283086912</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="69" t="n">
-        <v>2.75180644630387E-008</v>
-      </c>
-      <c r="C10" s="69" t="n">
-        <v>9.79314734712005E-012</v>
-      </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69" t="n">
-        <v>4.09611823014543E-029</v>
-      </c>
-      <c r="F10" s="69" t="n">
-        <v>3.6532744778373E-026</v>
-      </c>
-      <c r="G10" s="67" t="n">
-        <v>0.100206159477224</v>
-      </c>
-      <c r="H10" s="67" t="n">
+      <c r="B10" s="63" t="n">
+        <v>7.6195945023728E-012</v>
+      </c>
+      <c r="C10" s="63" t="n">
+        <v>6.20175996564841E-018</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63" t="n">
+        <v>3.84237189509186E-060</v>
+      </c>
+      <c r="F10" s="63" t="n">
+        <v>3.17240337783778E-055</v>
+      </c>
+      <c r="G10" s="61" t="n">
+        <v>0.0469885584080821</v>
+      </c>
+      <c r="H10" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="67" t="n">
-        <v>0.0679439103762584</v>
-      </c>
-      <c r="J10" s="67" t="n">
-        <v>0.982129642107398</v>
+      <c r="I10" s="61" t="n">
+        <v>0.0414958759510203</v>
+      </c>
+      <c r="J10" s="61" t="n">
+        <v>0.947247110452291</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="69" t="n">
-        <v>0.00043576083968398</v>
-      </c>
-      <c r="C11" s="69" t="n">
-        <v>1.53289221641234E-006</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69" t="n">
-        <v>5.47853934350764E-022</v>
-      </c>
-      <c r="F11" s="69" t="n">
-        <v>1.78336983658511E-019</v>
-      </c>
-      <c r="G11" s="67" t="n">
-        <v>0.821353794498341</v>
-      </c>
-      <c r="H11" s="67" t="n">
-        <v>0.0679439103762584</v>
-      </c>
-      <c r="I11" s="67" t="n">
+      <c r="B11" s="63" t="n">
+        <v>8.74126611158293E-006</v>
+      </c>
+      <c r="C11" s="63" t="n">
+        <v>5.90018652347681E-010</v>
+      </c>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63" t="n">
+        <v>1.13321619289739E-047</v>
+      </c>
+      <c r="F11" s="63" t="n">
+        <v>2.25965683942311E-043</v>
+      </c>
+      <c r="G11" s="61" t="n">
+        <v>0.930949590132206</v>
+      </c>
+      <c r="H11" s="61" t="n">
+        <v>0.0414958759510203</v>
+      </c>
+      <c r="I11" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="67" t="n">
-        <v>0.0600253666298101</v>
+      <c r="J11" s="61" t="n">
+        <v>0.0461163943063906</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="69" t="n">
-        <v>1.26947294003639E-008</v>
-      </c>
-      <c r="C12" s="69" t="n">
-        <v>3.47126985805201E-012</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="69" t="n">
-        <v>8.89483793272763E-030</v>
-      </c>
-      <c r="F12" s="69" t="n">
-        <v>9.21472094611681E-027</v>
-      </c>
-      <c r="G12" s="67" t="n">
-        <v>0.0894586406120109</v>
-      </c>
-      <c r="H12" s="67" t="n">
-        <v>0.982129642107398</v>
-      </c>
-      <c r="I12" s="67" t="n">
-        <v>0.0600253666298101</v>
-      </c>
-      <c r="J12" s="67" t="n">
+      <c r="B12" s="63" t="n">
+        <v>7.34597418180524E-012</v>
+      </c>
+      <c r="C12" s="63" t="n">
+        <v>5.08542553727978E-018</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="63" t="n">
+        <v>1.9265289826061E-060</v>
+      </c>
+      <c r="F12" s="63" t="n">
+        <v>1.74180322258743E-055</v>
+      </c>
+      <c r="G12" s="61" t="n">
+        <v>0.0522339283086912</v>
+      </c>
+      <c r="H12" s="61" t="n">
+        <v>0.947247110452291</v>
+      </c>
+      <c r="I12" s="61" t="n">
+        <v>0.0461163943063906</v>
+      </c>
+      <c r="J12" s="61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6650,255 +6773,255 @@
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="67" t="n">
+      <c r="B15" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="67" t="n">
-        <v>0.187265177331859</v>
-      </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="67" t="n">
-        <v>0.903731970893427</v>
-      </c>
-      <c r="F15" s="67" t="n">
-        <v>0.240224474968486</v>
-      </c>
-      <c r="G15" s="69" t="n">
-        <v>2.1453786881388E-008</v>
-      </c>
-      <c r="H15" s="69" t="n">
-        <v>4.62330340471579E-014</v>
-      </c>
-      <c r="I15" s="69" t="n">
-        <v>2.22014377027665E-007</v>
-      </c>
-      <c r="J15" s="69" t="n">
-        <v>2.4844163677206E-015</v>
+      <c r="C15" s="61" t="n">
+        <v>0.0464204936614076</v>
+      </c>
+      <c r="D15" s="62"/>
+      <c r="E15" s="61" t="n">
+        <v>0.430766044004024</v>
+      </c>
+      <c r="F15" s="61" t="n">
+        <v>0.0337628569558176</v>
+      </c>
+      <c r="G15" s="63" t="n">
+        <v>1.40569225114268E-022</v>
+      </c>
+      <c r="H15" s="63" t="n">
+        <v>2.44727963532734E-033</v>
+      </c>
+      <c r="I15" s="63" t="n">
+        <v>2.30741482669337E-021</v>
+      </c>
+      <c r="J15" s="63" t="n">
+        <v>7.68464116569817E-035</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="67" t="n">
-        <v>0.187265177331859</v>
-      </c>
-      <c r="C16" s="67" t="n">
+      <c r="B16" s="61" t="n">
+        <v>0.0464204936614076</v>
+      </c>
+      <c r="C16" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="67" t="n">
-        <v>0.190856750737348</v>
-      </c>
-      <c r="F16" s="67" t="n">
-        <v>0.0175036181434721</v>
-      </c>
-      <c r="G16" s="69" t="n">
-        <v>4.48606000893366E-012</v>
-      </c>
-      <c r="H16" s="69" t="n">
-        <v>7.71457569359533E-019</v>
-      </c>
-      <c r="I16" s="69" t="n">
-        <v>9.06258228586517E-011</v>
-      </c>
-      <c r="J16" s="69" t="n">
-        <v>2.42475099046876E-020</v>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63" t="n">
+        <v>0.00807972941599414</v>
+      </c>
+      <c r="F16" s="63" t="n">
+        <v>5.89302677569622E-005</v>
+      </c>
+      <c r="G16" s="63" t="n">
+        <v>1.71965848370678E-031</v>
+      </c>
+      <c r="H16" s="63" t="n">
+        <v>4.25216928403771E-044</v>
+      </c>
+      <c r="I16" s="63" t="n">
+        <v>5.64415485286877E-030</v>
+      </c>
+      <c r="J16" s="63" t="n">
+        <v>8.08808335907419E-046</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="67" t="n">
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="67" t="n">
-        <v>0.903731970893427</v>
-      </c>
-      <c r="C18" s="67" t="n">
-        <v>0.190856750737348</v>
-      </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="67" t="n">
+      <c r="B18" s="61" t="n">
+        <v>0.430766044004024</v>
+      </c>
+      <c r="C18" s="63" t="n">
+        <v>0.00807972941599414</v>
+      </c>
+      <c r="D18" s="62"/>
+      <c r="E18" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="67" t="n">
-        <v>0.337143202866774</v>
-      </c>
-      <c r="G18" s="69" t="n">
-        <v>1.32966550502215E-006</v>
-      </c>
-      <c r="H18" s="69" t="n">
-        <v>8.43929504878042E-011</v>
-      </c>
-      <c r="I18" s="69" t="n">
-        <v>7.19734500402699E-006</v>
-      </c>
-      <c r="J18" s="69" t="n">
-        <v>1.06907944768517E-011</v>
+      <c r="F18" s="61" t="n">
+        <v>0.216477102752999</v>
+      </c>
+      <c r="G18" s="63" t="n">
+        <v>1.41295460619338E-016</v>
+      </c>
+      <c r="H18" s="63" t="n">
+        <v>1.18149166843919E-024</v>
+      </c>
+      <c r="I18" s="63" t="n">
+        <v>1.04626200407502E-015</v>
+      </c>
+      <c r="J18" s="63" t="n">
+        <v>8.79815661908534E-026</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="67" t="n">
-        <v>0.240224474968486</v>
-      </c>
-      <c r="C19" s="67" t="n">
-        <v>0.0175036181434721</v>
-      </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="67" t="n">
-        <v>0.337143202866774</v>
-      </c>
-      <c r="F19" s="67" t="n">
+      <c r="B19" s="61" t="n">
+        <v>0.0337628569558176</v>
+      </c>
+      <c r="C19" s="63" t="n">
+        <v>5.89302677569622E-005</v>
+      </c>
+      <c r="D19" s="62"/>
+      <c r="E19" s="61" t="n">
+        <v>0.216477102752999</v>
+      </c>
+      <c r="F19" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="69" t="n">
-        <v>0.000118763983786277</v>
-      </c>
-      <c r="H19" s="69" t="n">
-        <v>3.12625277237414E-008</v>
-      </c>
-      <c r="I19" s="69" t="n">
-        <v>0.000452623685124206</v>
-      </c>
-      <c r="J19" s="69" t="n">
-        <v>5.17874422449256E-009</v>
+      <c r="G19" s="63" t="n">
+        <v>6.7117244842192E-013</v>
+      </c>
+      <c r="H19" s="63" t="n">
+        <v>2.50152161424738E-020</v>
+      </c>
+      <c r="I19" s="63" t="n">
+        <v>3.87086756530853E-012</v>
+      </c>
+      <c r="J19" s="63" t="n">
+        <v>2.16242021448308E-021</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="69" t="n">
-        <v>2.1453786881388E-008</v>
-      </c>
-      <c r="C20" s="69" t="n">
-        <v>4.48606000893366E-012</v>
-      </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69" t="n">
-        <v>1.32966550502215E-006</v>
-      </c>
-      <c r="F20" s="69" t="n">
-        <v>0.000118763983786277</v>
-      </c>
-      <c r="G20" s="67" t="n">
+      <c r="B20" s="63" t="n">
+        <v>1.40569225114268E-022</v>
+      </c>
+      <c r="C20" s="63" t="n">
+        <v>1.71965848370678E-031</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63" t="n">
+        <v>1.41295460619338E-016</v>
+      </c>
+      <c r="F20" s="63" t="n">
+        <v>6.7117244842192E-013</v>
+      </c>
+      <c r="G20" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="67" t="n">
-        <v>0.0499206971908734</v>
-      </c>
-      <c r="I20" s="67" t="n">
-        <v>0.745006957713606</v>
-      </c>
-      <c r="J20" s="67" t="n">
-        <v>0.0207764902929139</v>
+      <c r="H20" s="61" t="n">
+        <v>0.036318052440278</v>
+      </c>
+      <c r="I20" s="61" t="n">
+        <v>0.857947610497885</v>
+      </c>
+      <c r="J20" s="61" t="n">
+        <v>0.0176930992013143</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="69" t="n">
-        <v>4.62330340471579E-014</v>
-      </c>
-      <c r="C21" s="69" t="n">
-        <v>7.71457569359533E-019</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69" t="n">
-        <v>8.43929504878042E-011</v>
-      </c>
-      <c r="F21" s="69" t="n">
-        <v>3.12625277237414E-008</v>
-      </c>
-      <c r="G21" s="67" t="n">
-        <v>0.0499206971908734</v>
-      </c>
-      <c r="H21" s="67" t="n">
+      <c r="B21" s="63" t="n">
+        <v>2.44727963532734E-033</v>
+      </c>
+      <c r="C21" s="63" t="n">
+        <v>4.25216928403771E-044</v>
+      </c>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63" t="n">
+        <v>1.18149166843919E-024</v>
+      </c>
+      <c r="F21" s="63" t="n">
+        <v>2.50152161424738E-020</v>
+      </c>
+      <c r="G21" s="61" t="n">
+        <v>0.036318052440278</v>
+      </c>
+      <c r="H21" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="67" t="n">
-        <v>0.0252529071789694</v>
-      </c>
-      <c r="J21" s="67" t="n">
-        <v>0.734660930148498</v>
+      <c r="I21" s="61" t="n">
+        <v>0.0251665323913943</v>
+      </c>
+      <c r="J21" s="61" t="n">
+        <v>0.77427904233013</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="69" t="n">
-        <v>2.22014377027665E-007</v>
-      </c>
-      <c r="C22" s="69" t="n">
-        <v>9.06258228586517E-011</v>
-      </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69" t="n">
-        <v>7.19734500402699E-006</v>
-      </c>
-      <c r="F22" s="69" t="n">
-        <v>0.000452623685124206</v>
-      </c>
-      <c r="G22" s="67" t="n">
-        <v>0.745006957713606</v>
-      </c>
-      <c r="H22" s="67" t="n">
-        <v>0.0252529071789694</v>
-      </c>
-      <c r="I22" s="67" t="n">
+      <c r="B22" s="63" t="n">
+        <v>2.30741482669337E-021</v>
+      </c>
+      <c r="C22" s="63" t="n">
+        <v>5.64415485286877E-030</v>
+      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63" t="n">
+        <v>1.04626200407502E-015</v>
+      </c>
+      <c r="F22" s="63" t="n">
+        <v>3.87086756530853E-012</v>
+      </c>
+      <c r="G22" s="61" t="n">
+        <v>0.857947610497885</v>
+      </c>
+      <c r="H22" s="61" t="n">
+        <v>0.0251665323913943</v>
+      </c>
+      <c r="I22" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="69" t="n">
-        <v>0.00988635177168938</v>
+      <c r="J22" s="61" t="n">
+        <v>0.0120145434024102</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="69" t="n">
-        <v>2.4844163677206E-015</v>
-      </c>
-      <c r="C23" s="69" t="n">
-        <v>2.42475099046876E-020</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="69" t="n">
-        <v>1.06907944768517E-011</v>
-      </c>
-      <c r="F23" s="69" t="n">
-        <v>5.17874422449256E-009</v>
-      </c>
-      <c r="G23" s="67" t="n">
-        <v>0.0207764902929139</v>
-      </c>
-      <c r="H23" s="67" t="n">
-        <v>0.734660930148498</v>
-      </c>
-      <c r="I23" s="69" t="n">
-        <v>0.00988635177168938</v>
-      </c>
-      <c r="J23" s="67" t="n">
+      <c r="B23" s="63" t="n">
+        <v>7.68464116569817E-035</v>
+      </c>
+      <c r="C23" s="63" t="n">
+        <v>8.08808335907419E-046</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="63" t="n">
+        <v>8.79815661908534E-026</v>
+      </c>
+      <c r="F23" s="63" t="n">
+        <v>2.16242021448308E-021</v>
+      </c>
+      <c r="G23" s="61" t="n">
+        <v>0.0176930992013143</v>
+      </c>
+      <c r="H23" s="61" t="n">
+        <v>0.77427904233013</v>
+      </c>
+      <c r="I23" s="61" t="n">
+        <v>0.0120145434024102</v>
+      </c>
+      <c r="J23" s="61" t="n">
         <v>1</v>
       </c>
     </row>

--- a/benchmarks/summary_ali.xlsx
+++ b/benchmarks/summary_ali.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -206,8 +206,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
   </fills>
@@ -308,7 +308,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,7 +453,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -461,23 +481,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -485,51 +489,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -545,7 +505,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -554,10 +518,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,9 +545,9 @@
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J83" activeCellId="0" sqref="J83"/>
+      <selection pane="bottomLeft" activeCell="I66" activeCellId="0" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2872,10 +2832,7 @@
         <f aca="false">ROUND(2*E61*E64/(E61+E64),3)</f>
         <v>0.736</v>
       </c>
-      <c r="F58" s="12" t="e">
-        <f aca="false">ROUND(2*F61*F64/(F61+F64),3)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F58" s="35"/>
       <c r="G58" s="11" t="n">
         <f aca="false">ROUND(2*G61*G64/(G61+G64),3)</f>
         <v>0.632</v>
@@ -2915,10 +2872,7 @@
         <f aca="false">ROUND(2*E62*E65/(E62+E65),3)</f>
         <v>0.75</v>
       </c>
-      <c r="F59" s="18" t="e">
-        <f aca="false">ROUND(2*F62*F65/(F62+F65),3)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F59" s="36"/>
       <c r="G59" s="17" t="n">
         <f aca="false">ROUND(2*G62*G65/(G62+G65),3)</f>
         <v>0.624</v>
@@ -2958,10 +2912,7 @@
         <f aca="false">ROUND(2*E63*E66/(E63+E66),3)</f>
         <v>0.78</v>
       </c>
-      <c r="F60" s="21" t="e">
-        <f aca="false">ROUND(2*F63*F66/(F63+F66),3)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F60" s="37"/>
       <c r="G60" s="20" t="n">
         <f aca="false">ROUND(2*G63*G66/(G63+G66),3)</f>
         <v>0.699</v>
@@ -3002,7 +2953,7 @@
       <c r="E61" s="25" t="n">
         <v>0.761</v>
       </c>
-      <c r="F61" s="35"/>
+      <c r="F61" s="38"/>
       <c r="G61" s="23" t="n">
         <v>0.65</v>
       </c>
@@ -3012,13 +2963,13 @@
       <c r="I61" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="J61" s="36" t="n">
+      <c r="J61" s="23" t="n">
         <v>0.614</v>
       </c>
-      <c r="K61" s="36" t="n">
+      <c r="K61" s="23" t="n">
         <v>0.634</v>
       </c>
-      <c r="L61" s="37" t="n">
+      <c r="L61" s="24" t="n">
         <v>0.589</v>
       </c>
       <c r="M61" s="14"/>
@@ -3036,7 +2987,7 @@
       <c r="E62" s="14" t="n">
         <v>0.754</v>
       </c>
-      <c r="F62" s="38"/>
+      <c r="F62" s="39"/>
       <c r="G62" s="14" t="n">
         <v>0.624</v>
       </c>
@@ -3046,13 +2997,13 @@
       <c r="I62" s="14" t="n">
         <v>0.601</v>
       </c>
-      <c r="J62" s="39" t="n">
+      <c r="J62" s="14" t="n">
         <v>0.563</v>
       </c>
-      <c r="K62" s="39" t="n">
+      <c r="K62" s="14" t="n">
         <v>0.711</v>
       </c>
-      <c r="L62" s="40" t="n">
+      <c r="L62" s="27" t="n">
         <v>0.533</v>
       </c>
       <c r="M62" s="14"/>
@@ -3068,7 +3019,7 @@
       <c r="E63" s="34" t="n">
         <v>0.767</v>
       </c>
-      <c r="F63" s="41"/>
+      <c r="F63" s="40"/>
       <c r="G63" s="28" t="n">
         <v>0.679</v>
       </c>
@@ -3078,13 +3029,13 @@
       <c r="I63" s="28" t="n">
         <v>0.599</v>
       </c>
-      <c r="J63" s="42" t="n">
+      <c r="J63" s="28" t="n">
         <v>0.675</v>
       </c>
-      <c r="K63" s="42" t="n">
+      <c r="K63" s="28" t="n">
         <v>0.573</v>
       </c>
-      <c r="L63" s="43" t="n">
+      <c r="L63" s="29" t="n">
         <v>0.659</v>
       </c>
       <c r="M63" s="14"/>
@@ -3105,7 +3056,7 @@
       <c r="E64" s="25" t="n">
         <v>0.713</v>
       </c>
-      <c r="F64" s="35"/>
+      <c r="F64" s="38"/>
       <c r="G64" s="23" t="n">
         <v>0.615</v>
       </c>
@@ -3115,13 +3066,13 @@
       <c r="I64" s="23" t="n">
         <v>0.569</v>
       </c>
-      <c r="J64" s="36" t="n">
+      <c r="J64" s="23" t="n">
         <v>0.59</v>
       </c>
-      <c r="K64" s="36" t="n">
+      <c r="K64" s="23" t="n">
         <v>0.583</v>
       </c>
-      <c r="L64" s="37" t="n">
+      <c r="L64" s="24" t="n">
         <v>0.57</v>
       </c>
       <c r="M64" s="14"/>
@@ -3137,7 +3088,7 @@
       <c r="E65" s="14" t="n">
         <v>0.746</v>
       </c>
-      <c r="F65" s="38"/>
+      <c r="F65" s="39"/>
       <c r="G65" s="14" t="n">
         <v>0.624</v>
       </c>
@@ -3147,13 +3098,13 @@
       <c r="I65" s="14" t="n">
         <v>0.577</v>
       </c>
-      <c r="J65" s="39" t="n">
+      <c r="J65" s="14" t="n">
         <v>0.566</v>
       </c>
-      <c r="K65" s="39" t="n">
+      <c r="K65" s="14" t="n">
         <v>0.648</v>
       </c>
-      <c r="L65" s="40" t="n">
+      <c r="L65" s="27" t="n">
         <v>0.539</v>
       </c>
       <c r="M65" s="14"/>
@@ -3169,7 +3120,7 @@
       <c r="E66" s="34" t="n">
         <v>0.793</v>
       </c>
-      <c r="F66" s="41"/>
+      <c r="F66" s="40"/>
       <c r="G66" s="28" t="n">
         <v>0.72</v>
       </c>
@@ -3179,13 +3130,13 @@
       <c r="I66" s="28" t="n">
         <v>0.677</v>
       </c>
-      <c r="J66" s="42" t="n">
+      <c r="J66" s="28" t="n">
         <v>0.735</v>
       </c>
-      <c r="K66" s="42" t="n">
+      <c r="K66" s="28" t="n">
         <v>0.652</v>
       </c>
-      <c r="L66" s="43" t="n">
+      <c r="L66" s="29" t="n">
         <v>0.724</v>
       </c>
       <c r="M66" s="14"/>
@@ -3202,7 +3153,7 @@
       <c r="E67" s="3" t="n">
         <v>212.5</v>
       </c>
-      <c r="F67" s="44"/>
+      <c r="F67" s="41"/>
       <c r="G67" s="3" t="n">
         <v>12000.2</v>
       </c>
@@ -3212,13 +3163,13 @@
       <c r="I67" s="3" t="n">
         <v>1482.4</v>
       </c>
-      <c r="J67" s="45" t="n">
+      <c r="J67" s="3" t="n">
         <v>28858.6</v>
       </c>
-      <c r="K67" s="45" t="n">
+      <c r="K67" s="3" t="n">
         <v>28777.5</v>
       </c>
-      <c r="L67" s="45" t="n">
+      <c r="L67" s="3" t="n">
         <v>28604.9</v>
       </c>
       <c r="M67" s="14"/>
@@ -3244,10 +3195,7 @@
         <f aca="false">ROUND(2*E71*E74/(E71+E74),3)</f>
         <v>0.79</v>
       </c>
-      <c r="F68" s="12" t="e">
-        <f aca="false">ROUND(2*F71*F74/(F71+F74),3)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F68" s="35"/>
       <c r="G68" s="11" t="n">
         <f aca="false">ROUND(2*G71*G74/(G71+G74),3)</f>
         <v>0.744</v>
@@ -3260,15 +3208,15 @@
         <f aca="false">ROUND(2*I71*I74/(I71+I74),3)</f>
         <v>0.769</v>
       </c>
-      <c r="J68" s="46" t="n">
+      <c r="J68" s="11" t="n">
         <f aca="false">ROUND(2*J71*J74/(J71+J74),3)</f>
         <v>0.779</v>
       </c>
-      <c r="K68" s="46" t="n">
+      <c r="K68" s="11" t="n">
         <f aca="false">ROUND(2*K71*K74/(K71+K74),3)</f>
         <v>0.784</v>
       </c>
-      <c r="L68" s="47" t="n">
+      <c r="L68" s="12" t="n">
         <f aca="false">ROUND(2*L71*L74/(L71+L74),3)</f>
         <v>0.769</v>
       </c>
@@ -3288,10 +3236,7 @@
         <f aca="false">ROUND(2*E72*E75/(E72+E75),3)</f>
         <v>0.899</v>
       </c>
-      <c r="F69" s="18" t="e">
-        <f aca="false">ROUND(2*F72*F75/(F72+F75),3)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F69" s="36"/>
       <c r="G69" s="17" t="n">
         <f aca="false">ROUND(2*G72*G75/(G72+G75),3)</f>
         <v>0.737</v>
@@ -3304,15 +3249,15 @@
         <f aca="false">ROUND(2*I72*I75/(I72+I75),3)</f>
         <v>0.77</v>
       </c>
-      <c r="J69" s="48" t="n">
+      <c r="J69" s="17" t="n">
         <f aca="false">ROUND(2*J72*J75/(J72+J75),3)</f>
         <v>0.741</v>
       </c>
-      <c r="K69" s="48" t="n">
+      <c r="K69" s="17" t="n">
         <f aca="false">ROUND(2*K72*K75/(K72+K75),3)</f>
         <v>0.82</v>
       </c>
-      <c r="L69" s="49" t="n">
+      <c r="L69" s="18" t="n">
         <f aca="false">ROUND(2*L72*L75/(L72+L75),3)</f>
         <v>0.722</v>
       </c>
@@ -3332,10 +3277,7 @@
         <f aca="false">ROUND(2*E73*E76/(E73+E76),3)</f>
         <v>0.731</v>
       </c>
-      <c r="F70" s="21" t="e">
-        <f aca="false">ROUND(2*F73*F76/(F73+F76),3)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F70" s="37"/>
       <c r="G70" s="20" t="n">
         <f aca="false">ROUND(2*G73*G76/(G73+G76),3)</f>
         <v>0.781</v>
@@ -3348,15 +3290,15 @@
         <f aca="false">ROUND(2*I73*I76/(I73+I76),3)</f>
         <v>0.789</v>
       </c>
-      <c r="J70" s="50" t="n">
+      <c r="J70" s="20" t="n">
         <f aca="false">ROUND(2*J73*J76/(J73+J76),3)</f>
         <v>0.845</v>
       </c>
-      <c r="K70" s="50" t="n">
+      <c r="K70" s="20" t="n">
         <f aca="false">ROUND(2*K73*K76/(K73+K76),3)</f>
         <v>0.772</v>
       </c>
-      <c r="L70" s="51" t="n">
+      <c r="L70" s="22" t="n">
         <f aca="false">ROUND(2*L73*L76/(L73+L76),3)</f>
         <v>0.847</v>
       </c>
@@ -3377,7 +3319,7 @@
       <c r="E71" s="23" t="n">
         <v>0.802</v>
       </c>
-      <c r="F71" s="35"/>
+      <c r="F71" s="38"/>
       <c r="G71" s="23" t="n">
         <v>0.747</v>
       </c>
@@ -3387,13 +3329,13 @@
       <c r="I71" s="23" t="n">
         <v>0.762</v>
       </c>
-      <c r="J71" s="36" t="n">
+      <c r="J71" s="23" t="n">
         <v>0.782</v>
       </c>
-      <c r="K71" s="36" t="n">
+      <c r="K71" s="23" t="n">
         <v>0.778</v>
       </c>
-      <c r="L71" s="37" t="n">
+      <c r="L71" s="24" t="n">
         <v>0.769</v>
       </c>
       <c r="M71" s="14"/>
@@ -3412,7 +3354,7 @@
       <c r="E72" s="14" t="n">
         <v>0.903</v>
       </c>
-      <c r="F72" s="38"/>
+      <c r="F72" s="39"/>
       <c r="G72" s="14" t="n">
         <v>0.728</v>
       </c>
@@ -3422,13 +3364,13 @@
       <c r="I72" s="14" t="n">
         <v>0.778</v>
       </c>
-      <c r="J72" s="39" t="n">
+      <c r="J72" s="14" t="n">
         <v>0.748</v>
       </c>
-      <c r="K72" s="39" t="n">
+      <c r="K72" s="14" t="n">
         <v>0.834</v>
       </c>
-      <c r="L72" s="40" t="n">
+      <c r="L72" s="27" t="n">
         <v>0.725</v>
       </c>
       <c r="M72" s="14"/>
@@ -3445,7 +3387,7 @@
       <c r="E73" s="28" t="n">
         <v>0.721</v>
       </c>
-      <c r="F73" s="41"/>
+      <c r="F73" s="40"/>
       <c r="G73" s="28" t="n">
         <v>0.767</v>
       </c>
@@ -3455,13 +3397,13 @@
       <c r="I73" s="28" t="n">
         <v>0.747</v>
       </c>
-      <c r="J73" s="52" t="n">
+      <c r="J73" s="34" t="n">
         <v>0.819</v>
       </c>
-      <c r="K73" s="42" t="n">
+      <c r="K73" s="28" t="n">
         <v>0.73</v>
       </c>
-      <c r="L73" s="53" t="n">
+      <c r="L73" s="30" t="n">
         <v>0.819</v>
       </c>
       <c r="M73" s="14"/>
@@ -3483,7 +3425,7 @@
       <c r="E74" s="23" t="n">
         <v>0.778</v>
       </c>
-      <c r="F74" s="35"/>
+      <c r="F74" s="38"/>
       <c r="G74" s="23" t="n">
         <v>0.741</v>
       </c>
@@ -3493,13 +3435,13 @@
       <c r="I74" s="23" t="n">
         <v>0.777</v>
       </c>
-      <c r="J74" s="36" t="n">
+      <c r="J74" s="23" t="n">
         <v>0.777</v>
       </c>
-      <c r="K74" s="54" t="n">
+      <c r="K74" s="25" t="n">
         <v>0.791</v>
       </c>
-      <c r="L74" s="37" t="n">
+      <c r="L74" s="24" t="n">
         <v>0.77</v>
       </c>
       <c r="M74" s="14"/>
@@ -3516,7 +3458,7 @@
       <c r="E75" s="14" t="n">
         <v>0.895</v>
       </c>
-      <c r="F75" s="38"/>
+      <c r="F75" s="39"/>
       <c r="G75" s="14" t="n">
         <v>0.746</v>
       </c>
@@ -3526,13 +3468,13 @@
       <c r="I75" s="14" t="n">
         <v>0.763</v>
       </c>
-      <c r="J75" s="39" t="n">
+      <c r="J75" s="14" t="n">
         <v>0.735</v>
       </c>
-      <c r="K75" s="39" t="n">
+      <c r="K75" s="14" t="n">
         <v>0.806</v>
       </c>
-      <c r="L75" s="40" t="n">
+      <c r="L75" s="27" t="n">
         <v>0.719</v>
       </c>
       <c r="M75" s="14"/>
@@ -3549,7 +3491,7 @@
       <c r="E76" s="28" t="n">
         <v>0.742</v>
       </c>
-      <c r="F76" s="41"/>
+      <c r="F76" s="40"/>
       <c r="G76" s="28" t="n">
         <v>0.796</v>
       </c>
@@ -3559,13 +3501,13 @@
       <c r="I76" s="28" t="n">
         <v>0.836</v>
       </c>
-      <c r="J76" s="42" t="n">
+      <c r="J76" s="28" t="n">
         <v>0.873</v>
       </c>
-      <c r="K76" s="42" t="n">
+      <c r="K76" s="28" t="n">
         <v>0.82</v>
       </c>
-      <c r="L76" s="53" t="n">
+      <c r="L76" s="30" t="n">
         <v>0.877</v>
       </c>
       <c r="M76" s="14"/>
@@ -3589,10 +3531,7 @@
         <f aca="false">ROUND(2*E80*E83/(E80+E83),3)</f>
         <v>0.802</v>
       </c>
-      <c r="F77" s="12" t="e">
-        <f aca="false">ROUND(2*F80*F83/(F80+F83),3)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F77" s="35"/>
       <c r="G77" s="11" t="n">
         <f aca="false">ROUND(2*G80*G83/(G80+G83),3)</f>
         <v>0.803</v>
@@ -3605,15 +3544,15 @@
         <f aca="false">ROUND(2*I80*I83/(I80+I83),3)</f>
         <v>0.848</v>
       </c>
-      <c r="J77" s="46" t="n">
+      <c r="J77" s="11" t="n">
         <f aca="false">ROUND(2*J80*J83/(J80+J83),3)</f>
         <v>0.846</v>
       </c>
-      <c r="K77" s="55" t="n">
+      <c r="K77" s="32" t="n">
         <f aca="false">ROUND(2*K80*K83/(K80+K83),3)</f>
         <v>0.862</v>
       </c>
-      <c r="L77" s="47" t="n">
+      <c r="L77" s="12" t="n">
         <f aca="false">ROUND(2*L80*L83/(L80+L83),3)</f>
         <v>0.84</v>
       </c>
@@ -3633,10 +3572,7 @@
         <f aca="false">ROUND(2*E81*E84/(E81+E84),3)</f>
         <v>0.95</v>
       </c>
-      <c r="F78" s="18" t="e">
-        <f aca="false">ROUND(2*F81*F84/(F81+F84),3)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F78" s="36"/>
       <c r="G78" s="17" t="n">
         <f aca="false">ROUND(2*G81*G84/(G81+G84),3)</f>
         <v>0.807</v>
@@ -3649,15 +3585,15 @@
         <f aca="false">ROUND(2*I81*I84/(I81+I84),3)</f>
         <v>0.847</v>
       </c>
-      <c r="J78" s="48" t="n">
+      <c r="J78" s="17" t="n">
         <f aca="false">ROUND(2*J81*J84/(J81+J84),3)</f>
         <v>0.826</v>
       </c>
-      <c r="K78" s="48" t="n">
+      <c r="K78" s="17" t="n">
         <f aca="false">ROUND(2*K81*K84/(K81+K84),3)</f>
         <v>0.889</v>
       </c>
-      <c r="L78" s="49" t="n">
+      <c r="L78" s="18" t="n">
         <f aca="false">ROUND(2*L81*L84/(L81+L84),3)</f>
         <v>0.809</v>
       </c>
@@ -3677,10 +3613,7 @@
         <f aca="false">ROUND(2*E82*E85/(E82+E85),3)</f>
         <v>0.709</v>
       </c>
-      <c r="F79" s="21" t="e">
-        <f aca="false">ROUND(2*F82*F85/(F82+F85),3)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F79" s="37"/>
       <c r="G79" s="20" t="n">
         <f aca="false">ROUND(2*G82*G85/(G82+G85),3)</f>
         <v>0.823</v>
@@ -3693,15 +3626,15 @@
         <f aca="false">ROUND(2*I82*I85/(I82+I85),3)</f>
         <v>0.854</v>
       </c>
-      <c r="J79" s="50" t="n">
+      <c r="J79" s="20" t="n">
         <f aca="false">ROUND(2*J82*J85/(J82+J85),3)</f>
         <v>0.874</v>
       </c>
-      <c r="K79" s="50" t="n">
+      <c r="K79" s="20" t="n">
         <f aca="false">ROUND(2*K82*K85/(K82+K85),3)</f>
         <v>0.841</v>
       </c>
-      <c r="L79" s="51" t="n">
+      <c r="L79" s="22" t="n">
         <f aca="false">ROUND(2*L82*L85/(L82+L85),3)</f>
         <v>0.881</v>
       </c>
@@ -3722,7 +3655,7 @@
       <c r="E80" s="23" t="n">
         <v>0.797</v>
       </c>
-      <c r="F80" s="35"/>
+      <c r="F80" s="38"/>
       <c r="G80" s="23" t="n">
         <v>0.812</v>
       </c>
@@ -3732,13 +3665,13 @@
       <c r="I80" s="23" t="n">
         <v>0.858</v>
       </c>
-      <c r="J80" s="36" t="n">
+      <c r="J80" s="23" t="n">
         <v>0.857</v>
       </c>
-      <c r="K80" s="54" t="n">
+      <c r="K80" s="25" t="n">
         <v>0.869</v>
       </c>
-      <c r="L80" s="37" t="n">
+      <c r="L80" s="24" t="n">
         <v>0.85</v>
       </c>
       <c r="M80" s="14"/>
@@ -3757,7 +3690,7 @@
       <c r="E81" s="14" t="n">
         <v>0.947</v>
       </c>
-      <c r="F81" s="38"/>
+      <c r="F81" s="39"/>
       <c r="G81" s="14" t="n">
         <v>0.803</v>
       </c>
@@ -3767,13 +3700,13 @@
       <c r="I81" s="14" t="n">
         <v>0.86</v>
       </c>
-      <c r="J81" s="39" t="n">
+      <c r="J81" s="14" t="n">
         <v>0.836</v>
       </c>
-      <c r="K81" s="39" t="n">
+      <c r="K81" s="14" t="n">
         <v>0.9</v>
       </c>
-      <c r="L81" s="40" t="n">
+      <c r="L81" s="27" t="n">
         <v>0.818</v>
       </c>
       <c r="M81" s="14"/>
@@ -3790,7 +3723,7 @@
       <c r="E82" s="28" t="n">
         <v>0.688</v>
       </c>
-      <c r="F82" s="41"/>
+      <c r="F82" s="40"/>
       <c r="G82" s="28" t="n">
         <v>0.822</v>
       </c>
@@ -3800,13 +3733,13 @@
       <c r="I82" s="28" t="n">
         <v>0.855</v>
       </c>
-      <c r="J82" s="42" t="n">
+      <c r="J82" s="28" t="n">
         <v>0.879</v>
       </c>
-      <c r="K82" s="42" t="n">
+      <c r="K82" s="28" t="n">
         <v>0.841</v>
       </c>
-      <c r="L82" s="53" t="n">
+      <c r="L82" s="30" t="n">
         <v>0.884</v>
       </c>
       <c r="M82" s="14"/>
@@ -3828,7 +3761,7 @@
       <c r="E83" s="23" t="n">
         <v>0.807</v>
       </c>
-      <c r="F83" s="35"/>
+      <c r="F83" s="38"/>
       <c r="G83" s="23" t="n">
         <v>0.794</v>
       </c>
@@ -3838,13 +3771,13 @@
       <c r="I83" s="23" t="n">
         <v>0.839</v>
       </c>
-      <c r="J83" s="36" t="n">
+      <c r="J83" s="23" t="n">
         <v>0.836</v>
       </c>
-      <c r="K83" s="54" t="n">
+      <c r="K83" s="25" t="n">
         <v>0.855</v>
       </c>
-      <c r="L83" s="37" t="n">
+      <c r="L83" s="24" t="n">
         <v>0.831</v>
       </c>
       <c r="M83" s="14"/>
@@ -3861,7 +3794,7 @@
       <c r="E84" s="26" t="n">
         <v>0.954</v>
       </c>
-      <c r="F84" s="38"/>
+      <c r="F84" s="39"/>
       <c r="G84" s="14" t="n">
         <v>0.811</v>
       </c>
@@ -3871,13 +3804,13 @@
       <c r="I84" s="14" t="n">
         <v>0.835</v>
       </c>
-      <c r="J84" s="39" t="n">
+      <c r="J84" s="14" t="n">
         <v>0.816</v>
       </c>
-      <c r="K84" s="39" t="n">
+      <c r="K84" s="14" t="n">
         <v>0.879</v>
       </c>
-      <c r="L84" s="40" t="n">
+      <c r="L84" s="27" t="n">
         <v>0.801</v>
       </c>
       <c r="M84" s="14"/>
@@ -3894,7 +3827,7 @@
       <c r="E85" s="28" t="n">
         <v>0.732</v>
       </c>
-      <c r="F85" s="41"/>
+      <c r="F85" s="40"/>
       <c r="G85" s="28" t="n">
         <v>0.825</v>
       </c>
@@ -3904,13 +3837,13 @@
       <c r="I85" s="28" t="n">
         <v>0.854</v>
       </c>
-      <c r="J85" s="42" t="n">
+      <c r="J85" s="28" t="n">
         <v>0.87</v>
       </c>
-      <c r="K85" s="42" t="n">
+      <c r="K85" s="28" t="n">
         <v>0.842</v>
       </c>
-      <c r="L85" s="43" t="n">
+      <c r="L85" s="29" t="n">
         <v>0.878</v>
       </c>
       <c r="M85" s="14"/>
@@ -3934,9 +3867,9 @@
         <f aca="false">ROUND(2*E89*E92/(E89+E92),3)</f>
         <v>0.738</v>
       </c>
-      <c r="F86" s="12" t="e">
+      <c r="F86" s="12" t="n">
         <f aca="false">ROUND(2*F89*F92/(F89+F92),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.647</v>
       </c>
       <c r="G86" s="11" t="n">
         <f aca="false">ROUND(2*G89*G92/(G89+G92),3)</f>
@@ -3975,9 +3908,9 @@
         <f aca="false">ROUND(2*E90*E93/(E90+E93),3)</f>
         <v>0.871</v>
       </c>
-      <c r="F87" s="18" t="e">
+      <c r="F87" s="18" t="n">
         <f aca="false">ROUND(2*F90*F93/(F90+F93),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.78</v>
       </c>
       <c r="G87" s="17" t="n">
         <f aca="false">ROUND(2*G90*G93/(G90+G93),3)</f>
@@ -4016,9 +3949,9 @@
         <f aca="false">ROUND(2*E91*E94/(E91+E94),3)</f>
         <v>0.654</v>
       </c>
-      <c r="F88" s="21" t="e">
+      <c r="F88" s="21" t="n">
         <f aca="false">ROUND(2*F91*F94/(F91+F94),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.559</v>
       </c>
       <c r="G88" s="20" t="n">
         <f aca="false">ROUND(2*G91*G94/(G91+G94),3)</f>
@@ -4058,7 +3991,9 @@
       <c r="E89" s="23" t="n">
         <v>0.75</v>
       </c>
-      <c r="F89" s="35"/>
+      <c r="F89" s="42" t="n">
+        <v>0.657</v>
+      </c>
       <c r="G89" s="23" t="n">
         <v>0.58</v>
       </c>
@@ -4088,7 +4023,9 @@
       <c r="E90" s="14" t="n">
         <v>0.861</v>
       </c>
-      <c r="F90" s="38"/>
+      <c r="F90" s="43" t="n">
+        <v>0.784</v>
+      </c>
       <c r="G90" s="14" t="n">
         <v>0.599</v>
       </c>
@@ -4118,7 +4055,9 @@
       <c r="E91" s="28" t="n">
         <v>0.664</v>
       </c>
-      <c r="F91" s="41"/>
+      <c r="F91" s="44" t="n">
+        <v>0.566</v>
+      </c>
       <c r="G91" s="28" t="n">
         <v>0.562</v>
       </c>
@@ -4151,7 +4090,9 @@
       <c r="E92" s="23" t="n">
         <v>0.726</v>
       </c>
-      <c r="F92" s="35"/>
+      <c r="F92" s="42" t="n">
+        <v>0.638</v>
+      </c>
       <c r="G92" s="23" t="n">
         <v>0.615</v>
       </c>
@@ -4181,7 +4122,9 @@
       <c r="E93" s="14" t="n">
         <v>0.882</v>
       </c>
-      <c r="F93" s="38"/>
+      <c r="F93" s="43" t="n">
+        <v>0.777</v>
+      </c>
       <c r="G93" s="14" t="n">
         <v>0.642</v>
       </c>
@@ -4211,7 +4154,9 @@
       <c r="E94" s="28" t="n">
         <v>0.644</v>
       </c>
-      <c r="F94" s="41"/>
+      <c r="F94" s="44" t="n">
+        <v>0.553</v>
+      </c>
       <c r="G94" s="28" t="n">
         <v>0.604</v>
       </c>
@@ -4242,7 +4187,9 @@
       <c r="E95" s="3" t="n">
         <v>259.1</v>
       </c>
-      <c r="F95" s="44"/>
+      <c r="F95" s="45" t="n">
+        <v>86705.3</v>
+      </c>
       <c r="G95" s="3" t="n">
         <v>8483.4</v>
       </c>
@@ -4280,9 +4227,9 @@
         <f aca="false">ROUND(2*E99*E102/(E99+E102),3)</f>
         <v>0.753</v>
       </c>
-      <c r="F96" s="12" t="e">
+      <c r="F96" s="12" t="n">
         <f aca="false">ROUND(2*F99*F102/(F99+F102),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.665</v>
       </c>
       <c r="G96" s="11" t="n">
         <f aca="false">ROUND(2*G99*G102/(G99+G102),3)</f>
@@ -4322,9 +4269,9 @@
         <f aca="false">ROUND(2*E100*E103/(E100+E103),3)</f>
         <v>0.928</v>
       </c>
-      <c r="F97" s="18" t="e">
+      <c r="F97" s="18" t="n">
         <f aca="false">ROUND(2*F100*F103/(F100+F103),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.842</v>
       </c>
       <c r="G97" s="17" t="n">
         <f aca="false">ROUND(2*G100*G103/(G100+G103),3)</f>
@@ -4364,9 +4311,9 @@
         <f aca="false">ROUND(2*E101*E104/(E101+E104),3)</f>
         <v>0.647</v>
       </c>
-      <c r="F98" s="21" t="e">
+      <c r="F98" s="21" t="n">
         <f aca="false">ROUND(2*F101*F104/(F101+F104),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.551</v>
       </c>
       <c r="G98" s="20" t="n">
         <f aca="false">ROUND(2*G101*G104/(G101+G104),3)</f>
@@ -4407,7 +4354,9 @@
       <c r="E99" s="23" t="n">
         <v>0.763</v>
       </c>
-      <c r="F99" s="35"/>
+      <c r="F99" s="42" t="n">
+        <v>0.68</v>
+      </c>
       <c r="G99" s="23" t="n">
         <v>0.75</v>
       </c>
@@ -4438,7 +4387,9 @@
       <c r="E100" s="14" t="n">
         <v>0.924</v>
       </c>
-      <c r="F100" s="38"/>
+      <c r="F100" s="43" t="n">
+        <v>0.867</v>
+      </c>
       <c r="G100" s="14" t="n">
         <v>0.777</v>
       </c>
@@ -4469,7 +4420,9 @@
       <c r="E101" s="28" t="n">
         <v>0.65</v>
       </c>
-      <c r="F101" s="41"/>
+      <c r="F101" s="44" t="n">
+        <v>0.56</v>
+      </c>
       <c r="G101" s="28" t="n">
         <v>0.725</v>
       </c>
@@ -4503,7 +4456,9 @@
       <c r="E102" s="23" t="n">
         <v>0.743</v>
       </c>
-      <c r="F102" s="35"/>
+      <c r="F102" s="42" t="n">
+        <v>0.65</v>
+      </c>
       <c r="G102" s="23" t="n">
         <v>0.77</v>
       </c>
@@ -4534,7 +4489,9 @@
       <c r="E103" s="14" t="n">
         <v>0.932</v>
       </c>
-      <c r="F103" s="38"/>
+      <c r="F103" s="43" t="n">
+        <v>0.819</v>
+      </c>
       <c r="G103" s="14" t="n">
         <v>0.789</v>
       </c>
@@ -4565,7 +4522,9 @@
       <c r="E104" s="28" t="n">
         <v>0.644</v>
       </c>
-      <c r="F104" s="41"/>
+      <c r="F104" s="44" t="n">
+        <v>0.543</v>
+      </c>
       <c r="G104" s="28" t="n">
         <v>0.759</v>
       </c>
@@ -4774,10 +4733,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4786,7 +4745,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="4.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="8.47"/>
@@ -4856,39 +4815,39 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="56" t="n">
+      <c r="D2" s="46" t="n">
         <f aca="false">ROUND(2*D3*D4/(D3+D4),3)</f>
         <v>0.759</v>
       </c>
-      <c r="E2" s="56" t="n">
+      <c r="E2" s="46" t="n">
         <f aca="false">ROUND(2*E3*E4/(E3+E4),3)</f>
         <v>0.748</v>
       </c>
-      <c r="F2" s="56" t="n">
+      <c r="F2" s="46" t="n">
         <f aca="false">ROUND(2*F3*F4/(F3+F4),3)</f>
         <v>0.683</v>
       </c>
-      <c r="G2" s="56" t="n">
+      <c r="G2" s="46" t="n">
         <f aca="false">ROUND(2*G3*G4/(G3+G4),3)</f>
         <v>0.682</v>
       </c>
-      <c r="H2" s="56" t="n">
+      <c r="H2" s="46" t="n">
         <f aca="false">ROUND(2*H3*H4/(H3+H4),3)</f>
         <v>0.686</v>
       </c>
-      <c r="I2" s="56" t="n">
+      <c r="I2" s="46" t="n">
         <f aca="false">ROUND(2*I3*I4/(I3+I4),3)</f>
         <v>0.801</v>
       </c>
-      <c r="J2" s="56" t="n">
+      <c r="J2" s="46" t="n">
         <f aca="false">ROUND(2*J3*J4/(J3+J4),3)</f>
         <v>0.82</v>
       </c>
-      <c r="K2" s="56" t="n">
+      <c r="K2" s="46" t="n">
         <f aca="false">ROUND(2*K3*K4/(K3+K4),3)</f>
         <v>0.801</v>
       </c>
-      <c r="L2" s="57" t="n">
+      <c r="L2" s="47" t="n">
         <f aca="false">ROUND(2*L3*L4/(L3+L4),3)</f>
         <v>0.823</v>
       </c>
@@ -4920,7 +4879,7 @@
       <c r="I3" s="3" t="n">
         <v>0.782</v>
       </c>
-      <c r="J3" s="58" t="n">
+      <c r="J3" s="48" t="n">
         <v>0.807</v>
       </c>
       <c r="K3" s="3" t="n">
@@ -4965,7 +4924,7 @@
       <c r="K4" s="3" t="n">
         <v>0.818</v>
       </c>
-      <c r="L4" s="58" t="n">
+      <c r="L4" s="48" t="n">
         <v>0.84</v>
       </c>
       <c r="M4" s="14"/>
@@ -5018,39 +4977,39 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="56" t="n">
+      <c r="D6" s="46" t="n">
         <f aca="false">ROUND(2*D7*D8/(D7+D8),3)</f>
         <v>0.776</v>
       </c>
-      <c r="E6" s="56" t="n">
+      <c r="E6" s="46" t="n">
         <f aca="false">ROUND(2*E7*E8/(E7+E8),3)</f>
         <v>0.762</v>
       </c>
-      <c r="F6" s="56" t="n">
+      <c r="F6" s="46" t="n">
         <f aca="false">ROUND(2*F7*F8/(F7+F8),3)</f>
         <v>0.708</v>
       </c>
-      <c r="G6" s="56" t="n">
+      <c r="G6" s="46" t="n">
         <f aca="false">ROUND(2*G7*G8/(G7+G8),3)</f>
         <v>0.721</v>
       </c>
-      <c r="H6" s="56" t="n">
+      <c r="H6" s="46" t="n">
         <f aca="false">ROUND(2*H7*H8/(H7+H8),3)</f>
         <v>0.734</v>
       </c>
-      <c r="I6" s="56" t="n">
+      <c r="I6" s="46" t="n">
         <f aca="false">ROUND(2*I7*I8/(I7+I8),3)</f>
         <v>0.81</v>
       </c>
-      <c r="J6" s="56" t="n">
+      <c r="J6" s="46" t="n">
         <f aca="false">ROUND(2*J7*J8/(J7+J8),3)</f>
         <v>0.833</v>
       </c>
-      <c r="K6" s="56" t="n">
+      <c r="K6" s="46" t="n">
         <f aca="false">ROUND(2*K7*K8/(K7+K8),3)</f>
         <v>0.812</v>
       </c>
-      <c r="L6" s="57" t="n">
+      <c r="L6" s="47" t="n">
         <f aca="false">ROUND(2*L7*L8/(L7+L8),3)</f>
         <v>0.835</v>
       </c>
@@ -5083,7 +5042,7 @@
       <c r="I7" s="3" t="n">
         <v>0.788</v>
       </c>
-      <c r="J7" s="58" t="n">
+      <c r="J7" s="48" t="n">
         <v>0.815</v>
       </c>
       <c r="K7" s="3" t="n">
@@ -5129,7 +5088,7 @@
       <c r="K8" s="3" t="n">
         <v>0.833</v>
       </c>
-      <c r="L8" s="58" t="n">
+      <c r="L8" s="48" t="n">
         <v>0.858</v>
       </c>
       <c r="M8" s="14"/>
@@ -5145,39 +5104,39 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="56" t="n">
+      <c r="D9" s="46" t="n">
         <f aca="false">ROUND(2*D10*D11/(D10+D11),3)</f>
         <v>0.761</v>
       </c>
-      <c r="E9" s="56" t="n">
+      <c r="E9" s="46" t="n">
         <f aca="false">ROUND(2*E10*E11/(E10+E11),3)</f>
         <v>0.734</v>
       </c>
-      <c r="F9" s="56" t="n">
+      <c r="F9" s="46" t="n">
         <f aca="false">ROUND(2*F10*F11/(F10+F11),3)</f>
         <v>0.63</v>
       </c>
-      <c r="G9" s="56" t="n">
+      <c r="G9" s="46" t="n">
         <f aca="false">ROUND(2*G10*G11/(G10+G11),3)</f>
         <v>0.82</v>
       </c>
-      <c r="H9" s="56" t="n">
+      <c r="H9" s="46" t="n">
         <f aca="false">ROUND(2*H10*H11/(H10+H11),3)</f>
         <v>0.845</v>
       </c>
-      <c r="I9" s="56" t="n">
+      <c r="I9" s="46" t="n">
         <f aca="false">ROUND(2*I10*I11/(I10+I11),3)</f>
         <v>0.888</v>
       </c>
-      <c r="J9" s="56" t="n">
+      <c r="J9" s="46" t="n">
         <f aca="false">ROUND(2*J10*J11/(J10+J11),3)</f>
         <v>0.89</v>
       </c>
-      <c r="K9" s="56" t="n">
+      <c r="K9" s="46" t="n">
         <f aca="false">ROUND(2*K10*K11/(K10+K11),3)</f>
         <v>0.888</v>
       </c>
-      <c r="L9" s="57" t="n">
+      <c r="L9" s="47" t="n">
         <f aca="false">ROUND(2*L10*L11/(L10+L11),3)</f>
         <v>0.891</v>
       </c>
@@ -5207,13 +5166,13 @@
       <c r="H10" s="3" t="n">
         <v>0.84</v>
       </c>
-      <c r="I10" s="58" t="n">
+      <c r="I10" s="48" t="n">
         <v>0.893</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>0.89</v>
       </c>
-      <c r="K10" s="58" t="n">
+      <c r="K10" s="48" t="n">
         <v>0.893</v>
       </c>
       <c r="L10" s="3" t="n">
@@ -5250,13 +5209,13 @@
       <c r="I11" s="3" t="n">
         <v>0.883</v>
       </c>
-      <c r="J11" s="58" t="n">
+      <c r="J11" s="48" t="n">
         <v>0.89</v>
       </c>
       <c r="K11" s="3" t="n">
         <v>0.883</v>
       </c>
-      <c r="L11" s="58" t="n">
+      <c r="L11" s="48" t="n">
         <v>0.89</v>
       </c>
       <c r="M11" s="14"/>
@@ -5272,39 +5231,39 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="56" t="n">
+      <c r="D12" s="46" t="n">
         <f aca="false">ROUND(2*D13*D14/(D13+D14),3)</f>
         <v>0.797</v>
       </c>
-      <c r="E12" s="57" t="n">
+      <c r="E12" s="47" t="n">
         <f aca="false">ROUND(2*E13*E14/(E13+E14),3)</f>
         <v>0.803</v>
       </c>
-      <c r="F12" s="56" t="n">
+      <c r="F12" s="46" t="n">
         <f aca="false">ROUND(2*F13*F14/(F13+F14),3)</f>
         <v>0.756</v>
       </c>
-      <c r="G12" s="56" t="n">
+      <c r="G12" s="46" t="n">
         <f aca="false">ROUND(2*G13*G14/(G13+G14),3)</f>
         <v>0.72</v>
       </c>
-      <c r="H12" s="56" t="n">
+      <c r="H12" s="46" t="n">
         <f aca="false">ROUND(2*H13*H14/(H13+H14),3)</f>
         <v>0.723</v>
       </c>
-      <c r="I12" s="56" t="n">
+      <c r="I12" s="46" t="n">
         <f aca="false">ROUND(2*I13*I14/(I13+I14),3)</f>
         <v>0.747</v>
       </c>
-      <c r="J12" s="56" t="n">
+      <c r="J12" s="46" t="n">
         <f aca="false">ROUND(2*J13*J14/(J13+J14),3)</f>
         <v>0.773</v>
       </c>
-      <c r="K12" s="56" t="n">
+      <c r="K12" s="46" t="n">
         <f aca="false">ROUND(2*K13*K14/(K13+K14),3)</f>
         <v>0.76</v>
       </c>
-      <c r="L12" s="56" t="n">
+      <c r="L12" s="46" t="n">
         <f aca="false">ROUND(2*L13*L14/(L13+L14),3)</f>
         <v>0.757</v>
       </c>
@@ -5321,7 +5280,7 @@
       <c r="D13" s="3" t="n">
         <v>0.799</v>
       </c>
-      <c r="E13" s="58" t="n">
+      <c r="E13" s="48" t="n">
         <v>0.805</v>
       </c>
       <c r="F13" s="3" t="n">
@@ -5360,7 +5319,7 @@
       <c r="D14" s="3" t="n">
         <v>0.795</v>
       </c>
-      <c r="E14" s="58" t="n">
+      <c r="E14" s="48" t="n">
         <v>0.801</v>
       </c>
       <c r="F14" s="3" t="n">
@@ -5434,39 +5393,39 @@
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="57" t="n">
+      <c r="D16" s="47" t="n">
         <f aca="false">ROUND(2*D17*D18/(D17+D18),3)</f>
         <v>0.817</v>
       </c>
-      <c r="E16" s="56" t="n">
+      <c r="E16" s="46" t="n">
         <f aca="false">ROUND(2*E17*E18/(E17+E18),3)</f>
         <v>0.813</v>
       </c>
-      <c r="F16" s="56" t="n">
+      <c r="F16" s="46" t="n">
         <f aca="false">ROUND(2*F17*F18/(F17+F18),3)</f>
         <v>0.763</v>
       </c>
-      <c r="G16" s="56" t="n">
+      <c r="G16" s="46" t="n">
         <f aca="false">ROUND(2*G17*G18/(G17+G18),3)</f>
         <v>0.759</v>
       </c>
-      <c r="H16" s="56" t="n">
+      <c r="H16" s="46" t="n">
         <f aca="false">ROUND(2*H17*H18/(H17+H18),3)</f>
         <v>0.763</v>
       </c>
-      <c r="I16" s="56" t="n">
+      <c r="I16" s="46" t="n">
         <f aca="false">ROUND(2*I17*I18/(I17+I18),3)</f>
         <v>0.763</v>
       </c>
-      <c r="J16" s="56" t="n">
+      <c r="J16" s="46" t="n">
         <f aca="false">ROUND(2*J17*J18/(J17+J18),3)</f>
         <v>0.794</v>
       </c>
-      <c r="K16" s="56" t="n">
+      <c r="K16" s="46" t="n">
         <f aca="false">ROUND(2*K17*K18/(K17+K18),3)</f>
         <v>0.772</v>
       </c>
-      <c r="L16" s="56" t="n">
+      <c r="L16" s="46" t="n">
         <f aca="false">ROUND(2*L17*L18/(L17+L18),3)</f>
         <v>0.783</v>
       </c>
@@ -5484,7 +5443,7 @@
       <c r="D17" s="3" t="n">
         <v>0.82</v>
       </c>
-      <c r="E17" s="58" t="n">
+      <c r="E17" s="48" t="n">
         <v>0.821</v>
       </c>
       <c r="F17" s="3" t="n">
@@ -5521,7 +5480,7 @@
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="58" t="n">
+      <c r="D18" s="48" t="n">
         <v>0.814</v>
       </c>
       <c r="E18" s="3" t="n">
@@ -5561,39 +5520,39 @@
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="56" t="n">
+      <c r="D19" s="46" t="n">
         <f aca="false">ROUND(2*D20*D21/(D20+D21),3)</f>
         <v>0.785</v>
       </c>
-      <c r="E19" s="56" t="n">
+      <c r="E19" s="46" t="n">
         <f aca="false">ROUND(2*E20*E21/(E20+E21),3)</f>
         <v>0.755</v>
       </c>
-      <c r="F19" s="56" t="n">
+      <c r="F19" s="46" t="n">
         <f aca="false">ROUND(2*F20*F21/(F20+F21),3)</f>
         <v>0.676</v>
       </c>
-      <c r="G19" s="56" t="n">
+      <c r="G19" s="46" t="n">
         <f aca="false">ROUND(2*G20*G21/(G20+G21),3)</f>
         <v>0.837</v>
       </c>
-      <c r="H19" s="56" t="n">
+      <c r="H19" s="46" t="n">
         <f aca="false">ROUND(2*H20*H21/(H20+H21),3)</f>
         <v>0.857</v>
       </c>
-      <c r="I19" s="56" t="n">
+      <c r="I19" s="46" t="n">
         <f aca="false">ROUND(2*I20*I21/(I20+I21),3)</f>
         <v>0.89</v>
       </c>
-      <c r="J19" s="56" t="n">
+      <c r="J19" s="46" t="n">
         <f aca="false">ROUND(2*J20*J21/(J20+J21),3)</f>
         <v>0.882</v>
       </c>
-      <c r="K19" s="57" t="n">
+      <c r="K19" s="47" t="n">
         <f aca="false">ROUND(2*K20*K21/(K20+K21),3)</f>
         <v>0.892</v>
       </c>
-      <c r="L19" s="56" t="n">
+      <c r="L19" s="46" t="n">
         <f aca="false">ROUND(2*L20*L21/(L20+L21),3)</f>
         <v>0.884</v>
       </c>
@@ -5623,13 +5582,13 @@
       <c r="H20" s="3" t="n">
         <v>0.848</v>
       </c>
-      <c r="I20" s="58" t="n">
+      <c r="I20" s="48" t="n">
         <v>0.888</v>
       </c>
       <c r="J20" s="3" t="n">
         <v>0.878</v>
       </c>
-      <c r="K20" s="58" t="n">
+      <c r="K20" s="48" t="n">
         <v>0.888</v>
       </c>
       <c r="L20" s="3" t="n">
@@ -5669,7 +5628,7 @@
       <c r="J21" s="3" t="n">
         <v>0.887</v>
       </c>
-      <c r="K21" s="58" t="n">
+      <c r="K21" s="48" t="n">
         <v>0.896</v>
       </c>
       <c r="L21" s="3" t="n">
@@ -5688,39 +5647,36 @@
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="56" t="n">
+      <c r="D22" s="46" t="n">
         <f aca="false">ROUND(2*D23*D24/(D23+D24),3)</f>
         <v>0.707</v>
       </c>
-      <c r="E22" s="57" t="n">
+      <c r="E22" s="47" t="n">
         <f aca="false">ROUND(2*E23*E24/(E23+E24),3)</f>
         <v>0.736</v>
       </c>
-      <c r="F22" s="56" t="e">
-        <f aca="false">ROUND(2*F23*F24/(F23+F24),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="56" t="n">
+      <c r="F22" s="49"/>
+      <c r="G22" s="46" t="n">
         <f aca="false">ROUND(2*G23*G24/(G23+G24),3)</f>
         <v>0.632</v>
       </c>
-      <c r="H22" s="56" t="n">
+      <c r="H22" s="46" t="n">
         <f aca="false">ROUND(2*H23*H24/(H23+H24),3)</f>
         <v>0.633</v>
       </c>
-      <c r="I22" s="56" t="n">
+      <c r="I22" s="46" t="n">
         <f aca="false">ROUND(2*I23*I24/(I23+I24),3)</f>
         <v>0.584</v>
       </c>
-      <c r="J22" s="56" t="n">
+      <c r="J22" s="46" t="n">
         <f aca="false">ROUND(2*J23*J24/(J23+J24),3)</f>
         <v>0.602</v>
       </c>
-      <c r="K22" s="56" t="n">
+      <c r="K22" s="46" t="n">
         <f aca="false">ROUND(2*K23*K24/(K23+K24),3)</f>
         <v>0.607</v>
       </c>
-      <c r="L22" s="56" t="n">
+      <c r="L22" s="46" t="n">
         <f aca="false">ROUND(2*L23*L24/(L23+L24),3)</f>
         <v>0.579</v>
       </c>
@@ -5737,10 +5693,10 @@
       <c r="D23" s="3" t="n">
         <v>0.738</v>
       </c>
-      <c r="E23" s="58" t="n">
+      <c r="E23" s="48" t="n">
         <v>0.761</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="3" t="n">
         <v>0.65</v>
       </c>
@@ -5750,13 +5706,13 @@
       <c r="I23" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="J23" s="45" t="n">
+      <c r="J23" s="3" t="n">
         <v>0.614</v>
       </c>
-      <c r="K23" s="45" t="n">
+      <c r="K23" s="3" t="n">
         <v>0.634</v>
       </c>
-      <c r="L23" s="45" t="n">
+      <c r="L23" s="3" t="n">
         <v>0.589</v>
       </c>
       <c r="M23" s="14"/>
@@ -5774,10 +5730,10 @@
       <c r="D24" s="3" t="n">
         <v>0.679</v>
       </c>
-      <c r="E24" s="58" t="n">
+      <c r="E24" s="48" t="n">
         <v>0.713</v>
       </c>
-      <c r="F24" s="44"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="3" t="n">
         <v>0.615</v>
       </c>
@@ -5787,13 +5743,13 @@
       <c r="I24" s="3" t="n">
         <v>0.569</v>
       </c>
-      <c r="J24" s="45" t="n">
+      <c r="J24" s="3" t="n">
         <v>0.59</v>
       </c>
-      <c r="K24" s="45" t="n">
+      <c r="K24" s="3" t="n">
         <v>0.583</v>
       </c>
-      <c r="L24" s="45" t="n">
+      <c r="L24" s="3" t="n">
         <v>0.57</v>
       </c>
       <c r="M24" s="14"/>
@@ -5810,7 +5766,7 @@
       <c r="E25" s="3" t="n">
         <v>212.5</v>
       </c>
-      <c r="F25" s="44"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="3" t="n">
         <v>12000.2</v>
       </c>
@@ -5820,13 +5776,13 @@
       <c r="I25" s="3" t="n">
         <v>1482.4</v>
       </c>
-      <c r="J25" s="45" t="n">
+      <c r="J25" s="3" t="n">
         <v>28858.6</v>
       </c>
-      <c r="K25" s="45" t="n">
+      <c r="K25" s="3" t="n">
         <v>28777.5</v>
       </c>
-      <c r="L25" s="45" t="n">
+      <c r="L25" s="3" t="n">
         <v>28604.9</v>
       </c>
       <c r="M25" s="14"/>
@@ -5844,39 +5800,36 @@
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="57" t="n">
+      <c r="D26" s="47" t="n">
         <f aca="false">ROUND(2*D27*D28/(D27+D28),3)</f>
         <v>0.8</v>
       </c>
-      <c r="E26" s="56" t="n">
+      <c r="E26" s="46" t="n">
         <f aca="false">ROUND(2*E27*E28/(E27+E28),3)</f>
         <v>0.79</v>
       </c>
-      <c r="F26" s="56" t="e">
-        <f aca="false">ROUND(2*F27*F28/(F27+F28),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="56" t="n">
+      <c r="F26" s="49"/>
+      <c r="G26" s="46" t="n">
         <f aca="false">ROUND(2*G27*G28/(G27+G28),3)</f>
         <v>0.744</v>
       </c>
-      <c r="H26" s="56" t="n">
+      <c r="H26" s="46" t="n">
         <f aca="false">ROUND(2*H27*H28/(H27+H28),3)</f>
         <v>0.75</v>
       </c>
-      <c r="I26" s="56" t="n">
+      <c r="I26" s="46" t="n">
         <f aca="false">ROUND(2*I27*I28/(I27+I28),3)</f>
         <v>0.769</v>
       </c>
-      <c r="J26" s="56" t="n">
+      <c r="J26" s="46" t="n">
         <f aca="false">ROUND(2*J27*J28/(J27+J28),3)</f>
         <v>0.779</v>
       </c>
-      <c r="K26" s="56" t="n">
+      <c r="K26" s="46" t="n">
         <f aca="false">ROUND(2*K27*K28/(K27+K28),3)</f>
         <v>0.784</v>
       </c>
-      <c r="L26" s="56" t="n">
+      <c r="L26" s="46" t="n">
         <f aca="false">ROUND(2*L27*L28/(L27+L28),3)</f>
         <v>0.769</v>
       </c>
@@ -5891,13 +5844,13 @@
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="58" t="n">
+      <c r="D27" s="48" t="n">
         <v>0.811</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>0.802</v>
       </c>
-      <c r="F27" s="44"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="3" t="n">
         <v>0.747</v>
       </c>
@@ -5907,13 +5860,13 @@
       <c r="I27" s="3" t="n">
         <v>0.762</v>
       </c>
-      <c r="J27" s="45" t="n">
+      <c r="J27" s="3" t="n">
         <v>0.782</v>
       </c>
-      <c r="K27" s="45" t="n">
+      <c r="K27" s="3" t="n">
         <v>0.778</v>
       </c>
-      <c r="L27" s="45" t="n">
+      <c r="L27" s="3" t="n">
         <v>0.769</v>
       </c>
       <c r="M27" s="14"/>
@@ -5935,7 +5888,7 @@
       <c r="E28" s="3" t="n">
         <v>0.778</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="3" t="n">
         <v>0.741</v>
       </c>
@@ -5945,13 +5898,13 @@
       <c r="I28" s="3" t="n">
         <v>0.777</v>
       </c>
-      <c r="J28" s="45" t="n">
+      <c r="J28" s="3" t="n">
         <v>0.777</v>
       </c>
-      <c r="K28" s="59" t="n">
+      <c r="K28" s="48" t="n">
         <v>0.791</v>
       </c>
-      <c r="L28" s="45" t="n">
+      <c r="L28" s="3" t="n">
         <v>0.77</v>
       </c>
       <c r="M28" s="14"/>
@@ -5967,39 +5920,36 @@
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="56" t="n">
+      <c r="D29" s="46" t="n">
         <f aca="false">ROUND(2*D30*D31/(D30+D31),3)</f>
         <v>0.799</v>
       </c>
-      <c r="E29" s="56" t="n">
+      <c r="E29" s="46" t="n">
         <f aca="false">ROUND(2*E30*E31/(E30+E31),3)</f>
         <v>0.802</v>
       </c>
-      <c r="F29" s="56" t="e">
-        <f aca="false">ROUND(2*F30*F31/(F30+F31),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="56" t="n">
+      <c r="F29" s="49"/>
+      <c r="G29" s="46" t="n">
         <f aca="false">ROUND(2*G30*G31/(G30+G31),3)</f>
         <v>0.803</v>
       </c>
-      <c r="H29" s="56" t="n">
+      <c r="H29" s="46" t="n">
         <f aca="false">ROUND(2*H30*H31/(H30+H31),3)</f>
         <v>0.827</v>
       </c>
-      <c r="I29" s="56" t="n">
+      <c r="I29" s="46" t="n">
         <f aca="false">ROUND(2*I30*I31/(I30+I31),3)</f>
         <v>0.848</v>
       </c>
-      <c r="J29" s="56" t="n">
+      <c r="J29" s="46" t="n">
         <f aca="false">ROUND(2*J30*J31/(J30+J31),3)</f>
         <v>0.846</v>
       </c>
-      <c r="K29" s="57" t="n">
+      <c r="K29" s="47" t="n">
         <f aca="false">ROUND(2*K30*K31/(K30+K31),3)</f>
         <v>0.862</v>
       </c>
-      <c r="L29" s="56" t="n">
+      <c r="L29" s="46" t="n">
         <f aca="false">ROUND(2*L30*L31/(L30+L31),3)</f>
         <v>0.84</v>
       </c>
@@ -6020,7 +5970,7 @@
       <c r="E30" s="3" t="n">
         <v>0.797</v>
       </c>
-      <c r="F30" s="44"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="3" t="n">
         <v>0.812</v>
       </c>
@@ -6030,13 +5980,13 @@
       <c r="I30" s="3" t="n">
         <v>0.858</v>
       </c>
-      <c r="J30" s="45" t="n">
+      <c r="J30" s="3" t="n">
         <v>0.857</v>
       </c>
-      <c r="K30" s="59" t="n">
+      <c r="K30" s="48" t="n">
         <v>0.869</v>
       </c>
-      <c r="L30" s="45" t="n">
+      <c r="L30" s="3" t="n">
         <v>0.85</v>
       </c>
       <c r="M30" s="14"/>
@@ -6058,7 +6008,7 @@
       <c r="E31" s="3" t="n">
         <v>0.807</v>
       </c>
-      <c r="F31" s="44"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="3" t="n">
         <v>0.794</v>
       </c>
@@ -6068,13 +6018,13 @@
       <c r="I31" s="3" t="n">
         <v>0.839</v>
       </c>
-      <c r="J31" s="45" t="n">
+      <c r="J31" s="3" t="n">
         <v>0.836</v>
       </c>
-      <c r="K31" s="59" t="n">
+      <c r="K31" s="48" t="n">
         <v>0.855</v>
       </c>
-      <c r="L31" s="45" t="n">
+      <c r="L31" s="3" t="n">
         <v>0.831</v>
       </c>
       <c r="M31" s="14"/>
@@ -6090,39 +6040,39 @@
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="56" t="n">
+      <c r="D32" s="46" t="n">
         <f aca="false">ROUND(2*D33*D34/(D33+D34),3)</f>
         <v>0.756</v>
       </c>
-      <c r="E32" s="56" t="n">
+      <c r="E32" s="46" t="n">
         <f aca="false">ROUND(2*E33*E34/(E33+E34),3)</f>
         <v>0.738</v>
       </c>
-      <c r="F32" s="56" t="e">
+      <c r="F32" s="46" t="n">
         <f aca="false">ROUND(2*F33*F34/(F33+F34),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="56" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="G32" s="46" t="n">
         <f aca="false">ROUND(2*G33*G34/(G33+G34),3)</f>
         <v>0.597</v>
       </c>
-      <c r="H32" s="56" t="n">
+      <c r="H32" s="46" t="n">
         <f aca="false">ROUND(2*H33*H34/(H33+H34),3)</f>
         <v>0.606</v>
       </c>
-      <c r="I32" s="56" t="n">
+      <c r="I32" s="46" t="n">
         <f aca="false">ROUND(2*I33*I34/(I33+I34),3)</f>
         <v>0.752</v>
       </c>
-      <c r="J32" s="57" t="n">
+      <c r="J32" s="47" t="n">
         <f aca="false">ROUND(2*J33*J34/(J33+J34),3)</f>
         <v>0.773</v>
       </c>
-      <c r="K32" s="56" t="n">
+      <c r="K32" s="46" t="n">
         <f aca="false">ROUND(2*K33*K34/(K33+K34),3)</f>
         <v>0.756</v>
       </c>
-      <c r="L32" s="56" t="n">
+      <c r="L32" s="46" t="n">
         <f aca="false">ROUND(2*L33*L34/(L33+L34),3)</f>
         <v>0.771</v>
       </c>
@@ -6134,13 +6084,15 @@
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="58" t="n">
+      <c r="D33" s="48" t="n">
         <v>0.772</v>
       </c>
       <c r="E33" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="F33" s="44"/>
+      <c r="F33" s="45" t="n">
+        <v>0.657</v>
+      </c>
       <c r="G33" s="3" t="n">
         <v>0.58</v>
       </c>
@@ -6173,7 +6125,9 @@
       <c r="E34" s="3" t="n">
         <v>0.726</v>
       </c>
-      <c r="F34" s="44"/>
+      <c r="F34" s="45" t="n">
+        <v>0.638</v>
+      </c>
       <c r="G34" s="3" t="n">
         <v>0.615</v>
       </c>
@@ -6183,7 +6137,7 @@
       <c r="I34" s="3" t="n">
         <v>0.779</v>
       </c>
-      <c r="J34" s="58" t="n">
+      <c r="J34" s="48" t="n">
         <v>0.795</v>
       </c>
       <c r="K34" s="3" t="n">
@@ -6204,7 +6158,9 @@
       <c r="E35" s="3" t="n">
         <v>259.1</v>
       </c>
-      <c r="F35" s="44"/>
+      <c r="F35" s="45" t="n">
+        <v>86705.3</v>
+      </c>
       <c r="G35" s="3" t="n">
         <v>8483.4</v>
       </c>
@@ -6234,39 +6190,39 @@
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="56" t="n">
+      <c r="D36" s="46" t="n">
         <f aca="false">ROUND(2*D37*D38/(D37+D38),3)</f>
         <v>0.772</v>
       </c>
-      <c r="E36" s="56" t="n">
+      <c r="E36" s="46" t="n">
         <f aca="false">ROUND(2*E37*E38/(E37+E38),3)</f>
         <v>0.753</v>
       </c>
-      <c r="F36" s="56" t="e">
+      <c r="F36" s="50" t="n">
         <f aca="false">ROUND(2*F37*F38/(F37+F38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="56" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G36" s="46" t="n">
         <f aca="false">ROUND(2*G37*G38/(G37+G38),3)</f>
         <v>0.76</v>
       </c>
-      <c r="H36" s="56" t="n">
+      <c r="H36" s="46" t="n">
         <f aca="false">ROUND(2*H37*H38/(H37+H38),3)</f>
         <v>0.771</v>
       </c>
-      <c r="I36" s="56" t="n">
+      <c r="I36" s="46" t="n">
         <f aca="false">ROUND(2*I37*I38/(I37+I38),3)</f>
         <v>0.826</v>
       </c>
-      <c r="J36" s="57" t="n">
+      <c r="J36" s="47" t="n">
         <f aca="false">ROUND(2*J37*J38/(J37+J38),3)</f>
         <v>0.846</v>
       </c>
-      <c r="K36" s="56" t="n">
+      <c r="K36" s="46" t="n">
         <f aca="false">ROUND(2*K37*K38/(K37+K38),3)</f>
         <v>0.828</v>
       </c>
-      <c r="L36" s="56" t="n">
+      <c r="L36" s="46" t="n">
         <f aca="false">ROUND(2*L37*L38/(L37+L38),3)</f>
         <v>0.845</v>
       </c>
@@ -6285,7 +6241,9 @@
       <c r="E37" s="3" t="n">
         <v>0.763</v>
       </c>
-      <c r="F37" s="44"/>
+      <c r="F37" s="45" t="n">
+        <v>0.68</v>
+      </c>
       <c r="G37" s="3" t="n">
         <v>0.75</v>
       </c>
@@ -6295,7 +6253,7 @@
       <c r="I37" s="3" t="n">
         <v>0.806</v>
       </c>
-      <c r="J37" s="58" t="n">
+      <c r="J37" s="48" t="n">
         <v>0.831</v>
       </c>
       <c r="K37" s="3" t="n">
@@ -6319,7 +6277,9 @@
       <c r="E38" s="3" t="n">
         <v>0.743</v>
       </c>
-      <c r="F38" s="44"/>
+      <c r="F38" s="45" t="n">
+        <v>0.65</v>
+      </c>
       <c r="G38" s="3" t="n">
         <v>0.77</v>
       </c>
@@ -6335,7 +6295,7 @@
       <c r="K38" s="3" t="n">
         <v>0.846</v>
       </c>
-      <c r="L38" s="58" t="n">
+      <c r="L38" s="48" t="n">
         <v>0.863</v>
       </c>
     </row>
@@ -6408,8 +6368,8 @@
   </sheetPr>
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6427,15 +6387,15 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -6473,29 +6433,31 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61" t="n">
+      <c r="B4" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="61" t="n">
+      <c r="C4" s="52" t="n">
         <v>0.0504374219701802</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63" t="n">
+      <c r="D4" s="53" t="n">
+        <v>4.03621174251569E-040</v>
+      </c>
+      <c r="E4" s="53" t="n">
         <v>2.15693119619744E-032</v>
       </c>
-      <c r="F4" s="63" t="n">
+      <c r="F4" s="53" t="n">
         <v>1.14346370107601E-028</v>
       </c>
-      <c r="G4" s="63" t="n">
+      <c r="G4" s="53" t="n">
         <v>3.73199742961688E-006</v>
       </c>
-      <c r="H4" s="63" t="n">
+      <c r="H4" s="53" t="n">
         <v>7.6195945023728E-012</v>
       </c>
-      <c r="I4" s="63" t="n">
+      <c r="I4" s="53" t="n">
         <v>8.74126611158293E-006</v>
       </c>
-      <c r="J4" s="63" t="n">
+      <c r="J4" s="53" t="n">
         <v>7.34597418180524E-012</v>
       </c>
     </row>
@@ -6503,29 +6465,31 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="61" t="n">
+      <c r="B5" s="52" t="n">
         <v>0.0504374219701802</v>
       </c>
-      <c r="C5" s="61" t="n">
+      <c r="C5" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63" t="n">
+      <c r="D5" s="53" t="n">
+        <v>1.87427687363831E-029</v>
+      </c>
+      <c r="E5" s="53" t="n">
         <v>2.06540484386954E-025</v>
       </c>
-      <c r="F5" s="63" t="n">
+      <c r="F5" s="53" t="n">
         <v>3.86093209646504E-022</v>
       </c>
-      <c r="G5" s="63" t="n">
+      <c r="G5" s="53" t="n">
         <v>1.53288419089158E-010</v>
       </c>
-      <c r="H5" s="63" t="n">
+      <c r="H5" s="53" t="n">
         <v>6.20175996564841E-018</v>
       </c>
-      <c r="I5" s="63" t="n">
+      <c r="I5" s="53" t="n">
         <v>5.90018652347681E-010</v>
       </c>
-      <c r="J5" s="63" t="n">
+      <c r="J5" s="53" t="n">
         <v>5.08542553727978E-018</v>
       </c>
     </row>
@@ -6533,45 +6497,63 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="61" t="n">
+      <c r="B6" s="53" t="n">
+        <v>4.03621174251569E-040</v>
+      </c>
+      <c r="C6" s="53" t="n">
+        <v>1.87427687363831E-029</v>
+      </c>
+      <c r="D6" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
+      <c r="E6" s="52" t="n">
+        <v>0.029068864497185</v>
+      </c>
+      <c r="F6" s="52" t="n">
+        <v>0.154207912234445</v>
+      </c>
+      <c r="G6" s="53" t="n">
+        <v>3.24029986353632E-063</v>
+      </c>
+      <c r="H6" s="53" t="n">
+        <v>2.10418644095109E-081</v>
+      </c>
+      <c r="I6" s="53" t="n">
+        <v>1.86433463547439E-060</v>
+      </c>
+      <c r="J6" s="53" t="n">
+        <v>1.93272738657328E-082</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="63" t="n">
+      <c r="B7" s="53" t="n">
         <v>2.15693119619744E-032</v>
       </c>
-      <c r="C7" s="63" t="n">
+      <c r="C7" s="53" t="n">
         <v>2.06540484386954E-025</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="61" t="n">
+      <c r="D7" s="52" t="n">
+        <v>0.029068864497185</v>
+      </c>
+      <c r="E7" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="61" t="n">
+      <c r="F7" s="52" t="n">
         <v>0.533362718697031</v>
       </c>
-      <c r="G7" s="63" t="n">
+      <c r="G7" s="53" t="n">
         <v>4.88010674418018E-049</v>
       </c>
-      <c r="H7" s="63" t="n">
+      <c r="H7" s="53" t="n">
         <v>3.84237189509186E-060</v>
       </c>
-      <c r="I7" s="63" t="n">
+      <c r="I7" s="53" t="n">
         <v>1.13321619289739E-047</v>
       </c>
-      <c r="J7" s="63" t="n">
+      <c r="J7" s="53" t="n">
         <v>1.9265289826061E-060</v>
       </c>
     </row>
@@ -6579,29 +6561,31 @@
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="63" t="n">
+      <c r="B8" s="53" t="n">
         <v>1.14346370107601E-028</v>
       </c>
-      <c r="C8" s="63" t="n">
+      <c r="C8" s="53" t="n">
         <v>3.86093209646504E-022</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="61" t="n">
+      <c r="D8" s="52" t="n">
+        <v>0.154207912234445</v>
+      </c>
+      <c r="E8" s="52" t="n">
         <v>0.533362718697031</v>
       </c>
-      <c r="F8" s="61" t="n">
+      <c r="F8" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="63" t="n">
+      <c r="G8" s="53" t="n">
         <v>1.24002979588012E-044</v>
       </c>
-      <c r="H8" s="63" t="n">
+      <c r="H8" s="53" t="n">
         <v>3.17240337783778E-055</v>
       </c>
-      <c r="I8" s="63" t="n">
+      <c r="I8" s="53" t="n">
         <v>2.25965683942311E-043</v>
       </c>
-      <c r="J8" s="63" t="n">
+      <c r="J8" s="53" t="n">
         <v>1.74180322258743E-055</v>
       </c>
     </row>
@@ -6609,29 +6593,31 @@
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="63" t="n">
+      <c r="B9" s="53" t="n">
         <v>3.73199742961688E-006</v>
       </c>
-      <c r="C9" s="63" t="n">
+      <c r="C9" s="53" t="n">
         <v>1.53288419089158E-010</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63" t="n">
+      <c r="D9" s="53" t="n">
+        <v>3.24029986353632E-063</v>
+      </c>
+      <c r="E9" s="53" t="n">
         <v>4.88010674418018E-049</v>
       </c>
-      <c r="F9" s="63" t="n">
+      <c r="F9" s="53" t="n">
         <v>1.24002979588012E-044</v>
       </c>
-      <c r="G9" s="61" t="n">
+      <c r="G9" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="61" t="n">
+      <c r="H9" s="52" t="n">
         <v>0.0469885584080821</v>
       </c>
-      <c r="I9" s="61" t="n">
+      <c r="I9" s="52" t="n">
         <v>0.930949590132206</v>
       </c>
-      <c r="J9" s="61" t="n">
+      <c r="J9" s="52" t="n">
         <v>0.0522339283086912</v>
       </c>
     </row>
@@ -6639,29 +6625,31 @@
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="63" t="n">
+      <c r="B10" s="53" t="n">
         <v>7.6195945023728E-012</v>
       </c>
-      <c r="C10" s="63" t="n">
+      <c r="C10" s="53" t="n">
         <v>6.20175996564841E-018</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63" t="n">
+      <c r="D10" s="53" t="n">
+        <v>2.10418644095109E-081</v>
+      </c>
+      <c r="E10" s="53" t="n">
         <v>3.84237189509186E-060</v>
       </c>
-      <c r="F10" s="63" t="n">
+      <c r="F10" s="53" t="n">
         <v>3.17240337783778E-055</v>
       </c>
-      <c r="G10" s="61" t="n">
+      <c r="G10" s="52" t="n">
         <v>0.0469885584080821</v>
       </c>
-      <c r="H10" s="61" t="n">
+      <c r="H10" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="61" t="n">
+      <c r="I10" s="52" t="n">
         <v>0.0414958759510203</v>
       </c>
-      <c r="J10" s="61" t="n">
+      <c r="J10" s="52" t="n">
         <v>0.947247110452291</v>
       </c>
     </row>
@@ -6669,29 +6657,31 @@
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="63" t="n">
+      <c r="B11" s="53" t="n">
         <v>8.74126611158293E-006</v>
       </c>
-      <c r="C11" s="63" t="n">
+      <c r="C11" s="53" t="n">
         <v>5.90018652347681E-010</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63" t="n">
+      <c r="D11" s="53" t="n">
+        <v>1.86433463547439E-060</v>
+      </c>
+      <c r="E11" s="53" t="n">
         <v>1.13321619289739E-047</v>
       </c>
-      <c r="F11" s="63" t="n">
+      <c r="F11" s="53" t="n">
         <v>2.25965683942311E-043</v>
       </c>
-      <c r="G11" s="61" t="n">
+      <c r="G11" s="52" t="n">
         <v>0.930949590132206</v>
       </c>
-      <c r="H11" s="61" t="n">
+      <c r="H11" s="52" t="n">
         <v>0.0414958759510203</v>
       </c>
-      <c r="I11" s="61" t="n">
+      <c r="I11" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="61" t="n">
+      <c r="J11" s="52" t="n">
         <v>0.0461163943063906</v>
       </c>
     </row>
@@ -6699,29 +6689,31 @@
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="63" t="n">
+      <c r="B12" s="53" t="n">
         <v>7.34597418180524E-012</v>
       </c>
-      <c r="C12" s="63" t="n">
+      <c r="C12" s="53" t="n">
         <v>5.08542553727978E-018</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="63" t="n">
+      <c r="D12" s="53" t="n">
+        <v>1.93272738657328E-082</v>
+      </c>
+      <c r="E12" s="53" t="n">
         <v>1.9265289826061E-060</v>
       </c>
-      <c r="F12" s="63" t="n">
+      <c r="F12" s="53" t="n">
         <v>1.74180322258743E-055</v>
       </c>
-      <c r="G12" s="61" t="n">
+      <c r="G12" s="52" t="n">
         <v>0.0522339283086912</v>
       </c>
-      <c r="H12" s="61" t="n">
+      <c r="H12" s="52" t="n">
         <v>0.947247110452291</v>
       </c>
-      <c r="I12" s="61" t="n">
+      <c r="I12" s="52" t="n">
         <v>0.0461163943063906</v>
       </c>
-      <c r="J12" s="61" t="n">
+      <c r="J12" s="52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6773,29 +6765,31 @@
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="61" t="n">
+      <c r="B15" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="61" t="n">
+      <c r="C15" s="52" t="n">
         <v>0.0464204936614076</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="61" t="n">
+      <c r="D15" s="53" t="n">
+        <v>1.11886995766341E-029</v>
+      </c>
+      <c r="E15" s="52" t="n">
         <v>0.430766044004024</v>
       </c>
-      <c r="F15" s="61" t="n">
+      <c r="F15" s="52" t="n">
         <v>0.0337628569558176</v>
       </c>
-      <c r="G15" s="63" t="n">
+      <c r="G15" s="53" t="n">
         <v>1.40569225114268E-022</v>
       </c>
-      <c r="H15" s="63" t="n">
+      <c r="H15" s="53" t="n">
         <v>2.44727963532734E-033</v>
       </c>
-      <c r="I15" s="63" t="n">
+      <c r="I15" s="53" t="n">
         <v>2.30741482669337E-021</v>
       </c>
-      <c r="J15" s="63" t="n">
+      <c r="J15" s="53" t="n">
         <v>7.68464116569817E-035</v>
       </c>
     </row>
@@ -6803,29 +6797,31 @@
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="61" t="n">
+      <c r="B16" s="52" t="n">
         <v>0.0464204936614076</v>
       </c>
-      <c r="C16" s="61" t="n">
+      <c r="C16" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63" t="n">
+      <c r="D16" s="53" t="n">
+        <v>6.69869287499587E-021</v>
+      </c>
+      <c r="E16" s="53" t="n">
         <v>0.00807972941599414</v>
       </c>
-      <c r="F16" s="63" t="n">
+      <c r="F16" s="53" t="n">
         <v>5.89302677569622E-005</v>
       </c>
-      <c r="G16" s="63" t="n">
+      <c r="G16" s="53" t="n">
         <v>1.71965848370678E-031</v>
       </c>
-      <c r="H16" s="63" t="n">
+      <c r="H16" s="53" t="n">
         <v>4.25216928403771E-044</v>
       </c>
-      <c r="I16" s="63" t="n">
+      <c r="I16" s="53" t="n">
         <v>5.64415485286877E-030</v>
       </c>
-      <c r="J16" s="63" t="n">
+      <c r="J16" s="53" t="n">
         <v>8.08808335907419E-046</v>
       </c>
     </row>
@@ -6833,45 +6829,63 @@
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="61" t="n">
+      <c r="B17" s="53" t="n">
+        <v>1.11886995766341E-029</v>
+      </c>
+      <c r="C17" s="53" t="n">
+        <v>6.69869287499587E-021</v>
+      </c>
+      <c r="D17" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
+      <c r="E17" s="53" t="n">
+        <v>5.04952182463349E-030</v>
+      </c>
+      <c r="F17" s="53" t="n">
+        <v>6.9156148927919E-038</v>
+      </c>
+      <c r="G17" s="53" t="n">
+        <v>5.45548936585914E-093</v>
+      </c>
+      <c r="H17" s="53" t="n">
+        <v>1.81322635172938E-114</v>
+      </c>
+      <c r="I17" s="53" t="n">
+        <v>8.03709397994766E-090</v>
+      </c>
+      <c r="J17" s="53" t="n">
+        <v>3.18649308951078E-117</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="61" t="n">
+      <c r="B18" s="52" t="n">
         <v>0.430766044004024</v>
       </c>
-      <c r="C18" s="63" t="n">
+      <c r="C18" s="53" t="n">
         <v>0.00807972941599414</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="61" t="n">
+      <c r="D18" s="53" t="n">
+        <v>5.04952182463349E-030</v>
+      </c>
+      <c r="E18" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="61" t="n">
+      <c r="F18" s="52" t="n">
         <v>0.216477102752999</v>
       </c>
-      <c r="G18" s="63" t="n">
+      <c r="G18" s="53" t="n">
         <v>1.41295460619338E-016</v>
       </c>
-      <c r="H18" s="63" t="n">
+      <c r="H18" s="53" t="n">
         <v>1.18149166843919E-024</v>
       </c>
-      <c r="I18" s="63" t="n">
+      <c r="I18" s="53" t="n">
         <v>1.04626200407502E-015</v>
       </c>
-      <c r="J18" s="63" t="n">
+      <c r="J18" s="53" t="n">
         <v>8.79815661908534E-026</v>
       </c>
     </row>
@@ -6879,29 +6893,31 @@
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="61" t="n">
+      <c r="B19" s="52" t="n">
         <v>0.0337628569558176</v>
       </c>
-      <c r="C19" s="63" t="n">
+      <c r="C19" s="53" t="n">
         <v>5.89302677569622E-005</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="61" t="n">
+      <c r="D19" s="53" t="n">
+        <v>6.9156148927919E-038</v>
+      </c>
+      <c r="E19" s="52" t="n">
         <v>0.216477102752999</v>
       </c>
-      <c r="F19" s="61" t="n">
+      <c r="F19" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="63" t="n">
+      <c r="G19" s="53" t="n">
         <v>6.7117244842192E-013</v>
       </c>
-      <c r="H19" s="63" t="n">
+      <c r="H19" s="53" t="n">
         <v>2.50152161424738E-020</v>
       </c>
-      <c r="I19" s="63" t="n">
+      <c r="I19" s="53" t="n">
         <v>3.87086756530853E-012</v>
       </c>
-      <c r="J19" s="63" t="n">
+      <c r="J19" s="53" t="n">
         <v>2.16242021448308E-021</v>
       </c>
     </row>
@@ -6909,29 +6925,31 @@
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="63" t="n">
+      <c r="B20" s="53" t="n">
         <v>1.40569225114268E-022</v>
       </c>
-      <c r="C20" s="63" t="n">
+      <c r="C20" s="53" t="n">
         <v>1.71965848370678E-031</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63" t="n">
+      <c r="D20" s="53" t="n">
+        <v>5.45548936585914E-093</v>
+      </c>
+      <c r="E20" s="53" t="n">
         <v>1.41295460619338E-016</v>
       </c>
-      <c r="F20" s="63" t="n">
+      <c r="F20" s="53" t="n">
         <v>6.7117244842192E-013</v>
       </c>
-      <c r="G20" s="61" t="n">
+      <c r="G20" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="61" t="n">
+      <c r="H20" s="52" t="n">
         <v>0.036318052440278</v>
       </c>
-      <c r="I20" s="61" t="n">
+      <c r="I20" s="52" t="n">
         <v>0.857947610497885</v>
       </c>
-      <c r="J20" s="61" t="n">
+      <c r="J20" s="52" t="n">
         <v>0.0176930992013143</v>
       </c>
     </row>
@@ -6939,29 +6957,31 @@
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="63" t="n">
+      <c r="B21" s="53" t="n">
         <v>2.44727963532734E-033</v>
       </c>
-      <c r="C21" s="63" t="n">
+      <c r="C21" s="53" t="n">
         <v>4.25216928403771E-044</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63" t="n">
+      <c r="D21" s="53" t="n">
+        <v>1.81322635172938E-114</v>
+      </c>
+      <c r="E21" s="53" t="n">
         <v>1.18149166843919E-024</v>
       </c>
-      <c r="F21" s="63" t="n">
+      <c r="F21" s="53" t="n">
         <v>2.50152161424738E-020</v>
       </c>
-      <c r="G21" s="61" t="n">
+      <c r="G21" s="52" t="n">
         <v>0.036318052440278</v>
       </c>
-      <c r="H21" s="61" t="n">
+      <c r="H21" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="61" t="n">
+      <c r="I21" s="52" t="n">
         <v>0.0251665323913943</v>
       </c>
-      <c r="J21" s="61" t="n">
+      <c r="J21" s="52" t="n">
         <v>0.77427904233013</v>
       </c>
     </row>
@@ -6969,29 +6989,31 @@
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="63" t="n">
+      <c r="B22" s="53" t="n">
         <v>2.30741482669337E-021</v>
       </c>
-      <c r="C22" s="63" t="n">
+      <c r="C22" s="53" t="n">
         <v>5.64415485286877E-030</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63" t="n">
+      <c r="D22" s="53" t="n">
+        <v>8.03709397994766E-090</v>
+      </c>
+      <c r="E22" s="53" t="n">
         <v>1.04626200407502E-015</v>
       </c>
-      <c r="F22" s="63" t="n">
+      <c r="F22" s="53" t="n">
         <v>3.87086756530853E-012</v>
       </c>
-      <c r="G22" s="61" t="n">
+      <c r="G22" s="52" t="n">
         <v>0.857947610497885</v>
       </c>
-      <c r="H22" s="61" t="n">
+      <c r="H22" s="52" t="n">
         <v>0.0251665323913943</v>
       </c>
-      <c r="I22" s="61" t="n">
+      <c r="I22" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="61" t="n">
+      <c r="J22" s="52" t="n">
         <v>0.0120145434024102</v>
       </c>
     </row>
@@ -6999,29 +7021,31 @@
       <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="63" t="n">
+      <c r="B23" s="53" t="n">
         <v>7.68464116569817E-035</v>
       </c>
-      <c r="C23" s="63" t="n">
+      <c r="C23" s="53" t="n">
         <v>8.08808335907419E-046</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="63" t="n">
+      <c r="D23" s="53" t="n">
+        <v>3.18649308951078E-117</v>
+      </c>
+      <c r="E23" s="53" t="n">
         <v>8.79815661908534E-026</v>
       </c>
-      <c r="F23" s="63" t="n">
+      <c r="F23" s="53" t="n">
         <v>2.16242021448308E-021</v>
       </c>
-      <c r="G23" s="61" t="n">
+      <c r="G23" s="52" t="n">
         <v>0.0176930992013143</v>
       </c>
-      <c r="H23" s="61" t="n">
+      <c r="H23" s="52" t="n">
         <v>0.77427904233013</v>
       </c>
-      <c r="I23" s="61" t="n">
+      <c r="I23" s="52" t="n">
         <v>0.0120145434024102</v>
       </c>
-      <c r="J23" s="61" t="n">
+      <c r="J23" s="52" t="n">
         <v>1</v>
       </c>
     </row>

--- a/benchmarks/summary_ali.xlsx
+++ b/benchmarks/summary_ali.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -308,7 +308,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,7 +361,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -429,7 +429,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,27 +437,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -477,38 +465,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -518,10 +474,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -544,10 +496,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I66" activeCellId="0" sqref="I66"/>
+      <selection pane="bottomLeft" activeCell="G104" activeCellId="0" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,19 +598,19 @@
       </c>
       <c r="I2" s="11" t="n">
         <f aca="false">ROUND(2*I5*I8/(I5+I8),3)</f>
-        <v>0.801</v>
-      </c>
-      <c r="J2" s="11" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="J2" s="13" t="n">
         <f aca="false">ROUND(2*J5*J8/(J5+J8),3)</f>
-        <v>0.82</v>
+        <v>0.822</v>
       </c>
       <c r="K2" s="11" t="n">
         <f aca="false">ROUND(2*K5*K8/(K5+K8),3)</f>
-        <v>0.801</v>
-      </c>
-      <c r="L2" s="13" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="L2" s="12" t="n">
         <f aca="false">ROUND(2*L5*L8/(L5+L8),3)</f>
-        <v>0.823</v>
+        <v>0.82</v>
       </c>
       <c r="M2" s="14"/>
       <c r="P2" s="14"/>
@@ -689,19 +641,19 @@
       </c>
       <c r="I3" s="17" t="n">
         <f aca="false">ROUND(2*I6*I9/(I6+I9),3)</f>
-        <v>0.86</v>
+        <v>0.854</v>
       </c>
       <c r="J3" s="17" t="n">
         <f aca="false">ROUND(2*J6*J9/(J6+J9),3)</f>
-        <v>0.839</v>
+        <v>0.828</v>
       </c>
       <c r="K3" s="17" t="n">
         <f aca="false">ROUND(2*K6*K9/(K6+K9),3)</f>
-        <v>0.892</v>
+        <v>0.885</v>
       </c>
       <c r="L3" s="18" t="n">
         <f aca="false">ROUND(2*L6*L9/(L6+L9),3)</f>
-        <v>0.829</v>
+        <v>0.821</v>
       </c>
       <c r="M3" s="14"/>
       <c r="P3" s="14"/>
@@ -736,15 +688,15 @@
       </c>
       <c r="J4" s="20" t="n">
         <f aca="false">ROUND(2*J7*J10/(J7+J10),3)</f>
-        <v>0.804</v>
+        <v>0.819</v>
       </c>
       <c r="K4" s="20" t="n">
         <f aca="false">ROUND(2*K7*K10/(K7+K10),3)</f>
-        <v>0.732</v>
+        <v>0.741</v>
       </c>
       <c r="L4" s="22" t="n">
         <f aca="false">ROUND(2*L7*L10/(L7+L10),3)</f>
-        <v>0.818</v>
+        <v>0.82</v>
       </c>
       <c r="M4" s="14"/>
       <c r="P4" s="14"/>
@@ -772,16 +724,16 @@
         <v>0.709</v>
       </c>
       <c r="I5" s="23" t="n">
-        <v>0.782</v>
+        <v>0.778</v>
       </c>
       <c r="J5" s="25" t="n">
-        <v>0.807</v>
+        <v>0.809</v>
       </c>
       <c r="K5" s="23" t="n">
-        <v>0.785</v>
+        <v>0.788</v>
       </c>
       <c r="L5" s="24" t="n">
-        <v>0.806</v>
+        <v>0.802</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -808,16 +760,16 @@
         <v>0.672</v>
       </c>
       <c r="I6" s="14" t="n">
-        <v>0.858</v>
+        <v>0.848</v>
       </c>
       <c r="J6" s="14" t="n">
-        <v>0.833</v>
+        <v>0.817</v>
       </c>
       <c r="K6" s="14" t="n">
-        <v>0.899</v>
+        <v>0.891</v>
       </c>
       <c r="L6" s="27" t="n">
-        <v>0.818</v>
+        <v>0.806</v>
       </c>
       <c r="M6" s="14"/>
       <c r="P6" s="14"/>
@@ -844,14 +796,14 @@
       <c r="I7" s="28" t="n">
         <v>0.718</v>
       </c>
-      <c r="J7" s="28" t="n">
-        <v>0.783</v>
+      <c r="J7" s="30" t="n">
+        <v>0.801</v>
       </c>
       <c r="K7" s="28" t="n">
-        <v>0.697</v>
-      </c>
-      <c r="L7" s="30" t="n">
-        <v>0.795</v>
+        <v>0.706</v>
+      </c>
+      <c r="L7" s="29" t="n">
+        <v>0.797</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -884,13 +836,13 @@
         <v>0.82</v>
       </c>
       <c r="J8" s="23" t="n">
-        <v>0.834</v>
+        <v>0.836</v>
       </c>
       <c r="K8" s="23" t="n">
-        <v>0.818</v>
+        <v>0.821</v>
       </c>
       <c r="L8" s="31" t="n">
-        <v>0.84</v>
+        <v>0.839</v>
       </c>
       <c r="M8" s="14"/>
       <c r="P8" s="14"/>
@@ -915,16 +867,16 @@
         <v>0.627</v>
       </c>
       <c r="I9" s="14" t="n">
-        <v>0.862</v>
+        <v>0.86</v>
       </c>
       <c r="J9" s="14" t="n">
-        <v>0.846</v>
+        <v>0.839</v>
       </c>
       <c r="K9" s="14" t="n">
-        <v>0.886</v>
+        <v>0.879</v>
       </c>
       <c r="L9" s="27" t="n">
-        <v>0.841</v>
+        <v>0.836</v>
       </c>
       <c r="M9" s="14"/>
       <c r="P9" s="14"/>
@@ -952,13 +904,13 @@
         <v>0.791</v>
       </c>
       <c r="J10" s="28" t="n">
-        <v>0.826</v>
+        <v>0.838</v>
       </c>
       <c r="K10" s="28" t="n">
-        <v>0.771</v>
-      </c>
-      <c r="L10" s="30" t="n">
-        <v>0.843</v>
+        <v>0.78</v>
+      </c>
+      <c r="L10" s="32" t="n">
+        <v>0.845</v>
       </c>
       <c r="M10" s="14"/>
       <c r="P10" s="14"/>
@@ -984,16 +936,16 @@
         <v>114.8</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>53.4</v>
+        <v>69</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>1072</v>
+        <v>757</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>1088.2</v>
+        <v>784.1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>1096.6</v>
+        <v>801.5</v>
       </c>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
@@ -1032,19 +984,19 @@
       </c>
       <c r="I12" s="11" t="n">
         <f aca="false">ROUND(2*I15*I18/(I15+I18),3)</f>
-        <v>0.81</v>
-      </c>
-      <c r="J12" s="11" t="n">
+        <v>0.808</v>
+      </c>
+      <c r="J12" s="13" t="n">
         <f aca="false">ROUND(2*J15*J18/(J15+J18),3)</f>
-        <v>0.833</v>
+        <v>0.834</v>
       </c>
       <c r="K12" s="11" t="n">
         <f aca="false">ROUND(2*K15*K18/(K15+K18),3)</f>
-        <v>0.812</v>
-      </c>
-      <c r="L12" s="13" t="n">
+        <v>0.814</v>
+      </c>
+      <c r="L12" s="12" t="n">
         <f aca="false">ROUND(2*L15*L18/(L15+L18),3)</f>
-        <v>0.835</v>
+        <v>0.831</v>
       </c>
       <c r="M12" s="14"/>
       <c r="P12" s="14"/>
@@ -1076,19 +1028,19 @@
       </c>
       <c r="I13" s="17" t="n">
         <f aca="false">ROUND(2*I16*I19/(I16+I19),3)</f>
-        <v>0.867</v>
+        <v>0.86</v>
       </c>
       <c r="J13" s="17" t="n">
         <f aca="false">ROUND(2*J16*J19/(J16+J19),3)</f>
-        <v>0.847</v>
+        <v>0.833</v>
       </c>
       <c r="K13" s="17" t="n">
         <f aca="false">ROUND(2*K16*K19/(K16+K19),3)</f>
-        <v>0.9</v>
+        <v>0.893</v>
       </c>
       <c r="L13" s="18" t="n">
         <f aca="false">ROUND(2*L16*L19/(L16+L19),3)</f>
-        <v>0.836</v>
+        <v>0.826</v>
       </c>
       <c r="M13" s="14"/>
       <c r="P13" s="14"/>
@@ -1124,15 +1076,15 @@
       </c>
       <c r="J14" s="20" t="n">
         <f aca="false">ROUND(2*J17*J20/(J17+J20),3)</f>
-        <v>0.821</v>
+        <v>0.836</v>
       </c>
       <c r="K14" s="20" t="n">
         <f aca="false">ROUND(2*K17*K20/(K17+K20),3)</f>
-        <v>0.744</v>
+        <v>0.752</v>
       </c>
       <c r="L14" s="22" t="n">
         <f aca="false">ROUND(2*L17*L20/(L17+L20),3)</f>
-        <v>0.835</v>
+        <v>0.838</v>
       </c>
       <c r="M14" s="14"/>
       <c r="P14" s="14"/>
@@ -1161,16 +1113,16 @@
         <v>0.755</v>
       </c>
       <c r="I15" s="23" t="n">
-        <v>0.788</v>
+        <v>0.783</v>
       </c>
       <c r="J15" s="25" t="n">
-        <v>0.815</v>
+        <v>0.816</v>
       </c>
       <c r="K15" s="23" t="n">
-        <v>0.792</v>
+        <v>0.794</v>
       </c>
       <c r="L15" s="24" t="n">
-        <v>0.814</v>
+        <v>0.809</v>
       </c>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
@@ -1198,16 +1150,16 @@
         <v>0.73</v>
       </c>
       <c r="I16" s="14" t="n">
-        <v>0.863</v>
+        <v>0.852</v>
       </c>
       <c r="J16" s="14" t="n">
-        <v>0.838</v>
+        <v>0.82</v>
       </c>
       <c r="K16" s="14" t="n">
-        <v>0.905</v>
+        <v>0.897</v>
       </c>
       <c r="L16" s="27" t="n">
-        <v>0.822</v>
+        <v>0.809</v>
       </c>
       <c r="M16" s="14"/>
       <c r="P16" s="14"/>
@@ -1235,14 +1187,14 @@
       <c r="I17" s="28" t="n">
         <v>0.724</v>
       </c>
-      <c r="J17" s="28" t="n">
-        <v>0.794</v>
+      <c r="J17" s="30" t="n">
+        <v>0.812</v>
       </c>
       <c r="K17" s="28" t="n">
-        <v>0.703</v>
-      </c>
-      <c r="L17" s="30" t="n">
-        <v>0.806</v>
+        <v>0.712</v>
+      </c>
+      <c r="L17" s="29" t="n">
+        <v>0.809</v>
       </c>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
@@ -1276,13 +1228,13 @@
         <v>0.834</v>
       </c>
       <c r="J18" s="23" t="n">
-        <v>0.851</v>
+        <v>0.852</v>
       </c>
       <c r="K18" s="23" t="n">
-        <v>0.833</v>
+        <v>0.835</v>
       </c>
       <c r="L18" s="31" t="n">
-        <v>0.858</v>
+        <v>0.855</v>
       </c>
       <c r="M18" s="14"/>
       <c r="P18" s="14"/>
@@ -1308,16 +1260,16 @@
         <v>0.677</v>
       </c>
       <c r="I19" s="14" t="n">
-        <v>0.871</v>
+        <v>0.869</v>
       </c>
       <c r="J19" s="14" t="n">
-        <v>0.856</v>
+        <v>0.847</v>
       </c>
       <c r="K19" s="14" t="n">
-        <v>0.896</v>
+        <v>0.89</v>
       </c>
       <c r="L19" s="27" t="n">
-        <v>0.851</v>
+        <v>0.844</v>
       </c>
       <c r="M19" s="14"/>
       <c r="P19" s="14"/>
@@ -1346,13 +1298,13 @@
         <v>0.809</v>
       </c>
       <c r="J20" s="28" t="n">
-        <v>0.85</v>
+        <v>0.861</v>
       </c>
       <c r="K20" s="28" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="L20" s="30" t="n">
-        <v>0.867</v>
+        <v>0.797</v>
+      </c>
+      <c r="L20" s="32" t="n">
+        <v>0.869</v>
       </c>
       <c r="M20" s="14"/>
       <c r="P20" s="14"/>
@@ -1393,15 +1345,15 @@
       </c>
       <c r="J21" s="11" t="n">
         <f aca="false">ROUND(2*J24*J27/(J24+J27),3)</f>
-        <v>0.89</v>
+        <v>0.887</v>
       </c>
       <c r="K21" s="11" t="n">
         <f aca="false">ROUND(2*K24*K27/(K24+K27),3)</f>
-        <v>0.888</v>
-      </c>
-      <c r="L21" s="13" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="L21" s="33" t="n">
         <f aca="false">ROUND(2*L24*L27/(L24+L27),3)</f>
-        <v>0.891</v>
+        <v>0.889</v>
       </c>
       <c r="M21" s="14"/>
       <c r="P21" s="14"/>
@@ -1437,15 +1389,15 @@
       </c>
       <c r="J22" s="17" t="n">
         <f aca="false">ROUND(2*J25*J28/(J25+J28),3)</f>
-        <v>0.888</v>
+        <v>0.875</v>
       </c>
       <c r="K22" s="17" t="n">
         <f aca="false">ROUND(2*K25*K28/(K25+K28),3)</f>
-        <v>0.922</v>
+        <v>0.916</v>
       </c>
       <c r="L22" s="18" t="n">
         <f aca="false">ROUND(2*L25*L28/(L25+L28),3)</f>
-        <v>0.88</v>
+        <v>0.873</v>
       </c>
       <c r="M22" s="14"/>
       <c r="P22" s="14"/>
@@ -1471,7 +1423,7 @@
         <f aca="false">ROUND(2*G26*G29/(G26+G29),3)</f>
         <v>0.808</v>
       </c>
-      <c r="H23" s="22" t="n">
+      <c r="H23" s="21" t="n">
         <f aca="false">ROUND(2*H26*H29/(H26+H29),3)</f>
         <v>0.904</v>
       </c>
@@ -1481,15 +1433,15 @@
       </c>
       <c r="J23" s="20" t="n">
         <f aca="false">ROUND(2*J26*J29/(J26+J29),3)</f>
-        <v>0.892</v>
+        <v>0.9</v>
       </c>
       <c r="K23" s="20" t="n">
         <f aca="false">ROUND(2*K26*K29/(K26+K29),3)</f>
-        <v>0.856</v>
-      </c>
-      <c r="L23" s="21" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L23" s="22" t="n">
         <f aca="false">ROUND(2*L26*L29/(L26+L29),3)</f>
-        <v>0.902</v>
+        <v>0.907</v>
       </c>
       <c r="M23" s="14"/>
       <c r="P23" s="14"/>
@@ -1521,13 +1473,13 @@
         <v>0.893</v>
       </c>
       <c r="J24" s="23" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K24" s="25" t="n">
-        <v>0.893</v>
+        <v>0.886</v>
+      </c>
+      <c r="K24" s="23" t="n">
+        <v>0.891</v>
       </c>
       <c r="L24" s="24" t="n">
-        <v>0.892</v>
+        <v>0.891</v>
       </c>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
@@ -1558,13 +1510,13 @@
         <v>0.92</v>
       </c>
       <c r="J25" s="14" t="n">
-        <v>0.89</v>
+        <v>0.874</v>
       </c>
       <c r="K25" s="14" t="n">
-        <v>0.934</v>
+        <v>0.925</v>
       </c>
       <c r="L25" s="27" t="n">
-        <v>0.882</v>
+        <v>0.875</v>
       </c>
       <c r="M25" s="14"/>
       <c r="P25" s="14"/>
@@ -1593,13 +1545,13 @@
         <v>0.867</v>
       </c>
       <c r="J26" s="28" t="n">
-        <v>0.89</v>
+        <v>0.899</v>
       </c>
       <c r="K26" s="28" t="n">
-        <v>0.856</v>
-      </c>
-      <c r="L26" s="30" t="n">
-        <v>0.902</v>
+        <v>0.859</v>
+      </c>
+      <c r="L26" s="32" t="n">
+        <v>0.908</v>
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
@@ -1633,13 +1585,13 @@
         <v>0.883</v>
       </c>
       <c r="J27" s="25" t="n">
-        <v>0.89</v>
+        <v>0.888</v>
       </c>
       <c r="K27" s="23" t="n">
-        <v>0.883</v>
+        <v>0.884</v>
       </c>
       <c r="L27" s="31" t="n">
-        <v>0.89</v>
+        <v>0.888</v>
       </c>
       <c r="M27" s="14"/>
       <c r="P27" s="14"/>
@@ -1668,13 +1620,13 @@
         <v>0.9</v>
       </c>
       <c r="J28" s="14" t="n">
-        <v>0.886</v>
+        <v>0.876</v>
       </c>
       <c r="K28" s="14" t="n">
-        <v>0.911</v>
+        <v>0.908</v>
       </c>
       <c r="L28" s="27" t="n">
-        <v>0.878</v>
+        <v>0.872</v>
       </c>
       <c r="M28" s="14"/>
       <c r="P28" s="14"/>
@@ -1696,20 +1648,20 @@
       <c r="G29" s="28" t="n">
         <v>0.826</v>
       </c>
-      <c r="H29" s="30" t="n">
+      <c r="H29" s="32" t="n">
         <v>0.919</v>
       </c>
       <c r="I29" s="28" t="n">
         <v>0.866</v>
       </c>
       <c r="J29" s="28" t="n">
-        <v>0.894</v>
+        <v>0.901</v>
       </c>
       <c r="K29" s="28" t="n">
-        <v>0.857</v>
+        <v>0.862</v>
       </c>
       <c r="L29" s="29" t="n">
-        <v>0.903</v>
+        <v>0.906</v>
       </c>
       <c r="M29" s="14"/>
       <c r="P29" s="14"/>
@@ -1726,39 +1678,39 @@
       </c>
       <c r="D30" s="11" t="n">
         <f aca="false">ROUND(2*D33*D36/(D33+D36),3)</f>
-        <v>0.797</v>
-      </c>
-      <c r="E30" s="32" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="E30" s="13" t="n">
         <f aca="false">ROUND(2*E33*E36/(E33+E36),3)</f>
-        <v>0.803</v>
+        <v>0.807</v>
       </c>
       <c r="F30" s="12" t="n">
         <f aca="false">ROUND(2*F33*F36/(F33+F36),3)</f>
-        <v>0.756</v>
+        <v>0.761</v>
       </c>
       <c r="G30" s="11" t="n">
         <f aca="false">ROUND(2*G33*G36/(G33+G36),3)</f>
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="H30" s="12" t="n">
         <f aca="false">ROUND(2*H33*H36/(H33+H36),3)</f>
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
       <c r="I30" s="11" t="n">
         <f aca="false">ROUND(2*I33*I36/(I33+I36),3)</f>
-        <v>0.747</v>
+        <v>0.741</v>
       </c>
       <c r="J30" s="11" t="n">
         <f aca="false">ROUND(2*J33*J36/(J33+J36),3)</f>
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="K30" s="11" t="n">
         <f aca="false">ROUND(2*K33*K36/(K33+K36),3)</f>
-        <v>0.76</v>
+        <v>0.756</v>
       </c>
       <c r="L30" s="12" t="n">
         <f aca="false">ROUND(2*L33*L36/(L33+L36),3)</f>
-        <v>0.757</v>
+        <v>0.751</v>
       </c>
       <c r="M30" s="14"/>
       <c r="P30" s="14"/>
@@ -1769,11 +1721,11 @@
       </c>
       <c r="D31" s="16" t="n">
         <f aca="false">ROUND(2*D34*D37/(D34+D37),3)</f>
-        <v>0.936</v>
+        <v>0.934</v>
       </c>
       <c r="E31" s="17" t="n">
         <f aca="false">ROUND(2*E34*E37/(E34+E37),3)</f>
-        <v>0.904</v>
+        <v>0.901</v>
       </c>
       <c r="F31" s="18" t="n">
         <f aca="false">ROUND(2*F34*F37/(F34+F37),3)</f>
@@ -1781,27 +1733,27 @@
       </c>
       <c r="G31" s="17" t="n">
         <f aca="false">ROUND(2*G34*G37/(G34+G37),3)</f>
-        <v>0.734</v>
+        <v>0.737</v>
       </c>
       <c r="H31" s="18" t="n">
         <f aca="false">ROUND(2*H34*H37/(H34+H37),3)</f>
-        <v>0.721</v>
+        <v>0.727</v>
       </c>
       <c r="I31" s="17" t="n">
         <f aca="false">ROUND(2*I34*I37/(I34+I37),3)</f>
-        <v>0.798</v>
+        <v>0.789</v>
       </c>
       <c r="J31" s="17" t="n">
         <f aca="false">ROUND(2*J34*J37/(J34+J37),3)</f>
-        <v>0.77</v>
+        <v>0.756</v>
       </c>
       <c r="K31" s="17" t="n">
         <f aca="false">ROUND(2*K34*K37/(K34+K37),3)</f>
-        <v>0.859</v>
+        <v>0.849</v>
       </c>
       <c r="L31" s="18" t="n">
         <f aca="false">ROUND(2*L34*L37/(L34+L37),3)</f>
-        <v>0.741</v>
+        <v>0.73</v>
       </c>
       <c r="M31" s="14"/>
       <c r="P31" s="14"/>
@@ -1812,15 +1764,15 @@
       </c>
       <c r="D32" s="20" t="n">
         <f aca="false">ROUND(2*D35*D38/(D35+D38),3)</f>
-        <v>0.707</v>
+        <v>0.712</v>
       </c>
       <c r="E32" s="20" t="n">
         <f aca="false">ROUND(2*E35*E38/(E35+E38),3)</f>
-        <v>0.734</v>
+        <v>0.743</v>
       </c>
       <c r="F32" s="21" t="n">
         <f aca="false">ROUND(2*F35*F38/(F35+F38),3)</f>
-        <v>0.699</v>
+        <v>0.708</v>
       </c>
       <c r="G32" s="20" t="n">
         <f aca="false">ROUND(2*G35*G38/(G35+G38),3)</f>
@@ -1828,15 +1780,15 @@
       </c>
       <c r="H32" s="21" t="n">
         <f aca="false">ROUND(2*H35*H38/(H35+H38),3)</f>
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
       <c r="I32" s="20" t="n">
         <f aca="false">ROUND(2*I35*I38/(I35+I38),3)</f>
-        <v>0.71</v>
-      </c>
-      <c r="J32" s="33" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="J32" s="34" t="n">
         <f aca="false">ROUND(2*J35*J38/(J35+J38),3)</f>
-        <v>0.786</v>
+        <v>0.795</v>
       </c>
       <c r="K32" s="20" t="n">
         <f aca="false">ROUND(2*K35*K38/(K35+K38),3)</f>
@@ -1844,7 +1796,7 @@
       </c>
       <c r="L32" s="21" t="n">
         <f aca="false">ROUND(2*L35*L38/(L35+L38),3)</f>
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="M32" s="14"/>
       <c r="P32" s="14"/>
@@ -1857,31 +1809,31 @@
         <v>14</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.799</v>
+        <v>0.8</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>0.805</v>
+        <v>0.809</v>
       </c>
       <c r="F33" s="24" t="n">
-        <v>0.73</v>
+        <v>0.734</v>
       </c>
       <c r="G33" s="23" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="H33" s="24" t="n">
-        <v>0.716</v>
+        <v>0.715</v>
       </c>
       <c r="I33" s="23" t="n">
-        <v>0.714</v>
+        <v>0.705</v>
       </c>
       <c r="J33" s="23" t="n">
-        <v>0.757</v>
+        <v>0.752</v>
       </c>
       <c r="K33" s="23" t="n">
-        <v>0.731</v>
+        <v>0.726</v>
       </c>
       <c r="L33" s="24" t="n">
-        <v>0.737</v>
+        <v>0.729</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
@@ -1893,31 +1845,31 @@
         <v>15</v>
       </c>
       <c r="D34" s="26" t="n">
-        <v>0.933</v>
+        <v>0.93</v>
       </c>
       <c r="E34" s="14" t="n">
-        <v>0.89</v>
+        <v>0.885</v>
       </c>
       <c r="F34" s="27" t="n">
-        <v>0.814</v>
+        <v>0.812</v>
       </c>
       <c r="G34" s="14" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="H34" s="27" t="n">
-        <v>0.701</v>
+        <v>0.705</v>
       </c>
       <c r="I34" s="14" t="n">
-        <v>0.788</v>
+        <v>0.777</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>0.762</v>
+        <v>0.744</v>
       </c>
       <c r="K34" s="14" t="n">
-        <v>0.864</v>
+        <v>0.852</v>
       </c>
       <c r="L34" s="27" t="n">
-        <v>0.727</v>
+        <v>0.711</v>
       </c>
       <c r="M34" s="14"/>
       <c r="P34" s="14"/>
@@ -1927,31 +1879,31 @@
         <v>16</v>
       </c>
       <c r="D35" s="28" t="n">
-        <v>0.698</v>
+        <v>0.702</v>
       </c>
       <c r="E35" s="28" t="n">
-        <v>0.735</v>
+        <v>0.745</v>
       </c>
       <c r="F35" s="29" t="n">
-        <v>0.662</v>
+        <v>0.67</v>
       </c>
       <c r="G35" s="28" t="n">
-        <v>0.719</v>
+        <v>0.717</v>
       </c>
       <c r="H35" s="29" t="n">
-        <v>0.73</v>
+        <v>0.726</v>
       </c>
       <c r="I35" s="28" t="n">
-        <v>0.652</v>
-      </c>
-      <c r="J35" s="34" t="n">
-        <v>0.752</v>
+        <v>0.645</v>
+      </c>
+      <c r="J35" s="30" t="n">
+        <v>0.761</v>
       </c>
       <c r="K35" s="28" t="n">
-        <v>0.634</v>
+        <v>0.632</v>
       </c>
       <c r="L35" s="29" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
@@ -1966,31 +1918,31 @@
         <v>14</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.795</v>
+        <v>0.799</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>0.801</v>
+        <v>0.806</v>
       </c>
       <c r="F36" s="24" t="n">
-        <v>0.784</v>
+        <v>0.791</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>0.723</v>
+        <v>0.726</v>
       </c>
       <c r="H36" s="24" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>0.783</v>
+        <v>0.78</v>
       </c>
       <c r="J36" s="23" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="K36" s="23" t="n">
-        <v>0.792</v>
+        <v>0.789</v>
       </c>
       <c r="L36" s="24" t="n">
-        <v>0.778</v>
+        <v>0.775</v>
       </c>
       <c r="M36" s="14"/>
       <c r="P36" s="14"/>
@@ -2000,31 +1952,31 @@
         <v>15</v>
       </c>
       <c r="D37" s="26" t="n">
-        <v>0.94</v>
+        <v>0.939</v>
       </c>
       <c r="E37" s="14" t="n">
-        <v>0.919</v>
+        <v>0.918</v>
       </c>
       <c r="F37" s="27" t="n">
-        <v>0.862</v>
+        <v>0.864</v>
       </c>
       <c r="G37" s="14" t="n">
-        <v>0.752</v>
+        <v>0.757</v>
       </c>
       <c r="H37" s="27" t="n">
-        <v>0.743</v>
+        <v>0.75</v>
       </c>
       <c r="I37" s="14" t="n">
-        <v>0.808</v>
+        <v>0.802</v>
       </c>
       <c r="J37" s="14" t="n">
-        <v>0.779</v>
+        <v>0.768</v>
       </c>
       <c r="K37" s="14" t="n">
-        <v>0.854</v>
+        <v>0.846</v>
       </c>
       <c r="L37" s="27" t="n">
-        <v>0.756</v>
+        <v>0.749</v>
       </c>
       <c r="M37" s="14"/>
       <c r="P37" s="14"/>
@@ -2034,31 +1986,31 @@
         <v>16</v>
       </c>
       <c r="D38" s="28" t="n">
-        <v>0.717</v>
+        <v>0.723</v>
       </c>
       <c r="E38" s="28" t="n">
-        <v>0.733</v>
+        <v>0.741</v>
       </c>
       <c r="F38" s="29" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="G38" s="28" t="n">
-        <v>0.728</v>
+        <v>0.73</v>
       </c>
       <c r="H38" s="29" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="I38" s="28" t="n">
         <v>0.78</v>
       </c>
-      <c r="J38" s="34" t="n">
+      <c r="J38" s="30" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="K38" s="28" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="L38" s="29" t="n">
         <v>0.824</v>
-      </c>
-      <c r="K38" s="28" t="n">
-        <v>0.763</v>
-      </c>
-      <c r="L38" s="29" t="n">
-        <v>0.822</v>
       </c>
       <c r="M38" s="14"/>
       <c r="P38" s="14"/>
@@ -2084,16 +2036,16 @@
         <v>8055.1</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>766.6</v>
+        <v>854.7</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>26678.7</v>
+        <v>17986.4</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>26782</v>
+        <v>17941.3</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>26576.9</v>
+        <v>18076.9</v>
       </c>
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
@@ -2110,21 +2062,21 @@
       <c r="C40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="32" t="n">
+      <c r="D40" s="13" t="n">
         <f aca="false">ROUND(2*D43*D46/(D43+D46),3)</f>
-        <v>0.817</v>
+        <v>0.82</v>
       </c>
       <c r="E40" s="11" t="n">
         <f aca="false">ROUND(2*E43*E46/(E43+E46),3)</f>
-        <v>0.813</v>
+        <v>0.818</v>
       </c>
       <c r="F40" s="12" t="n">
         <f aca="false">ROUND(2*F43*F46/(F43+F46),3)</f>
-        <v>0.763</v>
+        <v>0.767</v>
       </c>
       <c r="G40" s="11" t="n">
         <f aca="false">ROUND(2*G43*G46/(G43+G46),3)</f>
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="H40" s="12" t="n">
         <f aca="false">ROUND(2*H43*H46/(H43+H46),3)</f>
@@ -2132,19 +2084,19 @@
       </c>
       <c r="I40" s="11" t="n">
         <f aca="false">ROUND(2*I43*I46/(I43+I46),3)</f>
-        <v>0.763</v>
+        <v>0.756</v>
       </c>
       <c r="J40" s="11" t="n">
         <f aca="false">ROUND(2*J43*J46/(J43+J46),3)</f>
-        <v>0.794</v>
+        <v>0.791</v>
       </c>
       <c r="K40" s="11" t="n">
         <f aca="false">ROUND(2*K43*K46/(K43+K46),3)</f>
-        <v>0.772</v>
+        <v>0.768</v>
       </c>
       <c r="L40" s="12" t="n">
         <f aca="false">ROUND(2*L43*L46/(L43+L46),3)</f>
-        <v>0.783</v>
+        <v>0.777</v>
       </c>
       <c r="M40" s="14"/>
       <c r="P40" s="14"/>
@@ -2160,35 +2112,35 @@
       </c>
       <c r="E41" s="17" t="n">
         <f aca="false">ROUND(2*E44*E47/(E44+E47),3)</f>
-        <v>0.939</v>
+        <v>0.937</v>
       </c>
       <c r="F41" s="18" t="n">
         <f aca="false">ROUND(2*F44*F47/(F44+F47),3)</f>
-        <v>0.867</v>
+        <v>0.862</v>
       </c>
       <c r="G41" s="17" t="n">
         <f aca="false">ROUND(2*G44*G47/(G44+G47),3)</f>
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="H41" s="18" t="n">
         <f aca="false">ROUND(2*H44*H47/(H44+H47),3)</f>
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="I41" s="17" t="n">
         <f aca="false">ROUND(2*I44*I47/(I44+I47),3)</f>
-        <v>0.823</v>
+        <v>0.816</v>
       </c>
       <c r="J41" s="17" t="n">
         <f aca="false">ROUND(2*J44*J47/(J44+J47),3)</f>
-        <v>0.801</v>
+        <v>0.788</v>
       </c>
       <c r="K41" s="17" t="n">
         <f aca="false">ROUND(2*K44*K47/(K44+K47),3)</f>
-        <v>0.873</v>
+        <v>0.863</v>
       </c>
       <c r="L41" s="18" t="n">
         <f aca="false">ROUND(2*L44*L47/(L44+L47),3)</f>
-        <v>0.778</v>
+        <v>0.767</v>
       </c>
       <c r="M41" s="14"/>
       <c r="P41" s="14"/>
@@ -2200,15 +2152,15 @@
       </c>
       <c r="D42" s="20" t="n">
         <f aca="false">ROUND(2*D45*D48/(D45+D48),3)</f>
-        <v>0.722</v>
+        <v>0.727</v>
       </c>
       <c r="E42" s="20" t="n">
         <f aca="false">ROUND(2*E45*E48/(E45+E48),3)</f>
-        <v>0.727</v>
+        <v>0.735</v>
       </c>
       <c r="F42" s="21" t="n">
         <f aca="false">ROUND(2*F45*F48/(F45+F48),3)</f>
-        <v>0.691</v>
+        <v>0.7</v>
       </c>
       <c r="G42" s="20" t="n">
         <f aca="false">ROUND(2*G45*G48/(G45+G48),3)</f>
@@ -2216,23 +2168,23 @@
       </c>
       <c r="H42" s="21" t="n">
         <f aca="false">ROUND(2*H45*H48/(H45+H48),3)</f>
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="I42" s="20" t="n">
         <f aca="false">ROUND(2*I45*I48/(I45+I48),3)</f>
-        <v>0.72</v>
-      </c>
-      <c r="J42" s="20" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="J42" s="34" t="n">
         <f aca="false">ROUND(2*J45*J48/(J45+J48),3)</f>
-        <v>0.799</v>
+        <v>0.807</v>
       </c>
       <c r="K42" s="20" t="n">
         <f aca="false">ROUND(2*K45*K48/(K45+K48),3)</f>
-        <v>0.702</v>
-      </c>
-      <c r="L42" s="22" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="L42" s="21" t="n">
         <f aca="false">ROUND(2*L45*L48/(L45+L48),3)</f>
-        <v>0.8</v>
+        <v>0.799</v>
       </c>
       <c r="M42" s="14"/>
       <c r="P42" s="14"/>
@@ -2246,31 +2198,31 @@
         <v>14</v>
       </c>
       <c r="D43" s="23" t="n">
-        <v>0.82</v>
+        <v>0.823</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>0.821</v>
+        <v>0.826</v>
       </c>
       <c r="F43" s="24" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="G43" s="23" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="H43" s="24" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="I43" s="23" t="n">
-        <v>0.726</v>
+        <v>0.717</v>
       </c>
       <c r="J43" s="23" t="n">
-        <v>0.779</v>
+        <v>0.775</v>
       </c>
       <c r="K43" s="23" t="n">
-        <v>0.739</v>
+        <v>0.735</v>
       </c>
       <c r="L43" s="24" t="n">
-        <v>0.761</v>
+        <v>0.754</v>
       </c>
       <c r="M43" s="14"/>
       <c r="N43" s="14"/>
@@ -2283,31 +2235,31 @@
         <v>15</v>
       </c>
       <c r="D44" s="26" t="n">
-        <v>0.955</v>
+        <v>0.954</v>
       </c>
       <c r="E44" s="14" t="n">
-        <v>0.927</v>
+        <v>0.924</v>
       </c>
       <c r="F44" s="27" t="n">
-        <v>0.848</v>
+        <v>0.841</v>
       </c>
       <c r="G44" s="14" t="n">
         <v>0.752</v>
       </c>
       <c r="H44" s="27" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="I44" s="14" t="n">
-        <v>0.813</v>
+        <v>0.804</v>
       </c>
       <c r="J44" s="14" t="n">
-        <v>0.796</v>
+        <v>0.782</v>
       </c>
       <c r="K44" s="14" t="n">
-        <v>0.879</v>
+        <v>0.867</v>
       </c>
       <c r="L44" s="27" t="n">
-        <v>0.764</v>
+        <v>0.751</v>
       </c>
       <c r="M44" s="14"/>
       <c r="P44" s="14"/>
@@ -2318,31 +2270,31 @@
         <v>16</v>
       </c>
       <c r="D45" s="28" t="n">
-        <v>0.718</v>
+        <v>0.723</v>
       </c>
       <c r="E45" s="28" t="n">
-        <v>0.737</v>
+        <v>0.746</v>
       </c>
       <c r="F45" s="29" t="n">
-        <v>0.66</v>
+        <v>0.668</v>
       </c>
       <c r="G45" s="28" t="n">
-        <v>0.751</v>
-      </c>
-      <c r="H45" s="30" t="n">
-        <v>0.765</v>
+        <v>0.749</v>
+      </c>
+      <c r="H45" s="29" t="n">
+        <v>0.76</v>
       </c>
       <c r="I45" s="28" t="n">
-        <v>0.656</v>
-      </c>
-      <c r="J45" s="28" t="n">
-        <v>0.763</v>
+        <v>0.648</v>
+      </c>
+      <c r="J45" s="30" t="n">
+        <v>0.771</v>
       </c>
       <c r="K45" s="28" t="n">
         <v>0.638</v>
       </c>
       <c r="L45" s="29" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
@@ -2358,31 +2310,31 @@
         <v>14</v>
       </c>
       <c r="D46" s="25" t="n">
-        <v>0.814</v>
+        <v>0.818</v>
       </c>
       <c r="E46" s="23" t="n">
-        <v>0.806</v>
+        <v>0.811</v>
       </c>
       <c r="F46" s="24" t="n">
-        <v>0.784</v>
+        <v>0.79</v>
       </c>
       <c r="G46" s="23" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="H46" s="24" t="n">
-        <v>0.776</v>
+        <v>0.778</v>
       </c>
       <c r="I46" s="23" t="n">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="J46" s="23" t="n">
-        <v>0.81</v>
+        <v>0.807</v>
       </c>
       <c r="K46" s="23" t="n">
-        <v>0.807</v>
+        <v>0.805</v>
       </c>
       <c r="L46" s="24" t="n">
-        <v>0.807</v>
+        <v>0.802</v>
       </c>
       <c r="M46" s="14"/>
       <c r="P46" s="14"/>
@@ -2396,28 +2348,28 @@
         <v>0.964</v>
       </c>
       <c r="E47" s="14" t="n">
-        <v>0.952</v>
+        <v>0.951</v>
       </c>
       <c r="F47" s="27" t="n">
-        <v>0.886</v>
+        <v>0.885</v>
       </c>
       <c r="G47" s="14" t="n">
-        <v>0.789</v>
+        <v>0.792</v>
       </c>
       <c r="H47" s="27" t="n">
-        <v>0.778</v>
+        <v>0.784</v>
       </c>
       <c r="I47" s="14" t="n">
-        <v>0.834</v>
+        <v>0.829</v>
       </c>
       <c r="J47" s="14" t="n">
-        <v>0.806</v>
+        <v>0.794</v>
       </c>
       <c r="K47" s="14" t="n">
-        <v>0.868</v>
+        <v>0.86</v>
       </c>
       <c r="L47" s="27" t="n">
-        <v>0.792</v>
+        <v>0.783</v>
       </c>
       <c r="M47" s="14"/>
       <c r="P47" s="14"/>
@@ -2428,31 +2380,31 @@
         <v>16</v>
       </c>
       <c r="D48" s="28" t="n">
-        <v>0.726</v>
+        <v>0.732</v>
       </c>
       <c r="E48" s="28" t="n">
-        <v>0.718</v>
+        <v>0.725</v>
       </c>
       <c r="F48" s="29" t="n">
-        <v>0.724</v>
+        <v>0.735</v>
       </c>
       <c r="G48" s="28" t="n">
-        <v>0.775</v>
+        <v>0.777</v>
       </c>
       <c r="H48" s="29" t="n">
         <v>0.803</v>
       </c>
       <c r="I48" s="28" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="J48" s="28" t="n">
-        <v>0.838</v>
+        <v>0.797</v>
+      </c>
+      <c r="J48" s="30" t="n">
+        <v>0.846</v>
       </c>
       <c r="K48" s="28" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L48" s="30" t="n">
-        <v>0.846</v>
+        <v>0.784</v>
+      </c>
+      <c r="L48" s="29" t="n">
+        <v>0.845</v>
       </c>
       <c r="M48" s="14"/>
       <c r="P48" s="14"/>
@@ -2469,39 +2421,39 @@
       </c>
       <c r="D49" s="11" t="n">
         <f aca="false">ROUND(2*D52*D55/(D52+D55),3)</f>
-        <v>0.785</v>
+        <v>0.799</v>
       </c>
       <c r="E49" s="11" t="n">
         <f aca="false">ROUND(2*E52*E55/(E52+E55),3)</f>
-        <v>0.755</v>
+        <v>0.768</v>
       </c>
       <c r="F49" s="12" t="n">
         <f aca="false">ROUND(2*F52*F55/(F52+F55),3)</f>
-        <v>0.676</v>
+        <v>0.69</v>
       </c>
       <c r="G49" s="11" t="n">
         <f aca="false">ROUND(2*G52*G55/(G52+G55),3)</f>
-        <v>0.837</v>
+        <v>0.852</v>
       </c>
       <c r="H49" s="12" t="n">
         <f aca="false">ROUND(2*H52*H55/(H52+H55),3)</f>
-        <v>0.857</v>
+        <v>0.88</v>
       </c>
       <c r="I49" s="11" t="n">
         <f aca="false">ROUND(2*I52*I55/(I52+I55),3)</f>
-        <v>0.89</v>
+        <v>0.869</v>
       </c>
       <c r="J49" s="11" t="n">
         <f aca="false">ROUND(2*J52*J55/(J52+J55),3)</f>
-        <v>0.882</v>
-      </c>
-      <c r="K49" s="32" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="K49" s="13" t="n">
         <f aca="false">ROUND(2*K52*K55/(K52+K55),3)</f>
-        <v>0.892</v>
+        <v>0.881</v>
       </c>
       <c r="L49" s="12" t="n">
         <f aca="false">ROUND(2*L52*L55/(L52+L55),3)</f>
-        <v>0.884</v>
+        <v>0.861</v>
       </c>
       <c r="M49" s="14"/>
       <c r="P49" s="14"/>
@@ -2513,39 +2465,39 @@
       </c>
       <c r="D50" s="16" t="n">
         <f aca="false">ROUND(2*D53*D56/(D53+D56),3)</f>
-        <v>0.975</v>
+        <v>0.973</v>
       </c>
       <c r="E50" s="17" t="n">
         <f aca="false">ROUND(2*E53*E56/(E53+E56),3)</f>
-        <v>0.944</v>
+        <v>0.919</v>
       </c>
       <c r="F50" s="18" t="n">
         <f aca="false">ROUND(2*F53*F56/(F53+F56),3)</f>
-        <v>0.876</v>
+        <v>0.854</v>
       </c>
       <c r="G50" s="17" t="n">
         <f aca="false">ROUND(2*G53*G56/(G53+G56),3)</f>
-        <v>0.846</v>
+        <v>0.845</v>
       </c>
       <c r="H50" s="18" t="n">
         <f aca="false">ROUND(2*H53*H56/(H53+H56),3)</f>
-        <v>0.819</v>
+        <v>0.851</v>
       </c>
       <c r="I50" s="17" t="n">
         <f aca="false">ROUND(2*I53*I56/(I53+I56),3)</f>
-        <v>0.912</v>
+        <v>0.887</v>
       </c>
       <c r="J50" s="17" t="n">
         <f aca="false">ROUND(2*J53*J56/(J53+J56),3)</f>
-        <v>0.88</v>
+        <v>0.853</v>
       </c>
       <c r="K50" s="17" t="n">
         <f aca="false">ROUND(2*K53*K56/(K53+K56),3)</f>
-        <v>0.931</v>
+        <v>0.913</v>
       </c>
       <c r="L50" s="18" t="n">
         <f aca="false">ROUND(2*L53*L56/(L53+L56),3)</f>
-        <v>0.872</v>
+        <v>0.84</v>
       </c>
       <c r="M50" s="14"/>
       <c r="P50" s="14"/>
@@ -2557,39 +2509,39 @@
       </c>
       <c r="D51" s="20" t="n">
         <f aca="false">ROUND(2*D54*D57/(D54+D57),3)</f>
-        <v>0.661</v>
+        <v>0.68</v>
       </c>
       <c r="E51" s="20" t="n">
         <f aca="false">ROUND(2*E54*E57/(E54+E57),3)</f>
-        <v>0.635</v>
+        <v>0.661</v>
       </c>
       <c r="F51" s="21" t="n">
         <f aca="false">ROUND(2*F54*F57/(F54+F57),3)</f>
-        <v>0.555</v>
+        <v>0.587</v>
       </c>
       <c r="G51" s="20" t="n">
         <f aca="false">ROUND(2*G54*G57/(G54+G57),3)</f>
-        <v>0.836</v>
+        <v>0.869</v>
       </c>
       <c r="H51" s="22" t="n">
         <f aca="false">ROUND(2*H54*H57/(H54+H57),3)</f>
-        <v>0.905</v>
+        <v>0.92</v>
       </c>
       <c r="I51" s="20" t="n">
         <f aca="false">ROUND(2*I54*I57/(I54+I57),3)</f>
-        <v>0.872</v>
+        <v>0.855</v>
       </c>
       <c r="J51" s="20" t="n">
         <f aca="false">ROUND(2*J54*J57/(J54+J57),3)</f>
-        <v>0.887</v>
+        <v>0.901</v>
       </c>
       <c r="K51" s="20" t="n">
         <f aca="false">ROUND(2*K54*K57/(K54+K57),3)</f>
-        <v>0.857</v>
+        <v>0.855</v>
       </c>
       <c r="L51" s="21" t="n">
         <f aca="false">ROUND(2*L54*L57/(L54+L57),3)</f>
-        <v>0.899</v>
+        <v>0.886</v>
       </c>
       <c r="M51" s="14"/>
       <c r="P51" s="14"/>
@@ -2603,31 +2555,31 @@
         <v>14</v>
       </c>
       <c r="D52" s="23" t="n">
-        <v>0.77</v>
+        <v>0.794</v>
       </c>
       <c r="E52" s="23" t="n">
-        <v>0.745</v>
+        <v>0.772</v>
       </c>
       <c r="F52" s="24" t="n">
-        <v>0.663</v>
+        <v>0.685</v>
       </c>
       <c r="G52" s="23" t="n">
-        <v>0.829</v>
+        <v>0.851</v>
       </c>
       <c r="H52" s="24" t="n">
-        <v>0.848</v>
-      </c>
-      <c r="I52" s="25" t="n">
-        <v>0.888</v>
+        <v>0.873</v>
+      </c>
+      <c r="I52" s="23" t="n">
+        <v>0.86</v>
       </c>
       <c r="J52" s="23" t="n">
-        <v>0.878</v>
+        <v>0.869</v>
       </c>
       <c r="K52" s="25" t="n">
-        <v>0.888</v>
+        <v>0.875</v>
       </c>
       <c r="L52" s="24" t="n">
-        <v>0.882</v>
+        <v>0.851</v>
       </c>
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
@@ -2640,31 +2592,31 @@
         <v>15</v>
       </c>
       <c r="D53" s="26" t="n">
-        <v>0.978</v>
+        <v>0.974</v>
       </c>
       <c r="E53" s="14" t="n">
-        <v>0.956</v>
+        <v>0.933</v>
       </c>
       <c r="F53" s="27" t="n">
-        <v>0.861</v>
+        <v>0.82</v>
       </c>
       <c r="G53" s="14" t="n">
-        <v>0.84</v>
+        <v>0.831</v>
       </c>
       <c r="H53" s="27" t="n">
-        <v>0.808</v>
+        <v>0.838</v>
       </c>
       <c r="I53" s="14" t="n">
-        <v>0.911</v>
+        <v>0.873</v>
       </c>
       <c r="J53" s="14" t="n">
-        <v>0.876</v>
+        <v>0.844</v>
       </c>
       <c r="K53" s="14" t="n">
-        <v>0.929</v>
+        <v>0.906</v>
       </c>
       <c r="L53" s="27" t="n">
-        <v>0.869</v>
+        <v>0.828</v>
       </c>
       <c r="M53" s="14"/>
       <c r="P53" s="14"/>
@@ -2675,31 +2627,31 @@
         <v>16</v>
       </c>
       <c r="D54" s="28" t="n">
-        <v>0.634</v>
+        <v>0.671</v>
       </c>
       <c r="E54" s="28" t="n">
-        <v>0.61</v>
+        <v>0.659</v>
       </c>
       <c r="F54" s="29" t="n">
-        <v>0.539</v>
+        <v>0.588</v>
       </c>
       <c r="G54" s="28" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="H54" s="29" t="n">
-        <v>0.893</v>
+        <v>0.871</v>
+      </c>
+      <c r="H54" s="32" t="n">
+        <v>0.912</v>
       </c>
       <c r="I54" s="28" t="n">
-        <v>0.867</v>
+        <v>0.847</v>
       </c>
       <c r="J54" s="28" t="n">
-        <v>0.881</v>
+        <v>0.894</v>
       </c>
       <c r="K54" s="28" t="n">
-        <v>0.851</v>
-      </c>
-      <c r="L54" s="30" t="n">
-        <v>0.895</v>
+        <v>0.847</v>
+      </c>
+      <c r="L54" s="29" t="n">
+        <v>0.876</v>
       </c>
       <c r="M54" s="14"/>
       <c r="N54" s="14"/>
@@ -2715,31 +2667,31 @@
         <v>14</v>
       </c>
       <c r="D55" s="23" t="n">
-        <v>0.801</v>
+        <v>0.805</v>
       </c>
       <c r="E55" s="23" t="n">
-        <v>0.766</v>
+        <v>0.764</v>
       </c>
       <c r="F55" s="24" t="n">
-        <v>0.689</v>
+        <v>0.695</v>
       </c>
       <c r="G55" s="23" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="H55" s="24" t="n">
-        <v>0.867</v>
+        <v>0.853</v>
+      </c>
+      <c r="H55" s="31" t="n">
+        <v>0.888</v>
       </c>
       <c r="I55" s="23" t="n">
-        <v>0.893</v>
+        <v>0.879</v>
       </c>
       <c r="J55" s="23" t="n">
-        <v>0.887</v>
+        <v>0.881</v>
       </c>
       <c r="K55" s="25" t="n">
-        <v>0.896</v>
+        <v>0.888</v>
       </c>
       <c r="L55" s="24" t="n">
-        <v>0.887</v>
+        <v>0.871</v>
       </c>
       <c r="M55" s="14"/>
       <c r="P55" s="14"/>
@@ -2753,28 +2705,28 @@
         <v>0.973</v>
       </c>
       <c r="E56" s="14" t="n">
-        <v>0.932</v>
+        <v>0.906</v>
       </c>
       <c r="F56" s="27" t="n">
-        <v>0.891</v>
+        <v>0.89</v>
       </c>
       <c r="G56" s="14" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H56" s="27" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="I56" s="14" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="J56" s="14" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="K56" s="14" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="L56" s="27" t="n">
         <v>0.853</v>
-      </c>
-      <c r="H56" s="27" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I56" s="14" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="J56" s="14" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="K56" s="14" t="n">
-        <v>0.934</v>
-      </c>
-      <c r="L56" s="27" t="n">
-        <v>0.876</v>
       </c>
       <c r="M56" s="14"/>
       <c r="P56" s="14"/>
@@ -2785,31 +2737,31 @@
         <v>16</v>
       </c>
       <c r="D57" s="28" t="n">
-        <v>0.691</v>
+        <v>0.69</v>
       </c>
       <c r="E57" s="28" t="n">
-        <v>0.662</v>
+        <v>0.664</v>
       </c>
       <c r="F57" s="29" t="n">
-        <v>0.572</v>
+        <v>0.586</v>
       </c>
       <c r="G57" s="28" t="n">
-        <v>0.854</v>
-      </c>
-      <c r="H57" s="30" t="n">
-        <v>0.917</v>
+        <v>0.868</v>
+      </c>
+      <c r="H57" s="32" t="n">
+        <v>0.929</v>
       </c>
       <c r="I57" s="28" t="n">
-        <v>0.878</v>
+        <v>0.864</v>
       </c>
       <c r="J57" s="28" t="n">
-        <v>0.893</v>
+        <v>0.908</v>
       </c>
       <c r="K57" s="28" t="n">
         <v>0.864</v>
       </c>
       <c r="L57" s="29" t="n">
-        <v>0.904</v>
+        <v>0.897</v>
       </c>
       <c r="M57" s="14"/>
       <c r="P57" s="14"/>
@@ -2828,14 +2780,14 @@
         <f aca="false">ROUND(2*D61*D64/(D61+D64),3)</f>
         <v>0.707</v>
       </c>
-      <c r="E58" s="32" t="n">
+      <c r="E58" s="13" t="n">
         <f aca="false">ROUND(2*E61*E64/(E61+E64),3)</f>
         <v>0.736</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="11" t="n">
         <f aca="false">ROUND(2*G61*G64/(G61+G64),3)</f>
-        <v>0.632</v>
+        <v>0.631</v>
       </c>
       <c r="H58" s="12" t="n">
         <f aca="false">ROUND(2*H61*H64/(H61+H64),3)</f>
@@ -2843,11 +2795,11 @@
       </c>
       <c r="I58" s="11" t="n">
         <f aca="false">ROUND(2*I61*I64/(I61+I64),3)</f>
-        <v>0.584</v>
+        <v>0.583</v>
       </c>
       <c r="J58" s="11" t="n">
         <f aca="false">ROUND(2*J61*J64/(J61+J64),3)</f>
-        <v>0.602</v>
+        <v>0.601</v>
       </c>
       <c r="K58" s="11" t="n">
         <f aca="false">ROUND(2*K61*K64/(K61+K64),3)</f>
@@ -2855,7 +2807,7 @@
       </c>
       <c r="L58" s="12" t="n">
         <f aca="false">ROUND(2*L61*L64/(L61+L64),3)</f>
-        <v>0.579</v>
+        <v>0.578</v>
       </c>
       <c r="M58" s="14"/>
       <c r="P58" s="14"/>
@@ -2866,16 +2818,16 @@
       </c>
       <c r="D59" s="16" t="n">
         <f aca="false">ROUND(2*D62*D65/(D62+D65),3)</f>
-        <v>0.799</v>
+        <v>0.798</v>
       </c>
       <c r="E59" s="17" t="n">
         <f aca="false">ROUND(2*E62*E65/(E62+E65),3)</f>
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="17" t="n">
         <f aca="false">ROUND(2*G62*G65/(G62+G65),3)</f>
-        <v>0.624</v>
+        <v>0.623</v>
       </c>
       <c r="H59" s="18" t="n">
         <f aca="false">ROUND(2*H62*H65/(H62+H65),3)</f>
@@ -2883,19 +2835,19 @@
       </c>
       <c r="I59" s="17" t="n">
         <f aca="false">ROUND(2*I62*I65/(I62+I65),3)</f>
-        <v>0.589</v>
+        <v>0.586</v>
       </c>
       <c r="J59" s="17" t="n">
         <f aca="false">ROUND(2*J62*J65/(J62+J65),3)</f>
-        <v>0.564</v>
+        <v>0.56</v>
       </c>
       <c r="K59" s="17" t="n">
         <f aca="false">ROUND(2*K62*K65/(K62+K65),3)</f>
-        <v>0.678</v>
+        <v>0.672</v>
       </c>
       <c r="L59" s="18" t="n">
         <f aca="false">ROUND(2*L62*L65/(L62+L65),3)</f>
-        <v>0.536</v>
+        <v>0.533</v>
       </c>
       <c r="M59" s="14"/>
       <c r="P59" s="14"/>
@@ -2908,14 +2860,14 @@
         <f aca="false">ROUND(2*D63*D66/(D63+D66),3)</f>
         <v>0.69</v>
       </c>
-      <c r="E60" s="33" t="n">
+      <c r="E60" s="34" t="n">
         <f aca="false">ROUND(2*E63*E66/(E63+E66),3)</f>
         <v>0.78</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="20" t="n">
         <f aca="false">ROUND(2*G63*G66/(G63+G66),3)</f>
-        <v>0.699</v>
+        <v>0.698</v>
       </c>
       <c r="H60" s="21" t="n">
         <f aca="false">ROUND(2*H63*H66/(H63+H66),3)</f>
@@ -2923,15 +2875,15 @@
       </c>
       <c r="I60" s="20" t="n">
         <f aca="false">ROUND(2*I63*I66/(I63+I66),3)</f>
-        <v>0.636</v>
+        <v>0.635</v>
       </c>
       <c r="J60" s="20" t="n">
         <f aca="false">ROUND(2*J63*J66/(J63+J66),3)</f>
-        <v>0.704</v>
+        <v>0.708</v>
       </c>
       <c r="K60" s="20" t="n">
         <f aca="false">ROUND(2*K63*K66/(K63+K66),3)</f>
-        <v>0.61</v>
+        <v>0.613</v>
       </c>
       <c r="L60" s="21" t="n">
         <f aca="false">ROUND(2*L63*L66/(L63+L66),3)</f>
@@ -2953,24 +2905,24 @@
       <c r="E61" s="25" t="n">
         <v>0.761</v>
       </c>
-      <c r="F61" s="38"/>
+      <c r="F61" s="35"/>
       <c r="G61" s="23" t="n">
         <v>0.65</v>
       </c>
       <c r="H61" s="24" t="n">
-        <v>0.651</v>
+        <v>0.65</v>
       </c>
       <c r="I61" s="23" t="n">
-        <v>0.6</v>
+        <v>0.598</v>
       </c>
       <c r="J61" s="23" t="n">
-        <v>0.614</v>
+        <v>0.613</v>
       </c>
       <c r="K61" s="23" t="n">
         <v>0.634</v>
       </c>
       <c r="L61" s="24" t="n">
-        <v>0.589</v>
+        <v>0.587</v>
       </c>
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
@@ -2982,29 +2934,29 @@
         <v>15</v>
       </c>
       <c r="D62" s="26" t="n">
-        <v>0.83</v>
+        <v>0.829</v>
       </c>
       <c r="E62" s="14" t="n">
-        <v>0.754</v>
-      </c>
-      <c r="F62" s="39"/>
+        <v>0.753</v>
+      </c>
+      <c r="F62" s="36"/>
       <c r="G62" s="14" t="n">
-        <v>0.624</v>
+        <v>0.623</v>
       </c>
       <c r="H62" s="27" t="n">
-        <v>0.623</v>
+        <v>0.622</v>
       </c>
       <c r="I62" s="14" t="n">
-        <v>0.601</v>
+        <v>0.597</v>
       </c>
       <c r="J62" s="14" t="n">
-        <v>0.563</v>
+        <v>0.559</v>
       </c>
       <c r="K62" s="14" t="n">
-        <v>0.711</v>
+        <v>0.704</v>
       </c>
       <c r="L62" s="27" t="n">
-        <v>0.533</v>
+        <v>0.53</v>
       </c>
       <c r="M62" s="14"/>
       <c r="P62" s="14"/>
@@ -3016,24 +2968,24 @@
       <c r="D63" s="28" t="n">
         <v>0.665</v>
       </c>
-      <c r="E63" s="34" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="F63" s="40"/>
+      <c r="E63" s="30" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="F63" s="37"/>
       <c r="G63" s="28" t="n">
-        <v>0.679</v>
+        <v>0.678</v>
       </c>
       <c r="H63" s="29" t="n">
-        <v>0.682</v>
+        <v>0.681</v>
       </c>
       <c r="I63" s="28" t="n">
-        <v>0.599</v>
+        <v>0.598</v>
       </c>
       <c r="J63" s="28" t="n">
-        <v>0.675</v>
+        <v>0.68</v>
       </c>
       <c r="K63" s="28" t="n">
-        <v>0.573</v>
+        <v>0.576</v>
       </c>
       <c r="L63" s="29" t="n">
         <v>0.659</v>
@@ -3056,9 +3008,9 @@
       <c r="E64" s="25" t="n">
         <v>0.713</v>
       </c>
-      <c r="F64" s="38"/>
+      <c r="F64" s="35"/>
       <c r="G64" s="23" t="n">
-        <v>0.615</v>
+        <v>0.614</v>
       </c>
       <c r="H64" s="24" t="n">
         <v>0.616</v>
@@ -3083,12 +3035,12 @@
         <v>15</v>
       </c>
       <c r="D65" s="26" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="E65" s="14" t="n">
-        <v>0.746</v>
-      </c>
-      <c r="F65" s="39"/>
+        <v>0.745</v>
+      </c>
+      <c r="F65" s="36"/>
       <c r="G65" s="14" t="n">
         <v>0.624</v>
       </c>
@@ -3096,16 +3048,16 @@
         <v>0.624</v>
       </c>
       <c r="I65" s="14" t="n">
-        <v>0.577</v>
+        <v>0.576</v>
       </c>
       <c r="J65" s="14" t="n">
-        <v>0.566</v>
+        <v>0.562</v>
       </c>
       <c r="K65" s="14" t="n">
-        <v>0.648</v>
+        <v>0.643</v>
       </c>
       <c r="L65" s="27" t="n">
-        <v>0.539</v>
+        <v>0.537</v>
       </c>
       <c r="M65" s="14"/>
       <c r="P65" s="14"/>
@@ -3115,12 +3067,12 @@
         <v>16</v>
       </c>
       <c r="D66" s="28" t="n">
-        <v>0.716</v>
-      </c>
-      <c r="E66" s="34" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="E66" s="30" t="n">
         <v>0.793</v>
       </c>
-      <c r="F66" s="40"/>
+      <c r="F66" s="37"/>
       <c r="G66" s="28" t="n">
         <v>0.72</v>
       </c>
@@ -3131,13 +3083,13 @@
         <v>0.677</v>
       </c>
       <c r="J66" s="28" t="n">
-        <v>0.735</v>
+        <v>0.739</v>
       </c>
       <c r="K66" s="28" t="n">
-        <v>0.652</v>
+        <v>0.656</v>
       </c>
       <c r="L66" s="29" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="M66" s="14"/>
       <c r="P66" s="14"/>
@@ -3153,7 +3105,7 @@
       <c r="E67" s="3" t="n">
         <v>212.5</v>
       </c>
-      <c r="F67" s="41"/>
+      <c r="F67" s="38"/>
       <c r="G67" s="3" t="n">
         <v>12000.2</v>
       </c>
@@ -3161,16 +3113,16 @@
         <v>11787.3</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>1482.4</v>
+        <v>2003.1</v>
       </c>
       <c r="J67" s="3" t="n">
-        <v>28858.6</v>
+        <v>20060.3</v>
       </c>
       <c r="K67" s="3" t="n">
-        <v>28777.5</v>
+        <v>19935</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>28604.9</v>
+        <v>20056.2</v>
       </c>
       <c r="M67" s="14"/>
       <c r="N67" s="14"/>
@@ -3187,13 +3139,13 @@
       <c r="C68" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="32" t="n">
+      <c r="D68" s="13" t="n">
         <f aca="false">ROUND(2*D71*D74/(D71+D74),3)</f>
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="E68" s="11" t="n">
         <f aca="false">ROUND(2*E71*E74/(E71+E74),3)</f>
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="F68" s="35"/>
       <c r="G68" s="11" t="n">
@@ -3206,11 +3158,11 @@
       </c>
       <c r="I68" s="11" t="n">
         <f aca="false">ROUND(2*I71*I74/(I71+I74),3)</f>
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="J68" s="11" t="n">
         <f aca="false">ROUND(2*J71*J74/(J71+J74),3)</f>
-        <v>0.779</v>
+        <v>0.777</v>
       </c>
       <c r="K68" s="11" t="n">
         <f aca="false">ROUND(2*K71*K74/(K71+K74),3)</f>
@@ -3218,7 +3170,7 @@
       </c>
       <c r="L68" s="12" t="n">
         <f aca="false">ROUND(2*L71*L74/(L71+L74),3)</f>
-        <v>0.769</v>
+        <v>0.766</v>
       </c>
       <c r="M68" s="14"/>
       <c r="P68" s="14"/>
@@ -3230,11 +3182,11 @@
       </c>
       <c r="D69" s="16" t="n">
         <f aca="false">ROUND(2*D72*D75/(D72+D75),3)</f>
-        <v>0.916</v>
+        <v>0.915</v>
       </c>
       <c r="E69" s="17" t="n">
         <f aca="false">ROUND(2*E72*E75/(E72+E75),3)</f>
-        <v>0.899</v>
+        <v>0.897</v>
       </c>
       <c r="F69" s="36"/>
       <c r="G69" s="17" t="n">
@@ -3247,19 +3199,19 @@
       </c>
       <c r="I69" s="17" t="n">
         <f aca="false">ROUND(2*I72*I75/(I72+I75),3)</f>
-        <v>0.77</v>
+        <v>0.767</v>
       </c>
       <c r="J69" s="17" t="n">
         <f aca="false">ROUND(2*J72*J75/(J72+J75),3)</f>
-        <v>0.741</v>
+        <v>0.731</v>
       </c>
       <c r="K69" s="17" t="n">
         <f aca="false">ROUND(2*K72*K75/(K72+K75),3)</f>
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="L69" s="18" t="n">
         <f aca="false">ROUND(2*L72*L75/(L72+L75),3)</f>
-        <v>0.722</v>
+        <v>0.715</v>
       </c>
       <c r="M69" s="14"/>
       <c r="P69" s="14"/>
@@ -3271,36 +3223,36 @@
       </c>
       <c r="D70" s="20" t="n">
         <f aca="false">ROUND(2*D73*D76/(D73+D76),3)</f>
-        <v>0.737</v>
+        <v>0.739</v>
       </c>
       <c r="E70" s="20" t="n">
         <f aca="false">ROUND(2*E73*E76/(E73+E76),3)</f>
-        <v>0.731</v>
+        <v>0.734</v>
       </c>
       <c r="F70" s="37"/>
       <c r="G70" s="20" t="n">
         <f aca="false">ROUND(2*G73*G76/(G73+G76),3)</f>
-        <v>0.781</v>
+        <v>0.783</v>
       </c>
       <c r="H70" s="21" t="n">
         <f aca="false">ROUND(2*H73*H76/(H73+H76),3)</f>
-        <v>0.797</v>
+        <v>0.798</v>
       </c>
       <c r="I70" s="20" t="n">
         <f aca="false">ROUND(2*I73*I76/(I73+I76),3)</f>
-        <v>0.789</v>
-      </c>
-      <c r="J70" s="20" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="J70" s="34" t="n">
         <f aca="false">ROUND(2*J73*J76/(J73+J76),3)</f>
-        <v>0.845</v>
+        <v>0.854</v>
       </c>
       <c r="K70" s="20" t="n">
         <f aca="false">ROUND(2*K73*K76/(K73+K76),3)</f>
-        <v>0.772</v>
-      </c>
-      <c r="L70" s="22" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="L70" s="21" t="n">
         <f aca="false">ROUND(2*L73*L76/(L73+L76),3)</f>
-        <v>0.847</v>
+        <v>0.849</v>
       </c>
       <c r="M70" s="14"/>
       <c r="P70" s="14"/>
@@ -3314,29 +3266,29 @@
         <v>14</v>
       </c>
       <c r="D71" s="25" t="n">
-        <v>0.811</v>
+        <v>0.812</v>
       </c>
       <c r="E71" s="23" t="n">
-        <v>0.802</v>
-      </c>
-      <c r="F71" s="38"/>
+        <v>0.803</v>
+      </c>
+      <c r="F71" s="35"/>
       <c r="G71" s="23" t="n">
         <v>0.747</v>
       </c>
       <c r="H71" s="24" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="I71" s="23" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="J71" s="23" t="n">
-        <v>0.782</v>
+        <v>0.78</v>
       </c>
       <c r="K71" s="23" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="L71" s="24" t="n">
-        <v>0.769</v>
+        <v>0.765</v>
       </c>
       <c r="M71" s="14"/>
       <c r="N71" s="14"/>
@@ -3349,29 +3301,29 @@
         <v>15</v>
       </c>
       <c r="D72" s="26" t="n">
-        <v>0.928</v>
+        <v>0.926</v>
       </c>
       <c r="E72" s="14" t="n">
-        <v>0.903</v>
-      </c>
-      <c r="F72" s="39"/>
+        <v>0.901</v>
+      </c>
+      <c r="F72" s="36"/>
       <c r="G72" s="14" t="n">
         <v>0.728</v>
       </c>
       <c r="H72" s="27" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="I72" s="14" t="n">
-        <v>0.778</v>
+        <v>0.773</v>
       </c>
       <c r="J72" s="14" t="n">
-        <v>0.748</v>
+        <v>0.736</v>
       </c>
       <c r="K72" s="14" t="n">
-        <v>0.834</v>
+        <v>0.823</v>
       </c>
       <c r="L72" s="27" t="n">
-        <v>0.725</v>
+        <v>0.717</v>
       </c>
       <c r="M72" s="14"/>
       <c r="P72" s="14"/>
@@ -3382,29 +3334,29 @@
         <v>16</v>
       </c>
       <c r="D73" s="28" t="n">
-        <v>0.721</v>
+        <v>0.723</v>
       </c>
       <c r="E73" s="28" t="n">
-        <v>0.721</v>
-      </c>
-      <c r="F73" s="40"/>
+        <v>0.724</v>
+      </c>
+      <c r="F73" s="37"/>
       <c r="G73" s="28" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="H73" s="29" t="n">
         <v>0.782</v>
       </c>
       <c r="I73" s="28" t="n">
-        <v>0.747</v>
-      </c>
-      <c r="J73" s="34" t="n">
-        <v>0.819</v>
+        <v>0.749</v>
+      </c>
+      <c r="J73" s="30" t="n">
+        <v>0.829</v>
       </c>
       <c r="K73" s="28" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="L73" s="30" t="n">
-        <v>0.819</v>
+        <v>0.739</v>
+      </c>
+      <c r="L73" s="29" t="n">
+        <v>0.821</v>
       </c>
       <c r="M73" s="14"/>
       <c r="N73" s="14"/>
@@ -3419,30 +3371,30 @@
       <c r="C74" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="23" t="n">
-        <v>0.789</v>
+      <c r="D74" s="25" t="n">
+        <v>0.79</v>
       </c>
       <c r="E74" s="23" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="F74" s="38"/>
+        <v>0.779</v>
+      </c>
+      <c r="F74" s="35"/>
       <c r="G74" s="23" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="H74" s="24" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="I74" s="23" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="J74" s="23" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="K74" s="25" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="L74" s="24" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="M74" s="14"/>
       <c r="P74" s="14"/>
@@ -3453,29 +3405,29 @@
         <v>15</v>
       </c>
       <c r="D75" s="26" t="n">
-        <v>0.905</v>
+        <v>0.904</v>
       </c>
       <c r="E75" s="14" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="F75" s="39"/>
+        <v>0.894</v>
+      </c>
+      <c r="F75" s="36"/>
       <c r="G75" s="14" t="n">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="H75" s="27" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="I75" s="14" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="J75" s="14" t="n">
-        <v>0.735</v>
+        <v>0.726</v>
       </c>
       <c r="K75" s="14" t="n">
-        <v>0.806</v>
+        <v>0.798</v>
       </c>
       <c r="L75" s="27" t="n">
-        <v>0.719</v>
+        <v>0.714</v>
       </c>
       <c r="M75" s="14"/>
       <c r="P75" s="14"/>
@@ -3486,29 +3438,29 @@
         <v>16</v>
       </c>
       <c r="D76" s="28" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="E76" s="28" t="n">
-        <v>0.742</v>
-      </c>
-      <c r="F76" s="40"/>
+        <v>0.744</v>
+      </c>
+      <c r="F76" s="37"/>
       <c r="G76" s="28" t="n">
-        <v>0.796</v>
+        <v>0.798</v>
       </c>
       <c r="H76" s="29" t="n">
-        <v>0.813</v>
+        <v>0.814</v>
       </c>
       <c r="I76" s="28" t="n">
-        <v>0.836</v>
-      </c>
-      <c r="J76" s="28" t="n">
-        <v>0.873</v>
+        <v>0.837</v>
+      </c>
+      <c r="J76" s="30" t="n">
+        <v>0.88</v>
       </c>
       <c r="K76" s="28" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="L76" s="30" t="n">
-        <v>0.877</v>
+        <v>0.827</v>
+      </c>
+      <c r="L76" s="29" t="n">
+        <v>0.878</v>
       </c>
       <c r="M76" s="14"/>
       <c r="P76" s="14"/>
@@ -3525,36 +3477,36 @@
       </c>
       <c r="D77" s="11" t="n">
         <f aca="false">ROUND(2*D80*D83/(D80+D83),3)</f>
-        <v>0.799</v>
+        <v>0.811</v>
       </c>
       <c r="E77" s="11" t="n">
         <f aca="false">ROUND(2*E80*E83/(E80+E83),3)</f>
-        <v>0.802</v>
+        <v>0.82</v>
       </c>
       <c r="F77" s="35"/>
       <c r="G77" s="11" t="n">
         <f aca="false">ROUND(2*G80*G83/(G80+G83),3)</f>
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="H77" s="12" t="n">
         <f aca="false">ROUND(2*H80*H83/(H80+H83),3)</f>
-        <v>0.827</v>
+        <v>0.823</v>
       </c>
       <c r="I77" s="11" t="n">
         <f aca="false">ROUND(2*I80*I83/(I80+I83),3)</f>
-        <v>0.848</v>
+        <v>0.838</v>
       </c>
       <c r="J77" s="11" t="n">
         <f aca="false">ROUND(2*J80*J83/(J80+J83),3)</f>
-        <v>0.846</v>
-      </c>
-      <c r="K77" s="32" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K77" s="13" t="n">
         <f aca="false">ROUND(2*K80*K83/(K80+K83),3)</f>
-        <v>0.862</v>
+        <v>0.858</v>
       </c>
       <c r="L77" s="12" t="n">
         <f aca="false">ROUND(2*L80*L83/(L80+L83),3)</f>
-        <v>0.84</v>
+        <v>0.828</v>
       </c>
       <c r="M77" s="14"/>
       <c r="P77" s="14"/>
@@ -3566,16 +3518,16 @@
       </c>
       <c r="D78" s="17" t="n">
         <f aca="false">ROUND(2*D81*D84/(D81+D84),3)</f>
-        <v>0.932</v>
+        <v>0.923</v>
       </c>
       <c r="E78" s="16" t="n">
         <f aca="false">ROUND(2*E81*E84/(E81+E84),3)</f>
-        <v>0.95</v>
+        <v>0.949</v>
       </c>
       <c r="F78" s="36"/>
       <c r="G78" s="17" t="n">
         <f aca="false">ROUND(2*G81*G84/(G81+G84),3)</f>
-        <v>0.807</v>
+        <v>0.798</v>
       </c>
       <c r="H78" s="18" t="n">
         <f aca="false">ROUND(2*H81*H84/(H81+H84),3)</f>
@@ -3583,19 +3535,19 @@
       </c>
       <c r="I78" s="17" t="n">
         <f aca="false">ROUND(2*I81*I84/(I81+I84),3)</f>
-        <v>0.847</v>
+        <v>0.831</v>
       </c>
       <c r="J78" s="17" t="n">
         <f aca="false">ROUND(2*J81*J84/(J81+J84),3)</f>
-        <v>0.826</v>
+        <v>0.802</v>
       </c>
       <c r="K78" s="17" t="n">
         <f aca="false">ROUND(2*K81*K84/(K81+K84),3)</f>
-        <v>0.889</v>
+        <v>0.872</v>
       </c>
       <c r="L78" s="18" t="n">
         <f aca="false">ROUND(2*L81*L84/(L81+L84),3)</f>
-        <v>0.809</v>
+        <v>0.788</v>
       </c>
       <c r="M78" s="14"/>
       <c r="P78" s="14"/>
@@ -3607,36 +3559,36 @@
       </c>
       <c r="D79" s="20" t="n">
         <f aca="false">ROUND(2*D82*D85/(D82+D85),3)</f>
-        <v>0.713</v>
+        <v>0.737</v>
       </c>
       <c r="E79" s="20" t="n">
         <f aca="false">ROUND(2*E82*E85/(E82+E85),3)</f>
-        <v>0.709</v>
+        <v>0.739</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="20" t="n">
         <f aca="false">ROUND(2*G82*G85/(G82+G85),3)</f>
-        <v>0.823</v>
+        <v>0.83</v>
       </c>
       <c r="H79" s="21" t="n">
         <f aca="false">ROUND(2*H82*H85/(H82+H85),3)</f>
-        <v>0.88</v>
+        <v>0.875</v>
       </c>
       <c r="I79" s="20" t="n">
         <f aca="false">ROUND(2*I82*I85/(I82+I85),3)</f>
-        <v>0.854</v>
-      </c>
-      <c r="J79" s="20" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="J79" s="34" t="n">
         <f aca="false">ROUND(2*J82*J85/(J82+J85),3)</f>
-        <v>0.874</v>
+        <v>0.889</v>
       </c>
       <c r="K79" s="20" t="n">
         <f aca="false">ROUND(2*K82*K85/(K82+K85),3)</f>
-        <v>0.841</v>
-      </c>
-      <c r="L79" s="22" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L79" s="21" t="n">
         <f aca="false">ROUND(2*L82*L85/(L82+L85),3)</f>
-        <v>0.881</v>
+        <v>0.879</v>
       </c>
       <c r="M79" s="14"/>
       <c r="P79" s="14"/>
@@ -3650,29 +3602,29 @@
         <v>14</v>
       </c>
       <c r="D80" s="23" t="n">
-        <v>0.8</v>
+        <v>0.819</v>
       </c>
       <c r="E80" s="23" t="n">
-        <v>0.797</v>
-      </c>
-      <c r="F80" s="38"/>
+        <v>0.824</v>
+      </c>
+      <c r="F80" s="35"/>
       <c r="G80" s="23" t="n">
         <v>0.812</v>
       </c>
       <c r="H80" s="24" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="I80" s="23" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="J80" s="23" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K80" s="25" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="L80" s="24" t="n">
         <v>0.834</v>
-      </c>
-      <c r="I80" s="23" t="n">
-        <v>0.858</v>
-      </c>
-      <c r="J80" s="23" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="K80" s="25" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="L80" s="24" t="n">
-        <v>0.85</v>
       </c>
       <c r="M80" s="14"/>
       <c r="N80" s="14"/>
@@ -3684,30 +3636,30 @@
       <c r="C81" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="26" t="n">
+      <c r="D81" s="14" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="E81" s="26" t="n">
         <v>0.943</v>
       </c>
-      <c r="E81" s="14" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="F81" s="39"/>
+      <c r="F81" s="36"/>
       <c r="G81" s="14" t="n">
-        <v>0.803</v>
+        <v>0.789</v>
       </c>
       <c r="H81" s="27" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="I81" s="14" t="n">
-        <v>0.86</v>
+        <v>0.837</v>
       </c>
       <c r="J81" s="14" t="n">
-        <v>0.836</v>
+        <v>0.808</v>
       </c>
       <c r="K81" s="14" t="n">
-        <v>0.9</v>
+        <v>0.879</v>
       </c>
       <c r="L81" s="27" t="n">
-        <v>0.818</v>
+        <v>0.791</v>
       </c>
       <c r="M81" s="14"/>
       <c r="P81" s="14"/>
@@ -3718,29 +3670,29 @@
         <v>16</v>
       </c>
       <c r="D82" s="28" t="n">
-        <v>0.695</v>
+        <v>0.73</v>
       </c>
       <c r="E82" s="28" t="n">
-        <v>0.688</v>
-      </c>
-      <c r="F82" s="40"/>
+        <v>0.732</v>
+      </c>
+      <c r="F82" s="37"/>
       <c r="G82" s="28" t="n">
-        <v>0.822</v>
+        <v>0.835</v>
       </c>
       <c r="H82" s="29" t="n">
-        <v>0.881</v>
+        <v>0.877</v>
       </c>
       <c r="I82" s="28" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="J82" s="28" t="n">
-        <v>0.879</v>
+        <v>0.85</v>
+      </c>
+      <c r="J82" s="30" t="n">
+        <v>0.896</v>
       </c>
       <c r="K82" s="28" t="n">
-        <v>0.841</v>
-      </c>
-      <c r="L82" s="30" t="n">
-        <v>0.884</v>
+        <v>0.849</v>
+      </c>
+      <c r="L82" s="29" t="n">
+        <v>0.882</v>
       </c>
       <c r="M82" s="14"/>
       <c r="N82" s="14"/>
@@ -3756,29 +3708,29 @@
         <v>14</v>
       </c>
       <c r="D83" s="23" t="n">
-        <v>0.799</v>
+        <v>0.804</v>
       </c>
       <c r="E83" s="23" t="n">
-        <v>0.807</v>
-      </c>
-      <c r="F83" s="38"/>
+        <v>0.816</v>
+      </c>
+      <c r="F83" s="35"/>
       <c r="G83" s="23" t="n">
-        <v>0.794</v>
+        <v>0.789</v>
       </c>
       <c r="H83" s="24" t="n">
-        <v>0.82</v>
+        <v>0.815</v>
       </c>
       <c r="I83" s="23" t="n">
-        <v>0.839</v>
+        <v>0.832</v>
       </c>
       <c r="J83" s="23" t="n">
-        <v>0.836</v>
+        <v>0.83</v>
       </c>
       <c r="K83" s="25" t="n">
-        <v>0.855</v>
+        <v>0.853</v>
       </c>
       <c r="L83" s="24" t="n">
-        <v>0.831</v>
+        <v>0.822</v>
       </c>
       <c r="M83" s="14"/>
       <c r="P83" s="14"/>
@@ -3789,29 +3741,29 @@
         <v>15</v>
       </c>
       <c r="D84" s="14" t="n">
-        <v>0.922</v>
+        <v>0.916</v>
       </c>
       <c r="E84" s="26" t="n">
-        <v>0.954</v>
-      </c>
-      <c r="F84" s="39"/>
+        <v>0.955</v>
+      </c>
+      <c r="F84" s="36"/>
       <c r="G84" s="14" t="n">
-        <v>0.811</v>
+        <v>0.808</v>
       </c>
       <c r="H84" s="27" t="n">
-        <v>0.806</v>
+        <v>0.808</v>
       </c>
       <c r="I84" s="14" t="n">
-        <v>0.835</v>
+        <v>0.825</v>
       </c>
       <c r="J84" s="14" t="n">
-        <v>0.816</v>
+        <v>0.796</v>
       </c>
       <c r="K84" s="14" t="n">
-        <v>0.879</v>
+        <v>0.865</v>
       </c>
       <c r="L84" s="27" t="n">
-        <v>0.801</v>
+        <v>0.786</v>
       </c>
       <c r="M84" s="14"/>
       <c r="P84" s="14"/>
@@ -3822,29 +3774,29 @@
         <v>16</v>
       </c>
       <c r="D85" s="28" t="n">
-        <v>0.733</v>
+        <v>0.744</v>
       </c>
       <c r="E85" s="28" t="n">
-        <v>0.732</v>
-      </c>
-      <c r="F85" s="40"/>
+        <v>0.747</v>
+      </c>
+      <c r="F85" s="37"/>
       <c r="G85" s="28" t="n">
         <v>0.825</v>
       </c>
-      <c r="H85" s="30" t="n">
-        <v>0.879</v>
+      <c r="H85" s="29" t="n">
+        <v>0.873</v>
       </c>
       <c r="I85" s="28" t="n">
-        <v>0.854</v>
-      </c>
-      <c r="J85" s="28" t="n">
-        <v>0.87</v>
+        <v>0.852</v>
+      </c>
+      <c r="J85" s="30" t="n">
+        <v>0.883</v>
       </c>
       <c r="K85" s="28" t="n">
-        <v>0.842</v>
+        <v>0.851</v>
       </c>
       <c r="L85" s="29" t="n">
-        <v>0.878</v>
+        <v>0.877</v>
       </c>
       <c r="M85" s="14"/>
       <c r="P85" s="14"/>
@@ -3871,36 +3823,36 @@
         <f aca="false">ROUND(2*F89*F92/(F89+F92),3)</f>
         <v>0.647</v>
       </c>
-      <c r="G86" s="11" t="n">
+      <c r="G86" s="11" t="e">
         <f aca="false">ROUND(2*G89*G92/(G89+G92),3)</f>
-        <v>0.597</v>
-      </c>
-      <c r="H86" s="12" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H86" s="12" t="e">
         <f aca="false">ROUND(2*H89*H92/(H89+H92),3)</f>
-        <v>0.606</v>
-      </c>
-      <c r="I86" s="11" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I86" s="11" t="e">
         <f aca="false">ROUND(2*I89*I92/(I89+I92),3)</f>
-        <v>0.752</v>
-      </c>
-      <c r="J86" s="32" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J86" s="11" t="e">
         <f aca="false">ROUND(2*J89*J92/(J89+J92),3)</f>
-        <v>0.773</v>
-      </c>
-      <c r="K86" s="11" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K86" s="11" t="e">
         <f aca="false">ROUND(2*K89*K92/(K89+K92),3)</f>
-        <v>0.756</v>
-      </c>
-      <c r="L86" s="12" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L86" s="12" t="e">
         <f aca="false">ROUND(2*L89*L92/(L89+L92),3)</f>
-        <v>0.771</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="16" t="n">
+      <c r="D87" s="17" t="n">
         <f aca="false">ROUND(2*D90*D93/(D90+D93),3)</f>
         <v>0.917</v>
       </c>
@@ -3912,29 +3864,29 @@
         <f aca="false">ROUND(2*F90*F93/(F90+F93),3)</f>
         <v>0.78</v>
       </c>
-      <c r="G87" s="17" t="n">
+      <c r="G87" s="17" t="e">
         <f aca="false">ROUND(2*G90*G93/(G90+G93),3)</f>
-        <v>0.62</v>
-      </c>
-      <c r="H87" s="18" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H87" s="18" t="e">
         <f aca="false">ROUND(2*H90*H93/(H90+H93),3)</f>
-        <v>0.607</v>
-      </c>
-      <c r="I87" s="17" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I87" s="17" t="e">
         <f aca="false">ROUND(2*I90*I93/(I90+I93),3)</f>
-        <v>0.825</v>
-      </c>
-      <c r="J87" s="17" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J87" s="17" t="e">
         <f aca="false">ROUND(2*J90*J93/(J90+J93),3)</f>
-        <v>0.781</v>
-      </c>
-      <c r="K87" s="17" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K87" s="17" t="e">
         <f aca="false">ROUND(2*K90*K93/(K90+K93),3)</f>
-        <v>0.88</v>
-      </c>
-      <c r="L87" s="18" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L87" s="18" t="e">
         <f aca="false">ROUND(2*L90*L93/(L90+L93),3)</f>
-        <v>0.767</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3953,29 +3905,29 @@
         <f aca="false">ROUND(2*F91*F94/(F91+F94),3)</f>
         <v>0.559</v>
       </c>
-      <c r="G88" s="20" t="n">
+      <c r="G88" s="20" t="e">
         <f aca="false">ROUND(2*G91*G94/(G91+G94),3)</f>
-        <v>0.582</v>
-      </c>
-      <c r="H88" s="21" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88" s="21" t="e">
         <f aca="false">ROUND(2*H91*H94/(H91+H94),3)</f>
-        <v>0.611</v>
-      </c>
-      <c r="I88" s="20" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I88" s="20" t="e">
         <f aca="false">ROUND(2*I91*I94/(I91+I94),3)</f>
-        <v>0.696</v>
-      </c>
-      <c r="J88" s="20" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J88" s="20" t="e">
         <f aca="false">ROUND(2*J91*J94/(J91+J94),3)</f>
-        <v>0.768</v>
-      </c>
-      <c r="K88" s="20" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K88" s="20" t="e">
         <f aca="false">ROUND(2*K91*K94/(K91+K94),3)</f>
-        <v>0.671</v>
-      </c>
-      <c r="L88" s="22" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L88" s="21" t="e">
         <f aca="false">ROUND(2*L91*L94/(L91+L94),3)</f>
-        <v>0.778</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3985,65 +3937,41 @@
       <c r="C89" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="25" t="n">
+      <c r="D89" s="23" t="n">
         <v>0.772</v>
       </c>
       <c r="E89" s="23" t="n">
         <v>0.75</v>
       </c>
-      <c r="F89" s="42" t="n">
+      <c r="F89" s="24" t="n">
         <v>0.657</v>
       </c>
-      <c r="G89" s="23" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="H89" s="24" t="n">
-        <v>0.589</v>
-      </c>
-      <c r="I89" s="23" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="J89" s="23" t="n">
-        <v>0.753</v>
-      </c>
-      <c r="K89" s="23" t="n">
-        <v>0.735</v>
-      </c>
-      <c r="L89" s="24" t="n">
-        <v>0.749</v>
-      </c>
+      <c r="G89" s="23"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="24"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="26" t="n">
+      <c r="D90" s="14" t="n">
         <v>0.922</v>
       </c>
       <c r="E90" s="14" t="n">
         <v>0.861</v>
       </c>
-      <c r="F90" s="43" t="n">
+      <c r="F90" s="27" t="n">
         <v>0.784</v>
       </c>
-      <c r="G90" s="14" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="H90" s="27" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="I90" s="14" t="n">
-        <v>0.822</v>
-      </c>
-      <c r="J90" s="14" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="K90" s="14" t="n">
-        <v>0.891</v>
-      </c>
-      <c r="L90" s="27" t="n">
-        <v>0.748</v>
-      </c>
+      <c r="G90" s="14"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="27"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="19" t="s">
@@ -4055,27 +3983,15 @@
       <c r="E91" s="28" t="n">
         <v>0.664</v>
       </c>
-      <c r="F91" s="44" t="n">
+      <c r="F91" s="29" t="n">
         <v>0.566</v>
       </c>
-      <c r="G91" s="28" t="n">
-        <v>0.562</v>
-      </c>
-      <c r="H91" s="29" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="I91" s="28" t="n">
-        <v>0.651</v>
-      </c>
-      <c r="J91" s="28" t="n">
-        <v>0.739</v>
-      </c>
-      <c r="K91" s="28" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="L91" s="30" t="n">
-        <v>0.749</v>
-      </c>
+      <c r="G91" s="28"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="29"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
@@ -4090,59 +4006,35 @@
       <c r="E92" s="23" t="n">
         <v>0.726</v>
       </c>
-      <c r="F92" s="42" t="n">
+      <c r="F92" s="24" t="n">
         <v>0.638</v>
       </c>
-      <c r="G92" s="23" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="H92" s="24" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="I92" s="23" t="n">
-        <v>0.779</v>
-      </c>
-      <c r="J92" s="25" t="n">
-        <v>0.795</v>
-      </c>
-      <c r="K92" s="23" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="L92" s="24" t="n">
-        <v>0.794</v>
-      </c>
+      <c r="G92" s="23"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="24"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="26" t="n">
+      <c r="D93" s="14" t="n">
         <v>0.912</v>
       </c>
       <c r="E93" s="14" t="n">
         <v>0.882</v>
       </c>
-      <c r="F93" s="43" t="n">
+      <c r="F93" s="27" t="n">
         <v>0.777</v>
       </c>
-      <c r="G93" s="14" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="H93" s="27" t="n">
-        <v>0.624</v>
-      </c>
-      <c r="I93" s="14" t="n">
-        <v>0.828</v>
-      </c>
-      <c r="J93" s="14" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="K93" s="14" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="L93" s="27" t="n">
-        <v>0.786</v>
-      </c>
+      <c r="G93" s="14"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="27"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="19" t="s">
@@ -4154,27 +4046,15 @@
       <c r="E94" s="28" t="n">
         <v>0.644</v>
       </c>
-      <c r="F94" s="44" t="n">
+      <c r="F94" s="29" t="n">
         <v>0.553</v>
       </c>
-      <c r="G94" s="28" t="n">
-        <v>0.604</v>
-      </c>
-      <c r="H94" s="29" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="I94" s="28" t="n">
-        <v>0.747</v>
-      </c>
-      <c r="J94" s="28" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K94" s="28" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="L94" s="30" t="n">
-        <v>0.81</v>
-      </c>
+      <c r="G94" s="28"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="29"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
@@ -4187,26 +4067,8 @@
       <c r="E95" s="3" t="n">
         <v>259.1</v>
       </c>
-      <c r="F95" s="45" t="n">
+      <c r="F95" s="3" t="n">
         <v>86705.3</v>
-      </c>
-      <c r="G95" s="3" t="n">
-        <v>8483.4</v>
-      </c>
-      <c r="H95" s="3" t="n">
-        <v>8692.7</v>
-      </c>
-      <c r="I95" s="3" t="n">
-        <v>1606</v>
-      </c>
-      <c r="J95" s="3" t="n">
-        <v>24222.8</v>
-      </c>
-      <c r="K95" s="3" t="n">
-        <v>24154.4</v>
-      </c>
-      <c r="L95" s="3" t="n">
-        <v>24204.2</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4231,29 +4093,29 @@
         <f aca="false">ROUND(2*F99*F102/(F99+F102),3)</f>
         <v>0.665</v>
       </c>
-      <c r="G96" s="11" t="n">
+      <c r="G96" s="11" t="e">
         <f aca="false">ROUND(2*G99*G102/(G99+G102),3)</f>
-        <v>0.76</v>
-      </c>
-      <c r="H96" s="12" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H96" s="12" t="e">
         <f aca="false">ROUND(2*H99*H102/(H99+H102),3)</f>
-        <v>0.771</v>
-      </c>
-      <c r="I96" s="11" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I96" s="11" t="e">
         <f aca="false">ROUND(2*I99*I102/(I99+I102),3)</f>
-        <v>0.826</v>
-      </c>
-      <c r="J96" s="32" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J96" s="11" t="e">
         <f aca="false">ROUND(2*J99*J102/(J99+J102),3)</f>
-        <v>0.846</v>
-      </c>
-      <c r="K96" s="11" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K96" s="11" t="e">
         <f aca="false">ROUND(2*K99*K102/(K99+K102),3)</f>
-        <v>0.828</v>
-      </c>
-      <c r="L96" s="12" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L96" s="12" t="e">
         <f aca="false">ROUND(2*L99*L102/(L99+L102),3)</f>
-        <v>0.845</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4261,7 +4123,7 @@
       <c r="C97" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D97" s="16" t="n">
+      <c r="D97" s="17" t="n">
         <f aca="false">ROUND(2*D100*D103/(D100+D103),3)</f>
         <v>0.954</v>
       </c>
@@ -4273,29 +4135,29 @@
         <f aca="false">ROUND(2*F100*F103/(F100+F103),3)</f>
         <v>0.842</v>
       </c>
-      <c r="G97" s="17" t="n">
+      <c r="G97" s="17" t="e">
         <f aca="false">ROUND(2*G100*G103/(G100+G103),3)</f>
-        <v>0.783</v>
-      </c>
-      <c r="H97" s="18" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H97" s="18" t="e">
         <f aca="false">ROUND(2*H100*H103/(H100+H103),3)</f>
-        <v>0.753</v>
-      </c>
-      <c r="I97" s="17" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I97" s="17" t="e">
         <f aca="false">ROUND(2*I100*I103/(I100+I103),3)</f>
-        <v>0.88</v>
-      </c>
-      <c r="J97" s="17" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J97" s="17" t="e">
         <f aca="false">ROUND(2*J100*J103/(J100+J103),3)</f>
-        <v>0.859</v>
-      </c>
-      <c r="K97" s="17" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K97" s="17" t="e">
         <f aca="false">ROUND(2*K100*K103/(K100+K103),3)</f>
-        <v>0.911</v>
-      </c>
-      <c r="L97" s="18" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L97" s="18" t="e">
         <f aca="false">ROUND(2*L100*L103/(L100+L103),3)</f>
-        <v>0.845</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4315,29 +4177,29 @@
         <f aca="false">ROUND(2*F101*F104/(F101+F104),3)</f>
         <v>0.551</v>
       </c>
-      <c r="G98" s="20" t="n">
+      <c r="G98" s="20" t="e">
         <f aca="false">ROUND(2*G101*G104/(G101+G104),3)</f>
-        <v>0.742</v>
-      </c>
-      <c r="H98" s="21" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H98" s="21" t="e">
         <f aca="false">ROUND(2*H101*H104/(H101+H104),3)</f>
-        <v>0.791</v>
-      </c>
-      <c r="I98" s="20" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I98" s="20" t="e">
         <f aca="false">ROUND(2*I101*I104/(I101+I104),3)</f>
-        <v>0.781</v>
-      </c>
-      <c r="J98" s="20" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J98" s="20" t="e">
         <f aca="false">ROUND(2*J101*J104/(J101+J104),3)</f>
-        <v>0.834</v>
-      </c>
-      <c r="K98" s="20" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K98" s="20" t="e">
         <f aca="false">ROUND(2*K101*K104/(K101+K104),3)</f>
-        <v>0.763</v>
-      </c>
-      <c r="L98" s="22" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L98" s="21" t="e">
         <f aca="false">ROUND(2*L101*L104/(L101+L104),3)</f>
-        <v>0.846</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4354,60 +4216,36 @@
       <c r="E99" s="23" t="n">
         <v>0.763</v>
       </c>
-      <c r="F99" s="42" t="n">
+      <c r="F99" s="24" t="n">
         <v>0.68</v>
       </c>
-      <c r="G99" s="23" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H99" s="24" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="I99" s="23" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="J99" s="25" t="n">
-        <v>0.831</v>
-      </c>
-      <c r="K99" s="23" t="n">
-        <v>0.811</v>
-      </c>
-      <c r="L99" s="24" t="n">
-        <v>0.827</v>
-      </c>
+      <c r="G99" s="23"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="24"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="C100" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="26" t="n">
+      <c r="D100" s="14" t="n">
         <v>0.959</v>
       </c>
       <c r="E100" s="14" t="n">
         <v>0.924</v>
       </c>
-      <c r="F100" s="43" t="n">
+      <c r="F100" s="27" t="n">
         <v>0.867</v>
       </c>
-      <c r="G100" s="14" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="H100" s="27" t="n">
-        <v>0.748</v>
-      </c>
-      <c r="I100" s="14" t="n">
-        <v>0.878</v>
-      </c>
-      <c r="J100" s="14" t="n">
-        <v>0.851</v>
-      </c>
-      <c r="K100" s="14" t="n">
-        <v>0.919</v>
-      </c>
-      <c r="L100" s="27" t="n">
-        <v>0.833</v>
-      </c>
+      <c r="G100" s="14"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="27"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
@@ -4420,27 +4258,15 @@
       <c r="E101" s="28" t="n">
         <v>0.65</v>
       </c>
-      <c r="F101" s="44" t="n">
+      <c r="F101" s="29" t="n">
         <v>0.56</v>
       </c>
-      <c r="G101" s="28" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="H101" s="29" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="I101" s="28" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="J101" s="28" t="n">
-        <v>0.811</v>
-      </c>
-      <c r="K101" s="28" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="L101" s="30" t="n">
-        <v>0.822</v>
-      </c>
+      <c r="G101" s="28"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="29"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6"/>
@@ -4456,60 +4282,36 @@
       <c r="E102" s="23" t="n">
         <v>0.743</v>
       </c>
-      <c r="F102" s="42" t="n">
+      <c r="F102" s="24" t="n">
         <v>0.65</v>
       </c>
-      <c r="G102" s="23" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H102" s="24" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="I102" s="23" t="n">
-        <v>0.847</v>
-      </c>
-      <c r="J102" s="23" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="K102" s="23" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="L102" s="31" t="n">
-        <v>0.863</v>
-      </c>
+      <c r="G102" s="23"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="24"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6"/>
       <c r="C103" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="26" t="n">
+      <c r="D103" s="14" t="n">
         <v>0.949</v>
       </c>
       <c r="E103" s="14" t="n">
         <v>0.932</v>
       </c>
-      <c r="F103" s="43" t="n">
+      <c r="F103" s="27" t="n">
         <v>0.819</v>
       </c>
-      <c r="G103" s="14" t="n">
-        <v>0.789</v>
-      </c>
-      <c r="H103" s="27" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="I103" s="14" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="J103" s="14" t="n">
-        <v>0.867</v>
-      </c>
-      <c r="K103" s="14" t="n">
-        <v>0.903</v>
-      </c>
-      <c r="L103" s="27" t="n">
-        <v>0.858</v>
-      </c>
+      <c r="G103" s="14"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="27"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6"/>
@@ -4522,27 +4324,15 @@
       <c r="E104" s="28" t="n">
         <v>0.644</v>
       </c>
-      <c r="F104" s="44" t="n">
+      <c r="F104" s="29" t="n">
         <v>0.543</v>
       </c>
-      <c r="G104" s="28" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="H104" s="29" t="n">
-        <v>0.814</v>
-      </c>
-      <c r="I104" s="28" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="J104" s="28" t="n">
-        <v>0.859</v>
-      </c>
-      <c r="K104" s="28" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="L104" s="30" t="n">
-        <v>0.871</v>
-      </c>
+      <c r="G104" s="28"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="29"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6"/>
@@ -4734,9 +4524,9 @@
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4815,41 +4605,41 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="46" t="n">
+      <c r="D2" s="39" t="e">
         <f aca="false">ROUND(2*D3*D4/(D3+D4),3)</f>
-        <v>0.759</v>
-      </c>
-      <c r="E2" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E2" s="39" t="e">
         <f aca="false">ROUND(2*E3*E4/(E3+E4),3)</f>
-        <v>0.748</v>
-      </c>
-      <c r="F2" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" s="39" t="e">
         <f aca="false">ROUND(2*F3*F4/(F3+F4),3)</f>
-        <v>0.683</v>
-      </c>
-      <c r="G2" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f aca="false">ROUND(2*G3*G4/(G3+G4),3)</f>
-        <v>0.682</v>
-      </c>
-      <c r="H2" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H2" s="39" t="e">
         <f aca="false">ROUND(2*H3*H4/(H3+H4),3)</f>
-        <v>0.686</v>
-      </c>
-      <c r="I2" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2" s="39" t="e">
         <f aca="false">ROUND(2*I3*I4/(I3+I4),3)</f>
-        <v>0.801</v>
-      </c>
-      <c r="J2" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f aca="false">ROUND(2*J3*J4/(J3+J4),3)</f>
-        <v>0.82</v>
-      </c>
-      <c r="K2" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2" s="39" t="e">
         <f aca="false">ROUND(2*K3*K4/(K3+K4),3)</f>
-        <v>0.801</v>
-      </c>
-      <c r="L2" s="47" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" s="39" t="e">
         <f aca="false">ROUND(2*L3*L4/(L3+L4),3)</f>
-        <v>0.823</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M2" s="14"/>
       <c r="P2" s="14"/>
@@ -4860,33 +4650,6 @@
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0.697</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0.711</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0.709</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.782</v>
-      </c>
-      <c r="J3" s="48" t="n">
-        <v>0.807</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>0.806</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
@@ -4900,33 +4663,6 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>0.735</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>0.664</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>0.834</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="L4" s="48" t="n">
-        <v>0.84</v>
-      </c>
       <c r="M4" s="14"/>
       <c r="P4" s="14"/>
     </row>
@@ -4935,33 +4671,6 @@
         <v>19</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="3" t="n">
-        <v>1093.4</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>495.5</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>115.1</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>114.8</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>1072</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>1088.2</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>1096.6</v>
-      </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -4977,41 +4686,41 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="46" t="n">
+      <c r="D6" s="39" t="e">
         <f aca="false">ROUND(2*D7*D8/(D7+D8),3)</f>
-        <v>0.776</v>
-      </c>
-      <c r="E6" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="39" t="e">
         <f aca="false">ROUND(2*E7*E8/(E7+E8),3)</f>
-        <v>0.762</v>
-      </c>
-      <c r="F6" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="39" t="e">
         <f aca="false">ROUND(2*F7*F8/(F7+F8),3)</f>
-        <v>0.708</v>
-      </c>
-      <c r="G6" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="39" t="e">
         <f aca="false">ROUND(2*G7*G8/(G7+G8),3)</f>
-        <v>0.721</v>
-      </c>
-      <c r="H6" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="39" t="e">
         <f aca="false">ROUND(2*H7*H8/(H7+H8),3)</f>
-        <v>0.734</v>
-      </c>
-      <c r="I6" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="39" t="e">
         <f aca="false">ROUND(2*I7*I8/(I7+I8),3)</f>
-        <v>0.81</v>
-      </c>
-      <c r="J6" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="39" t="e">
         <f aca="false">ROUND(2*J7*J8/(J7+J8),3)</f>
-        <v>0.833</v>
-      </c>
-      <c r="K6" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="39" t="e">
         <f aca="false">ROUND(2*K7*K8/(K7+K8),3)</f>
-        <v>0.812</v>
-      </c>
-      <c r="L6" s="47" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="39" t="e">
         <f aca="false">ROUND(2*L7*L8/(L7+L8),3)</f>
-        <v>0.835</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M6" s="14"/>
       <c r="P6" s="14"/>
@@ -5024,33 +4733,6 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>0.744</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>0.755</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.788</v>
-      </c>
-      <c r="J7" s="48" t="n">
-        <v>0.815</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>0.792</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>0.814</v>
-      </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -5064,33 +4746,6 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>0.715</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.834</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>0.851</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="L8" s="48" t="n">
-        <v>0.858</v>
-      </c>
       <c r="M8" s="14"/>
       <c r="P8" s="14"/>
     </row>
@@ -5104,41 +4759,41 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="46" t="n">
+      <c r="D9" s="39" t="e">
         <f aca="false">ROUND(2*D10*D11/(D10+D11),3)</f>
-        <v>0.761</v>
-      </c>
-      <c r="E9" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="39" t="e">
         <f aca="false">ROUND(2*E10*E11/(E10+E11),3)</f>
-        <v>0.734</v>
-      </c>
-      <c r="F9" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="39" t="e">
         <f aca="false">ROUND(2*F10*F11/(F10+F11),3)</f>
-        <v>0.63</v>
-      </c>
-      <c r="G9" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="39" t="e">
         <f aca="false">ROUND(2*G10*G11/(G10+G11),3)</f>
-        <v>0.82</v>
-      </c>
-      <c r="H9" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="39" t="e">
         <f aca="false">ROUND(2*H10*H11/(H10+H11),3)</f>
-        <v>0.845</v>
-      </c>
-      <c r="I9" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="39" t="e">
         <f aca="false">ROUND(2*I10*I11/(I10+I11),3)</f>
-        <v>0.888</v>
-      </c>
-      <c r="J9" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="39" t="e">
         <f aca="false">ROUND(2*J10*J11/(J10+J11),3)</f>
-        <v>0.89</v>
-      </c>
-      <c r="K9" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="39" t="e">
         <f aca="false">ROUND(2*K10*K11/(K10+K11),3)</f>
-        <v>0.888</v>
-      </c>
-      <c r="L9" s="47" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="39" t="e">
         <f aca="false">ROUND(2*L10*L11/(L10+L11),3)</f>
-        <v>0.891</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M9" s="14"/>
       <c r="P9" s="14"/>
@@ -5151,33 +4806,6 @@
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>0.814</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="I10" s="48" t="n">
-        <v>0.893</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K10" s="48" t="n">
-        <v>0.893</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>0.892</v>
-      </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
@@ -5191,33 +4819,6 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="n">
-        <v>0.772</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>0.629</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>0.827</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="J11" s="48" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="L11" s="48" t="n">
-        <v>0.89</v>
-      </c>
       <c r="M11" s="14"/>
       <c r="P11" s="14"/>
     </row>
@@ -5231,41 +4832,41 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="46" t="n">
+      <c r="D12" s="39" t="e">
         <f aca="false">ROUND(2*D13*D14/(D13+D14),3)</f>
-        <v>0.797</v>
-      </c>
-      <c r="E12" s="47" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="39" t="e">
         <f aca="false">ROUND(2*E13*E14/(E13+E14),3)</f>
-        <v>0.803</v>
-      </c>
-      <c r="F12" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="39" t="e">
         <f aca="false">ROUND(2*F13*F14/(F13+F14),3)</f>
-        <v>0.756</v>
-      </c>
-      <c r="G12" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="39" t="e">
         <f aca="false">ROUND(2*G13*G14/(G13+G14),3)</f>
-        <v>0.72</v>
-      </c>
-      <c r="H12" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="39" t="e">
         <f aca="false">ROUND(2*H13*H14/(H13+H14),3)</f>
-        <v>0.723</v>
-      </c>
-      <c r="I12" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="39" t="e">
         <f aca="false">ROUND(2*I13*I14/(I13+I14),3)</f>
-        <v>0.747</v>
-      </c>
-      <c r="J12" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="39" t="e">
         <f aca="false">ROUND(2*J13*J14/(J13+J14),3)</f>
-        <v>0.773</v>
-      </c>
-      <c r="K12" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="39" t="e">
         <f aca="false">ROUND(2*K13*K14/(K13+K14),3)</f>
-        <v>0.76</v>
-      </c>
-      <c r="L12" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="39" t="e">
         <f aca="false">ROUND(2*L13*L14/(L13+L14),3)</f>
-        <v>0.757</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M12" s="14"/>
       <c r="P12" s="14"/>
@@ -5276,33 +4877,6 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>0.799</v>
-      </c>
-      <c r="E13" s="48" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>0.718</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>0.716</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <v>0.731</v>
-      </c>
-      <c r="L13" s="3" t="n">
-        <v>0.737</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
@@ -5316,33 +4890,6 @@
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <v>0.795</v>
-      </c>
-      <c r="E14" s="48" t="n">
-        <v>0.801</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="J14" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K14" s="3" t="n">
-        <v>0.792</v>
-      </c>
-      <c r="L14" s="3" t="n">
-        <v>0.778</v>
-      </c>
       <c r="M14" s="14"/>
       <c r="P14" s="14"/>
     </row>
@@ -5351,33 +4898,6 @@
         <v>19</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="3" t="n">
-        <v>29858.8</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>134.1</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>2921.4</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>8681.1</v>
-      </c>
-      <c r="H15" s="3" t="n">
-        <v>8055.1</v>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>766.6</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>26678.7</v>
-      </c>
-      <c r="K15" s="3" t="n">
-        <v>26782</v>
-      </c>
-      <c r="L15" s="3" t="n">
-        <v>26576.9</v>
-      </c>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -5393,41 +4913,41 @@
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="47" t="n">
+      <c r="D16" s="39" t="e">
         <f aca="false">ROUND(2*D17*D18/(D17+D18),3)</f>
-        <v>0.817</v>
-      </c>
-      <c r="E16" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="39" t="e">
         <f aca="false">ROUND(2*E17*E18/(E17+E18),3)</f>
-        <v>0.813</v>
-      </c>
-      <c r="F16" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="39" t="e">
         <f aca="false">ROUND(2*F17*F18/(F17+F18),3)</f>
-        <v>0.763</v>
-      </c>
-      <c r="G16" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="39" t="e">
         <f aca="false">ROUND(2*G17*G18/(G17+G18),3)</f>
-        <v>0.759</v>
-      </c>
-      <c r="H16" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="39" t="e">
         <f aca="false">ROUND(2*H17*H18/(H17+H18),3)</f>
-        <v>0.763</v>
-      </c>
-      <c r="I16" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="39" t="e">
         <f aca="false">ROUND(2*I17*I18/(I17+I18),3)</f>
-        <v>0.763</v>
-      </c>
-      <c r="J16" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="39" t="e">
         <f aca="false">ROUND(2*J17*J18/(J17+J18),3)</f>
-        <v>0.794</v>
-      </c>
-      <c r="K16" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="39" t="e">
         <f aca="false">ROUND(2*K17*K18/(K17+K18),3)</f>
-        <v>0.772</v>
-      </c>
-      <c r="L16" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="39" t="e">
         <f aca="false">ROUND(2*L17*L18/(L17+L18),3)</f>
-        <v>0.783</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M16" s="14"/>
       <c r="P16" s="14"/>
@@ -5440,33 +4960,6 @@
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E17" s="48" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>0.752</v>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>0.779</v>
-      </c>
-      <c r="K17" s="3" t="n">
-        <v>0.739</v>
-      </c>
-      <c r="L17" s="3" t="n">
-        <v>0.761</v>
-      </c>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
@@ -5480,33 +4973,6 @@
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="48" t="n">
-        <v>0.814</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>0.766</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0.803</v>
-      </c>
-      <c r="J18" s="3" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="K18" s="3" t="n">
-        <v>0.807</v>
-      </c>
-      <c r="L18" s="3" t="n">
-        <v>0.807</v>
-      </c>
       <c r="M18" s="14"/>
       <c r="P18" s="14"/>
     </row>
@@ -5520,41 +4986,41 @@
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="46" t="n">
+      <c r="D19" s="39" t="e">
         <f aca="false">ROUND(2*D20*D21/(D20+D21),3)</f>
-        <v>0.785</v>
-      </c>
-      <c r="E19" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="39" t="e">
         <f aca="false">ROUND(2*E20*E21/(E20+E21),3)</f>
-        <v>0.755</v>
-      </c>
-      <c r="F19" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="39" t="e">
         <f aca="false">ROUND(2*F20*F21/(F20+F21),3)</f>
-        <v>0.676</v>
-      </c>
-      <c r="G19" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="39" t="e">
         <f aca="false">ROUND(2*G20*G21/(G20+G21),3)</f>
-        <v>0.837</v>
-      </c>
-      <c r="H19" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="39" t="e">
         <f aca="false">ROUND(2*H20*H21/(H20+H21),3)</f>
-        <v>0.857</v>
-      </c>
-      <c r="I19" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="39" t="e">
         <f aca="false">ROUND(2*I20*I21/(I20+I21),3)</f>
-        <v>0.89</v>
-      </c>
-      <c r="J19" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="39" t="e">
         <f aca="false">ROUND(2*J20*J21/(J20+J21),3)</f>
-        <v>0.882</v>
-      </c>
-      <c r="K19" s="47" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="39" t="e">
         <f aca="false">ROUND(2*K20*K21/(K20+K21),3)</f>
-        <v>0.892</v>
-      </c>
-      <c r="L19" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="39" t="e">
         <f aca="false">ROUND(2*L20*L21/(L20+L21),3)</f>
-        <v>0.884</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M19" s="14"/>
       <c r="P19" s="14"/>
@@ -5567,33 +5033,6 @@
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>0.663</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>0.848</v>
-      </c>
-      <c r="I20" s="48" t="n">
-        <v>0.888</v>
-      </c>
-      <c r="J20" s="3" t="n">
-        <v>0.878</v>
-      </c>
-      <c r="K20" s="48" t="n">
-        <v>0.888</v>
-      </c>
-      <c r="L20" s="3" t="n">
-        <v>0.882</v>
-      </c>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
@@ -5607,33 +5046,6 @@
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="3" t="n">
-        <v>0.801</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>0.766</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>0.689</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>0.867</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>0.893</v>
-      </c>
-      <c r="J21" s="3" t="n">
-        <v>0.887</v>
-      </c>
-      <c r="K21" s="48" t="n">
-        <v>0.896</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>0.887</v>
-      </c>
       <c r="M21" s="14"/>
       <c r="P21" s="14"/>
     </row>
@@ -5647,38 +5059,38 @@
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="46" t="n">
+      <c r="D22" s="39" t="e">
         <f aca="false">ROUND(2*D23*D24/(D23+D24),3)</f>
-        <v>0.707</v>
-      </c>
-      <c r="E22" s="47" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="39" t="e">
         <f aca="false">ROUND(2*E23*E24/(E23+E24),3)</f>
-        <v>0.736</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39" t="e">
         <f aca="false">ROUND(2*G23*G24/(G23+G24),3)</f>
-        <v>0.632</v>
-      </c>
-      <c r="H22" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="39" t="e">
         <f aca="false">ROUND(2*H23*H24/(H23+H24),3)</f>
-        <v>0.633</v>
-      </c>
-      <c r="I22" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="39" t="e">
         <f aca="false">ROUND(2*I23*I24/(I23+I24),3)</f>
-        <v>0.584</v>
-      </c>
-      <c r="J22" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="39" t="e">
         <f aca="false">ROUND(2*J23*J24/(J23+J24),3)</f>
-        <v>0.602</v>
-      </c>
-      <c r="K22" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="39" t="e">
         <f aca="false">ROUND(2*K23*K24/(K23+K24),3)</f>
-        <v>0.607</v>
-      </c>
-      <c r="L22" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="39" t="e">
         <f aca="false">ROUND(2*L23*L24/(L23+L24),3)</f>
-        <v>0.579</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M22" s="14"/>
       <c r="P22" s="14"/>
@@ -5690,31 +5102,7 @@
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="3" t="n">
-        <v>0.738</v>
-      </c>
-      <c r="E23" s="48" t="n">
-        <v>0.761</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="3" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="H23" s="3" t="n">
-        <v>0.651</v>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="K23" s="3" t="n">
-        <v>0.634</v>
-      </c>
-      <c r="L23" s="3" t="n">
-        <v>0.589</v>
-      </c>
+      <c r="F23" s="38"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
@@ -5727,31 +5115,7 @@
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3" t="n">
-        <v>0.679</v>
-      </c>
-      <c r="E24" s="48" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="3" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="H24" s="3" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>0.569</v>
-      </c>
-      <c r="J24" s="3" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="L24" s="3" t="n">
-        <v>0.57</v>
-      </c>
+      <c r="F24" s="38"/>
       <c r="M24" s="14"/>
       <c r="P24" s="14"/>
     </row>
@@ -5760,31 +5124,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="3" t="n">
-        <v>31542.4</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>212.5</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="3" t="n">
-        <v>12000.2</v>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>11787.3</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>1482.4</v>
-      </c>
-      <c r="J25" s="3" t="n">
-        <v>28858.6</v>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>28777.5</v>
-      </c>
-      <c r="L25" s="3" t="n">
-        <v>28604.9</v>
-      </c>
+      <c r="F25" s="38"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -5800,38 +5140,38 @@
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="47" t="n">
+      <c r="D26" s="39" t="e">
         <f aca="false">ROUND(2*D27*D28/(D27+D28),3)</f>
-        <v>0.8</v>
-      </c>
-      <c r="E26" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="39" t="e">
         <f aca="false">ROUND(2*E27*E28/(E27+E28),3)</f>
-        <v>0.79</v>
-      </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39" t="e">
         <f aca="false">ROUND(2*G27*G28/(G27+G28),3)</f>
-        <v>0.744</v>
-      </c>
-      <c r="H26" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="39" t="e">
         <f aca="false">ROUND(2*H27*H28/(H27+H28),3)</f>
-        <v>0.75</v>
-      </c>
-      <c r="I26" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="39" t="e">
         <f aca="false">ROUND(2*I27*I28/(I27+I28),3)</f>
-        <v>0.769</v>
-      </c>
-      <c r="J26" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="39" t="e">
         <f aca="false">ROUND(2*J27*J28/(J27+J28),3)</f>
-        <v>0.779</v>
-      </c>
-      <c r="K26" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="39" t="e">
         <f aca="false">ROUND(2*K27*K28/(K27+K28),3)</f>
-        <v>0.784</v>
-      </c>
-      <c r="L26" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="39" t="e">
         <f aca="false">ROUND(2*L27*L28/(L27+L28),3)</f>
-        <v>0.769</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M26" s="14"/>
       <c r="P26" s="14"/>
@@ -5844,31 +5184,7 @@
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="48" t="n">
-        <v>0.811</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>0.802</v>
-      </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="3" t="n">
-        <v>0.747</v>
-      </c>
-      <c r="H27" s="3" t="n">
-        <v>0.751</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="J27" s="3" t="n">
-        <v>0.782</v>
-      </c>
-      <c r="K27" s="3" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="L27" s="3" t="n">
-        <v>0.769</v>
-      </c>
+      <c r="F27" s="38"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
@@ -5882,31 +5198,7 @@
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="3" t="n">
-        <v>0.789</v>
-      </c>
-      <c r="E28" s="3" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="3" t="n">
-        <v>0.741</v>
-      </c>
-      <c r="H28" s="3" t="n">
-        <v>0.749</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="J28" s="3" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="K28" s="48" t="n">
-        <v>0.791</v>
-      </c>
-      <c r="L28" s="3" t="n">
-        <v>0.77</v>
-      </c>
+      <c r="F28" s="38"/>
       <c r="M28" s="14"/>
       <c r="P28" s="14"/>
     </row>
@@ -5920,38 +5212,38 @@
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="46" t="n">
+      <c r="D29" s="39" t="e">
         <f aca="false">ROUND(2*D30*D31/(D30+D31),3)</f>
-        <v>0.799</v>
-      </c>
-      <c r="E29" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="39" t="e">
         <f aca="false">ROUND(2*E30*E31/(E30+E31),3)</f>
-        <v>0.802</v>
-      </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39" t="e">
         <f aca="false">ROUND(2*G30*G31/(G30+G31),3)</f>
-        <v>0.803</v>
-      </c>
-      <c r="H29" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="39" t="e">
         <f aca="false">ROUND(2*H30*H31/(H30+H31),3)</f>
-        <v>0.827</v>
-      </c>
-      <c r="I29" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="39" t="e">
         <f aca="false">ROUND(2*I30*I31/(I30+I31),3)</f>
-        <v>0.848</v>
-      </c>
-      <c r="J29" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="39" t="e">
         <f aca="false">ROUND(2*J30*J31/(J30+J31),3)</f>
-        <v>0.846</v>
-      </c>
-      <c r="K29" s="47" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="39" t="e">
         <f aca="false">ROUND(2*K30*K31/(K30+K31),3)</f>
-        <v>0.862</v>
-      </c>
-      <c r="L29" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="39" t="e">
         <f aca="false">ROUND(2*L30*L31/(L30+L31),3)</f>
-        <v>0.84</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M29" s="14"/>
       <c r="P29" s="14"/>
@@ -5964,31 +5256,7 @@
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E30" s="3" t="n">
-        <v>0.797</v>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="3" t="n">
-        <v>0.812</v>
-      </c>
-      <c r="H30" s="3" t="n">
-        <v>0.834</v>
-      </c>
-      <c r="I30" s="3" t="n">
-        <v>0.858</v>
-      </c>
-      <c r="J30" s="3" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="K30" s="48" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="L30" s="3" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="F30" s="38"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
@@ -6002,31 +5270,7 @@
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="3" t="n">
-        <v>0.799</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>0.807</v>
-      </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="3" t="n">
-        <v>0.794</v>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="I31" s="3" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="J31" s="3" t="n">
-        <v>0.836</v>
-      </c>
-      <c r="K31" s="48" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="L31" s="3" t="n">
-        <v>0.831</v>
-      </c>
+      <c r="F31" s="38"/>
       <c r="M31" s="14"/>
       <c r="P31" s="14"/>
     </row>
@@ -6040,41 +5284,41 @@
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="46" t="n">
+      <c r="D32" s="39" t="e">
         <f aca="false">ROUND(2*D33*D34/(D33+D34),3)</f>
-        <v>0.756</v>
-      </c>
-      <c r="E32" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="39" t="e">
         <f aca="false">ROUND(2*E33*E34/(E33+E34),3)</f>
-        <v>0.738</v>
-      </c>
-      <c r="F32" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="39" t="e">
         <f aca="false">ROUND(2*F33*F34/(F33+F34),3)</f>
-        <v>0.647</v>
-      </c>
-      <c r="G32" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="39" t="e">
         <f aca="false">ROUND(2*G33*G34/(G33+G34),3)</f>
-        <v>0.597</v>
-      </c>
-      <c r="H32" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="39" t="e">
         <f aca="false">ROUND(2*H33*H34/(H33+H34),3)</f>
-        <v>0.606</v>
-      </c>
-      <c r="I32" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="39" t="e">
         <f aca="false">ROUND(2*I33*I34/(I33+I34),3)</f>
-        <v>0.752</v>
-      </c>
-      <c r="J32" s="47" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="39" t="e">
         <f aca="false">ROUND(2*J33*J34/(J33+J34),3)</f>
-        <v>0.773</v>
-      </c>
-      <c r="K32" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="39" t="e">
         <f aca="false">ROUND(2*K33*K34/(K33+K34),3)</f>
-        <v>0.756</v>
-      </c>
-      <c r="L32" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="39" t="e">
         <f aca="false">ROUND(2*L33*L34/(L33+L34),3)</f>
-        <v>0.771</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6084,33 +5328,6 @@
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="48" t="n">
-        <v>0.772</v>
-      </c>
-      <c r="E33" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F33" s="45" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="G33" s="3" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="H33" s="3" t="n">
-        <v>0.589</v>
-      </c>
-      <c r="I33" s="3" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="J33" s="3" t="n">
-        <v>0.753</v>
-      </c>
-      <c r="K33" s="3" t="n">
-        <v>0.735</v>
-      </c>
-      <c r="L33" s="3" t="n">
-        <v>0.749</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
@@ -6119,66 +5336,12 @@
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="3" t="n">
-        <v>0.741</v>
-      </c>
-      <c r="E34" s="3" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="F34" s="45" t="n">
-        <v>0.638</v>
-      </c>
-      <c r="G34" s="3" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="H34" s="3" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="I34" s="3" t="n">
-        <v>0.779</v>
-      </c>
-      <c r="J34" s="48" t="n">
-        <v>0.795</v>
-      </c>
-      <c r="K34" s="3" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="L34" s="3" t="n">
-        <v>0.794</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="3" t="n">
-        <v>23315.1</v>
-      </c>
-      <c r="E35" s="3" t="n">
-        <v>259.1</v>
-      </c>
-      <c r="F35" s="45" t="n">
-        <v>86705.3</v>
-      </c>
-      <c r="G35" s="3" t="n">
-        <v>8483.4</v>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>8692.7</v>
-      </c>
-      <c r="I35" s="3" t="n">
-        <v>1606</v>
-      </c>
-      <c r="J35" s="3" t="n">
-        <v>24222.8</v>
-      </c>
-      <c r="K35" s="3" t="n">
-        <v>24154.4</v>
-      </c>
-      <c r="L35" s="3" t="n">
-        <v>24204.2</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
@@ -6190,41 +5353,41 @@
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="46" t="n">
+      <c r="D36" s="39" t="e">
         <f aca="false">ROUND(2*D37*D38/(D37+D38),3)</f>
-        <v>0.772</v>
-      </c>
-      <c r="E36" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="39" t="e">
         <f aca="false">ROUND(2*E37*E38/(E37+E38),3)</f>
-        <v>0.753</v>
-      </c>
-      <c r="F36" s="50" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="39" t="e">
         <f aca="false">ROUND(2*F37*F38/(F37+F38),3)</f>
-        <v>0.665</v>
-      </c>
-      <c r="G36" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="39" t="e">
         <f aca="false">ROUND(2*G37*G38/(G37+G38),3)</f>
-        <v>0.76</v>
-      </c>
-      <c r="H36" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="39" t="e">
         <f aca="false">ROUND(2*H37*H38/(H37+H38),3)</f>
-        <v>0.771</v>
-      </c>
-      <c r="I36" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="39" t="e">
         <f aca="false">ROUND(2*I37*I38/(I37+I38),3)</f>
-        <v>0.826</v>
-      </c>
-      <c r="J36" s="47" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="39" t="e">
         <f aca="false">ROUND(2*J37*J38/(J37+J38),3)</f>
-        <v>0.846</v>
-      </c>
-      <c r="K36" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="39" t="e">
         <f aca="false">ROUND(2*K37*K38/(K37+K38),3)</f>
-        <v>0.828</v>
-      </c>
-      <c r="L36" s="46" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="39" t="e">
         <f aca="false">ROUND(2*L37*L38/(L37+L38),3)</f>
-        <v>0.845</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6235,33 +5398,6 @@
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="3" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="E37" s="3" t="n">
-        <v>0.763</v>
-      </c>
-      <c r="F37" s="45" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="G37" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H37" s="3" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="I37" s="3" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="J37" s="48" t="n">
-        <v>0.831</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <v>0.811</v>
-      </c>
-      <c r="L37" s="3" t="n">
-        <v>0.827</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
@@ -6270,33 +5406,6 @@
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D38" s="3" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="E38" s="3" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="F38" s="45" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G38" s="3" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H38" s="3" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="I38" s="3" t="n">
-        <v>0.847</v>
-      </c>
-      <c r="J38" s="3" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="L38" s="48" t="n">
-        <v>0.863</v>
       </c>
     </row>
   </sheetData>
@@ -6368,8 +5477,8 @@
   </sheetPr>
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6387,15 +5496,15 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -6433,287 +5542,143 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52" t="n">
+      <c r="B4" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="52" t="n">
-        <v>0.0504374219701802</v>
-      </c>
-      <c r="D4" s="53" t="n">
-        <v>4.03621174251569E-040</v>
-      </c>
-      <c r="E4" s="53" t="n">
-        <v>2.15693119619744E-032</v>
-      </c>
-      <c r="F4" s="53" t="n">
-        <v>1.14346370107601E-028</v>
-      </c>
-      <c r="G4" s="53" t="n">
-        <v>3.73199742961688E-006</v>
-      </c>
-      <c r="H4" s="53" t="n">
-        <v>7.6195945023728E-012</v>
-      </c>
-      <c r="I4" s="53" t="n">
-        <v>8.74126611158293E-006</v>
-      </c>
-      <c r="J4" s="53" t="n">
-        <v>7.34597418180524E-012</v>
-      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="52" t="n">
-        <v>0.0504374219701802</v>
-      </c>
-      <c r="C5" s="52" t="n">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="53" t="n">
-        <v>1.87427687363831E-029</v>
-      </c>
-      <c r="E5" s="53" t="n">
-        <v>2.06540484386954E-025</v>
-      </c>
-      <c r="F5" s="53" t="n">
-        <v>3.86093209646504E-022</v>
-      </c>
-      <c r="G5" s="53" t="n">
-        <v>1.53288419089158E-010</v>
-      </c>
-      <c r="H5" s="53" t="n">
-        <v>6.20175996564841E-018</v>
-      </c>
-      <c r="I5" s="53" t="n">
-        <v>5.90018652347681E-010</v>
-      </c>
-      <c r="J5" s="53" t="n">
-        <v>5.08542553727978E-018</v>
-      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53" t="n">
-        <v>4.03621174251569E-040</v>
-      </c>
-      <c r="C6" s="53" t="n">
-        <v>1.87427687363831E-029</v>
-      </c>
-      <c r="D6" s="52" t="n">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="52" t="n">
-        <v>0.029068864497185</v>
-      </c>
-      <c r="F6" s="52" t="n">
-        <v>0.154207912234445</v>
-      </c>
-      <c r="G6" s="53" t="n">
-        <v>3.24029986353632E-063</v>
-      </c>
-      <c r="H6" s="53" t="n">
-        <v>2.10418644095109E-081</v>
-      </c>
-      <c r="I6" s="53" t="n">
-        <v>1.86433463547439E-060</v>
-      </c>
-      <c r="J6" s="53" t="n">
-        <v>1.93272738657328E-082</v>
-      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="53" t="n">
-        <v>2.15693119619744E-032</v>
-      </c>
-      <c r="C7" s="53" t="n">
-        <v>2.06540484386954E-025</v>
-      </c>
-      <c r="D7" s="52" t="n">
-        <v>0.029068864497185</v>
-      </c>
-      <c r="E7" s="52" t="n">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="52" t="n">
-        <v>0.533362718697031</v>
-      </c>
-      <c r="G7" s="53" t="n">
-        <v>4.88010674418018E-049</v>
-      </c>
-      <c r="H7" s="53" t="n">
-        <v>3.84237189509186E-060</v>
-      </c>
-      <c r="I7" s="53" t="n">
-        <v>1.13321619289739E-047</v>
-      </c>
-      <c r="J7" s="53" t="n">
-        <v>1.9265289826061E-060</v>
-      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="53" t="n">
-        <v>1.14346370107601E-028</v>
-      </c>
-      <c r="C8" s="53" t="n">
-        <v>3.86093209646504E-022</v>
-      </c>
-      <c r="D8" s="52" t="n">
-        <v>0.154207912234445</v>
-      </c>
-      <c r="E8" s="52" t="n">
-        <v>0.533362718697031</v>
-      </c>
-      <c r="F8" s="52" t="n">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="53" t="n">
-        <v>1.24002979588012E-044</v>
-      </c>
-      <c r="H8" s="53" t="n">
-        <v>3.17240337783778E-055</v>
-      </c>
-      <c r="I8" s="53" t="n">
-        <v>2.25965683942311E-043</v>
-      </c>
-      <c r="J8" s="53" t="n">
-        <v>1.74180322258743E-055</v>
-      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="53" t="n">
-        <v>3.73199742961688E-006</v>
-      </c>
-      <c r="C9" s="53" t="n">
-        <v>1.53288419089158E-010</v>
-      </c>
-      <c r="D9" s="53" t="n">
-        <v>3.24029986353632E-063</v>
-      </c>
-      <c r="E9" s="53" t="n">
-        <v>4.88010674418018E-049</v>
-      </c>
-      <c r="F9" s="53" t="n">
-        <v>1.24002979588012E-044</v>
-      </c>
-      <c r="G9" s="52" t="n">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="52" t="n">
-        <v>0.0469885584080821</v>
-      </c>
-      <c r="I9" s="52" t="n">
-        <v>0.930949590132206</v>
-      </c>
-      <c r="J9" s="52" t="n">
-        <v>0.0522339283086912</v>
-      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="53" t="n">
-        <v>7.6195945023728E-012</v>
-      </c>
-      <c r="C10" s="53" t="n">
-        <v>6.20175996564841E-018</v>
-      </c>
-      <c r="D10" s="53" t="n">
-        <v>2.10418644095109E-081</v>
-      </c>
-      <c r="E10" s="53" t="n">
-        <v>3.84237189509186E-060</v>
-      </c>
-      <c r="F10" s="53" t="n">
-        <v>3.17240337783778E-055</v>
-      </c>
-      <c r="G10" s="52" t="n">
-        <v>0.0469885584080821</v>
-      </c>
-      <c r="H10" s="52" t="n">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="52" t="n">
-        <v>0.0414958759510203</v>
-      </c>
-      <c r="J10" s="52" t="n">
-        <v>0.947247110452291</v>
-      </c>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="53" t="n">
-        <v>8.74126611158293E-006</v>
-      </c>
-      <c r="C11" s="53" t="n">
-        <v>5.90018652347681E-010</v>
-      </c>
-      <c r="D11" s="53" t="n">
-        <v>1.86433463547439E-060</v>
-      </c>
-      <c r="E11" s="53" t="n">
-        <v>1.13321619289739E-047</v>
-      </c>
-      <c r="F11" s="53" t="n">
-        <v>2.25965683942311E-043</v>
-      </c>
-      <c r="G11" s="52" t="n">
-        <v>0.930949590132206</v>
-      </c>
-      <c r="H11" s="52" t="n">
-        <v>0.0414958759510203</v>
-      </c>
-      <c r="I11" s="52" t="n">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="52" t="n">
-        <v>0.0461163943063906</v>
-      </c>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="53" t="n">
-        <v>7.34597418180524E-012</v>
-      </c>
-      <c r="C12" s="53" t="n">
-        <v>5.08542553727978E-018</v>
-      </c>
-      <c r="D12" s="53" t="n">
-        <v>1.93272738657328E-082</v>
-      </c>
-      <c r="E12" s="53" t="n">
-        <v>1.9265289826061E-060</v>
-      </c>
-      <c r="F12" s="53" t="n">
-        <v>1.74180322258743E-055</v>
-      </c>
-      <c r="G12" s="52" t="n">
-        <v>0.0522339283086912</v>
-      </c>
-      <c r="H12" s="52" t="n">
-        <v>0.947247110452291</v>
-      </c>
-      <c r="I12" s="52" t="n">
-        <v>0.0461163943063906</v>
-      </c>
-      <c r="J12" s="52" t="n">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6765,287 +5730,143 @@
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="52" t="n">
+      <c r="B15" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="52" t="n">
-        <v>0.0464204936614076</v>
-      </c>
-      <c r="D15" s="53" t="n">
-        <v>1.11886995766341E-029</v>
-      </c>
-      <c r="E15" s="52" t="n">
-        <v>0.430766044004024</v>
-      </c>
-      <c r="F15" s="52" t="n">
-        <v>0.0337628569558176</v>
-      </c>
-      <c r="G15" s="53" t="n">
-        <v>1.40569225114268E-022</v>
-      </c>
-      <c r="H15" s="53" t="n">
-        <v>2.44727963532734E-033</v>
-      </c>
-      <c r="I15" s="53" t="n">
-        <v>2.30741482669337E-021</v>
-      </c>
-      <c r="J15" s="53" t="n">
-        <v>7.68464116569817E-035</v>
-      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="52" t="n">
-        <v>0.0464204936614076</v>
-      </c>
-      <c r="C16" s="52" t="n">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="53" t="n">
-        <v>6.69869287499587E-021</v>
-      </c>
-      <c r="E16" s="53" t="n">
-        <v>0.00807972941599414</v>
-      </c>
-      <c r="F16" s="53" t="n">
-        <v>5.89302677569622E-005</v>
-      </c>
-      <c r="G16" s="53" t="n">
-        <v>1.71965848370678E-031</v>
-      </c>
-      <c r="H16" s="53" t="n">
-        <v>4.25216928403771E-044</v>
-      </c>
-      <c r="I16" s="53" t="n">
-        <v>5.64415485286877E-030</v>
-      </c>
-      <c r="J16" s="53" t="n">
-        <v>8.08808335907419E-046</v>
-      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="53" t="n">
-        <v>1.11886995766341E-029</v>
-      </c>
-      <c r="C17" s="53" t="n">
-        <v>6.69869287499587E-021</v>
-      </c>
-      <c r="D17" s="52" t="n">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="53" t="n">
-        <v>5.04952182463349E-030</v>
-      </c>
-      <c r="F17" s="53" t="n">
-        <v>6.9156148927919E-038</v>
-      </c>
-      <c r="G17" s="53" t="n">
-        <v>5.45548936585914E-093</v>
-      </c>
-      <c r="H17" s="53" t="n">
-        <v>1.81322635172938E-114</v>
-      </c>
-      <c r="I17" s="53" t="n">
-        <v>8.03709397994766E-090</v>
-      </c>
-      <c r="J17" s="53" t="n">
-        <v>3.18649308951078E-117</v>
-      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="52" t="n">
-        <v>0.430766044004024</v>
-      </c>
-      <c r="C18" s="53" t="n">
-        <v>0.00807972941599414</v>
-      </c>
-      <c r="D18" s="53" t="n">
-        <v>5.04952182463349E-030</v>
-      </c>
-      <c r="E18" s="52" t="n">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="52" t="n">
-        <v>0.216477102752999</v>
-      </c>
-      <c r="G18" s="53" t="n">
-        <v>1.41295460619338E-016</v>
-      </c>
-      <c r="H18" s="53" t="n">
-        <v>1.18149166843919E-024</v>
-      </c>
-      <c r="I18" s="53" t="n">
-        <v>1.04626200407502E-015</v>
-      </c>
-      <c r="J18" s="53" t="n">
-        <v>8.79815661908534E-026</v>
-      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="52" t="n">
-        <v>0.0337628569558176</v>
-      </c>
-      <c r="C19" s="53" t="n">
-        <v>5.89302677569622E-005</v>
-      </c>
-      <c r="D19" s="53" t="n">
-        <v>6.9156148927919E-038</v>
-      </c>
-      <c r="E19" s="52" t="n">
-        <v>0.216477102752999</v>
-      </c>
-      <c r="F19" s="52" t="n">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="53" t="n">
-        <v>6.7117244842192E-013</v>
-      </c>
-      <c r="H19" s="53" t="n">
-        <v>2.50152161424738E-020</v>
-      </c>
-      <c r="I19" s="53" t="n">
-        <v>3.87086756530853E-012</v>
-      </c>
-      <c r="J19" s="53" t="n">
-        <v>2.16242021448308E-021</v>
-      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="53" t="n">
-        <v>1.40569225114268E-022</v>
-      </c>
-      <c r="C20" s="53" t="n">
-        <v>1.71965848370678E-031</v>
-      </c>
-      <c r="D20" s="53" t="n">
-        <v>5.45548936585914E-093</v>
-      </c>
-      <c r="E20" s="53" t="n">
-        <v>1.41295460619338E-016</v>
-      </c>
-      <c r="F20" s="53" t="n">
-        <v>6.7117244842192E-013</v>
-      </c>
-      <c r="G20" s="52" t="n">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="52" t="n">
-        <v>0.036318052440278</v>
-      </c>
-      <c r="I20" s="52" t="n">
-        <v>0.857947610497885</v>
-      </c>
-      <c r="J20" s="52" t="n">
-        <v>0.0176930992013143</v>
-      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="53" t="n">
-        <v>2.44727963532734E-033</v>
-      </c>
-      <c r="C21" s="53" t="n">
-        <v>4.25216928403771E-044</v>
-      </c>
-      <c r="D21" s="53" t="n">
-        <v>1.81322635172938E-114</v>
-      </c>
-      <c r="E21" s="53" t="n">
-        <v>1.18149166843919E-024</v>
-      </c>
-      <c r="F21" s="53" t="n">
-        <v>2.50152161424738E-020</v>
-      </c>
-      <c r="G21" s="52" t="n">
-        <v>0.036318052440278</v>
-      </c>
-      <c r="H21" s="52" t="n">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="52" t="n">
-        <v>0.0251665323913943</v>
-      </c>
-      <c r="J21" s="52" t="n">
-        <v>0.77427904233013</v>
-      </c>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="53" t="n">
-        <v>2.30741482669337E-021</v>
-      </c>
-      <c r="C22" s="53" t="n">
-        <v>5.64415485286877E-030</v>
-      </c>
-      <c r="D22" s="53" t="n">
-        <v>8.03709397994766E-090</v>
-      </c>
-      <c r="E22" s="53" t="n">
-        <v>1.04626200407502E-015</v>
-      </c>
-      <c r="F22" s="53" t="n">
-        <v>3.87086756530853E-012</v>
-      </c>
-      <c r="G22" s="52" t="n">
-        <v>0.857947610497885</v>
-      </c>
-      <c r="H22" s="52" t="n">
-        <v>0.0251665323913943</v>
-      </c>
-      <c r="I22" s="52" t="n">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="52" t="n">
-        <v>0.0120145434024102</v>
-      </c>
+      <c r="J22" s="41"/>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="53" t="n">
-        <v>7.68464116569817E-035</v>
-      </c>
-      <c r="C23" s="53" t="n">
-        <v>8.08808335907419E-046</v>
-      </c>
-      <c r="D23" s="53" t="n">
-        <v>3.18649308951078E-117</v>
-      </c>
-      <c r="E23" s="53" t="n">
-        <v>8.79815661908534E-026</v>
-      </c>
-      <c r="F23" s="53" t="n">
-        <v>2.16242021448308E-021</v>
-      </c>
-      <c r="G23" s="52" t="n">
-        <v>0.0176930992013143</v>
-      </c>
-      <c r="H23" s="52" t="n">
-        <v>0.77427904233013</v>
-      </c>
-      <c r="I23" s="52" t="n">
-        <v>0.0120145434024102</v>
-      </c>
-      <c r="J23" s="52" t="n">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41" t="n">
         <v>1</v>
       </c>
     </row>

--- a/benchmarks/summary_ali.xlsx
+++ b/benchmarks/summary_ali.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -308,7 +308,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -469,11 +469,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -496,10 +508,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G104" activeCellId="0" sqref="G104"/>
+      <selection pane="bottomLeft" activeCell="D102" activeCellId="0" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3823,36 +3835,36 @@
         <f aca="false">ROUND(2*F89*F92/(F89+F92),3)</f>
         <v>0.647</v>
       </c>
-      <c r="G86" s="11" t="e">
+      <c r="G86" s="11" t="n">
         <f aca="false">ROUND(2*G89*G92/(G89+G92),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H86" s="12" t="e">
+        <v>0.597</v>
+      </c>
+      <c r="H86" s="12" t="n">
         <f aca="false">ROUND(2*H89*H92/(H89+H92),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I86" s="11" t="e">
+        <v>0.606</v>
+      </c>
+      <c r="I86" s="11" t="n">
         <f aca="false">ROUND(2*I89*I92/(I89+I92),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J86" s="11" t="e">
+        <v>0.752</v>
+      </c>
+      <c r="J86" s="13" t="n">
         <f aca="false">ROUND(2*J89*J92/(J89+J92),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K86" s="11" t="e">
+        <v>0.773</v>
+      </c>
+      <c r="K86" s="11" t="n">
         <f aca="false">ROUND(2*K89*K92/(K89+K92),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L86" s="12" t="e">
+        <v>0.758</v>
+      </c>
+      <c r="L86" s="12" t="n">
         <f aca="false">ROUND(2*L89*L92/(L89+L92),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="17" t="n">
+      <c r="D87" s="16" t="n">
         <f aca="false">ROUND(2*D90*D93/(D90+D93),3)</f>
         <v>0.917</v>
       </c>
@@ -3864,29 +3876,29 @@
         <f aca="false">ROUND(2*F90*F93/(F90+F93),3)</f>
         <v>0.78</v>
       </c>
-      <c r="G87" s="17" t="e">
+      <c r="G87" s="17" t="n">
         <f aca="false">ROUND(2*G90*G93/(G90+G93),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H87" s="18" t="e">
+        <v>0.62</v>
+      </c>
+      <c r="H87" s="18" t="n">
         <f aca="false">ROUND(2*H90*H93/(H90+H93),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I87" s="17" t="e">
+        <v>0.607</v>
+      </c>
+      <c r="I87" s="17" t="n">
         <f aca="false">ROUND(2*I90*I93/(I90+I93),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J87" s="17" t="e">
+        <v>0.823</v>
+      </c>
+      <c r="J87" s="17" t="n">
         <f aca="false">ROUND(2*J90*J93/(J90+J93),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K87" s="17" t="e">
+        <v>0.77</v>
+      </c>
+      <c r="K87" s="17" t="n">
         <f aca="false">ROUND(2*K90*K93/(K90+K93),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L87" s="18" t="e">
+        <v>0.873</v>
+      </c>
+      <c r="L87" s="18" t="n">
         <f aca="false">ROUND(2*L90*L93/(L90+L93),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,29 +3917,29 @@
         <f aca="false">ROUND(2*F91*F94/(F91+F94),3)</f>
         <v>0.559</v>
       </c>
-      <c r="G88" s="20" t="e">
+      <c r="G88" s="20" t="n">
         <f aca="false">ROUND(2*G91*G94/(G91+G94),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88" s="21" t="e">
+        <v>0.582</v>
+      </c>
+      <c r="H88" s="21" t="n">
         <f aca="false">ROUND(2*H91*H94/(H91+H94),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I88" s="20" t="e">
+        <v>0.611</v>
+      </c>
+      <c r="I88" s="20" t="n">
         <f aca="false">ROUND(2*I91*I94/(I91+I94),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J88" s="20" t="e">
+        <v>0.697</v>
+      </c>
+      <c r="J88" s="20" t="n">
         <f aca="false">ROUND(2*J91*J94/(J91+J94),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K88" s="20" t="e">
+        <v>0.778</v>
+      </c>
+      <c r="K88" s="20" t="n">
         <f aca="false">ROUND(2*K91*K94/(K91+K94),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L88" s="21" t="e">
+        <v>0.679</v>
+      </c>
+      <c r="L88" s="22" t="n">
         <f aca="false">ROUND(2*L91*L94/(L91+L94),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3937,7 +3949,7 @@
       <c r="C89" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="23" t="n">
+      <c r="D89" s="25" t="n">
         <v>0.772</v>
       </c>
       <c r="E89" s="23" t="n">
@@ -3946,18 +3958,30 @@
       <c r="F89" s="24" t="n">
         <v>0.657</v>
       </c>
-      <c r="G89" s="23"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="24"/>
+      <c r="G89" s="23" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H89" s="24" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="I89" s="23" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="J89" s="23" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="K89" s="23" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="L89" s="24" t="n">
+        <v>0.746</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="14" t="n">
+      <c r="D90" s="26" t="n">
         <v>0.922</v>
       </c>
       <c r="E90" s="14" t="n">
@@ -3966,12 +3990,24 @@
       <c r="F90" s="27" t="n">
         <v>0.784</v>
       </c>
-      <c r="G90" s="14"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="27"/>
+      <c r="G90" s="14" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="H90" s="27" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I90" s="14" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="J90" s="14" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="K90" s="14" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="L90" s="27" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="19" t="s">
@@ -3986,12 +4022,24 @@
       <c r="F91" s="29" t="n">
         <v>0.566</v>
       </c>
-      <c r="G91" s="28"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="29"/>
+      <c r="G91" s="28" t="n">
+        <v>0.562</v>
+      </c>
+      <c r="H91" s="29" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="I91" s="28" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="J91" s="28" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K91" s="28" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="L91" s="32" t="n">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
@@ -4009,18 +4057,30 @@
       <c r="F92" s="24" t="n">
         <v>0.638</v>
       </c>
-      <c r="G92" s="23"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
+      <c r="G92" s="23" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H92" s="24" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="I92" s="23" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="J92" s="25" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="K92" s="23" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L92" s="24" t="n">
+        <v>0.793</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="14" t="n">
+      <c r="D93" s="26" t="n">
         <v>0.912</v>
       </c>
       <c r="E93" s="14" t="n">
@@ -4029,12 +4089,24 @@
       <c r="F93" s="27" t="n">
         <v>0.777</v>
       </c>
-      <c r="G93" s="14"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="27"/>
+      <c r="G93" s="14" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="H93" s="27" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="I93" s="14" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="J93" s="14" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="K93" s="14" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="L93" s="27" t="n">
+        <v>0.781</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="19" t="s">
@@ -4049,12 +4121,24 @@
       <c r="F94" s="29" t="n">
         <v>0.553</v>
       </c>
-      <c r="G94" s="28"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="29"/>
+      <c r="G94" s="28" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="H94" s="29" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="I94" s="28" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="J94" s="28" t="n">
+        <v>0.809</v>
+      </c>
+      <c r="K94" s="28" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="L94" s="32" t="n">
+        <v>0.812</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
@@ -4070,6 +4154,24 @@
       <c r="F95" s="3" t="n">
         <v>86705.3</v>
       </c>
+      <c r="G95" s="3" t="n">
+        <v>8483.4</v>
+      </c>
+      <c r="H95" s="3" t="n">
+        <v>8692.7</v>
+      </c>
+      <c r="I95" s="3" t="n">
+        <v>2308.3</v>
+      </c>
+      <c r="J95" s="3" t="n">
+        <v>17856.2</v>
+      </c>
+      <c r="K95" s="3" t="n">
+        <v>17855.7</v>
+      </c>
+      <c r="L95" s="3" t="n">
+        <v>17927.2</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
@@ -4093,29 +4195,29 @@
         <f aca="false">ROUND(2*F99*F102/(F99+F102),3)</f>
         <v>0.665</v>
       </c>
-      <c r="G96" s="11" t="e">
+      <c r="G96" s="11" t="n">
         <f aca="false">ROUND(2*G99*G102/(G99+G102),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H96" s="12" t="e">
+        <v>0.76</v>
+      </c>
+      <c r="H96" s="12" t="n">
         <f aca="false">ROUND(2*H99*H102/(H99+H102),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I96" s="11" t="e">
+        <v>0.771</v>
+      </c>
+      <c r="I96" s="11" t="n">
         <f aca="false">ROUND(2*I99*I102/(I99+I102),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J96" s="11" t="e">
+        <v>0.826</v>
+      </c>
+      <c r="J96" s="13" t="n">
         <f aca="false">ROUND(2*J99*J102/(J99+J102),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K96" s="11" t="e">
+        <v>0.846</v>
+      </c>
+      <c r="K96" s="11" t="n">
         <f aca="false">ROUND(2*K99*K102/(K99+K102),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L96" s="12" t="e">
+        <v>0.83</v>
+      </c>
+      <c r="L96" s="12" t="n">
         <f aca="false">ROUND(2*L99*L102/(L99+L102),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4123,7 +4225,7 @@
       <c r="C97" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D97" s="17" t="n">
+      <c r="D97" s="16" t="n">
         <f aca="false">ROUND(2*D100*D103/(D100+D103),3)</f>
         <v>0.954</v>
       </c>
@@ -4135,29 +4237,29 @@
         <f aca="false">ROUND(2*F100*F103/(F100+F103),3)</f>
         <v>0.842</v>
       </c>
-      <c r="G97" s="17" t="e">
+      <c r="G97" s="17" t="n">
         <f aca="false">ROUND(2*G100*G103/(G100+G103),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H97" s="18" t="e">
+        <v>0.783</v>
+      </c>
+      <c r="H97" s="18" t="n">
         <f aca="false">ROUND(2*H100*H103/(H100+H103),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I97" s="17" t="e">
+        <v>0.753</v>
+      </c>
+      <c r="I97" s="17" t="n">
         <f aca="false">ROUND(2*I100*I103/(I100+I103),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J97" s="17" t="e">
+        <v>0.879</v>
+      </c>
+      <c r="J97" s="17" t="n">
         <f aca="false">ROUND(2*J100*J103/(J100+J103),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K97" s="17" t="e">
+        <v>0.847</v>
+      </c>
+      <c r="K97" s="17" t="n">
         <f aca="false">ROUND(2*K100*K103/(K100+K103),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L97" s="18" t="e">
+        <v>0.904</v>
+      </c>
+      <c r="L97" s="18" t="n">
         <f aca="false">ROUND(2*L100*L103/(L100+L103),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4177,29 +4279,29 @@
         <f aca="false">ROUND(2*F101*F104/(F101+F104),3)</f>
         <v>0.551</v>
       </c>
-      <c r="G98" s="20" t="e">
+      <c r="G98" s="20" t="n">
         <f aca="false">ROUND(2*G101*G104/(G101+G104),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H98" s="21" t="e">
+        <v>0.742</v>
+      </c>
+      <c r="H98" s="21" t="n">
         <f aca="false">ROUND(2*H101*H104/(H101+H104),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="20" t="e">
+        <v>0.791</v>
+      </c>
+      <c r="I98" s="20" t="n">
         <f aca="false">ROUND(2*I101*I104/(I101+I104),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J98" s="20" t="e">
+        <v>0.782</v>
+      </c>
+      <c r="J98" s="20" t="n">
         <f aca="false">ROUND(2*J101*J104/(J101+J104),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K98" s="20" t="e">
+        <v>0.845</v>
+      </c>
+      <c r="K98" s="20" t="n">
         <f aca="false">ROUND(2*K101*K104/(K101+K104),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L98" s="21" t="e">
+        <v>0.772</v>
+      </c>
+      <c r="L98" s="22" t="n">
         <f aca="false">ROUND(2*L101*L104/(L101+L104),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4219,19 +4321,31 @@
       <c r="F99" s="24" t="n">
         <v>0.68</v>
       </c>
-      <c r="G99" s="23"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="24"/>
+      <c r="G99" s="23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H99" s="24" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="I99" s="23" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="J99" s="25" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K99" s="23" t="n">
+        <v>0.813</v>
+      </c>
+      <c r="L99" s="24" t="n">
+        <v>0.825</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="C100" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="14" t="n">
+      <c r="D100" s="26" t="n">
         <v>0.959</v>
       </c>
       <c r="E100" s="14" t="n">
@@ -4240,12 +4354,24 @@
       <c r="F100" s="27" t="n">
         <v>0.867</v>
       </c>
-      <c r="G100" s="14"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="27"/>
+      <c r="G100" s="14" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="H100" s="27" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="I100" s="14" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="J100" s="14" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="K100" s="14" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L100" s="27" t="n">
+        <v>0.824</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
@@ -4261,12 +4387,24 @@
       <c r="F101" s="29" t="n">
         <v>0.56</v>
       </c>
-      <c r="G101" s="28"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="29"/>
+      <c r="G101" s="28" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H101" s="29" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I101" s="28" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="J101" s="28" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="K101" s="28" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="L101" s="32" t="n">
+        <v>0.826</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6"/>
@@ -4285,19 +4423,31 @@
       <c r="F102" s="24" t="n">
         <v>0.65</v>
       </c>
-      <c r="G102" s="23"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="24"/>
+      <c r="G102" s="23" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H102" s="24" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="I102" s="23" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="J102" s="25" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="K102" s="23" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="L102" s="31" t="n">
+        <v>0.862</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6"/>
       <c r="C103" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="14" t="n">
+      <c r="D103" s="26" t="n">
         <v>0.949</v>
       </c>
       <c r="E103" s="14" t="n">
@@ -4306,12 +4456,24 @@
       <c r="F103" s="27" t="n">
         <v>0.819</v>
       </c>
-      <c r="G103" s="14"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="27"/>
+      <c r="G103" s="14" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="H103" s="27" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="I103" s="14" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="J103" s="14" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="K103" s="14" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="L103" s="27" t="n">
+        <v>0.853</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6"/>
@@ -4327,12 +4489,24 @@
       <c r="F104" s="29" t="n">
         <v>0.543</v>
       </c>
-      <c r="G104" s="28"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
-      <c r="K104" s="28"/>
-      <c r="L104" s="29"/>
+      <c r="G104" s="28" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="H104" s="29" t="n">
+        <v>0.814</v>
+      </c>
+      <c r="I104" s="28" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J104" s="28" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="K104" s="28" t="n">
+        <v>0.812</v>
+      </c>
+      <c r="L104" s="32" t="n">
+        <v>0.873</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6"/>
@@ -4524,9 +4698,9 @@
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4605,41 +4779,41 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="39" t="e">
+      <c r="D2" s="39" t="n">
         <f aca="false">ROUND(2*D3*D4/(D3+D4),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E2" s="39" t="e">
+        <v>0.759</v>
+      </c>
+      <c r="E2" s="39" t="n">
         <f aca="false">ROUND(2*E3*E4/(E3+E4),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F2" s="39" t="e">
+        <v>0.748</v>
+      </c>
+      <c r="F2" s="39" t="n">
         <f aca="false">ROUND(2*F3*F4/(F3+F4),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G2" s="39" t="e">
+        <v>0.683</v>
+      </c>
+      <c r="G2" s="39" t="n">
         <f aca="false">ROUND(2*G3*G4/(G3+G4),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H2" s="39" t="e">
+        <v>0.682</v>
+      </c>
+      <c r="H2" s="39" t="n">
         <f aca="false">ROUND(2*H3*H4/(H3+H4),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" s="39" t="e">
+        <v>0.686</v>
+      </c>
+      <c r="I2" s="39" t="n">
         <f aca="false">ROUND(2*I3*I4/(I3+I4),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J2" s="39" t="e">
+        <v>0.798</v>
+      </c>
+      <c r="J2" s="40" t="n">
         <f aca="false">ROUND(2*J3*J4/(J3+J4),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" s="39" t="e">
+        <v>0.822</v>
+      </c>
+      <c r="K2" s="39" t="n">
         <f aca="false">ROUND(2*K3*K4/(K3+K4),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="39" t="e">
+        <v>0.804</v>
+      </c>
+      <c r="L2" s="39" t="n">
         <f aca="false">ROUND(2*L3*L4/(L3+L4),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.82</v>
       </c>
       <c r="M2" s="14"/>
       <c r="P2" s="14"/>
@@ -4650,6 +4824,33 @@
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="J3" s="41" t="n">
+        <v>0.809</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0.802</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
@@ -4663,6 +4864,33 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="3" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="L4" s="41" t="n">
+        <v>0.839</v>
+      </c>
       <c r="M4" s="14"/>
       <c r="P4" s="14"/>
     </row>
@@ -4671,6 +4899,33 @@
         <v>19</v>
       </c>
       <c r="C5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>1093.4</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>495.5</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>115.1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>757</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>784.1</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>801.5</v>
+      </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -4686,41 +4941,41 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="39" t="e">
+      <c r="D6" s="39" t="n">
         <f aca="false">ROUND(2*D7*D8/(D7+D8),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="39" t="e">
+        <v>0.776</v>
+      </c>
+      <c r="E6" s="39" t="n">
         <f aca="false">ROUND(2*E7*E8/(E7+E8),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="39" t="e">
+        <v>0.762</v>
+      </c>
+      <c r="F6" s="39" t="n">
         <f aca="false">ROUND(2*F7*F8/(F7+F8),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="39" t="e">
+        <v>0.708</v>
+      </c>
+      <c r="G6" s="39" t="n">
         <f aca="false">ROUND(2*G7*G8/(G7+G8),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="39" t="e">
+        <v>0.721</v>
+      </c>
+      <c r="H6" s="39" t="n">
         <f aca="false">ROUND(2*H7*H8/(H7+H8),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="39" t="e">
+        <v>0.734</v>
+      </c>
+      <c r="I6" s="39" t="n">
         <f aca="false">ROUND(2*I7*I8/(I7+I8),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="39" t="e">
+        <v>0.808</v>
+      </c>
+      <c r="J6" s="40" t="n">
         <f aca="false">ROUND(2*J7*J8/(J7+J8),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="39" t="e">
+        <v>0.834</v>
+      </c>
+      <c r="K6" s="39" t="n">
         <f aca="false">ROUND(2*K7*K8/(K7+K8),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="39" t="e">
+        <v>0.814</v>
+      </c>
+      <c r="L6" s="39" t="n">
         <f aca="false">ROUND(2*L7*L8/(L7+L8),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.831</v>
       </c>
       <c r="M6" s="14"/>
       <c r="P6" s="14"/>
@@ -4733,6 +4988,33 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D7" s="3" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="J7" s="41" t="n">
+        <v>0.816</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0.809</v>
+      </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -4746,6 +5028,33 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D8" s="3" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="L8" s="41" t="n">
+        <v>0.855</v>
+      </c>
       <c r="M8" s="14"/>
       <c r="P8" s="14"/>
     </row>
@@ -4759,41 +5068,41 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="39" t="e">
+      <c r="D9" s="39" t="n">
         <f aca="false">ROUND(2*D10*D11/(D10+D11),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="39" t="e">
+        <v>0.761</v>
+      </c>
+      <c r="E9" s="39" t="n">
         <f aca="false">ROUND(2*E10*E11/(E10+E11),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="39" t="e">
+        <v>0.734</v>
+      </c>
+      <c r="F9" s="39" t="n">
         <f aca="false">ROUND(2*F10*F11/(F10+F11),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="39" t="e">
+        <v>0.63</v>
+      </c>
+      <c r="G9" s="39" t="n">
         <f aca="false">ROUND(2*G10*G11/(G10+G11),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="39" t="e">
+        <v>0.82</v>
+      </c>
+      <c r="H9" s="39" t="n">
         <f aca="false">ROUND(2*H10*H11/(H10+H11),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="39" t="e">
+        <v>0.845</v>
+      </c>
+      <c r="I9" s="39" t="n">
         <f aca="false">ROUND(2*I10*I11/(I10+I11),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="39" t="e">
+        <v>0.888</v>
+      </c>
+      <c r="J9" s="39" t="n">
         <f aca="false">ROUND(2*J10*J11/(J10+J11),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="39" t="e">
+        <v>0.887</v>
+      </c>
+      <c r="K9" s="39" t="n">
         <f aca="false">ROUND(2*K10*K11/(K10+K11),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="39" t="e">
+        <v>0.887</v>
+      </c>
+      <c r="L9" s="40" t="n">
         <f aca="false">ROUND(2*L10*L11/(L10+L11),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.889</v>
       </c>
       <c r="M9" s="14"/>
       <c r="P9" s="14"/>
@@ -4806,6 +5115,33 @@
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D10" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0.814</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I10" s="41" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0.891</v>
+      </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
@@ -4819,6 +5155,33 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D11" s="3" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="J11" s="41" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="L11" s="41" t="n">
+        <v>0.888</v>
+      </c>
       <c r="M11" s="14"/>
       <c r="P11" s="14"/>
     </row>
@@ -4832,41 +5195,41 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="39" t="e">
+      <c r="D12" s="39" t="n">
         <f aca="false">ROUND(2*D13*D14/(D13+D14),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="39" t="e">
+        <v>0.799</v>
+      </c>
+      <c r="E12" s="39" t="n">
         <f aca="false">ROUND(2*E13*E14/(E13+E14),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="39" t="e">
+        <v>0.807</v>
+      </c>
+      <c r="F12" s="39" t="n">
         <f aca="false">ROUND(2*F13*F14/(F13+F14),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="39" t="e">
+        <v>0.761</v>
+      </c>
+      <c r="G12" s="39" t="n">
         <f aca="false">ROUND(2*G13*G14/(G13+G14),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="39" t="e">
+        <v>0.721</v>
+      </c>
+      <c r="H12" s="39" t="n">
         <f aca="false">ROUND(2*H13*H14/(H13+H14),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="39" t="e">
+        <v>0.724</v>
+      </c>
+      <c r="I12" s="39" t="n">
         <f aca="false">ROUND(2*I13*I14/(I13+I14),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="39" t="e">
+        <v>0.741</v>
+      </c>
+      <c r="J12" s="39" t="n">
         <f aca="false">ROUND(2*J13*J14/(J13+J14),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="39" t="e">
+        <v>0.77</v>
+      </c>
+      <c r="K12" s="39" t="n">
         <f aca="false">ROUND(2*K13*K14/(K13+K14),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="39" t="e">
+        <v>0.756</v>
+      </c>
+      <c r="L12" s="39" t="n">
         <f aca="false">ROUND(2*L13*L14/(L13+L14),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.751</v>
       </c>
       <c r="M12" s="14"/>
       <c r="P12" s="14"/>
@@ -4877,6 +5240,33 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="41" t="n">
+        <v>0.809</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0.729</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
@@ -4890,6 +5280,33 @@
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D14" s="3" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="E14" s="41" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>0.775</v>
+      </c>
       <c r="M14" s="14"/>
       <c r="P14" s="14"/>
     </row>
@@ -4898,6 +5315,33 @@
         <v>19</v>
       </c>
       <c r="C15" s="2"/>
+      <c r="D15" s="3" t="n">
+        <v>29858.8</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>2921.4</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>8681.1</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>8055.1</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>854.7</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>17986.4</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>17941.3</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>18076.9</v>
+      </c>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -4913,41 +5357,41 @@
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="39" t="e">
+      <c r="D16" s="40" t="n">
         <f aca="false">ROUND(2*D17*D18/(D17+D18),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="39" t="e">
+        <v>0.82</v>
+      </c>
+      <c r="E16" s="39" t="n">
         <f aca="false">ROUND(2*E17*E18/(E17+E18),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="39" t="e">
+        <v>0.818</v>
+      </c>
+      <c r="F16" s="39" t="n">
         <f aca="false">ROUND(2*F17*F18/(F17+F18),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="39" t="e">
+        <v>0.767</v>
+      </c>
+      <c r="G16" s="39" t="n">
         <f aca="false">ROUND(2*G17*G18/(G17+G18),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="39" t="e">
+        <v>0.758</v>
+      </c>
+      <c r="H16" s="39" t="n">
         <f aca="false">ROUND(2*H17*H18/(H17+H18),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="39" t="e">
+        <v>0.763</v>
+      </c>
+      <c r="I16" s="39" t="n">
         <f aca="false">ROUND(2*I17*I18/(I17+I18),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="39" t="e">
+        <v>0.756</v>
+      </c>
+      <c r="J16" s="39" t="n">
         <f aca="false">ROUND(2*J17*J18/(J17+J18),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="39" t="e">
+        <v>0.791</v>
+      </c>
+      <c r="K16" s="39" t="n">
         <f aca="false">ROUND(2*K17*K18/(K17+K18),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="39" t="e">
+        <v>0.768</v>
+      </c>
+      <c r="L16" s="39" t="n">
         <f aca="false">ROUND(2*L17*L18/(L17+L18),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.777</v>
       </c>
       <c r="M16" s="14"/>
       <c r="P16" s="14"/>
@@ -4960,6 +5404,33 @@
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D17" s="3" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="E17" s="41" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>0.754</v>
+      </c>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
@@ -4973,6 +5444,33 @@
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D18" s="41" t="n">
+        <v>0.818</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.811</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>0.807</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>0.802</v>
+      </c>
       <c r="M18" s="14"/>
       <c r="P18" s="14"/>
     </row>
@@ -4986,41 +5484,41 @@
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="39" t="e">
+      <c r="D19" s="39" t="n">
         <f aca="false">ROUND(2*D20*D21/(D20+D21),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="39" t="e">
+        <v>0.799</v>
+      </c>
+      <c r="E19" s="39" t="n">
         <f aca="false">ROUND(2*E20*E21/(E20+E21),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="39" t="e">
+        <v>0.768</v>
+      </c>
+      <c r="F19" s="39" t="n">
         <f aca="false">ROUND(2*F20*F21/(F20+F21),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="39" t="e">
+        <v>0.69</v>
+      </c>
+      <c r="G19" s="39" t="n">
         <f aca="false">ROUND(2*G20*G21/(G20+G21),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="39" t="e">
+        <v>0.852</v>
+      </c>
+      <c r="H19" s="39" t="n">
         <f aca="false">ROUND(2*H20*H21/(H20+H21),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="39" t="e">
+        <v>0.88</v>
+      </c>
+      <c r="I19" s="39" t="n">
         <f aca="false">ROUND(2*I20*I21/(I20+I21),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="39" t="e">
+        <v>0.869</v>
+      </c>
+      <c r="J19" s="39" t="n">
         <f aca="false">ROUND(2*J20*J21/(J20+J21),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="39" t="e">
+        <v>0.875</v>
+      </c>
+      <c r="K19" s="40" t="n">
         <f aca="false">ROUND(2*K20*K21/(K20+K21),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="39" t="e">
+        <v>0.881</v>
+      </c>
+      <c r="L19" s="39" t="n">
         <f aca="false">ROUND(2*L20*L21/(L20+L21),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.861</v>
       </c>
       <c r="M19" s="14"/>
       <c r="P19" s="14"/>
@@ -5033,6 +5531,33 @@
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D20" s="3" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="K20" s="41" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>0.851</v>
+      </c>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
@@ -5046,6 +5571,33 @@
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D21" s="3" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="H21" s="41" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="K21" s="41" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>0.871</v>
+      </c>
       <c r="M21" s="14"/>
       <c r="P21" s="14"/>
     </row>
@@ -5059,38 +5611,38 @@
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="39" t="e">
+      <c r="D22" s="39" t="n">
         <f aca="false">ROUND(2*D23*D24/(D23+D24),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="39" t="e">
+        <v>0.707</v>
+      </c>
+      <c r="E22" s="40" t="n">
         <f aca="false">ROUND(2*E23*E24/(E23+E24),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.736</v>
       </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="39" t="e">
+      <c r="G22" s="39" t="n">
         <f aca="false">ROUND(2*G23*G24/(G23+G24),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="39" t="e">
+        <v>0.631</v>
+      </c>
+      <c r="H22" s="39" t="n">
         <f aca="false">ROUND(2*H23*H24/(H23+H24),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="39" t="e">
+        <v>0.633</v>
+      </c>
+      <c r="I22" s="39" t="n">
         <f aca="false">ROUND(2*I23*I24/(I23+I24),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="39" t="e">
+        <v>0.583</v>
+      </c>
+      <c r="J22" s="39" t="n">
         <f aca="false">ROUND(2*J23*J24/(J23+J24),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="39" t="e">
+        <v>0.601</v>
+      </c>
+      <c r="K22" s="39" t="n">
         <f aca="false">ROUND(2*K23*K24/(K23+K24),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="39" t="e">
+        <v>0.607</v>
+      </c>
+      <c r="L22" s="39" t="n">
         <f aca="false">ROUND(2*L23*L24/(L23+L24),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.578</v>
       </c>
       <c r="M22" s="14"/>
       <c r="P22" s="14"/>
@@ -5102,7 +5654,31 @@
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D23" s="3" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="E23" s="41" t="n">
+        <v>0.761</v>
+      </c>
       <c r="F23" s="38"/>
+      <c r="G23" s="3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>0.587</v>
+      </c>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
@@ -5115,7 +5691,31 @@
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D24" s="3" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="E24" s="41" t="n">
+        <v>0.713</v>
+      </c>
       <c r="F24" s="38"/>
+      <c r="G24" s="3" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>0.57</v>
+      </c>
       <c r="M24" s="14"/>
       <c r="P24" s="14"/>
     </row>
@@ -5124,7 +5724,31 @@
         <v>19</v>
       </c>
       <c r="C25" s="2"/>
+      <c r="D25" s="3" t="n">
+        <v>31542.4</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>212.5</v>
+      </c>
       <c r="F25" s="38"/>
+      <c r="G25" s="3" t="n">
+        <v>12000.2</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>11787.3</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>2003.1</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>20060.3</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>19935</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>20056.2</v>
+      </c>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -5140,38 +5764,38 @@
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="39" t="e">
+      <c r="D26" s="40" t="n">
         <f aca="false">ROUND(2*D27*D28/(D27+D28),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="39" t="e">
+        <v>0.801</v>
+      </c>
+      <c r="E26" s="39" t="n">
         <f aca="false">ROUND(2*E27*E28/(E27+E28),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.791</v>
       </c>
       <c r="F26" s="38"/>
-      <c r="G26" s="39" t="e">
+      <c r="G26" s="39" t="n">
         <f aca="false">ROUND(2*G27*G28/(G27+G28),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="39" t="e">
+        <v>0.744</v>
+      </c>
+      <c r="H26" s="39" t="n">
         <f aca="false">ROUND(2*H27*H28/(H27+H28),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="39" t="e">
+        <v>0.75</v>
+      </c>
+      <c r="I26" s="39" t="n">
         <f aca="false">ROUND(2*I27*I28/(I27+I28),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="39" t="e">
+        <v>0.768</v>
+      </c>
+      <c r="J26" s="39" t="n">
         <f aca="false">ROUND(2*J27*J28/(J27+J28),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="39" t="e">
+        <v>0.777</v>
+      </c>
+      <c r="K26" s="39" t="n">
         <f aca="false">ROUND(2*K27*K28/(K27+K28),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="39" t="e">
+        <v>0.784</v>
+      </c>
+      <c r="L26" s="39" t="n">
         <f aca="false">ROUND(2*L27*L28/(L27+L28),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.766</v>
       </c>
       <c r="M26" s="14"/>
       <c r="P26" s="14"/>
@@ -5184,7 +5808,31 @@
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D27" s="41" t="n">
+        <v>0.812</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0.803</v>
+      </c>
       <c r="F27" s="38"/>
+      <c r="G27" s="3" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>0.765</v>
+      </c>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
@@ -5198,7 +5846,31 @@
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D28" s="41" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0.779</v>
+      </c>
       <c r="F28" s="38"/>
+      <c r="G28" s="3" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="K28" s="41" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>0.768</v>
+      </c>
       <c r="M28" s="14"/>
       <c r="P28" s="14"/>
     </row>
@@ -5212,38 +5884,38 @@
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="39" t="e">
+      <c r="D29" s="39" t="n">
         <f aca="false">ROUND(2*D30*D31/(D30+D31),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="39" t="e">
+        <v>0.811</v>
+      </c>
+      <c r="E29" s="39" t="n">
         <f aca="false">ROUND(2*E30*E31/(E30+E31),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.82</v>
       </c>
       <c r="F29" s="38"/>
-      <c r="G29" s="39" t="e">
+      <c r="G29" s="39" t="n">
         <f aca="false">ROUND(2*G30*G31/(G30+G31),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="39" t="e">
+        <v>0.8</v>
+      </c>
+      <c r="H29" s="39" t="n">
         <f aca="false">ROUND(2*H30*H31/(H30+H31),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="39" t="e">
+        <v>0.823</v>
+      </c>
+      <c r="I29" s="39" t="n">
         <f aca="false">ROUND(2*I30*I31/(I30+I31),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="39" t="e">
+        <v>0.838</v>
+      </c>
+      <c r="J29" s="39" t="n">
         <f aca="false">ROUND(2*J30*J31/(J30+J31),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="39" t="e">
+        <v>0.84</v>
+      </c>
+      <c r="K29" s="40" t="n">
         <f aca="false">ROUND(2*K30*K31/(K30+K31),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="39" t="e">
+        <v>0.858</v>
+      </c>
+      <c r="L29" s="39" t="n">
         <f aca="false">ROUND(2*L30*L31/(L30+L31),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.828</v>
       </c>
       <c r="M29" s="14"/>
       <c r="P29" s="14"/>
@@ -5256,7 +5928,31 @@
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D30" s="3" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0.824</v>
+      </c>
       <c r="F30" s="38"/>
+      <c r="G30" s="3" t="n">
+        <v>0.812</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K30" s="41" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>0.834</v>
+      </c>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
@@ -5270,7 +5966,31 @@
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D31" s="3" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0.816</v>
+      </c>
       <c r="F31" s="38"/>
+      <c r="G31" s="3" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>0.815</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K31" s="41" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>0.822</v>
+      </c>
       <c r="M31" s="14"/>
       <c r="P31" s="14"/>
     </row>
@@ -5284,41 +6004,41 @@
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="39" t="e">
+      <c r="D32" s="39" t="n">
         <f aca="false">ROUND(2*D33*D34/(D33+D34),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="39" t="e">
+        <v>0.756</v>
+      </c>
+      <c r="E32" s="39" t="n">
         <f aca="false">ROUND(2*E33*E34/(E33+E34),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="39" t="e">
+        <v>0.738</v>
+      </c>
+      <c r="F32" s="39" t="n">
         <f aca="false">ROUND(2*F33*F34/(F33+F34),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="39" t="e">
+        <v>0.647</v>
+      </c>
+      <c r="G32" s="39" t="n">
         <f aca="false">ROUND(2*G33*G34/(G33+G34),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="39" t="e">
+        <v>0.597</v>
+      </c>
+      <c r="H32" s="39" t="n">
         <f aca="false">ROUND(2*H33*H34/(H33+H34),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="39" t="e">
+        <v>0.606</v>
+      </c>
+      <c r="I32" s="39" t="n">
         <f aca="false">ROUND(2*I33*I34/(I33+I34),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="39" t="e">
+        <v>0.752</v>
+      </c>
+      <c r="J32" s="40" t="n">
         <f aca="false">ROUND(2*J33*J34/(J33+J34),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="39" t="e">
+        <v>0.773</v>
+      </c>
+      <c r="K32" s="39" t="n">
         <f aca="false">ROUND(2*K33*K34/(K33+K34),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="39" t="e">
+        <v>0.758</v>
+      </c>
+      <c r="L32" s="39" t="n">
         <f aca="false">ROUND(2*L33*L34/(L33+L34),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5328,6 +6048,33 @@
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D33" s="41" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>0.746</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
@@ -5336,12 +6083,66 @@
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D34" s="3" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="J34" s="41" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>0.793</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="2"/>
+      <c r="D35" s="3" t="n">
+        <v>23315.1</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>259.1</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>86705.3</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>8483.4</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>8692.7</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>2308.3</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>17856.2</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>17855.7</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>17927.2</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
@@ -5353,41 +6154,41 @@
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="39" t="e">
+      <c r="D36" s="39" t="n">
         <f aca="false">ROUND(2*D37*D38/(D37+D38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="39" t="e">
+        <v>0.772</v>
+      </c>
+      <c r="E36" s="39" t="n">
         <f aca="false">ROUND(2*E37*E38/(E37+E38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="39" t="e">
+        <v>0.753</v>
+      </c>
+      <c r="F36" s="39" t="n">
         <f aca="false">ROUND(2*F37*F38/(F37+F38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="39" t="e">
+        <v>0.665</v>
+      </c>
+      <c r="G36" s="39" t="n">
         <f aca="false">ROUND(2*G37*G38/(G37+G38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="39" t="e">
+        <v>0.76</v>
+      </c>
+      <c r="H36" s="39" t="n">
         <f aca="false">ROUND(2*H37*H38/(H37+H38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="39" t="e">
+        <v>0.771</v>
+      </c>
+      <c r="I36" s="39" t="n">
         <f aca="false">ROUND(2*I37*I38/(I37+I38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="39" t="e">
+        <v>0.826</v>
+      </c>
+      <c r="J36" s="40" t="n">
         <f aca="false">ROUND(2*J37*J38/(J37+J38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="39" t="e">
+        <v>0.846</v>
+      </c>
+      <c r="K36" s="39" t="n">
         <f aca="false">ROUND(2*K37*K38/(K37+K38),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="39" t="e">
+        <v>0.83</v>
+      </c>
+      <c r="L36" s="39" t="n">
         <f aca="false">ROUND(2*L37*L38/(L37+L38),3)</f>
-        <v>#DIV/0!</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5398,6 +6199,33 @@
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D37" s="3" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="J37" s="41" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>0.813</v>
+      </c>
+      <c r="L37" s="3" t="n">
+        <v>0.825</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
@@ -5406,6 +6234,33 @@
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="J38" s="41" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="L38" s="41" t="n">
+        <v>0.862</v>
       </c>
     </row>
   </sheetData>
@@ -5477,8 +6332,8 @@
   </sheetPr>
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5496,15 +6351,15 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -5542,143 +6397,287 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="n">
+      <c r="B4" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="C4" s="43" t="n">
+        <v>0.0504374219701802</v>
+      </c>
+      <c r="D4" s="44" t="n">
+        <v>4.03621174251569E-040</v>
+      </c>
+      <c r="E4" s="44" t="n">
+        <v>2.15693119619744E-032</v>
+      </c>
+      <c r="F4" s="44" t="n">
+        <v>1.14346370107601E-028</v>
+      </c>
+      <c r="G4" s="44" t="n">
+        <v>3.26249484643891E-006</v>
+      </c>
+      <c r="H4" s="44" t="n">
+        <v>8.23926807833874E-012</v>
+      </c>
+      <c r="I4" s="44" t="n">
+        <v>2.11360881771509E-006</v>
+      </c>
+      <c r="J4" s="44" t="n">
+        <v>2.47667411384885E-011</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41" t="n">
+      <c r="B5" s="43" t="n">
+        <v>0.0504374219701802</v>
+      </c>
+      <c r="C5" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
+      <c r="D5" s="44" t="n">
+        <v>1.87427687363831E-029</v>
+      </c>
+      <c r="E5" s="44" t="n">
+        <v>2.06540484386954E-025</v>
+      </c>
+      <c r="F5" s="44" t="n">
+        <v>3.86093209646504E-022</v>
+      </c>
+      <c r="G5" s="44" t="n">
+        <v>1.27867844911255E-010</v>
+      </c>
+      <c r="H5" s="44" t="n">
+        <v>6.7074216897655E-018</v>
+      </c>
+      <c r="I5" s="44" t="n">
+        <v>8.26666023713042E-011</v>
+      </c>
+      <c r="J5" s="44" t="n">
+        <v>2.34705491716399E-017</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41" t="n">
+      <c r="B6" s="44" t="n">
+        <v>4.03621174251569E-040</v>
+      </c>
+      <c r="C6" s="44" t="n">
+        <v>1.87427687363831E-029</v>
+      </c>
+      <c r="D6" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
+      <c r="E6" s="43" t="n">
+        <v>0.029068864497185</v>
+      </c>
+      <c r="F6" s="43" t="n">
+        <v>0.154207912234445</v>
+      </c>
+      <c r="G6" s="44" t="n">
+        <v>2.0445915625115E-063</v>
+      </c>
+      <c r="H6" s="44" t="n">
+        <v>1.96201159291058E-081</v>
+      </c>
+      <c r="I6" s="44" t="n">
+        <v>5.83174224551E-063</v>
+      </c>
+      <c r="J6" s="44" t="n">
+        <v>6.49055715741062E-081</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41" t="n">
+      <c r="B7" s="44" t="n">
+        <v>2.15693119619744E-032</v>
+      </c>
+      <c r="C7" s="44" t="n">
+        <v>2.06540484386954E-025</v>
+      </c>
+      <c r="D7" s="43" t="n">
+        <v>0.029068864497185</v>
+      </c>
+      <c r="E7" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="F7" s="43" t="n">
+        <v>0.533362718697031</v>
+      </c>
+      <c r="G7" s="44" t="n">
+        <v>3.62580871059107E-049</v>
+      </c>
+      <c r="H7" s="44" t="n">
+        <v>4.04607141702362E-060</v>
+      </c>
+      <c r="I7" s="44" t="n">
+        <v>3.41113402276447E-049</v>
+      </c>
+      <c r="J7" s="44" t="n">
+        <v>1.54552670227266E-059</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41" t="n">
+      <c r="B8" s="44" t="n">
+        <v>1.14346370107601E-028</v>
+      </c>
+      <c r="C8" s="44" t="n">
+        <v>3.86093209646504E-022</v>
+      </c>
+      <c r="D8" s="43" t="n">
+        <v>0.154207912234445</v>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>0.533362718697031</v>
+      </c>
+      <c r="F8" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="G8" s="44" t="n">
+        <v>9.33860112155806E-045</v>
+      </c>
+      <c r="H8" s="44" t="n">
+        <v>3.35926913009405E-055</v>
+      </c>
+      <c r="I8" s="44" t="n">
+        <v>8.19467871620724E-045</v>
+      </c>
+      <c r="J8" s="44" t="n">
+        <v>1.27506585070311E-054</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41" t="n">
+      <c r="B9" s="44" t="n">
+        <v>3.26249484643891E-006</v>
+      </c>
+      <c r="C9" s="44" t="n">
+        <v>1.27867844911255E-010</v>
+      </c>
+      <c r="D9" s="44" t="n">
+        <v>2.0445915625115E-063</v>
+      </c>
+      <c r="E9" s="44" t="n">
+        <v>3.62580871059107E-049</v>
+      </c>
+      <c r="F9" s="44" t="n">
+        <v>9.33860112155806E-045</v>
+      </c>
+      <c r="G9" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="H9" s="43" t="n">
+        <v>0.0519003229052991</v>
+      </c>
+      <c r="I9" s="43" t="n">
+        <v>0.888144633219707</v>
+      </c>
+      <c r="J9" s="43" t="n">
+        <v>0.0787686368758518</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41" t="n">
+      <c r="B10" s="44" t="n">
+        <v>8.23926807833874E-012</v>
+      </c>
+      <c r="C10" s="44" t="n">
+        <v>6.7074216897655E-018</v>
+      </c>
+      <c r="D10" s="44" t="n">
+        <v>1.96201159291058E-081</v>
+      </c>
+      <c r="E10" s="44" t="n">
+        <v>4.04607141702362E-060</v>
+      </c>
+      <c r="F10" s="44" t="n">
+        <v>3.35926913009405E-055</v>
+      </c>
+      <c r="G10" s="43" t="n">
+        <v>0.0519003229052991</v>
+      </c>
+      <c r="H10" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="I10" s="43" t="n">
+        <v>0.0757126145912473</v>
+      </c>
+      <c r="J10" s="43" t="n">
+        <v>0.837861738886887</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="n">
+      <c r="B11" s="44" t="n">
+        <v>2.11360881771509E-006</v>
+      </c>
+      <c r="C11" s="44" t="n">
+        <v>8.26666023713042E-011</v>
+      </c>
+      <c r="D11" s="44" t="n">
+        <v>5.83174224551E-063</v>
+      </c>
+      <c r="E11" s="44" t="n">
+        <v>3.41113402276447E-049</v>
+      </c>
+      <c r="F11" s="44" t="n">
+        <v>8.19467871620724E-045</v>
+      </c>
+      <c r="G11" s="43" t="n">
+        <v>0.888144633219707</v>
+      </c>
+      <c r="H11" s="43" t="n">
+        <v>0.0757126145912473</v>
+      </c>
+      <c r="I11" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="41"/>
+      <c r="J11" s="43" t="n">
+        <v>0.111585255368605</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41" t="n">
+      <c r="B12" s="44" t="n">
+        <v>2.47667411384885E-011</v>
+      </c>
+      <c r="C12" s="44" t="n">
+        <v>2.34705491716399E-017</v>
+      </c>
+      <c r="D12" s="44" t="n">
+        <v>6.49055715741062E-081</v>
+      </c>
+      <c r="E12" s="44" t="n">
+        <v>1.54552670227266E-059</v>
+      </c>
+      <c r="F12" s="44" t="n">
+        <v>1.27506585070311E-054</v>
+      </c>
+      <c r="G12" s="43" t="n">
+        <v>0.0787686368758518</v>
+      </c>
+      <c r="H12" s="43" t="n">
+        <v>0.837861738886887</v>
+      </c>
+      <c r="I12" s="43" t="n">
+        <v>0.111585255368605</v>
+      </c>
+      <c r="J12" s="43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5730,143 +6729,287 @@
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="41" t="n">
+      <c r="B15" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="C15" s="43" t="n">
+        <v>0.0464204936614076</v>
+      </c>
+      <c r="D15" s="43" t="n">
+        <v>1.11886995766341E-029</v>
+      </c>
+      <c r="E15" s="43" t="n">
+        <v>0.430766044004024</v>
+      </c>
+      <c r="F15" s="43" t="n">
+        <v>0.0337628569558176</v>
+      </c>
+      <c r="G15" s="43" t="n">
+        <v>1.18043158517604E-022</v>
+      </c>
+      <c r="H15" s="43" t="n">
+        <v>9.60579473938845E-034</v>
+      </c>
+      <c r="I15" s="43" t="n">
+        <v>5.99003926061061E-023</v>
+      </c>
+      <c r="J15" s="43" t="n">
+        <v>1.0696537483824E-033</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41" t="n">
+      <c r="B16" s="43" t="n">
+        <v>0.0464204936614076</v>
+      </c>
+      <c r="C16" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="D16" s="43" t="n">
+        <v>6.69869287499587E-021</v>
+      </c>
+      <c r="E16" s="43" t="n">
+        <v>0.00807972941599414</v>
+      </c>
+      <c r="F16" s="43" t="n">
+        <v>5.89302677569622E-005</v>
+      </c>
+      <c r="G16" s="43" t="n">
+        <v>1.39146979587666E-031</v>
+      </c>
+      <c r="H16" s="43" t="n">
+        <v>1.31533356408265E-044</v>
+      </c>
+      <c r="I16" s="43" t="n">
+        <v>6.70472815605871E-032</v>
+      </c>
+      <c r="J16" s="43" t="n">
+        <v>1.57420764119522E-044</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41" t="n">
+      <c r="B17" s="43" t="n">
+        <v>1.11886995766341E-029</v>
+      </c>
+      <c r="C17" s="43" t="n">
+        <v>6.69869287499587E-021</v>
+      </c>
+      <c r="D17" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
+      <c r="E17" s="43" t="n">
+        <v>5.04952182463349E-030</v>
+      </c>
+      <c r="F17" s="43" t="n">
+        <v>6.9156148927919E-038</v>
+      </c>
+      <c r="G17" s="43" t="n">
+        <v>3.65677054746204E-093</v>
+      </c>
+      <c r="H17" s="43" t="n">
+        <v>1.34412058108108E-115</v>
+      </c>
+      <c r="I17" s="43" t="n">
+        <v>1.80577109806434E-093</v>
+      </c>
+      <c r="J17" s="43" t="n">
+        <v>2.6755955987647E-115</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41" t="n">
+      <c r="B18" s="43" t="n">
+        <v>0.430766044004024</v>
+      </c>
+      <c r="C18" s="43" t="n">
+        <v>0.00807972941599414</v>
+      </c>
+      <c r="D18" s="43" t="n">
+        <v>5.04952182463349E-030</v>
+      </c>
+      <c r="E18" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+      <c r="F18" s="43" t="n">
+        <v>0.216477102752999</v>
+      </c>
+      <c r="G18" s="43" t="n">
+        <v>1.24165278499916E-016</v>
+      </c>
+      <c r="H18" s="43" t="n">
+        <v>6.53990556435391E-025</v>
+      </c>
+      <c r="I18" s="43" t="n">
+        <v>6.96113433443905E-017</v>
+      </c>
+      <c r="J18" s="43" t="n">
+        <v>6.66431512707055E-025</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41" t="n">
+      <c r="B19" s="43" t="n">
+        <v>0.0337628569558176</v>
+      </c>
+      <c r="C19" s="43" t="n">
+        <v>5.89302677569622E-005</v>
+      </c>
+      <c r="D19" s="43" t="n">
+        <v>6.9156148927919E-038</v>
+      </c>
+      <c r="E19" s="43" t="n">
+        <v>0.216477102752999</v>
+      </c>
+      <c r="F19" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="G19" s="43" t="n">
+        <v>5.98151218678731E-013</v>
+      </c>
+      <c r="H19" s="43" t="n">
+        <v>1.46978723958007E-020</v>
+      </c>
+      <c r="I19" s="43" t="n">
+        <v>3.47557018276505E-013</v>
+      </c>
+      <c r="J19" s="43" t="n">
+        <v>1.47568670030489E-020</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41" t="n">
+      <c r="B20" s="43" t="n">
+        <v>1.18043158517604E-022</v>
+      </c>
+      <c r="C20" s="43" t="n">
+        <v>1.39146979587666E-031</v>
+      </c>
+      <c r="D20" s="43" t="n">
+        <v>3.65677054746204E-093</v>
+      </c>
+      <c r="E20" s="43" t="n">
+        <v>1.24165278499916E-016</v>
+      </c>
+      <c r="F20" s="43" t="n">
+        <v>5.98151218678731E-013</v>
+      </c>
+      <c r="G20" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="43" t="n">
+        <v>0.0353709553672543</v>
+      </c>
+      <c r="I20" s="43" t="n">
+        <v>0.914142630099924</v>
+      </c>
+      <c r="J20" s="43" t="n">
+        <v>0.0336502646012091</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41" t="n">
+      <c r="B21" s="43" t="n">
+        <v>9.60579473938845E-034</v>
+      </c>
+      <c r="C21" s="43" t="n">
+        <v>1.31533356408265E-044</v>
+      </c>
+      <c r="D21" s="43" t="n">
+        <v>1.34412058108108E-115</v>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>6.53990556435391E-025</v>
+      </c>
+      <c r="F21" s="43" t="n">
+        <v>1.46978723958007E-020</v>
+      </c>
+      <c r="G21" s="43" t="n">
+        <v>0.0353709553672543</v>
+      </c>
+      <c r="H21" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
+      <c r="I21" s="43" t="n">
+        <v>0.0478025494223026</v>
+      </c>
+      <c r="J21" s="43" t="n">
+        <v>0.974932602406227</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41" t="n">
+      <c r="B22" s="43" t="n">
+        <v>5.99003926061061E-023</v>
+      </c>
+      <c r="C22" s="43" t="n">
+        <v>6.70472815605871E-032</v>
+      </c>
+      <c r="D22" s="43" t="n">
+        <v>1.80577109806434E-093</v>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>6.96113433443905E-017</v>
+      </c>
+      <c r="F22" s="43" t="n">
+        <v>3.47557018276505E-013</v>
+      </c>
+      <c r="G22" s="43" t="n">
+        <v>0.914142630099924</v>
+      </c>
+      <c r="H22" s="43" t="n">
+        <v>0.0478025494223026</v>
+      </c>
+      <c r="I22" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="41"/>
+      <c r="J22" s="43" t="n">
+        <v>0.0455330572680915</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41" t="n">
+      <c r="B23" s="43" t="n">
+        <v>1.0696537483824E-033</v>
+      </c>
+      <c r="C23" s="43" t="n">
+        <v>1.57420764119522E-044</v>
+      </c>
+      <c r="D23" s="43" t="n">
+        <v>2.6755955987647E-115</v>
+      </c>
+      <c r="E23" s="43" t="n">
+        <v>6.66431512707055E-025</v>
+      </c>
+      <c r="F23" s="43" t="n">
+        <v>1.47568670030489E-020</v>
+      </c>
+      <c r="G23" s="43" t="n">
+        <v>0.0336502646012091</v>
+      </c>
+      <c r="H23" s="43" t="n">
+        <v>0.974932602406227</v>
+      </c>
+      <c r="I23" s="43" t="n">
+        <v>0.0455330572680915</v>
+      </c>
+      <c r="J23" s="43" t="n">
         <v>1</v>
       </c>
     </row>

--- a/benchmarks/summary_ali.xlsx
+++ b/benchmarks/summary_ali.xlsx
@@ -152,7 +152,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -195,6 +195,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -308,7 +313,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -481,11 +486,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6332,8 +6341,8 @@
   </sheetPr>
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6400,61 +6409,61 @@
       <c r="B4" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="n">
-        <v>0.0504374219701802</v>
+      <c r="C4" s="44" t="n">
+        <v>5.23825898734213E-017</v>
       </c>
       <c r="D4" s="44" t="n">
-        <v>4.03621174251569E-040</v>
+        <v>1.82461663520532E-076</v>
       </c>
       <c r="E4" s="44" t="n">
-        <v>2.15693119619744E-032</v>
+        <v>7.04923380829012E-056</v>
       </c>
       <c r="F4" s="44" t="n">
-        <v>1.14346370107601E-028</v>
+        <v>3.48412376481279E-046</v>
       </c>
       <c r="G4" s="44" t="n">
-        <v>3.26249484643891E-006</v>
+        <v>1.13701759299585E-014</v>
       </c>
       <c r="H4" s="44" t="n">
-        <v>8.23926807833874E-012</v>
+        <v>4.57825009212676E-029</v>
       </c>
       <c r="I4" s="44" t="n">
-        <v>2.11360881771509E-006</v>
+        <v>2.18459172835406E-015</v>
       </c>
       <c r="J4" s="44" t="n">
-        <v>2.47667411384885E-011</v>
+        <v>1.32987407881408E-027</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="43" t="n">
-        <v>0.0504374219701802</v>
+      <c r="B5" s="44" t="n">
+        <v>5.23825898734213E-017</v>
       </c>
       <c r="C5" s="43" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="44" t="n">
-        <v>1.87427687363831E-029</v>
+        <v>1.27117369486306E-053</v>
       </c>
       <c r="E5" s="44" t="n">
-        <v>2.06540484386954E-025</v>
+        <v>5.90836698988952E-042</v>
       </c>
       <c r="F5" s="44" t="n">
-        <v>3.86093209646504E-022</v>
+        <v>2.92141211341293E-034</v>
       </c>
       <c r="G5" s="44" t="n">
-        <v>1.27867844911255E-010</v>
+        <v>2.54969713445701E-025</v>
       </c>
       <c r="H5" s="44" t="n">
-        <v>6.7074216897655E-018</v>
+        <v>1.03204873378565E-041</v>
       </c>
       <c r="I5" s="44" t="n">
-        <v>8.26666023713042E-011</v>
+        <v>1.22699761765446E-026</v>
       </c>
       <c r="J5" s="44" t="n">
-        <v>2.34705491716399E-017</v>
+        <v>1.57972359299791E-039</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6462,31 +6471,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="44" t="n">
-        <v>4.03621174251569E-040</v>
+        <v>1.82461663520532E-076</v>
       </c>
       <c r="C6" s="44" t="n">
-        <v>1.87427687363831E-029</v>
+        <v>1.27117369486306E-053</v>
       </c>
       <c r="D6" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="43" t="n">
-        <v>0.029068864497185</v>
-      </c>
-      <c r="F6" s="43" t="n">
-        <v>0.154207912234445</v>
+      <c r="E6" s="45" t="n">
+        <v>0.0110251646590126</v>
+      </c>
+      <c r="F6" s="45" t="n">
+        <v>0.105768519120187</v>
       </c>
       <c r="G6" s="44" t="n">
-        <v>2.0445915625115E-063</v>
+        <v>1.70701577179601E-100</v>
       </c>
       <c r="H6" s="44" t="n">
-        <v>1.96201159291058E-081</v>
+        <v>4.23391918454843E-126</v>
       </c>
       <c r="I6" s="44" t="n">
-        <v>5.83174224551E-063</v>
+        <v>9.30513626947804E-097</v>
       </c>
       <c r="J6" s="44" t="n">
-        <v>6.49055715741062E-081</v>
+        <v>2.10997919134644E-128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6494,31 +6503,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="44" t="n">
-        <v>2.15693119619744E-032</v>
+        <v>7.04923380829012E-056</v>
       </c>
       <c r="C7" s="44" t="n">
-        <v>2.06540484386954E-025</v>
-      </c>
-      <c r="D7" s="43" t="n">
-        <v>0.029068864497185</v>
+        <v>5.90836698988952E-042</v>
+      </c>
+      <c r="D7" s="45" t="n">
+        <v>0.0110251646590126</v>
       </c>
       <c r="E7" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="43" t="n">
-        <v>0.533362718697031</v>
+      <c r="F7" s="44" t="n">
+        <v>1.15820326729087E-008</v>
       </c>
       <c r="G7" s="44" t="n">
-        <v>3.62580871059107E-049</v>
+        <v>7.11462765006432E-097</v>
       </c>
       <c r="H7" s="44" t="n">
-        <v>4.04607141702362E-060</v>
+        <v>6.36253741924856E-113</v>
       </c>
       <c r="I7" s="44" t="n">
-        <v>3.41113402276447E-049</v>
+        <v>1.99493602935022E-095</v>
       </c>
       <c r="J7" s="44" t="n">
-        <v>1.54552670227266E-059</v>
+        <v>1.82349067473206E-113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6526,31 +6535,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="44" t="n">
-        <v>1.14346370107601E-028</v>
+        <v>3.48412376481279E-046</v>
       </c>
       <c r="C8" s="44" t="n">
-        <v>3.86093209646504E-022</v>
-      </c>
-      <c r="D8" s="43" t="n">
-        <v>0.154207912234445</v>
-      </c>
-      <c r="E8" s="43" t="n">
-        <v>0.533362718697031</v>
+        <v>2.92141211341293E-034</v>
+      </c>
+      <c r="D8" s="45" t="n">
+        <v>0.105768519120187</v>
+      </c>
+      <c r="E8" s="44" t="n">
+        <v>1.15820326729087E-008</v>
       </c>
       <c r="F8" s="43" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="44" t="n">
-        <v>9.33860112155806E-045</v>
+        <v>5.74319082429559E-088</v>
       </c>
       <c r="H8" s="44" t="n">
-        <v>3.35926913009405E-055</v>
+        <v>4.19002635550324E-104</v>
       </c>
       <c r="I8" s="44" t="n">
-        <v>8.19467871620724E-045</v>
+        <v>8.87346282852292E-087</v>
       </c>
       <c r="J8" s="44" t="n">
-        <v>1.27506585070311E-054</v>
+        <v>1.88681138007557E-104</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6558,31 +6567,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="44" t="n">
-        <v>3.26249484643891E-006</v>
+        <v>1.13701759299585E-014</v>
       </c>
       <c r="C9" s="44" t="n">
-        <v>1.27867844911255E-010</v>
+        <v>2.54969713445701E-025</v>
       </c>
       <c r="D9" s="44" t="n">
-        <v>2.0445915625115E-063</v>
+        <v>1.70701577179601E-100</v>
       </c>
       <c r="E9" s="44" t="n">
-        <v>3.62580871059107E-049</v>
+        <v>7.11462765006432E-097</v>
       </c>
       <c r="F9" s="44" t="n">
-        <v>9.33860112155806E-045</v>
+        <v>5.74319082429559E-088</v>
       </c>
       <c r="G9" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="43" t="n">
-        <v>0.0519003229052991</v>
-      </c>
-      <c r="I9" s="43" t="n">
-        <v>0.888144633219707</v>
-      </c>
-      <c r="J9" s="43" t="n">
-        <v>0.0787686368758518</v>
+      <c r="H9" s="44" t="n">
+        <v>5.0016637457986E-014</v>
+      </c>
+      <c r="I9" s="45" t="n">
+        <v>0.27454478326037</v>
+      </c>
+      <c r="J9" s="44" t="n">
+        <v>9.40188237110572E-022</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6590,31 +6599,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="44" t="n">
-        <v>8.23926807833874E-012</v>
+        <v>4.57825009212676E-029</v>
       </c>
       <c r="C10" s="44" t="n">
-        <v>6.7074216897655E-018</v>
+        <v>1.03204873378565E-041</v>
       </c>
       <c r="D10" s="44" t="n">
-        <v>1.96201159291058E-081</v>
+        <v>4.23391918454843E-126</v>
       </c>
       <c r="E10" s="44" t="n">
-        <v>4.04607141702362E-060</v>
+        <v>6.36253741924856E-113</v>
       </c>
       <c r="F10" s="44" t="n">
-        <v>3.35926913009405E-055</v>
-      </c>
-      <c r="G10" s="43" t="n">
-        <v>0.0519003229052991</v>
+        <v>4.19002635550324E-104</v>
+      </c>
+      <c r="G10" s="44" t="n">
+        <v>5.0016637457986E-014</v>
       </c>
       <c r="H10" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="43" t="n">
-        <v>0.0757126145912473</v>
-      </c>
-      <c r="J10" s="43" t="n">
-        <v>0.837861738886887</v>
+      <c r="I10" s="44" t="n">
+        <v>1.12442535768689E-017</v>
+      </c>
+      <c r="J10" s="45" t="n">
+        <v>0.242965836229644</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6622,31 +6631,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="44" t="n">
-        <v>2.11360881771509E-006</v>
+        <v>2.18459172835406E-015</v>
       </c>
       <c r="C11" s="44" t="n">
-        <v>8.26666023713042E-011</v>
+        <v>1.22699761765446E-026</v>
       </c>
       <c r="D11" s="44" t="n">
-        <v>5.83174224551E-063</v>
+        <v>9.30513626947804E-097</v>
       </c>
       <c r="E11" s="44" t="n">
-        <v>3.41113402276447E-049</v>
+        <v>1.99493602935022E-095</v>
       </c>
       <c r="F11" s="44" t="n">
-        <v>8.19467871620724E-045</v>
-      </c>
-      <c r="G11" s="43" t="n">
-        <v>0.888144633219707</v>
-      </c>
-      <c r="H11" s="43" t="n">
-        <v>0.0757126145912473</v>
+        <v>8.87346282852292E-087</v>
+      </c>
+      <c r="G11" s="45" t="n">
+        <v>0.27454478326037</v>
+      </c>
+      <c r="H11" s="44" t="n">
+        <v>1.12442535768689E-017</v>
       </c>
       <c r="I11" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="43" t="n">
-        <v>0.111585255368605</v>
+      <c r="J11" s="44" t="n">
+        <v>1.66876535318788E-012</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,28 +6663,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="44" t="n">
-        <v>2.47667411384885E-011</v>
+        <v>1.32987407881408E-027</v>
       </c>
       <c r="C12" s="44" t="n">
-        <v>2.34705491716399E-017</v>
+        <v>1.57972359299791E-039</v>
       </c>
       <c r="D12" s="44" t="n">
-        <v>6.49055715741062E-081</v>
+        <v>2.10997919134644E-128</v>
       </c>
       <c r="E12" s="44" t="n">
-        <v>1.54552670227266E-059</v>
+        <v>1.82349067473206E-113</v>
       </c>
       <c r="F12" s="44" t="n">
-        <v>1.27506585070311E-054</v>
-      </c>
-      <c r="G12" s="43" t="n">
-        <v>0.0787686368758518</v>
-      </c>
-      <c r="H12" s="43" t="n">
-        <v>0.837861738886887</v>
-      </c>
-      <c r="I12" s="43" t="n">
-        <v>0.111585255368605</v>
+        <v>1.88681138007557E-104</v>
+      </c>
+      <c r="G12" s="44" t="n">
+        <v>9.40188237110572E-022</v>
+      </c>
+      <c r="H12" s="45" t="n">
+        <v>0.242965836229644</v>
+      </c>
+      <c r="I12" s="44" t="n">
+        <v>1.66876535318788E-012</v>
       </c>
       <c r="J12" s="43" t="n">
         <v>1</v>
@@ -6732,282 +6741,282 @@
       <c r="B15" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="43" t="n">
-        <v>0.0464204936614076</v>
-      </c>
-      <c r="D15" s="43" t="n">
-        <v>1.11886995766341E-029</v>
-      </c>
-      <c r="E15" s="43" t="n">
-        <v>0.430766044004024</v>
-      </c>
-      <c r="F15" s="43" t="n">
-        <v>0.0337628569558176</v>
-      </c>
-      <c r="G15" s="43" t="n">
-        <v>1.18043158517604E-022</v>
-      </c>
-      <c r="H15" s="43" t="n">
-        <v>9.60579473938845E-034</v>
-      </c>
-      <c r="I15" s="43" t="n">
-        <v>5.99003926061061E-023</v>
-      </c>
-      <c r="J15" s="43" t="n">
-        <v>1.0696537483824E-033</v>
+      <c r="C15" s="44" t="n">
+        <v>1.20538010782463E-042</v>
+      </c>
+      <c r="D15" s="44" t="n">
+        <v>9.78720764887794E-046</v>
+      </c>
+      <c r="E15" s="45" t="n">
+        <v>0.120649633734279</v>
+      </c>
+      <c r="F15" s="44" t="n">
+        <v>0.000675801840840618</v>
+      </c>
+      <c r="G15" s="44" t="n">
+        <v>9.36602308018282E-044</v>
+      </c>
+      <c r="H15" s="44" t="n">
+        <v>7.49670320257962E-061</v>
+      </c>
+      <c r="I15" s="44" t="n">
+        <v>9.7030303128131E-048</v>
+      </c>
+      <c r="J15" s="44" t="n">
+        <v>1.99635132806869E-056</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="43" t="n">
-        <v>0.0464204936614076</v>
+      <c r="B16" s="44" t="n">
+        <v>1.20538010782463E-042</v>
       </c>
       <c r="C16" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="43" t="n">
-        <v>6.69869287499587E-021</v>
-      </c>
-      <c r="E16" s="43" t="n">
-        <v>0.00807972941599414</v>
-      </c>
-      <c r="F16" s="43" t="n">
-        <v>5.89302677569622E-005</v>
-      </c>
-      <c r="G16" s="43" t="n">
-        <v>1.39146979587666E-031</v>
-      </c>
-      <c r="H16" s="43" t="n">
-        <v>1.31533356408265E-044</v>
-      </c>
-      <c r="I16" s="43" t="n">
-        <v>6.70472815605871E-032</v>
-      </c>
-      <c r="J16" s="43" t="n">
-        <v>1.57420764119522E-044</v>
+      <c r="D16" s="44" t="n">
+        <v>7.58051898648505E-033</v>
+      </c>
+      <c r="E16" s="44" t="n">
+        <v>4.2364928625964E-007</v>
+      </c>
+      <c r="F16" s="44" t="n">
+        <v>2.49238838945545E-010</v>
+      </c>
+      <c r="G16" s="44" t="n">
+        <v>1.2273033469118E-057</v>
+      </c>
+      <c r="H16" s="44" t="n">
+        <v>2.7996235786395E-076</v>
+      </c>
+      <c r="I16" s="44" t="n">
+        <v>3.41568846637369E-062</v>
+      </c>
+      <c r="J16" s="44" t="n">
+        <v>2.51954361903932E-071</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="43" t="n">
-        <v>1.11886995766341E-029</v>
-      </c>
-      <c r="C17" s="43" t="n">
-        <v>6.69869287499587E-021</v>
+      <c r="B17" s="44" t="n">
+        <v>9.78720764887794E-046</v>
+      </c>
+      <c r="C17" s="44" t="n">
+        <v>7.58051898648505E-033</v>
       </c>
       <c r="D17" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="43" t="n">
-        <v>5.04952182463349E-030</v>
-      </c>
-      <c r="F17" s="43" t="n">
-        <v>6.9156148927919E-038</v>
-      </c>
-      <c r="G17" s="43" t="n">
-        <v>3.65677054746204E-093</v>
-      </c>
-      <c r="H17" s="43" t="n">
-        <v>1.34412058108108E-115</v>
-      </c>
-      <c r="I17" s="43" t="n">
-        <v>1.80577109806434E-093</v>
-      </c>
-      <c r="J17" s="43" t="n">
-        <v>2.6755955987647E-115</v>
+      <c r="E17" s="44" t="n">
+        <v>2.43321831943305E-033</v>
+      </c>
+      <c r="F17" s="44" t="n">
+        <v>1.50184609697506E-036</v>
+      </c>
+      <c r="G17" s="44" t="n">
+        <v>4.89118697426647E-119</v>
+      </c>
+      <c r="H17" s="44" t="n">
+        <v>2.6833524635436E-141</v>
+      </c>
+      <c r="I17" s="44" t="n">
+        <v>2.75709204212942E-117</v>
+      </c>
+      <c r="J17" s="44" t="n">
+        <v>6.04327951652978E-143</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="43" t="n">
-        <v>0.430766044004024</v>
-      </c>
-      <c r="C18" s="43" t="n">
-        <v>0.00807972941599414</v>
-      </c>
-      <c r="D18" s="43" t="n">
-        <v>5.04952182463349E-030</v>
+      <c r="B18" s="45" t="n">
+        <v>0.120649633734279</v>
+      </c>
+      <c r="C18" s="44" t="n">
+        <v>4.2364928625964E-007</v>
+      </c>
+      <c r="D18" s="44" t="n">
+        <v>2.43321831943305E-033</v>
       </c>
       <c r="E18" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="43" t="n">
-        <v>0.216477102752999</v>
-      </c>
-      <c r="G18" s="43" t="n">
-        <v>1.24165278499916E-016</v>
-      </c>
-      <c r="H18" s="43" t="n">
-        <v>6.53990556435391E-025</v>
-      </c>
-      <c r="I18" s="43" t="n">
-        <v>6.96113433443905E-017</v>
-      </c>
-      <c r="J18" s="43" t="n">
-        <v>6.66431512707055E-025</v>
+      <c r="F18" s="44" t="n">
+        <v>1.63614606587605E-007</v>
+      </c>
+      <c r="G18" s="44" t="n">
+        <v>3.05492666745932E-036</v>
+      </c>
+      <c r="H18" s="44" t="n">
+        <v>3.47870045492453E-049</v>
+      </c>
+      <c r="I18" s="44" t="n">
+        <v>6.11455441871149E-038</v>
+      </c>
+      <c r="J18" s="44" t="n">
+        <v>6.00533067144299E-047</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="43" t="n">
-        <v>0.0337628569558176</v>
-      </c>
-      <c r="C19" s="43" t="n">
-        <v>5.89302677569622E-005</v>
-      </c>
-      <c r="D19" s="43" t="n">
-        <v>6.9156148927919E-038</v>
-      </c>
-      <c r="E19" s="43" t="n">
-        <v>0.216477102752999</v>
+      <c r="B19" s="44" t="n">
+        <v>0.000675801840840618</v>
+      </c>
+      <c r="C19" s="44" t="n">
+        <v>2.49238838945545E-010</v>
+      </c>
+      <c r="D19" s="44" t="n">
+        <v>1.50184609697506E-036</v>
+      </c>
+      <c r="E19" s="44" t="n">
+        <v>1.63614606587605E-007</v>
       </c>
       <c r="F19" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="43" t="n">
-        <v>5.98151218678731E-013</v>
-      </c>
-      <c r="H19" s="43" t="n">
-        <v>1.46978723958007E-020</v>
-      </c>
-      <c r="I19" s="43" t="n">
-        <v>3.47557018276505E-013</v>
-      </c>
-      <c r="J19" s="43" t="n">
-        <v>1.47568670030489E-020</v>
+      <c r="G19" s="44" t="n">
+        <v>5.00711136711025E-027</v>
+      </c>
+      <c r="H19" s="44" t="n">
+        <v>3.07014577124314E-040</v>
+      </c>
+      <c r="I19" s="44" t="n">
+        <v>1.50257009411195E-028</v>
+      </c>
+      <c r="J19" s="44" t="n">
+        <v>4.90669040394034E-038</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="43" t="n">
-        <v>1.18043158517604E-022</v>
-      </c>
-      <c r="C20" s="43" t="n">
-        <v>1.39146979587666E-031</v>
-      </c>
-      <c r="D20" s="43" t="n">
-        <v>3.65677054746204E-093</v>
-      </c>
-      <c r="E20" s="43" t="n">
-        <v>1.24165278499916E-016</v>
-      </c>
-      <c r="F20" s="43" t="n">
-        <v>5.98151218678731E-013</v>
+      <c r="B20" s="44" t="n">
+        <v>9.36602308018282E-044</v>
+      </c>
+      <c r="C20" s="44" t="n">
+        <v>1.2273033469118E-057</v>
+      </c>
+      <c r="D20" s="44" t="n">
+        <v>4.89118697426647E-119</v>
+      </c>
+      <c r="E20" s="44" t="n">
+        <v>3.05492666745932E-036</v>
+      </c>
+      <c r="F20" s="44" t="n">
+        <v>5.00711136711025E-027</v>
       </c>
       <c r="G20" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="43" t="n">
-        <v>0.0353709553672543</v>
-      </c>
-      <c r="I20" s="43" t="n">
-        <v>0.914142630099924</v>
-      </c>
-      <c r="J20" s="43" t="n">
-        <v>0.0336502646012091</v>
+      <c r="H20" s="44" t="n">
+        <v>2.33024034628679E-015</v>
+      </c>
+      <c r="I20" s="45" t="n">
+        <v>0.294111540408825</v>
+      </c>
+      <c r="J20" s="44" t="n">
+        <v>7.12550125144987E-018</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="43" t="n">
-        <v>9.60579473938845E-034</v>
-      </c>
-      <c r="C21" s="43" t="n">
-        <v>1.31533356408265E-044</v>
-      </c>
-      <c r="D21" s="43" t="n">
-        <v>1.34412058108108E-115</v>
-      </c>
-      <c r="E21" s="43" t="n">
-        <v>6.53990556435391E-025</v>
-      </c>
-      <c r="F21" s="43" t="n">
-        <v>1.46978723958007E-020</v>
-      </c>
-      <c r="G21" s="43" t="n">
-        <v>0.0353709553672543</v>
+      <c r="B21" s="44" t="n">
+        <v>7.49670320257962E-061</v>
+      </c>
+      <c r="C21" s="44" t="n">
+        <v>2.7996235786395E-076</v>
+      </c>
+      <c r="D21" s="44" t="n">
+        <v>2.6833524635436E-141</v>
+      </c>
+      <c r="E21" s="44" t="n">
+        <v>3.47870045492453E-049</v>
+      </c>
+      <c r="F21" s="44" t="n">
+        <v>3.07014577124314E-040</v>
+      </c>
+      <c r="G21" s="44" t="n">
+        <v>2.33024034628679E-015</v>
       </c>
       <c r="H21" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="43" t="n">
-        <v>0.0478025494223026</v>
-      </c>
-      <c r="J21" s="43" t="n">
-        <v>0.974932602406227</v>
+      <c r="I21" s="44" t="n">
+        <v>1.16454799322193E-014</v>
+      </c>
+      <c r="J21" s="45" t="n">
+        <v>0.814915424620923</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="43" t="n">
-        <v>5.99003926061061E-023</v>
-      </c>
-      <c r="C22" s="43" t="n">
-        <v>6.70472815605871E-032</v>
-      </c>
-      <c r="D22" s="43" t="n">
-        <v>1.80577109806434E-093</v>
-      </c>
-      <c r="E22" s="43" t="n">
-        <v>6.96113433443905E-017</v>
-      </c>
-      <c r="F22" s="43" t="n">
-        <v>3.47557018276505E-013</v>
-      </c>
-      <c r="G22" s="43" t="n">
-        <v>0.914142630099924</v>
-      </c>
-      <c r="H22" s="43" t="n">
-        <v>0.0478025494223026</v>
+      <c r="B22" s="44" t="n">
+        <v>9.7030303128131E-048</v>
+      </c>
+      <c r="C22" s="44" t="n">
+        <v>3.41568846637369E-062</v>
+      </c>
+      <c r="D22" s="44" t="n">
+        <v>2.75709204212942E-117</v>
+      </c>
+      <c r="E22" s="44" t="n">
+        <v>6.11455441871149E-038</v>
+      </c>
+      <c r="F22" s="44" t="n">
+        <v>1.50257009411195E-028</v>
+      </c>
+      <c r="G22" s="45" t="n">
+        <v>0.294111540408825</v>
+      </c>
+      <c r="H22" s="44" t="n">
+        <v>1.16454799322193E-014</v>
       </c>
       <c r="I22" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="43" t="n">
-        <v>0.0455330572680915</v>
+      <c r="J22" s="44" t="n">
+        <v>2.50769683804307E-012</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="43" t="n">
-        <v>1.0696537483824E-033</v>
-      </c>
-      <c r="C23" s="43" t="n">
-        <v>1.57420764119522E-044</v>
-      </c>
-      <c r="D23" s="43" t="n">
-        <v>2.6755955987647E-115</v>
-      </c>
-      <c r="E23" s="43" t="n">
-        <v>6.66431512707055E-025</v>
-      </c>
-      <c r="F23" s="43" t="n">
-        <v>1.47568670030489E-020</v>
-      </c>
-      <c r="G23" s="43" t="n">
-        <v>0.0336502646012091</v>
-      </c>
-      <c r="H23" s="43" t="n">
-        <v>0.974932602406227</v>
-      </c>
-      <c r="I23" s="43" t="n">
-        <v>0.0455330572680915</v>
+      <c r="B23" s="44" t="n">
+        <v>1.99635132806869E-056</v>
+      </c>
+      <c r="C23" s="44" t="n">
+        <v>2.51954361903932E-071</v>
+      </c>
+      <c r="D23" s="44" t="n">
+        <v>6.04327951652978E-143</v>
+      </c>
+      <c r="E23" s="44" t="n">
+        <v>6.00533067144299E-047</v>
+      </c>
+      <c r="F23" s="44" t="n">
+        <v>4.90669040394034E-038</v>
+      </c>
+      <c r="G23" s="44" t="n">
+        <v>7.12550125144987E-018</v>
+      </c>
+      <c r="H23" s="45" t="n">
+        <v>0.814915424620923</v>
+      </c>
+      <c r="I23" s="44" t="n">
+        <v>2.50769683804307E-012</v>
       </c>
       <c r="J23" s="43" t="n">
         <v>1</v>
